--- a/Gamming/卡牌分类.xlsx
+++ b/Gamming/卡牌分类.xlsx
@@ -12,14 +12,14 @@
     <sheet name="竞技场优先级" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">卡牌!$A$1:$V$926</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">卡牌!$A$1:$V$927</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299">
   <si>
     <t>发布时间</t>
   </si>
@@ -2736,6 +2736,9 @@
     <t>血法师萨尔诺斯</t>
   </si>
   <si>
+    <t>法术伤害;</t>
+  </si>
+  <si>
     <t>血帆袭击者</t>
   </si>
   <si>
@@ -2985,9 +2988,6 @@
     <t>庆典司仪</t>
   </si>
   <si>
-    <t>法术伤害;</t>
-  </si>
-  <si>
     <t>法强随从（战吼需求）</t>
   </si>
   <si>
@@ -3859,6 +3859,9 @@
   </si>
   <si>
     <t>搭配卡组（减费需求）,神圣愤怒;嘲讽增益</t>
+  </si>
+  <si>
+    <t>阿诺玛鲁斯</t>
   </si>
   <si>
     <t>技能评分</t>
@@ -3921,8 +3924,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -3980,6 +3983,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3992,13 +4020,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="19"/>
+      <color indexed="53"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -4010,8 +4039,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="19"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -4023,9 +4065,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color indexed="12"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -4046,47 +4088,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -4098,8 +4100,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="53"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -4203,19 +4206,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4227,13 +4224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4251,19 +4248,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="54"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="24"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4286,27 +4289,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="48"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color indexed="48"/>
       </bottom>
       <diagonal/>
@@ -4315,8 +4301,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4332,6 +4318,21 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4355,6 +4356,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="48"/>
+      </top>
+      <bottom style="double">
         <color indexed="48"/>
       </bottom>
       <diagonal/>
@@ -4374,15 +4386,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4391,10 +4394,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4403,133 +4406,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6106,18 +6109,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor indexed="22"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:V926"/>
+  <dimension ref="A1:V927"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="O397" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I746" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S406" sqref="S406"/>
+      <selection pane="bottomRight" activeCell="P752" sqref="P752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -6193,7 +6196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:21">
+    <row r="2" spans="1:21">
       <c r="A2" s="20">
         <v>41709</v>
       </c>
@@ -6230,7 +6233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:21">
+    <row r="3" spans="1:21">
       <c r="A3" s="20">
         <v>41709</v>
       </c>
@@ -6265,7 +6268,7 @@
       </c>
       <c r="U3" s="21"/>
     </row>
-    <row r="4" hidden="1" spans="1:22">
+    <row r="4" spans="1:22">
       <c r="A4" s="20">
         <v>42240</v>
       </c>
@@ -6312,7 +6315,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="20"/>
     </row>
-    <row r="5" hidden="1" spans="1:21">
+    <row r="5" spans="1:21">
       <c r="A5" s="20">
         <v>42487</v>
       </c>
@@ -6344,7 +6347,7 @@
       </c>
       <c r="U5"/>
     </row>
-    <row r="6" hidden="1" spans="1:21">
+    <row r="6" spans="1:21">
       <c r="A6" s="20">
         <v>42593</v>
       </c>
@@ -6373,7 +6376,7 @@
       </c>
       <c r="U6"/>
     </row>
-    <row r="7" hidden="1" spans="1:21">
+    <row r="7" spans="1:21">
       <c r="A7" s="20">
         <v>42320</v>
       </c>
@@ -6416,7 +6419,7 @@
       </c>
       <c r="U7" s="21"/>
     </row>
-    <row r="8" hidden="1" spans="1:21">
+    <row r="8" spans="1:21">
       <c r="A8" s="20">
         <v>41709</v>
       </c>
@@ -6456,7 +6459,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:21">
+    <row r="9" spans="1:21">
       <c r="A9" s="20">
         <v>41709</v>
       </c>
@@ -6496,7 +6499,7 @@
       </c>
       <c r="U9" s="21"/>
     </row>
-    <row r="10" hidden="1" spans="1:21">
+    <row r="10" spans="1:21">
       <c r="A10" s="20">
         <v>41709</v>
       </c>
@@ -6536,7 +6539,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:22">
+    <row r="11" spans="1:22">
       <c r="A11" s="20">
         <v>42240</v>
       </c>
@@ -6589,7 +6592,7 @@
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
     </row>
-    <row r="12" hidden="1" spans="1:21">
+    <row r="12" spans="1:21">
       <c r="A12" s="20">
         <v>41981</v>
       </c>
@@ -6635,7 +6638,7 @@
       </c>
       <c r="U12" s="21"/>
     </row>
-    <row r="13" hidden="1" spans="1:22">
+    <row r="13" spans="1:22">
       <c r="A13" s="20">
         <v>41709</v>
       </c>
@@ -6682,7 +6685,7 @@
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
     </row>
-    <row r="14" hidden="1" spans="1:21">
+    <row r="14" spans="1:21">
       <c r="A14" s="20">
         <v>42240</v>
       </c>
@@ -6720,7 +6723,7 @@
       </c>
       <c r="U14" s="21"/>
     </row>
-    <row r="15" hidden="1" spans="1:22">
+    <row r="15" spans="1:22">
       <c r="A15" s="20">
         <v>42487</v>
       </c>
@@ -6758,7 +6761,7 @@
       <c r="U15"/>
       <c r="V15" s="20"/>
     </row>
-    <row r="16" hidden="1" spans="1:21">
+    <row r="16" spans="1:21">
       <c r="A16" s="20">
         <v>41709</v>
       </c>
@@ -6800,7 +6803,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:21">
+    <row r="17" spans="1:21">
       <c r="A17" s="20">
         <v>41709</v>
       </c>
@@ -6841,7 +6844,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:21">
+    <row r="18" spans="1:21">
       <c r="A18" s="20">
         <v>41709</v>
       </c>
@@ -6883,7 +6886,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:21">
+    <row r="19" spans="1:21">
       <c r="A19" s="20">
         <v>41981</v>
       </c>
@@ -6917,7 +6920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:21">
+    <row r="20" spans="1:21">
       <c r="A20" s="20">
         <v>42240</v>
       </c>
@@ -6957,7 +6960,7 @@
       </c>
       <c r="U20" s="21"/>
     </row>
-    <row r="21" hidden="1" spans="1:21">
+    <row r="21" spans="1:21">
       <c r="A21" s="20">
         <v>42487</v>
       </c>
@@ -6983,7 +6986,7 @@
       </c>
       <c r="U21"/>
     </row>
-    <row r="22" hidden="1" spans="1:21">
+    <row r="22" spans="1:21">
       <c r="A22" s="20">
         <v>42096</v>
       </c>
@@ -7002,9 +7005,12 @@
       <c r="H22" s="22" t="s">
         <v>70</v>
       </c>
+      <c r="J22" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="O22" s="23" t="str">
         <f ca="1" t="shared" ref="O22:O24" si="2">PHONETIC(J22:N22)</f>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P22" s="21"/>
       <c r="Q22" s="19" t="s">
@@ -7019,7 +7025,7 @@
       <c r="T22" s="26"/>
       <c r="U22" s="21"/>
     </row>
-    <row r="23" hidden="1" spans="1:21">
+    <row r="23" spans="1:21">
       <c r="A23" s="20">
         <v>42320</v>
       </c>
@@ -7057,7 +7063,7 @@
       </c>
       <c r="U23" s="21"/>
     </row>
-    <row r="24" hidden="1" spans="1:21">
+    <row r="24" spans="1:21">
       <c r="A24" s="20">
         <v>41709</v>
       </c>
@@ -7097,7 +7103,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:21">
+    <row r="25" spans="1:21">
       <c r="A25" s="20">
         <v>42487</v>
       </c>
@@ -7134,7 +7140,7 @@
       </c>
       <c r="U25"/>
     </row>
-    <row r="26" hidden="1" spans="1:21">
+    <row r="26" spans="1:21">
       <c r="A26" s="20">
         <v>41709</v>
       </c>
@@ -7172,7 +7178,7 @@
       </c>
       <c r="U26" s="21"/>
     </row>
-    <row r="27" hidden="1" spans="1:21">
+    <row r="27" spans="1:21">
       <c r="A27" s="20">
         <v>41709</v>
       </c>
@@ -7212,7 +7218,7 @@
       </c>
       <c r="U27" s="21"/>
     </row>
-    <row r="28" hidden="1" spans="1:22">
+    <row r="28" spans="1:22">
       <c r="A28" s="20">
         <v>41709</v>
       </c>
@@ -7261,7 +7267,7 @@
       <c r="U28" s="20"/>
       <c r="V28" s="20"/>
     </row>
-    <row r="29" hidden="1" spans="1:22">
+    <row r="29" spans="1:22">
       <c r="A29" s="20">
         <v>42320</v>
       </c>
@@ -7310,7 +7316,7 @@
       <c r="U29" s="20"/>
       <c r="V29" s="20"/>
     </row>
-    <row r="30" hidden="1" spans="1:21">
+    <row r="30" spans="1:21">
       <c r="A30" s="20">
         <v>41709</v>
       </c>
@@ -7329,9 +7335,12 @@
       <c r="H30" s="22" t="s">
         <v>80</v>
       </c>
+      <c r="J30" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="O30" s="23" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P30" s="21"/>
       <c r="Q30" s="18" t="s">
@@ -7348,7 +7357,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:22">
+    <row r="31" spans="1:22">
       <c r="A31" s="20">
         <v>42487</v>
       </c>
@@ -7396,7 +7405,7 @@
       </c>
       <c r="V31" s="20"/>
     </row>
-    <row r="32" hidden="1" spans="1:22">
+    <row r="32" spans="1:22">
       <c r="A32" s="20">
         <v>41709</v>
       </c>
@@ -7447,7 +7456,7 @@
       </c>
       <c r="V32" s="20"/>
     </row>
-    <row r="33" hidden="1" spans="1:22">
+    <row r="33" spans="1:22">
       <c r="A33" s="20">
         <v>42240</v>
       </c>
@@ -7498,7 +7507,7 @@
       </c>
       <c r="V33" s="20"/>
     </row>
-    <row r="34" hidden="1" spans="1:21">
+    <row r="34" spans="1:21">
       <c r="A34" s="20">
         <v>41842</v>
       </c>
@@ -7538,7 +7547,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:22">
+    <row r="35" spans="1:22">
       <c r="A35" s="20">
         <v>42487</v>
       </c>
@@ -7588,7 +7597,7 @@
       </c>
       <c r="V35" s="20"/>
     </row>
-    <row r="36" hidden="1" spans="1:21">
+    <row r="36" spans="1:21">
       <c r="A36" s="20">
         <v>42240</v>
       </c>
@@ -7628,7 +7637,7 @@
       </c>
       <c r="U36" s="21"/>
     </row>
-    <row r="37" hidden="1" spans="1:22">
+    <row r="37" spans="1:22">
       <c r="A37" s="20">
         <v>42487</v>
       </c>
@@ -7674,7 +7683,7 @@
       <c r="U37"/>
       <c r="V37" s="20"/>
     </row>
-    <row r="38" hidden="1" spans="1:21">
+    <row r="38" spans="1:21">
       <c r="A38" s="20">
         <v>41709</v>
       </c>
@@ -7710,7 +7719,7 @@
       </c>
       <c r="U38" s="21"/>
     </row>
-    <row r="39" hidden="1" spans="1:21">
+    <row r="39" spans="1:21">
       <c r="A39" s="20">
         <v>42240</v>
       </c>
@@ -7750,7 +7759,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:22">
+    <row r="40" spans="1:22">
       <c r="A40" s="20">
         <v>41981</v>
       </c>
@@ -7803,7 +7812,7 @@
       </c>
       <c r="V40" s="20"/>
     </row>
-    <row r="41" hidden="1" spans="1:22">
+    <row r="41" spans="1:22">
       <c r="A41" s="20">
         <v>41709</v>
       </c>
@@ -7856,7 +7865,7 @@
       <c r="U41" s="20"/>
       <c r="V41" s="20"/>
     </row>
-    <row r="42" hidden="1" spans="1:22">
+    <row r="42" spans="1:22">
       <c r="A42" s="20">
         <v>41709</v>
       </c>
@@ -7901,7 +7910,7 @@
       </c>
       <c r="V42" s="20"/>
     </row>
-    <row r="43" hidden="1" spans="1:22">
+    <row r="43" spans="1:22">
       <c r="A43" s="20">
         <v>41709</v>
       </c>
@@ -7948,7 +7957,7 @@
       <c r="U43" s="20"/>
       <c r="V43" s="20"/>
     </row>
-    <row r="44" hidden="1" spans="1:22">
+    <row r="44" spans="1:22">
       <c r="A44" s="20">
         <v>41709</v>
       </c>
@@ -7993,7 +8002,7 @@
       <c r="U44" s="20"/>
       <c r="V44" s="20"/>
     </row>
-    <row r="45" hidden="1" customHeight="1" spans="1:22">
+    <row r="45" customHeight="1" spans="1:22">
       <c r="A45" s="20">
         <v>41981</v>
       </c>
@@ -8042,7 +8051,7 @@
       <c r="U45" s="21"/>
       <c r="V45" s="20"/>
     </row>
-    <row r="46" hidden="1" spans="1:21">
+    <row r="46" spans="1:21">
       <c r="A46" s="20">
         <v>42487</v>
       </c>
@@ -8090,7 +8099,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:22">
+    <row r="47" spans="1:22">
       <c r="A47" s="20">
         <v>41981</v>
       </c>
@@ -8137,7 +8146,7 @@
       <c r="U47" s="21"/>
       <c r="V47" s="20"/>
     </row>
-    <row r="48" hidden="1" spans="1:21">
+    <row r="48" spans="1:21">
       <c r="A48" s="20">
         <v>41981</v>
       </c>
@@ -8177,7 +8186,7 @@
       </c>
       <c r="U48" s="21"/>
     </row>
-    <row r="49" hidden="1" spans="1:21">
+    <row r="49" spans="1:21">
       <c r="A49" s="20">
         <v>41709</v>
       </c>
@@ -8215,7 +8224,7 @@
       </c>
       <c r="U49" s="21"/>
     </row>
-    <row r="50" hidden="1" spans="1:21">
+    <row r="50" spans="1:21">
       <c r="A50" s="20">
         <v>42593</v>
       </c>
@@ -8247,7 +8256,7 @@
       </c>
       <c r="U50"/>
     </row>
-    <row r="51" hidden="1" spans="1:21">
+    <row r="51" spans="1:21">
       <c r="A51" s="20">
         <v>42593</v>
       </c>
@@ -8287,7 +8296,7 @@
       </c>
       <c r="U51"/>
     </row>
-    <row r="52" hidden="1" spans="1:22">
+    <row r="52" spans="1:22">
       <c r="A52" s="20">
         <v>42240</v>
       </c>
@@ -8338,7 +8347,7 @@
       </c>
       <c r="V52" s="20"/>
     </row>
-    <row r="53" hidden="1" spans="1:21">
+    <row r="53" spans="1:21">
       <c r="A53" s="20">
         <v>41981</v>
       </c>
@@ -8357,9 +8366,12 @@
       <c r="H53" s="22" t="s">
         <v>117</v>
       </c>
+      <c r="J53" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="O53" s="23" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P53" s="21"/>
       <c r="Q53" s="19" t="s">
@@ -8374,7 +8386,7 @@
       </c>
       <c r="U53" s="21"/>
     </row>
-    <row r="54" hidden="1" spans="1:21">
+    <row r="54" spans="1:21">
       <c r="A54" s="20">
         <v>42487</v>
       </c>
@@ -8403,7 +8415,7 @@
       </c>
       <c r="U54"/>
     </row>
-    <row r="55" hidden="1" spans="1:22">
+    <row r="55" spans="1:22">
       <c r="A55" s="20">
         <v>41709</v>
       </c>
@@ -8456,7 +8468,7 @@
       <c r="U55" s="20"/>
       <c r="V55" s="20"/>
     </row>
-    <row r="56" hidden="1" spans="1:22">
+    <row r="56" spans="1:22">
       <c r="A56" s="20">
         <v>41709</v>
       </c>
@@ -8505,7 +8517,7 @@
       <c r="U56" s="20"/>
       <c r="V56" s="20"/>
     </row>
-    <row r="57" hidden="1" spans="1:21">
+    <row r="57" spans="1:21">
       <c r="A57" s="20">
         <v>41709</v>
       </c>
@@ -8546,7 +8558,7 @@
       </c>
       <c r="U57" s="21"/>
     </row>
-    <row r="58" hidden="1" spans="1:21">
+    <row r="58" spans="1:21">
       <c r="A58" s="20">
         <v>42240</v>
       </c>
@@ -8586,7 +8598,7 @@
       </c>
       <c r="U58" s="21"/>
     </row>
-    <row r="59" hidden="1" spans="1:21">
+    <row r="59" spans="1:21">
       <c r="A59" s="20">
         <v>42096</v>
       </c>
@@ -8631,7 +8643,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:22">
+    <row r="60" spans="1:22">
       <c r="A60" s="20">
         <v>41709</v>
       </c>
@@ -8684,7 +8696,7 @@
       <c r="U60" s="20"/>
       <c r="V60" s="20"/>
     </row>
-    <row r="61" hidden="1" spans="1:22">
+    <row r="61" spans="1:22">
       <c r="A61" s="20">
         <v>41981</v>
       </c>
@@ -8729,7 +8741,7 @@
       </c>
       <c r="V61" s="20"/>
     </row>
-    <row r="62" hidden="1" spans="1:21">
+    <row r="62" spans="1:21">
       <c r="A62" s="20">
         <v>42487</v>
       </c>
@@ -8758,7 +8770,7 @@
       <c r="T62" s="21"/>
       <c r="U62"/>
     </row>
-    <row r="63" hidden="1" spans="1:21">
+    <row r="63" spans="1:21">
       <c r="A63" s="20">
         <v>42240</v>
       </c>
@@ -8800,7 +8812,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:21">
+    <row r="64" spans="1:21">
       <c r="A64" s="20">
         <v>41709</v>
       </c>
@@ -8840,7 +8852,7 @@
       </c>
       <c r="U64" s="21"/>
     </row>
-    <row r="65" hidden="1" spans="1:21">
+    <row r="65" spans="1:21">
       <c r="A65" s="20">
         <v>41709</v>
       </c>
@@ -8882,7 +8894,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:21">
+    <row r="66" spans="1:21">
       <c r="A66" s="20">
         <v>41709</v>
       </c>
@@ -8924,7 +8936,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:21">
+    <row r="67" spans="1:21">
       <c r="A67" s="20">
         <v>41709</v>
       </c>
@@ -8966,7 +8978,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:21">
+    <row r="68" spans="1:21">
       <c r="A68" s="20">
         <v>42593</v>
       </c>
@@ -9006,7 +9018,7 @@
       </c>
       <c r="U68"/>
     </row>
-    <row r="69" hidden="1" spans="1:21">
+    <row r="69" spans="1:21">
       <c r="A69" s="20">
         <v>42487</v>
       </c>
@@ -9043,7 +9055,7 @@
       </c>
       <c r="U69"/>
     </row>
-    <row r="70" hidden="1" spans="1:21">
+    <row r="70" spans="1:21">
       <c r="A70" s="20">
         <v>41981</v>
       </c>
@@ -9083,7 +9095,7 @@
       </c>
       <c r="U70" s="21"/>
     </row>
-    <row r="71" hidden="1" spans="1:22">
+    <row r="71" spans="1:22">
       <c r="A71" s="20">
         <v>41709</v>
       </c>
@@ -9132,7 +9144,7 @@
       <c r="U71" s="21"/>
       <c r="V71" s="20"/>
     </row>
-    <row r="72" hidden="1" spans="1:21">
+    <row r="72" spans="1:21">
       <c r="A72" s="20">
         <v>41981</v>
       </c>
@@ -9171,7 +9183,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:21">
+    <row r="73" spans="1:21">
       <c r="A73" s="20">
         <v>42593</v>
       </c>
@@ -9213,7 +9225,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:21">
+    <row r="74" spans="1:21">
       <c r="A74" s="20">
         <v>41709</v>
       </c>
@@ -9246,7 +9258,7 @@
       </c>
       <c r="U74" s="21"/>
     </row>
-    <row r="75" hidden="1" spans="1:22">
+    <row r="75" spans="1:22">
       <c r="A75" s="20">
         <v>41981</v>
       </c>
@@ -9289,7 +9301,7 @@
       <c r="U75" s="20"/>
       <c r="V75" s="20"/>
     </row>
-    <row r="76" hidden="1" spans="1:21">
+    <row r="76" spans="1:21">
       <c r="A76" s="20">
         <v>41709</v>
       </c>
@@ -9329,7 +9341,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:21">
+    <row r="77" spans="1:21">
       <c r="A77" s="20">
         <v>42487</v>
       </c>
@@ -9358,7 +9370,7 @@
       </c>
       <c r="U77"/>
     </row>
-    <row r="78" hidden="1" spans="1:21">
+    <row r="78" spans="1:21">
       <c r="A78" s="20">
         <v>42240</v>
       </c>
@@ -9398,7 +9410,7 @@
       </c>
       <c r="U78" s="21"/>
     </row>
-    <row r="79" hidden="1" spans="1:21">
+    <row r="79" spans="1:21">
       <c r="A79" s="20">
         <v>41709</v>
       </c>
@@ -9435,7 +9447,7 @@
       </c>
       <c r="U79" s="21"/>
     </row>
-    <row r="80" hidden="1" spans="1:21">
+    <row r="80" spans="1:21">
       <c r="A80" s="20">
         <v>42240</v>
       </c>
@@ -9475,7 +9487,7 @@
       </c>
       <c r="U80" s="21"/>
     </row>
-    <row r="81" hidden="1" spans="1:21">
+    <row r="81" spans="1:21">
       <c r="A81" s="20">
         <v>41709</v>
       </c>
@@ -9517,7 +9529,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:22">
+    <row r="82" spans="1:22">
       <c r="A82" s="20">
         <v>41709</v>
       </c>
@@ -9562,7 +9574,7 @@
       <c r="U82" s="20"/>
       <c r="V82" s="20"/>
     </row>
-    <row r="83" hidden="1" customHeight="1" spans="1:21">
+    <row r="83" customHeight="1" spans="1:21">
       <c r="A83" s="20">
         <v>41842</v>
       </c>
@@ -9597,7 +9609,7 @@
       </c>
       <c r="U83" s="21"/>
     </row>
-    <row r="84" hidden="1" spans="1:22">
+    <row r="84" spans="1:22">
       <c r="A84" s="20">
         <v>41709</v>
       </c>
@@ -9644,7 +9656,7 @@
       <c r="U84" s="20"/>
       <c r="V84" s="20"/>
     </row>
-    <row r="85" hidden="1" spans="1:22">
+    <row r="85" spans="1:22">
       <c r="A85" s="20">
         <v>41709</v>
       </c>
@@ -9693,7 +9705,7 @@
       <c r="U85" s="21"/>
       <c r="V85" s="20"/>
     </row>
-    <row r="86" hidden="1" spans="1:21">
+    <row r="86" spans="1:21">
       <c r="A86" s="20">
         <v>42096</v>
       </c>
@@ -9735,7 +9747,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:21">
+    <row r="87" spans="1:21">
       <c r="A87" s="20">
         <v>41709</v>
       </c>
@@ -9775,7 +9787,7 @@
       </c>
       <c r="U87" s="21"/>
     </row>
-    <row r="88" hidden="1" spans="1:21">
+    <row r="88" spans="1:21">
       <c r="A88" s="20">
         <v>41709</v>
       </c>
@@ -9823,7 +9835,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:21">
+    <row r="89" spans="1:21">
       <c r="A89" s="20">
         <v>42320</v>
       </c>
@@ -9861,7 +9873,7 @@
       </c>
       <c r="U89" s="21"/>
     </row>
-    <row r="90" hidden="1" spans="1:21">
+    <row r="90" spans="1:21">
       <c r="A90" s="20">
         <v>42240</v>
       </c>
@@ -9898,7 +9910,7 @@
       </c>
       <c r="U90" s="21"/>
     </row>
-    <row r="91" hidden="1" spans="1:21">
+    <row r="91" spans="1:21">
       <c r="A91" s="20">
         <v>41981</v>
       </c>
@@ -9938,7 +9950,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:21">
+    <row r="92" spans="1:21">
       <c r="A92" s="20">
         <v>42487</v>
       </c>
@@ -9973,7 +9985,7 @@
       <c r="T92" s="21"/>
       <c r="U92"/>
     </row>
-    <row r="93" hidden="1" spans="1:21">
+    <row r="93" spans="1:21">
       <c r="A93" s="20">
         <v>41709</v>
       </c>
@@ -10013,7 +10025,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:22">
+    <row r="94" spans="1:22">
       <c r="A94" s="20">
         <v>42240</v>
       </c>
@@ -10064,7 +10076,7 @@
       </c>
       <c r="V94" s="20"/>
     </row>
-    <row r="95" hidden="1" spans="1:21">
+    <row r="95" spans="1:21">
       <c r="A95" s="20">
         <v>41709</v>
       </c>
@@ -10099,7 +10111,7 @@
       </c>
       <c r="U95" s="21"/>
     </row>
-    <row r="96" hidden="1" spans="1:21">
+    <row r="96" spans="1:21">
       <c r="A96" s="20">
         <v>41709</v>
       </c>
@@ -10139,7 +10151,7 @@
       </c>
       <c r="U96" s="21"/>
     </row>
-    <row r="97" hidden="1" spans="1:21">
+    <row r="97" spans="1:21">
       <c r="A97" s="20">
         <v>41709</v>
       </c>
@@ -10179,7 +10191,7 @@
       </c>
       <c r="U97" s="21"/>
     </row>
-    <row r="98" hidden="1" spans="1:21">
+    <row r="98" spans="1:21">
       <c r="A98" s="20">
         <v>42240</v>
       </c>
@@ -10221,7 +10233,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:21">
+    <row r="99" spans="1:21">
       <c r="A99" s="20">
         <v>41981</v>
       </c>
@@ -10266,7 +10278,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:21">
+    <row r="100" spans="1:21">
       <c r="A100" s="20">
         <v>42487</v>
       </c>
@@ -10303,7 +10315,7 @@
       </c>
       <c r="U100"/>
     </row>
-    <row r="101" hidden="1" spans="1:22">
+    <row r="101" spans="1:22">
       <c r="A101" s="20">
         <v>42320</v>
       </c>
@@ -10352,7 +10364,7 @@
       <c r="U101" s="20"/>
       <c r="V101" s="20"/>
     </row>
-    <row r="102" hidden="1" spans="1:21">
+    <row r="102" spans="1:21">
       <c r="A102" s="20">
         <v>41709</v>
       </c>
@@ -10392,7 +10404,7 @@
       </c>
       <c r="U102" s="21"/>
     </row>
-    <row r="103" hidden="1" spans="1:21">
+    <row r="103" spans="1:21">
       <c r="A103" s="20">
         <v>41981</v>
       </c>
@@ -10431,7 +10443,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:21">
+    <row r="104" spans="1:21">
       <c r="A104" s="20">
         <v>41709</v>
       </c>
@@ -10471,7 +10483,7 @@
       </c>
       <c r="U104" s="21"/>
     </row>
-    <row r="105" hidden="1" spans="1:21">
+    <row r="105" spans="1:21">
       <c r="A105" s="20">
         <v>41981</v>
       </c>
@@ -10511,7 +10523,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="1:22">
+    <row r="106" spans="1:22">
       <c r="A106" s="20">
         <v>41709</v>
       </c>
@@ -10562,7 +10574,7 @@
       </c>
       <c r="V106" s="20"/>
     </row>
-    <row r="107" hidden="1" spans="1:22">
+    <row r="107" spans="1:22">
       <c r="A107" s="20">
         <v>42096</v>
       </c>
@@ -10611,7 +10623,7 @@
       <c r="U107" s="20"/>
       <c r="V107" s="20"/>
     </row>
-    <row r="108" hidden="1" spans="1:22">
+    <row r="108" spans="1:22">
       <c r="A108" s="20">
         <v>42487</v>
       </c>
@@ -10657,7 +10669,7 @@
       <c r="U108"/>
       <c r="V108" s="20"/>
     </row>
-    <row r="109" hidden="1" spans="1:22">
+    <row r="109" spans="1:22">
       <c r="A109" s="20">
         <v>42320</v>
       </c>
@@ -10708,7 +10720,7 @@
       <c r="U109" s="20"/>
       <c r="V109" s="20"/>
     </row>
-    <row r="110" hidden="1" spans="1:22">
+    <row r="110" spans="1:22">
       <c r="A110" s="20">
         <v>42240</v>
       </c>
@@ -10755,7 +10767,7 @@
       <c r="U110" s="20"/>
       <c r="V110" s="20"/>
     </row>
-    <row r="111" hidden="1" spans="1:22">
+    <row r="111" spans="1:22">
       <c r="A111" s="20">
         <v>42487</v>
       </c>
@@ -10805,7 +10817,7 @@
       </c>
       <c r="V111" s="20"/>
     </row>
-    <row r="112" hidden="1" spans="1:21">
+    <row r="112" spans="1:21">
       <c r="A112" s="20">
         <v>41709</v>
       </c>
@@ -10842,7 +10854,7 @@
       </c>
       <c r="U112" s="21"/>
     </row>
-    <row r="113" hidden="1" spans="1:21">
+    <row r="113" spans="1:21">
       <c r="A113" s="20">
         <v>42240</v>
       </c>
@@ -10884,7 +10896,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:21">
+    <row r="114" spans="1:21">
       <c r="A114" s="20">
         <v>42487</v>
       </c>
@@ -10924,7 +10936,7 @@
       </c>
       <c r="U114"/>
     </row>
-    <row r="115" hidden="1" spans="1:21">
+    <row r="115" spans="1:21">
       <c r="A115" s="20">
         <v>41709</v>
       </c>
@@ -10966,7 +10978,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="1:21">
+    <row r="116" spans="1:21">
       <c r="A116" s="20">
         <v>42593</v>
       </c>
@@ -11003,7 +11015,7 @@
       </c>
       <c r="U116"/>
     </row>
-    <row r="117" hidden="1" spans="1:21">
+    <row r="117" spans="1:21">
       <c r="A117" s="20">
         <v>41709</v>
       </c>
@@ -11040,7 +11052,7 @@
       </c>
       <c r="U117" s="21"/>
     </row>
-    <row r="118" hidden="1" spans="1:21">
+    <row r="118" spans="1:21">
       <c r="A118" s="20">
         <v>41981</v>
       </c>
@@ -11080,7 +11092,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:21">
+    <row r="119" spans="1:21">
       <c r="A119" s="20">
         <v>42240</v>
       </c>
@@ -11099,9 +11111,12 @@
       <c r="H119" s="22" t="s">
         <v>212</v>
       </c>
+      <c r="J119" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="O119" s="23" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P119" s="19" t="s">
         <v>72</v>
@@ -11120,7 +11135,7 @@
       </c>
       <c r="U119" s="21"/>
     </row>
-    <row r="120" hidden="1" spans="1:21">
+    <row r="120" spans="1:21">
       <c r="A120" s="20">
         <v>41709</v>
       </c>
@@ -11156,7 +11171,7 @@
       </c>
       <c r="U120" s="21"/>
     </row>
-    <row r="121" hidden="1" spans="1:21">
+    <row r="121" spans="1:21">
       <c r="A121" s="20">
         <v>41709</v>
       </c>
@@ -11190,7 +11205,7 @@
       <c r="T121" s="33"/>
       <c r="U121" s="30"/>
     </row>
-    <row r="122" hidden="1" spans="1:21">
+    <row r="122" spans="1:21">
       <c r="A122" s="20">
         <v>42487</v>
       </c>
@@ -11208,13 +11223,16 @@
       </c>
       <c r="H122" s="22" t="s">
         <v>216</v>
+      </c>
+      <c r="J122" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="O122" s="24"/>
       <c r="Q122" s="25"/>
       <c r="T122" s="21"/>
       <c r="U122"/>
     </row>
-    <row r="123" hidden="1" spans="1:21">
+    <row r="123" spans="1:21">
       <c r="A123" s="20">
         <v>41842</v>
       </c>
@@ -11233,9 +11251,12 @@
       <c r="H123" s="22" t="s">
         <v>217</v>
       </c>
+      <c r="J123" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="O123" s="23" t="str">
         <f ca="1" t="shared" ref="O123:O127" si="14">PHONETIC(J123:N123)</f>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P123" s="19" t="s">
         <v>72</v>
@@ -11250,7 +11271,7 @@
       <c r="T123" s="33"/>
       <c r="U123" s="30"/>
     </row>
-    <row r="124" hidden="1" customHeight="1" spans="1:21">
+    <row r="124" customHeight="1" spans="1:21">
       <c r="A124" s="20">
         <v>41709</v>
       </c>
@@ -11286,7 +11307,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="125" hidden="1" customHeight="1" spans="1:21">
+    <row r="125" customHeight="1" spans="1:21">
       <c r="A125" s="20">
         <v>41709</v>
       </c>
@@ -11322,7 +11343,7 @@
       <c r="T125" s="33"/>
       <c r="U125" s="30"/>
     </row>
-    <row r="126" hidden="1" spans="1:22">
+    <row r="126" spans="1:22">
       <c r="A126" s="20">
         <v>41709</v>
       </c>
@@ -11367,7 +11388,7 @@
       </c>
       <c r="V126" s="20"/>
     </row>
-    <row r="127" hidden="1" spans="1:22">
+    <row r="127" spans="1:22">
       <c r="A127" s="20">
         <v>42240</v>
       </c>
@@ -11410,7 +11431,7 @@
       <c r="U127" s="30"/>
       <c r="V127" s="20"/>
     </row>
-    <row r="128" hidden="1" spans="1:21">
+    <row r="128" spans="1:21">
       <c r="A128" s="20">
         <v>42487</v>
       </c>
@@ -11434,7 +11455,7 @@
       <c r="T128" s="21"/>
       <c r="U128"/>
     </row>
-    <row r="129" hidden="1" spans="1:21">
+    <row r="129" spans="1:21">
       <c r="A129" s="20">
         <v>41709</v>
       </c>
@@ -11472,7 +11493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:21">
+    <row r="130" spans="1:21">
       <c r="A130" s="20">
         <v>42593</v>
       </c>
@@ -11493,7 +11514,7 @@
       </c>
       <c r="U130" s="21"/>
     </row>
-    <row r="131" hidden="1" spans="1:21">
+    <row r="131" spans="1:21">
       <c r="A131" s="20">
         <v>41709</v>
       </c>
@@ -11529,7 +11550,7 @@
       <c r="T131" s="29"/>
       <c r="U131" s="30"/>
     </row>
-    <row r="132" hidden="1" spans="1:21">
+    <row r="132" spans="1:21">
       <c r="A132" s="20">
         <v>41709</v>
       </c>
@@ -11563,7 +11584,7 @@
       <c r="T132" s="39"/>
       <c r="U132" s="30"/>
     </row>
-    <row r="133" hidden="1" spans="1:22">
+    <row r="133" spans="1:22">
       <c r="A133" s="20">
         <v>42240</v>
       </c>
@@ -11608,7 +11629,7 @@
       <c r="U133" s="30"/>
       <c r="V133" s="20"/>
     </row>
-    <row r="134" hidden="1" spans="1:22">
+    <row r="134" spans="1:22">
       <c r="A134" s="20">
         <v>42593</v>
       </c>
@@ -11630,7 +11651,9 @@
         <v>230</v>
       </c>
       <c r="I134" s="20"/>
-      <c r="J134" s="20"/>
+      <c r="J134" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="K134" s="20"/>
       <c r="L134" s="20"/>
       <c r="M134" s="20"/>
@@ -11644,7 +11667,7 @@
       <c r="U134"/>
       <c r="V134" s="20"/>
     </row>
-    <row r="135" hidden="1" spans="1:21">
+    <row r="135" spans="1:21">
       <c r="A135" s="20">
         <v>42320</v>
       </c>
@@ -11680,7 +11703,7 @@
       <c r="T135" s="33"/>
       <c r="U135" s="30"/>
     </row>
-    <row r="136" hidden="1" spans="1:21">
+    <row r="136" spans="1:21">
       <c r="A136" s="20">
         <v>41709</v>
       </c>
@@ -11716,7 +11739,7 @@
       <c r="T136" s="33"/>
       <c r="U136" s="30"/>
     </row>
-    <row r="137" hidden="1" spans="1:22">
+    <row r="137" spans="1:22">
       <c r="A137" s="20">
         <v>42240</v>
       </c>
@@ -11769,7 +11792,7 @@
       </c>
       <c r="V137" s="20"/>
     </row>
-    <row r="138" hidden="1" spans="1:21">
+    <row r="138" spans="1:21">
       <c r="A138" s="20">
         <v>41981</v>
       </c>
@@ -11788,9 +11811,12 @@
       <c r="H138" s="22" t="s">
         <v>235</v>
       </c>
+      <c r="J138" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="O138" s="23" t="str">
         <f ca="1" t="shared" si="16"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P138" s="18" t="s">
         <v>21</v>
@@ -11807,7 +11833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:21">
+    <row r="139" spans="1:21">
       <c r="A139" s="20">
         <v>41709</v>
       </c>
@@ -11843,7 +11869,7 @@
       <c r="T139" s="33"/>
       <c r="U139" s="30"/>
     </row>
-    <row r="140" hidden="1" spans="1:21">
+    <row r="140" spans="1:21">
       <c r="A140" s="20">
         <v>42096</v>
       </c>
@@ -11879,7 +11905,7 @@
       <c r="T140" s="29"/>
       <c r="U140" s="30"/>
     </row>
-    <row r="141" hidden="1" spans="1:21">
+    <row r="141" spans="1:21">
       <c r="A141" s="20">
         <v>41981</v>
       </c>
@@ -11915,7 +11941,7 @@
       <c r="T141" s="29"/>
       <c r="U141" s="30"/>
     </row>
-    <row r="142" hidden="1" spans="1:22">
+    <row r="142" spans="1:22">
       <c r="A142" s="20">
         <v>41709</v>
       </c>
@@ -11962,7 +11988,7 @@
       </c>
       <c r="V142" s="20"/>
     </row>
-    <row r="143" hidden="1" spans="1:22">
+    <row r="143" spans="1:22">
       <c r="A143" s="20">
         <v>42320</v>
       </c>
@@ -11984,14 +12010,16 @@
         <v>241</v>
       </c>
       <c r="I143" s="20"/>
-      <c r="J143" s="20"/>
+      <c r="J143" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="K143" s="20"/>
       <c r="L143" s="20"/>
       <c r="M143" s="20"/>
       <c r="N143" s="20"/>
       <c r="O143" s="23" t="str">
         <f ca="1" t="shared" si="16"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P143" s="19" t="s">
         <v>72</v>
@@ -12005,7 +12033,7 @@
       <c r="U143" s="30"/>
       <c r="V143" s="20"/>
     </row>
-    <row r="144" customFormat="1" hidden="1" spans="1:22">
+    <row r="144" customFormat="1" spans="1:22">
       <c r="A144" s="20">
         <v>41709</v>
       </c>
@@ -12050,7 +12078,7 @@
       <c r="U144" s="30"/>
       <c r="V144" s="20"/>
     </row>
-    <row r="145" customFormat="1" hidden="1" spans="1:22">
+    <row r="145" customFormat="1" spans="1:22">
       <c r="A145" s="20">
         <v>41981</v>
       </c>
@@ -12097,7 +12125,7 @@
       </c>
       <c r="V145" s="20"/>
     </row>
-    <row r="146" hidden="1" spans="1:21">
+    <row r="146" spans="1:21">
       <c r="A146" s="20">
         <v>41709</v>
       </c>
@@ -12133,7 +12161,7 @@
       <c r="T146" s="33"/>
       <c r="U146" s="30"/>
     </row>
-    <row r="147" hidden="1" spans="1:21">
+    <row r="147" spans="1:21">
       <c r="A147" s="20">
         <v>41981</v>
       </c>
@@ -12172,7 +12200,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:22">
+    <row r="148" spans="1:22">
       <c r="A148" s="20">
         <v>42240</v>
       </c>
@@ -12217,7 +12245,7 @@
       <c r="U148" s="30"/>
       <c r="V148" s="20"/>
     </row>
-    <row r="149" hidden="1" spans="1:21">
+    <row r="149" spans="1:21">
       <c r="A149" s="20">
         <v>42320</v>
       </c>
@@ -12258,7 +12286,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:21">
+    <row r="150" spans="1:21">
       <c r="A150" s="20">
         <v>41709</v>
       </c>
@@ -12294,7 +12322,7 @@
       <c r="T150" s="29"/>
       <c r="U150" s="30"/>
     </row>
-    <row r="151" hidden="1" spans="1:21">
+    <row r="151" spans="1:21">
       <c r="A151" s="20">
         <v>42487</v>
       </c>
@@ -12318,7 +12346,7 @@
       <c r="T151" s="21"/>
       <c r="U151"/>
     </row>
-    <row r="152" hidden="1" spans="1:21">
+    <row r="152" spans="1:21">
       <c r="A152" s="20">
         <v>41709</v>
       </c>
@@ -12354,7 +12382,7 @@
       <c r="T152" s="29"/>
       <c r="U152" s="30"/>
     </row>
-    <row r="153" hidden="1" spans="1:21">
+    <row r="153" spans="1:21">
       <c r="A153" s="20">
         <v>42487</v>
       </c>
@@ -12372,13 +12400,16 @@
       </c>
       <c r="H153" s="22" t="s">
         <v>253</v>
+      </c>
+      <c r="J153" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="O153" s="24"/>
       <c r="Q153" s="25"/>
       <c r="T153" s="21"/>
       <c r="U153"/>
     </row>
-    <row r="154" hidden="1" spans="1:22">
+    <row r="154" spans="1:22">
       <c r="A154" s="20">
         <v>41709</v>
       </c>
@@ -12425,7 +12456,7 @@
       </c>
       <c r="V154" s="20"/>
     </row>
-    <row r="155" hidden="1" spans="1:21">
+    <row r="155" spans="1:21">
       <c r="A155" s="20">
         <v>41981</v>
       </c>
@@ -12466,7 +12497,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:21">
+    <row r="156" spans="1:21">
       <c r="A156" s="20">
         <v>42240</v>
       </c>
@@ -12498,7 +12529,7 @@
       <c r="T156" s="40"/>
       <c r="U156" s="30"/>
     </row>
-    <row r="157" hidden="1" spans="1:21">
+    <row r="157" spans="1:21">
       <c r="A157" s="20">
         <v>42487</v>
       </c>
@@ -12528,7 +12559,7 @@
       <c r="T157" s="21"/>
       <c r="U157"/>
     </row>
-    <row r="158" hidden="1" spans="1:21">
+    <row r="158" spans="1:21">
       <c r="A158" s="20">
         <v>42240</v>
       </c>
@@ -12562,7 +12593,7 @@
       <c r="T158" s="40"/>
       <c r="U158" s="30"/>
     </row>
-    <row r="159" hidden="1" spans="1:22">
+    <row r="159" spans="1:22">
       <c r="A159" s="20">
         <v>41709</v>
       </c>
@@ -12609,7 +12640,7 @@
       </c>
       <c r="V159" s="20"/>
     </row>
-    <row r="160" hidden="1" spans="1:22">
+    <row r="160" spans="1:22">
       <c r="A160" s="20">
         <v>42593</v>
       </c>
@@ -12645,7 +12676,7 @@
       <c r="U160" s="20"/>
       <c r="V160" s="20"/>
     </row>
-    <row r="161" hidden="1" spans="1:21">
+    <row r="161" spans="1:21">
       <c r="A161" s="20">
         <v>42240</v>
       </c>
@@ -12687,7 +12718,7 @@
       </c>
       <c r="U161" s="30"/>
     </row>
-    <row r="162" hidden="1" spans="1:21">
+    <row r="162" spans="1:21">
       <c r="A162" s="20">
         <v>41709</v>
       </c>
@@ -12723,7 +12754,7 @@
       <c r="T162" s="32"/>
       <c r="U162" s="30"/>
     </row>
-    <row r="163" hidden="1" spans="1:22">
+    <row r="163" spans="1:22">
       <c r="A163" s="20">
         <v>41709</v>
       </c>
@@ -12766,7 +12797,7 @@
       <c r="U163" s="30"/>
       <c r="V163" s="20"/>
     </row>
-    <row r="164" hidden="1" spans="1:22">
+    <row r="164" spans="1:22">
       <c r="A164" s="20">
         <v>42487</v>
       </c>
@@ -12788,7 +12819,9 @@
         <v>267</v>
       </c>
       <c r="I164" s="20"/>
-      <c r="J164" s="20"/>
+      <c r="J164" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="K164" s="20"/>
       <c r="L164" s="20"/>
       <c r="M164" s="20"/>
@@ -12802,7 +12835,7 @@
       <c r="U164"/>
       <c r="V164" s="20"/>
     </row>
-    <row r="165" hidden="1" spans="1:22">
+    <row r="165" spans="1:22">
       <c r="A165" s="20">
         <v>42096</v>
       </c>
@@ -12855,7 +12888,7 @@
       </c>
       <c r="V165" s="20"/>
     </row>
-    <row r="166" hidden="1" spans="1:22">
+    <row r="166" spans="1:22">
       <c r="A166" s="20">
         <v>41709</v>
       </c>
@@ -12908,7 +12941,7 @@
       </c>
       <c r="V166" s="20"/>
     </row>
-    <row r="167" hidden="1" spans="1:22">
+    <row r="167" spans="1:22">
       <c r="A167" s="20">
         <v>41981</v>
       </c>
@@ -12959,7 +12992,7 @@
       </c>
       <c r="V167" s="20"/>
     </row>
-    <row r="168" hidden="1" spans="1:22">
+    <row r="168" spans="1:22">
       <c r="A168" s="20">
         <v>42240</v>
       </c>
@@ -13006,7 +13039,7 @@
       <c r="U168" s="30"/>
       <c r="V168" s="20"/>
     </row>
-    <row r="169" hidden="1" spans="1:22">
+    <row r="169" spans="1:22">
       <c r="A169" s="20">
         <v>41709</v>
       </c>
@@ -13049,7 +13082,7 @@
       <c r="U169" s="30"/>
       <c r="V169" s="20"/>
     </row>
-    <row r="170" hidden="1" spans="1:22">
+    <row r="170" spans="1:22">
       <c r="A170" s="20">
         <v>42487</v>
       </c>
@@ -13089,7 +13122,7 @@
       <c r="U170"/>
       <c r="V170" s="20"/>
     </row>
-    <row r="171" hidden="1" spans="1:22">
+    <row r="171" spans="1:22">
       <c r="A171" s="20">
         <v>41709</v>
       </c>
@@ -13132,7 +13165,7 @@
       </c>
       <c r="V171" s="20"/>
     </row>
-    <row r="172" hidden="1" spans="1:22">
+    <row r="172" spans="1:22">
       <c r="A172" s="20">
         <v>41709</v>
       </c>
@@ -13177,7 +13210,7 @@
       </c>
       <c r="V172" s="20"/>
     </row>
-    <row r="173" hidden="1" spans="1:22">
+    <row r="173" spans="1:22">
       <c r="A173" s="20">
         <v>41981</v>
       </c>
@@ -13218,7 +13251,7 @@
       <c r="U173" s="30"/>
       <c r="V173" s="20"/>
     </row>
-    <row r="174" hidden="1" spans="1:21">
+    <row r="174" spans="1:21">
       <c r="A174" s="20">
         <v>42240</v>
       </c>
@@ -13252,7 +13285,7 @@
       <c r="T174" s="33"/>
       <c r="U174" s="30"/>
     </row>
-    <row r="175" hidden="1" spans="1:22">
+    <row r="175" spans="1:22">
       <c r="A175" s="20">
         <v>41709</v>
       </c>
@@ -13274,14 +13307,16 @@
         <v>280</v>
       </c>
       <c r="I175" s="20"/>
-      <c r="J175" s="20"/>
+      <c r="J175" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="K175" s="20"/>
       <c r="L175" s="20"/>
       <c r="M175" s="20"/>
       <c r="N175" s="20"/>
       <c r="O175" s="23" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P175" s="19" t="s">
         <v>72</v>
@@ -13297,7 +13332,7 @@
       <c r="U175" s="30"/>
       <c r="V175" s="20"/>
     </row>
-    <row r="176" hidden="1" spans="1:22">
+    <row r="176" spans="1:22">
       <c r="A176" s="20">
         <v>41981</v>
       </c>
@@ -13342,7 +13377,7 @@
       </c>
       <c r="V176" s="20"/>
     </row>
-    <row r="177" hidden="1" spans="1:22">
+    <row r="177" spans="1:22">
       <c r="A177" s="20">
         <v>41709</v>
       </c>
@@ -13387,7 +13422,7 @@
       <c r="U177" s="30"/>
       <c r="V177" s="20"/>
     </row>
-    <row r="178" hidden="1" spans="1:21">
+    <row r="178" spans="1:21">
       <c r="A178" s="20">
         <v>42240</v>
       </c>
@@ -13417,7 +13452,7 @@
       <c r="T178" s="40"/>
       <c r="U178" s="30"/>
     </row>
-    <row r="179" hidden="1" spans="1:21">
+    <row r="179" spans="1:21">
       <c r="A179" s="20">
         <v>42487</v>
       </c>
@@ -13441,7 +13476,7 @@
       <c r="T179" s="21"/>
       <c r="U179"/>
     </row>
-    <row r="180" hidden="1" spans="1:22">
+    <row r="180" spans="1:22">
       <c r="A180" s="20">
         <v>41709</v>
       </c>
@@ -13486,7 +13521,7 @@
       <c r="U180" s="30"/>
       <c r="V180" s="20"/>
     </row>
-    <row r="181" hidden="1" spans="1:21">
+    <row r="181" spans="1:21">
       <c r="A181" s="20">
         <v>42487</v>
       </c>
@@ -13510,7 +13545,7 @@
       <c r="T181" s="21"/>
       <c r="U181"/>
     </row>
-    <row r="182" hidden="1" spans="1:21">
+    <row r="182" spans="1:21">
       <c r="A182" s="20">
         <v>41709</v>
       </c>
@@ -13546,7 +13581,7 @@
       <c r="T182" s="40"/>
       <c r="U182" s="21"/>
     </row>
-    <row r="183" hidden="1" spans="1:21">
+    <row r="183" spans="1:21">
       <c r="A183" s="20">
         <v>42487</v>
       </c>
@@ -13586,7 +13621,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:21">
+    <row r="184" spans="1:21">
       <c r="A184" s="20">
         <v>41709</v>
       </c>
@@ -13626,7 +13661,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:21">
+    <row r="185" spans="1:21">
       <c r="A185" s="20">
         <v>41981</v>
       </c>
@@ -13669,7 +13704,7 @@
       <c r="T185" s="40"/>
       <c r="U185" s="21"/>
     </row>
-    <row r="186" hidden="1" spans="1:21">
+    <row r="186" spans="1:21">
       <c r="A186" s="20">
         <v>41709</v>
       </c>
@@ -13717,7 +13752,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:21">
+    <row r="187" spans="1:21">
       <c r="A187" s="20">
         <v>42240</v>
       </c>
@@ -13755,7 +13790,7 @@
       </c>
       <c r="U187" s="21"/>
     </row>
-    <row r="188" hidden="1" spans="1:21">
+    <row r="188" spans="1:21">
       <c r="A188" s="20">
         <v>42096</v>
       </c>
@@ -13809,7 +13844,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:21">
+    <row r="189" spans="1:21">
       <c r="A189" s="20">
         <v>41981</v>
       </c>
@@ -13851,7 +13886,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:22">
+    <row r="190" spans="1:22">
       <c r="A190" s="20">
         <v>41709</v>
       </c>
@@ -13898,7 +13933,7 @@
       <c r="U190" s="20"/>
       <c r="V190" s="20"/>
     </row>
-    <row r="191" hidden="1" spans="1:21">
+    <row r="191" spans="1:21">
       <c r="A191" s="20">
         <v>41709</v>
       </c>
@@ -13936,7 +13971,7 @@
       </c>
       <c r="U191" s="21"/>
     </row>
-    <row r="192" hidden="1" spans="1:21">
+    <row r="192" spans="1:21">
       <c r="A192" s="20">
         <v>41709</v>
       </c>
@@ -13978,7 +14013,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:21">
+    <row r="193" spans="1:21">
       <c r="A193" s="20">
         <v>41709</v>
       </c>
@@ -14018,7 +14053,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="1:21">
+    <row r="194" spans="1:21">
       <c r="A194" s="20">
         <v>42240</v>
       </c>
@@ -14058,7 +14093,7 @@
       </c>
       <c r="U194" s="21"/>
     </row>
-    <row r="195" hidden="1" spans="1:21">
+    <row r="195" spans="1:21">
       <c r="A195" s="20">
         <v>41709</v>
       </c>
@@ -14096,7 +14131,7 @@
       </c>
       <c r="U195" s="21"/>
     </row>
-    <row r="196" hidden="1" spans="1:22">
+    <row r="196" spans="1:22">
       <c r="A196" s="20">
         <v>41981</v>
       </c>
@@ -14153,7 +14188,7 @@
       </c>
       <c r="V196" s="20"/>
     </row>
-    <row r="197" hidden="1" spans="1:21">
+    <row r="197" spans="1:21">
       <c r="A197" s="20">
         <v>42487</v>
       </c>
@@ -14195,7 +14230,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="1:21">
+    <row r="198" spans="1:21">
       <c r="A198" s="20">
         <v>42320</v>
       </c>
@@ -14245,7 +14280,7 @@
       </c>
       <c r="U198" s="30"/>
     </row>
-    <row r="199" hidden="1" spans="1:21">
+    <row r="199" spans="1:21">
       <c r="A199" s="20">
         <v>42240</v>
       </c>
@@ -14279,7 +14314,7 @@
       </c>
       <c r="U199" s="21"/>
     </row>
-    <row r="200" hidden="1" spans="1:21">
+    <row r="200" spans="1:21">
       <c r="A200" s="20">
         <v>42096</v>
       </c>
@@ -14321,7 +14356,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:22">
+    <row r="201" spans="1:22">
       <c r="A201" s="20">
         <v>41709</v>
       </c>
@@ -14372,7 +14407,7 @@
       </c>
       <c r="V201" s="20"/>
     </row>
-    <row r="202" hidden="1" spans="1:21">
+    <row r="202" spans="1:21">
       <c r="A202" s="20">
         <v>42593</v>
       </c>
@@ -14403,7 +14438,7 @@
       </c>
       <c r="U202" s="21"/>
     </row>
-    <row r="203" hidden="1" spans="1:21">
+    <row r="203" spans="1:21">
       <c r="A203" s="20">
         <v>42240</v>
       </c>
@@ -14455,7 +14490,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="204" hidden="1" spans="1:22">
+    <row r="204" spans="1:22">
       <c r="A204" s="20">
         <v>42240</v>
       </c>
@@ -14504,7 +14539,7 @@
       </c>
       <c r="V204" s="20"/>
     </row>
-    <row r="205" hidden="1" spans="1:22">
+    <row r="205" spans="1:22">
       <c r="A205" s="20">
         <v>41709</v>
       </c>
@@ -14549,7 +14584,7 @@
       </c>
       <c r="V205" s="20"/>
     </row>
-    <row r="206" hidden="1" spans="1:21">
+    <row r="206" spans="1:21">
       <c r="A206" s="20">
         <v>41981</v>
       </c>
@@ -14592,7 +14627,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="1:21">
+    <row r="207" spans="1:21">
       <c r="A207" s="20">
         <v>41709</v>
       </c>
@@ -14626,7 +14661,7 @@
       </c>
       <c r="U207" s="21"/>
     </row>
-    <row r="208" hidden="1" spans="1:21">
+    <row r="208" spans="1:21">
       <c r="A208" s="20">
         <v>41709</v>
       </c>
@@ -14666,7 +14701,7 @@
       </c>
       <c r="U208" s="21"/>
     </row>
-    <row r="209" hidden="1" spans="1:21">
+    <row r="209" spans="1:21">
       <c r="A209" s="20">
         <v>42240</v>
       </c>
@@ -14706,7 +14741,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="210" hidden="1" spans="1:21">
+    <row r="210" spans="1:21">
       <c r="A210" s="20">
         <v>41709</v>
       </c>
@@ -14742,7 +14777,7 @@
       </c>
       <c r="U210" s="21"/>
     </row>
-    <row r="211" hidden="1" spans="1:22">
+    <row r="211" spans="1:22">
       <c r="A211" s="20">
         <v>41842</v>
       </c>
@@ -14795,7 +14830,7 @@
       </c>
       <c r="V211" s="20"/>
     </row>
-    <row r="212" hidden="1" spans="1:21">
+    <row r="212" spans="1:21">
       <c r="A212" s="20">
         <v>41709</v>
       </c>
@@ -14837,7 +14872,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="213" hidden="1" spans="1:21">
+    <row r="213" spans="1:21">
       <c r="A213" s="20">
         <v>41981</v>
       </c>
@@ -14877,7 +14912,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="214" hidden="1" spans="1:21">
+    <row r="214" spans="1:21">
       <c r="A214" s="20">
         <v>42487</v>
       </c>
@@ -14913,7 +14948,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="215" hidden="1" spans="1:21">
+    <row r="215" spans="1:21">
       <c r="A215" s="20">
         <v>41709</v>
       </c>
@@ -14953,7 +14988,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="216" hidden="1" spans="1:21">
+    <row r="216" spans="1:21">
       <c r="A216" s="20">
         <v>42240</v>
       </c>
@@ -14987,7 +15022,7 @@
       <c r="T216" s="26"/>
       <c r="U216" s="21"/>
     </row>
-    <row r="217" hidden="1" spans="1:21">
+    <row r="217" spans="1:21">
       <c r="A217" s="20">
         <v>41709</v>
       </c>
@@ -15029,7 +15064,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="218" hidden="1" spans="1:21">
+    <row r="218" spans="1:21">
       <c r="A218" s="20">
         <v>42487</v>
       </c>
@@ -15068,7 +15103,7 @@
       </c>
       <c r="U218" s="21"/>
     </row>
-    <row r="219" hidden="1" spans="1:21">
+    <row r="219" spans="1:21">
       <c r="A219" s="20">
         <v>42487</v>
       </c>
@@ -15110,7 +15145,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="1:22">
+    <row r="220" spans="1:22">
       <c r="A220" s="20">
         <v>41709</v>
       </c>
@@ -15157,7 +15192,7 @@
       <c r="U220" s="21"/>
       <c r="V220" s="20"/>
     </row>
-    <row r="221" hidden="1" spans="1:21">
+    <row r="221" spans="1:21">
       <c r="A221" s="20">
         <v>41709</v>
       </c>
@@ -15196,7 +15231,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="1:21">
+    <row r="222" spans="1:21">
       <c r="A222" s="20">
         <v>41709</v>
       </c>
@@ -15233,7 +15268,7 @@
       </c>
       <c r="U222" s="21"/>
     </row>
-    <row r="223" hidden="1" spans="1:22">
+    <row r="223" spans="1:22">
       <c r="A223" s="20">
         <v>42240</v>
       </c>
@@ -15284,7 +15319,7 @@
       </c>
       <c r="V223" s="20"/>
     </row>
-    <row r="224" hidden="1" spans="1:22">
+    <row r="224" spans="1:22">
       <c r="A224" s="20">
         <v>42593</v>
       </c>
@@ -15339,7 +15374,7 @@
       </c>
       <c r="V224" s="20"/>
     </row>
-    <row r="225" hidden="1" spans="1:22">
+    <row r="225" spans="1:22">
       <c r="A225" s="20">
         <v>41981</v>
       </c>
@@ -15386,7 +15421,7 @@
       </c>
       <c r="V225" s="20"/>
     </row>
-    <row r="226" hidden="1" spans="1:22">
+    <row r="226" spans="1:22">
       <c r="A226" s="20">
         <v>42320</v>
       </c>
@@ -15427,7 +15462,7 @@
       <c r="U226" s="30"/>
       <c r="V226" s="20"/>
     </row>
-    <row r="227" hidden="1" spans="1:22">
+    <row r="227" spans="1:22">
       <c r="A227" s="20">
         <v>42593</v>
       </c>
@@ -15484,7 +15519,7 @@
       </c>
       <c r="V227" s="20"/>
     </row>
-    <row r="228" hidden="1" spans="1:22">
+    <row r="228" spans="1:22">
       <c r="A228" s="20">
         <v>42487</v>
       </c>
@@ -15537,7 +15572,7 @@
       </c>
       <c r="V228" s="20"/>
     </row>
-    <row r="229" hidden="1" spans="1:22">
+    <row r="229" spans="1:22">
       <c r="A229" s="20">
         <v>41709</v>
       </c>
@@ -15586,7 +15621,7 @@
       </c>
       <c r="V229" s="20"/>
     </row>
-    <row r="230" hidden="1" spans="1:22">
+    <row r="230" spans="1:22">
       <c r="A230" s="20">
         <v>41981</v>
       </c>
@@ -15635,7 +15670,7 @@
       <c r="U230" s="20"/>
       <c r="V230" s="20"/>
     </row>
-    <row r="231" hidden="1" spans="1:22">
+    <row r="231" spans="1:22">
       <c r="A231" s="20">
         <v>42487</v>
       </c>
@@ -15690,7 +15725,7 @@
       <c r="U231" s="20"/>
       <c r="V231" s="20"/>
     </row>
-    <row r="232" hidden="1" spans="1:22">
+    <row r="232" spans="1:22">
       <c r="A232" s="20">
         <v>42487</v>
       </c>
@@ -15735,7 +15770,7 @@
       <c r="U232" s="20"/>
       <c r="V232" s="20"/>
     </row>
-    <row r="233" hidden="1" spans="1:21">
+    <row r="233" spans="1:21">
       <c r="A233" s="20">
         <v>42487</v>
       </c>
@@ -15778,7 +15813,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="1:21">
+    <row r="234" spans="1:21">
       <c r="A234" s="20">
         <v>42320</v>
       </c>
@@ -15820,7 +15855,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="1:21">
+    <row r="235" spans="1:21">
       <c r="A235" s="20">
         <v>41709</v>
       </c>
@@ -15871,7 +15906,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="236" hidden="1" spans="1:22">
+    <row r="236" spans="1:22">
       <c r="A236" s="20">
         <v>41709</v>
       </c>
@@ -15924,7 +15959,7 @@
       <c r="U236" s="20"/>
       <c r="V236" s="20"/>
     </row>
-    <row r="237" hidden="1" spans="1:22">
+    <row r="237" spans="1:22">
       <c r="A237" s="20">
         <v>41709</v>
       </c>
@@ -15979,7 +16014,7 @@
       </c>
       <c r="V237" s="20"/>
     </row>
-    <row r="238" hidden="1" spans="1:22">
+    <row r="238" spans="1:22">
       <c r="A238" s="20">
         <v>41981</v>
       </c>
@@ -16026,7 +16061,7 @@
       <c r="U238" s="20"/>
       <c r="V238" s="20"/>
     </row>
-    <row r="239" hidden="1" spans="1:21">
+    <row r="239" spans="1:21">
       <c r="A239" s="20">
         <v>41709</v>
       </c>
@@ -16068,7 +16103,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="240" hidden="1" spans="1:22">
+    <row r="240" spans="1:22">
       <c r="A240" s="20">
         <v>42240</v>
       </c>
@@ -16119,7 +16154,7 @@
       <c r="U240" s="20"/>
       <c r="V240" s="20"/>
     </row>
-    <row r="241" hidden="1" spans="1:21">
+    <row r="241" spans="1:21">
       <c r="A241" s="20">
         <v>41709</v>
       </c>
@@ -16158,7 +16193,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="242" hidden="1" spans="1:21">
+    <row r="242" spans="1:21">
       <c r="A242" s="20">
         <v>41709</v>
       </c>
@@ -16197,7 +16232,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="243" hidden="1" spans="1:21">
+    <row r="243" spans="1:21">
       <c r="A243" s="20">
         <v>41709</v>
       </c>
@@ -16237,7 +16272,7 @@
       </c>
       <c r="U243" s="21"/>
     </row>
-    <row r="244" hidden="1" spans="1:21">
+    <row r="244" spans="1:21">
       <c r="A244" s="20">
         <v>41709</v>
       </c>
@@ -16277,7 +16312,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="245" hidden="1" spans="1:21">
+    <row r="245" spans="1:21">
       <c r="A245" s="20">
         <v>42593</v>
       </c>
@@ -16301,7 +16336,7 @@
       </c>
       <c r="U245" s="21"/>
     </row>
-    <row r="246" hidden="1" spans="1:21">
+    <row r="246" spans="1:21">
       <c r="A246" s="20">
         <v>41709</v>
       </c>
@@ -16341,7 +16376,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="1:22">
+    <row r="247" spans="1:22">
       <c r="A247" s="20">
         <v>42320</v>
       </c>
@@ -16384,7 +16419,7 @@
       <c r="U247" s="20"/>
       <c r="V247" s="20"/>
     </row>
-    <row r="248" hidden="1" spans="1:22">
+    <row r="248" spans="1:22">
       <c r="A248" s="20">
         <v>42487</v>
       </c>
@@ -16406,8 +16441,12 @@
         <v>389</v>
       </c>
       <c r="I248" s="20"/>
-      <c r="J248" s="20"/>
-      <c r="K248" s="20"/>
+      <c r="J248" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K248" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="L248" s="20"/>
       <c r="M248" s="20"/>
       <c r="N248" s="20"/>
@@ -16420,7 +16459,7 @@
       <c r="U248" s="20"/>
       <c r="V248" s="20"/>
     </row>
-    <row r="249" hidden="1" spans="1:22">
+    <row r="249" spans="1:22">
       <c r="A249" s="20">
         <v>42240</v>
       </c>
@@ -16469,7 +16508,7 @@
       <c r="U249" s="20"/>
       <c r="V249" s="20"/>
     </row>
-    <row r="250" hidden="1" spans="1:21">
+    <row r="250" spans="1:21">
       <c r="A250" s="20">
         <v>41709</v>
       </c>
@@ -16507,7 +16546,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="251" hidden="1" spans="1:21">
+    <row r="251" spans="1:21">
       <c r="A251" s="20">
         <v>41709</v>
       </c>
@@ -16540,7 +16579,7 @@
       </c>
       <c r="U251" s="21"/>
     </row>
-    <row r="252" hidden="1" spans="1:21">
+    <row r="252" spans="1:21">
       <c r="A252" s="20">
         <v>42487</v>
       </c>
@@ -16561,7 +16600,7 @@
       </c>
       <c r="U252" s="21"/>
     </row>
-    <row r="253" hidden="1" spans="1:21">
+    <row r="253" spans="1:21">
       <c r="A253" s="20">
         <v>41709</v>
       </c>
@@ -16597,7 +16636,7 @@
       </c>
       <c r="U253" s="21"/>
     </row>
-    <row r="254" hidden="1" spans="1:21">
+    <row r="254" spans="1:21">
       <c r="A254" s="20">
         <v>41709</v>
       </c>
@@ -16635,7 +16674,7 @@
       </c>
       <c r="U254" s="21"/>
     </row>
-    <row r="255" hidden="1" spans="1:21">
+    <row r="255" spans="1:21">
       <c r="A255" s="20">
         <v>41709</v>
       </c>
@@ -16675,7 +16714,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="256" hidden="1" spans="1:22">
+    <row r="256" spans="1:22">
       <c r="A256" s="20">
         <v>41709</v>
       </c>
@@ -16724,7 +16763,7 @@
       </c>
       <c r="V256" s="20"/>
     </row>
-    <row r="257" hidden="1" spans="1:21">
+    <row r="257" spans="1:21">
       <c r="A257" s="20">
         <v>41981</v>
       </c>
@@ -16763,7 +16802,7 @@
       </c>
       <c r="U257" s="21"/>
     </row>
-    <row r="258" hidden="1" spans="1:21">
+    <row r="258" spans="1:21">
       <c r="A258" s="20">
         <v>41709</v>
       </c>
@@ -16803,7 +16842,7 @@
       </c>
       <c r="U258" s="21"/>
     </row>
-    <row r="259" hidden="1" spans="1:21">
+    <row r="259" spans="1:21">
       <c r="A259" s="20">
         <v>41981</v>
       </c>
@@ -16823,7 +16862,7 @@
         <v>403</v>
       </c>
       <c r="O259" s="23" t="str">
-        <f ca="1" t="shared" si="23"/>
+        <f ca="1" t="shared" ref="O259:O279" si="24">PHONETIC(J259:N259)</f>
         <v/>
       </c>
       <c r="P259" s="21"/>
@@ -16841,7 +16880,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="260" hidden="1" spans="1:21">
+    <row r="260" spans="1:21">
       <c r="A260" s="20">
         <v>41709</v>
       </c>
@@ -16861,7 +16900,7 @@
         <v>405</v>
       </c>
       <c r="O260" s="23" t="str">
-        <f ca="1" t="shared" si="23"/>
+        <f ca="1" t="shared" si="24"/>
         <v/>
       </c>
       <c r="P260" s="18" t="s">
@@ -16881,7 +16920,7 @@
       </c>
       <c r="U260" s="21"/>
     </row>
-    <row r="261" hidden="1" spans="1:22">
+    <row r="261" spans="1:22">
       <c r="A261" s="20">
         <v>41709</v>
       </c>
@@ -16909,7 +16948,7 @@
       <c r="M261" s="20"/>
       <c r="N261" s="20"/>
       <c r="O261" s="23" t="str">
-        <f ca="1" t="shared" si="23"/>
+        <f ca="1" t="shared" si="24"/>
         <v/>
       </c>
       <c r="P261" s="19" t="s">
@@ -16928,7 +16967,7 @@
       <c r="U261" s="20"/>
       <c r="V261" s="20"/>
     </row>
-    <row r="262" hidden="1" spans="1:22">
+    <row r="262" spans="1:22">
       <c r="A262" s="20">
         <v>42240</v>
       </c>
@@ -16956,7 +16995,7 @@
       <c r="M262" s="20"/>
       <c r="N262" s="20"/>
       <c r="O262" s="23" t="str">
-        <f ca="1" t="shared" si="23"/>
+        <f ca="1" t="shared" si="24"/>
         <v/>
       </c>
       <c r="P262" s="21"/>
@@ -16975,7 +17014,7 @@
       <c r="U262" s="20"/>
       <c r="V262" s="20"/>
     </row>
-    <row r="263" hidden="1" spans="1:21">
+    <row r="263" spans="1:21">
       <c r="A263" s="20">
         <v>42096</v>
       </c>
@@ -16995,7 +17034,7 @@
         <v>410</v>
       </c>
       <c r="O263" s="23" t="str">
-        <f ca="1" t="shared" si="23"/>
+        <f ca="1" t="shared" si="24"/>
         <v/>
       </c>
       <c r="P263" s="17" t="s">
@@ -17009,7 +17048,7 @@
       </c>
       <c r="U263" s="21"/>
     </row>
-    <row r="264" hidden="1" spans="1:21">
+    <row r="264" spans="1:21">
       <c r="A264" s="20">
         <v>42487</v>
       </c>
@@ -17028,9 +17067,16 @@
       <c r="H264" s="22" t="s">
         <v>411</v>
       </c>
+      <c r="J264" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="O264" s="23" t="str">
+        <f ca="1" t="shared" si="24"/>
+        <v>亡语;</v>
+      </c>
       <c r="U264" s="21"/>
     </row>
-    <row r="265" hidden="1" spans="1:22">
+    <row r="265" spans="1:22">
       <c r="A265" s="20">
         <v>42240</v>
       </c>
@@ -17058,7 +17104,7 @@
       <c r="M265" s="20"/>
       <c r="N265" s="20"/>
       <c r="O265" s="23" t="str">
-        <f ca="1" t="shared" ref="O265:O276" si="24">PHONETIC(J265:N265)</f>
+        <f ca="1" t="shared" si="24"/>
         <v/>
       </c>
       <c r="P265" s="21"/>
@@ -17075,7 +17121,7 @@
       <c r="U265" s="20"/>
       <c r="V265" s="20"/>
     </row>
-    <row r="266" hidden="1" spans="1:22">
+    <row r="266" spans="1:22">
       <c r="A266" s="20">
         <v>41709</v>
       </c>
@@ -17124,7 +17170,7 @@
       </c>
       <c r="V266" s="20"/>
     </row>
-    <row r="267" hidden="1" spans="1:21">
+    <row r="267" spans="1:21">
       <c r="A267" s="20">
         <v>42487</v>
       </c>
@@ -17161,7 +17207,7 @@
       </c>
       <c r="U267" s="21"/>
     </row>
-    <row r="268" hidden="1" spans="1:21">
+    <row r="268" spans="1:21">
       <c r="A268" s="20">
         <v>41981</v>
       </c>
@@ -17201,7 +17247,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="269" hidden="1" spans="1:21">
+    <row r="269" spans="1:21">
       <c r="A269" s="20">
         <v>41709</v>
       </c>
@@ -17239,7 +17285,7 @@
       </c>
       <c r="U269" s="21"/>
     </row>
-    <row r="270" hidden="1" spans="1:21">
+    <row r="270" spans="1:21">
       <c r="A270" s="20">
         <v>41981</v>
       </c>
@@ -17281,7 +17327,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="271" hidden="1" spans="1:22">
+    <row r="271" spans="1:22">
       <c r="A271" s="20">
         <v>41709</v>
       </c>
@@ -17334,7 +17380,7 @@
       <c r="U271" s="20"/>
       <c r="V271" s="20"/>
     </row>
-    <row r="272" hidden="1" spans="1:22">
+    <row r="272" spans="1:22">
       <c r="A272" s="20">
         <v>41709</v>
       </c>
@@ -17385,7 +17431,7 @@
       </c>
       <c r="V272" s="20"/>
     </row>
-    <row r="273" hidden="1" spans="1:21">
+    <row r="273" spans="1:21">
       <c r="A273" s="20">
         <v>41709</v>
       </c>
@@ -17421,7 +17467,7 @@
       </c>
       <c r="U273" s="21"/>
     </row>
-    <row r="274" hidden="1" spans="1:22">
+    <row r="274" spans="1:22">
       <c r="A274" s="20">
         <v>42240</v>
       </c>
@@ -17466,7 +17512,7 @@
       <c r="U274" s="20"/>
       <c r="V274" s="20"/>
     </row>
-    <row r="275" hidden="1" spans="1:22">
+    <row r="275" spans="1:22">
       <c r="A275" s="20">
         <v>42320</v>
       </c>
@@ -17521,7 +17567,7 @@
       </c>
       <c r="V275" s="20"/>
     </row>
-    <row r="276" hidden="1" spans="1:22">
+    <row r="276" spans="1:22">
       <c r="A276" s="20">
         <v>42240</v>
       </c>
@@ -17570,7 +17616,7 @@
       </c>
       <c r="V276" s="20"/>
     </row>
-    <row r="277" hidden="1" spans="1:21">
+    <row r="277" spans="1:21">
       <c r="A277" s="20">
         <v>42593</v>
       </c>
@@ -17589,9 +17635,16 @@
       <c r="H277" s="22" t="s">
         <v>429</v>
       </c>
+      <c r="J277" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="O277" s="23" t="str">
+        <f ca="1" t="shared" si="24"/>
+        <v>亡语;</v>
+      </c>
       <c r="U277" s="21"/>
     </row>
-    <row r="278" hidden="1" spans="1:22">
+    <row r="278" spans="1:22">
       <c r="A278" s="20">
         <v>42240</v>
       </c>
@@ -17621,7 +17674,7 @@
       <c r="M278" s="20"/>
       <c r="N278" s="20"/>
       <c r="O278" s="23" t="str">
-        <f ca="1" t="shared" ref="O278:O282" si="25">PHONETIC(J278:N278)</f>
+        <f ca="1" t="shared" si="24"/>
         <v>战吼;</v>
       </c>
       <c r="P278" s="19" t="s">
@@ -17642,7 +17695,7 @@
       </c>
       <c r="V278" s="20"/>
     </row>
-    <row r="279" hidden="1" spans="1:21">
+    <row r="279" spans="1:21">
       <c r="A279" s="20">
         <v>41842</v>
       </c>
@@ -17661,9 +17714,12 @@
       <c r="H279" s="22" t="s">
         <v>432</v>
       </c>
+      <c r="J279" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="O279" s="23" t="str">
-        <f ca="1" t="shared" si="25"/>
-        <v/>
+        <f ca="1" t="shared" si="24"/>
+        <v>亡语;</v>
       </c>
       <c r="P279" s="19" t="s">
         <v>35</v>
@@ -17684,7 +17740,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:21">
+    <row r="280" spans="1:21">
       <c r="A280" s="20">
         <v>41981</v>
       </c>
@@ -17704,7 +17760,7 @@
         <v>434</v>
       </c>
       <c r="O280" s="23" t="str">
-        <f ca="1" t="shared" si="25"/>
+        <f ca="1" t="shared" ref="O278:O282" si="25">PHONETIC(J280:N280)</f>
         <v/>
       </c>
       <c r="P280" s="19" t="s">
@@ -17724,7 +17780,7 @@
       </c>
       <c r="U280" s="21"/>
     </row>
-    <row r="281" hidden="1" spans="1:22">
+    <row r="281" spans="1:22">
       <c r="A281" s="20">
         <v>42240</v>
       </c>
@@ -17767,7 +17823,7 @@
       <c r="U281" s="20"/>
       <c r="V281" s="20"/>
     </row>
-    <row r="282" hidden="1" spans="1:22">
+    <row r="282" spans="1:22">
       <c r="A282" s="20">
         <v>42320</v>
       </c>
@@ -17789,14 +17845,16 @@
         <v>436</v>
       </c>
       <c r="I282" s="20"/>
-      <c r="J282" s="20"/>
+      <c r="J282" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="K282" s="20"/>
       <c r="L282" s="20"/>
       <c r="M282" s="20"/>
       <c r="N282" s="20"/>
       <c r="O282" s="23" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P282" s="19" t="s">
         <v>35</v>
@@ -17816,7 +17874,7 @@
       <c r="U282" s="20"/>
       <c r="V282" s="20"/>
     </row>
-    <row r="283" hidden="1" spans="1:21">
+    <row r="283" spans="1:21">
       <c r="A283" s="20">
         <v>42487</v>
       </c>
@@ -17843,7 +17901,7 @@
       </c>
       <c r="U283" s="21"/>
     </row>
-    <row r="284" hidden="1" spans="1:21">
+    <row r="284" spans="1:21">
       <c r="A284" s="20">
         <v>41709</v>
       </c>
@@ -17879,7 +17937,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="285" hidden="1" spans="1:21">
+    <row r="285" spans="1:21">
       <c r="A285" s="20">
         <v>42487</v>
       </c>
@@ -17898,9 +17956,12 @@
       <c r="H285" s="22" t="s">
         <v>440</v>
       </c>
+      <c r="J285" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="U285" s="21"/>
     </row>
-    <row r="286" hidden="1" spans="1:22">
+    <row r="286" spans="1:22">
       <c r="A286" s="20">
         <v>41709</v>
       </c>
@@ -17953,7 +18014,7 @@
       </c>
       <c r="V286" s="20"/>
     </row>
-    <row r="287" hidden="1" customHeight="1" spans="1:22">
+    <row r="287" customHeight="1" spans="1:22">
       <c r="A287" s="20">
         <v>41981</v>
       </c>
@@ -18000,7 +18061,7 @@
       </c>
       <c r="V287" s="20"/>
     </row>
-    <row r="288" hidden="1" customHeight="1" spans="1:22">
+    <row r="288" customHeight="1" spans="1:22">
       <c r="A288" s="20">
         <v>42487</v>
       </c>
@@ -18038,7 +18099,7 @@
       <c r="U288" s="20"/>
       <c r="V288" s="20"/>
     </row>
-    <row r="289" hidden="1" customHeight="1" spans="1:22">
+    <row r="289" customHeight="1" spans="1:22">
       <c r="A289" s="20">
         <v>41709</v>
       </c>
@@ -18085,7 +18146,7 @@
       <c r="U289" s="20"/>
       <c r="V289" s="20"/>
     </row>
-    <row r="290" hidden="1" customHeight="1" spans="1:22">
+    <row r="290" customHeight="1" spans="1:22">
       <c r="A290" s="20">
         <v>41709</v>
       </c>
@@ -18132,7 +18193,7 @@
       <c r="U290" s="20"/>
       <c r="V290" s="20"/>
     </row>
-    <row r="291" hidden="1" spans="1:22">
+    <row r="291" spans="1:22">
       <c r="A291" s="20">
         <v>42096</v>
       </c>
@@ -18183,7 +18244,7 @@
       <c r="U291" s="20"/>
       <c r="V291" s="20"/>
     </row>
-    <row r="292" hidden="1" spans="1:22">
+    <row r="292" spans="1:22">
       <c r="A292" s="20">
         <v>41981</v>
       </c>
@@ -18232,7 +18293,7 @@
       <c r="U292" s="20"/>
       <c r="V292" s="20"/>
     </row>
-    <row r="293" hidden="1" spans="1:21">
+    <row r="293" spans="1:21">
       <c r="A293" s="20">
         <v>42593</v>
       </c>
@@ -18256,7 +18317,7 @@
       </c>
       <c r="U293" s="21"/>
     </row>
-    <row r="294" hidden="1" spans="1:22">
+    <row r="294" spans="1:22">
       <c r="A294" s="20">
         <v>42240</v>
       </c>
@@ -18309,7 +18370,7 @@
       </c>
       <c r="V294" s="20"/>
     </row>
-    <row r="295" hidden="1" spans="1:21">
+    <row r="295" spans="1:21">
       <c r="A295" s="20">
         <v>41981</v>
       </c>
@@ -18345,7 +18406,7 @@
       <c r="T295" s="33"/>
       <c r="U295" s="21"/>
     </row>
-    <row r="296" hidden="1" spans="1:22">
+    <row r="296" spans="1:22">
       <c r="A296" s="20">
         <v>41709</v>
       </c>
@@ -18390,7 +18451,7 @@
       </c>
       <c r="V296" s="20"/>
     </row>
-    <row r="297" hidden="1" spans="1:21">
+    <row r="297" spans="1:21">
       <c r="A297" s="20">
         <v>42487</v>
       </c>
@@ -18425,7 +18486,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="298" hidden="1" spans="1:21">
+    <row r="298" spans="1:21">
       <c r="A298" s="20">
         <v>41709</v>
       </c>
@@ -18461,7 +18522,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="299" hidden="1" spans="1:21">
+    <row r="299" spans="1:21">
       <c r="A299" s="20">
         <v>41709</v>
       </c>
@@ -18501,7 +18562,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="300" hidden="1" spans="1:22">
+    <row r="300" spans="1:22">
       <c r="A300" s="20">
         <v>42240</v>
       </c>
@@ -18523,14 +18584,16 @@
         <v>460</v>
       </c>
       <c r="I300" s="20"/>
-      <c r="J300" s="20"/>
+      <c r="J300" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="K300" s="20"/>
       <c r="L300" s="20"/>
       <c r="M300" s="20"/>
       <c r="N300" s="20"/>
       <c r="O300" s="23" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P300" s="21"/>
       <c r="Q300" s="19" t="s">
@@ -18548,7 +18611,7 @@
       <c r="U300" s="20"/>
       <c r="V300" s="20"/>
     </row>
-    <row r="301" hidden="1" spans="1:21">
+    <row r="301" spans="1:21">
       <c r="A301" s="20">
         <v>42487</v>
       </c>
@@ -18572,7 +18635,7 @@
       </c>
       <c r="U301" s="21"/>
     </row>
-    <row r="302" hidden="1" spans="1:21">
+    <row r="302" spans="1:21">
       <c r="A302" s="20">
         <v>41709</v>
       </c>
@@ -18610,7 +18673,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="303" hidden="1" spans="1:21">
+    <row r="303" spans="1:21">
       <c r="A303" s="20">
         <v>41709</v>
       </c>
@@ -18651,7 +18714,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="1:21">
+    <row r="304" spans="1:21">
       <c r="A304" s="20">
         <v>41709</v>
       </c>
@@ -18683,7 +18746,7 @@
       <c r="T304" s="29"/>
       <c r="U304" s="21"/>
     </row>
-    <row r="305" hidden="1" spans="1:21">
+    <row r="305" spans="1:21">
       <c r="A305" s="20">
         <v>41709</v>
       </c>
@@ -18719,7 +18782,7 @@
       <c r="T305" s="29"/>
       <c r="U305" s="21"/>
     </row>
-    <row r="306" hidden="1" spans="1:22">
+    <row r="306" spans="1:22">
       <c r="A306" s="20">
         <v>41709</v>
       </c>
@@ -18764,7 +18827,7 @@
       </c>
       <c r="V306" s="20"/>
     </row>
-    <row r="307" hidden="1" spans="1:22">
+    <row r="307" spans="1:22">
       <c r="A307" s="20">
         <v>41709</v>
       </c>
@@ -18809,7 +18872,7 @@
       <c r="U307" s="20"/>
       <c r="V307" s="20"/>
     </row>
-    <row r="308" hidden="1" spans="1:21">
+    <row r="308" spans="1:21">
       <c r="A308" s="20">
         <v>42487</v>
       </c>
@@ -18847,7 +18910,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="309" hidden="1" spans="1:21">
+    <row r="309" spans="1:21">
       <c r="A309" s="20">
         <v>42320</v>
       </c>
@@ -18885,7 +18948,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="310" hidden="1" spans="1:21">
+    <row r="310" spans="1:21">
       <c r="A310" s="20">
         <v>41709</v>
       </c>
@@ -18921,7 +18984,7 @@
       <c r="T310" s="29"/>
       <c r="U310" s="21"/>
     </row>
-    <row r="311" hidden="1" spans="1:21">
+    <row r="311" spans="1:21">
       <c r="A311" s="20">
         <v>42593</v>
       </c>
@@ -18942,7 +19005,7 @@
       </c>
       <c r="U311" s="21"/>
     </row>
-    <row r="312" hidden="1" spans="1:21">
+    <row r="312" spans="1:21">
       <c r="A312" s="20">
         <v>42487</v>
       </c>
@@ -18978,7 +19041,7 @@
       <c r="T312" s="29"/>
       <c r="U312" s="30"/>
     </row>
-    <row r="313" hidden="1" spans="1:21">
+    <row r="313" spans="1:21">
       <c r="A313" s="20">
         <v>42593</v>
       </c>
@@ -18999,7 +19062,7 @@
       </c>
       <c r="U313" s="21"/>
     </row>
-    <row r="314" hidden="1" spans="1:21">
+    <row r="314" spans="1:21">
       <c r="A314" s="20">
         <v>41709</v>
       </c>
@@ -19033,7 +19096,7 @@
       <c r="T314" s="42"/>
       <c r="U314" s="21"/>
     </row>
-    <row r="315" hidden="1" spans="1:22">
+    <row r="315" spans="1:22">
       <c r="A315" s="20">
         <v>41981</v>
       </c>
@@ -19078,7 +19141,7 @@
       <c r="U315" s="21"/>
       <c r="V315" s="20"/>
     </row>
-    <row r="316" hidden="1" spans="1:21">
+    <row r="316" spans="1:21">
       <c r="A316" s="20">
         <v>41709</v>
       </c>
@@ -19116,7 +19179,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="317" hidden="1" spans="1:21">
+    <row r="317" spans="1:21">
       <c r="A317" s="20">
         <v>42487</v>
       </c>
@@ -19152,7 +19215,7 @@
       <c r="T317" s="29"/>
       <c r="U317" s="30"/>
     </row>
-    <row r="318" hidden="1" spans="1:22">
+    <row r="318" spans="1:22">
       <c r="A318" s="20">
         <v>41709</v>
       </c>
@@ -19197,7 +19260,7 @@
       <c r="U318" s="20"/>
       <c r="V318" s="20"/>
     </row>
-    <row r="319" hidden="1" spans="1:21">
+    <row r="319" spans="1:21">
       <c r="A319" s="20">
         <v>41981</v>
       </c>
@@ -19235,7 +19298,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="320" hidden="1" spans="1:21">
+    <row r="320" spans="1:21">
       <c r="A320" s="20">
         <v>42096</v>
       </c>
@@ -19273,7 +19336,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="321" hidden="1" spans="1:22">
+    <row r="321" spans="1:22">
       <c r="A321" s="20">
         <v>41709</v>
       </c>
@@ -19320,7 +19383,7 @@
       </c>
       <c r="V321" s="20"/>
     </row>
-    <row r="322" hidden="1" spans="1:22">
+    <row r="322" spans="1:22">
       <c r="A322" s="20">
         <v>42240</v>
       </c>
@@ -19365,7 +19428,7 @@
       <c r="U322" s="20"/>
       <c r="V322" s="20"/>
     </row>
-    <row r="323" hidden="1" spans="1:21">
+    <row r="323" spans="1:21">
       <c r="A323" s="20">
         <v>41709</v>
       </c>
@@ -19384,9 +19447,12 @@
       <c r="H323" s="22" t="s">
         <v>492</v>
       </c>
+      <c r="J323" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="O323" s="23" t="str">
         <f ca="1" t="shared" si="30"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P323" s="19" t="s">
         <v>60</v>
@@ -19403,7 +19469,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="324" hidden="1" spans="1:22">
+    <row r="324" spans="1:22">
       <c r="A324" s="20">
         <v>42240</v>
       </c>
@@ -19448,7 +19514,7 @@
       <c r="U324" s="20"/>
       <c r="V324" s="20"/>
     </row>
-    <row r="325" hidden="1" spans="1:21">
+    <row r="325" spans="1:21">
       <c r="A325" s="20">
         <v>42487</v>
       </c>
@@ -19496,7 +19562,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="326" hidden="1" spans="1:21">
+    <row r="326" spans="1:21">
       <c r="A326" s="20">
         <v>41842</v>
       </c>
@@ -19534,7 +19600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="327" hidden="1" spans="1:21">
+    <row r="327" spans="1:21">
       <c r="A327" s="20">
         <v>41981</v>
       </c>
@@ -19568,7 +19634,7 @@
       <c r="T327" s="29"/>
       <c r="U327" s="21"/>
     </row>
-    <row r="328" hidden="1" spans="1:21">
+    <row r="328" spans="1:21">
       <c r="A328" s="20">
         <v>41981</v>
       </c>
@@ -19587,9 +19653,12 @@
       <c r="H328" s="22" t="s">
         <v>499</v>
       </c>
+      <c r="J328" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="O328" s="23" t="str">
         <f ca="1" t="shared" si="30"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P328" s="19" t="s">
         <v>72</v>
@@ -19606,7 +19675,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="329" hidden="1" spans="1:22">
+    <row r="329" spans="1:22">
       <c r="A329" s="20">
         <v>41709</v>
       </c>
@@ -19645,7 +19714,7 @@
       <c r="U329" s="20"/>
       <c r="V329" s="20"/>
     </row>
-    <row r="330" hidden="1" spans="1:22">
+    <row r="330" spans="1:22">
       <c r="A330" s="20">
         <v>42240</v>
       </c>
@@ -19696,7 +19765,7 @@
       <c r="U330" s="20"/>
       <c r="V330" s="20"/>
     </row>
-    <row r="331" hidden="1" spans="1:21">
+    <row r="331" spans="1:21">
       <c r="A331" s="20">
         <v>41709</v>
       </c>
@@ -19732,7 +19801,7 @@
       <c r="T331" s="29"/>
       <c r="U331" s="21"/>
     </row>
-    <row r="332" hidden="1" spans="1:21">
+    <row r="332" spans="1:21">
       <c r="A332" s="20">
         <v>41709</v>
       </c>
@@ -19770,7 +19839,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="333" hidden="1" spans="1:22">
+    <row r="333" spans="1:22">
       <c r="A333" s="20">
         <v>41709</v>
       </c>
@@ -19815,7 +19884,7 @@
       <c r="U333" s="20"/>
       <c r="V333" s="20"/>
     </row>
-    <row r="334" hidden="1" spans="1:22">
+    <row r="334" spans="1:22">
       <c r="A334" s="20">
         <v>41709</v>
       </c>
@@ -19862,7 +19931,7 @@
       </c>
       <c r="V334" s="20"/>
     </row>
-    <row r="335" hidden="1" spans="1:21">
+    <row r="335" spans="1:21">
       <c r="A335" s="20">
         <v>41709</v>
       </c>
@@ -19901,7 +19970,7 @@
       <c r="T335" s="34"/>
       <c r="U335" s="21"/>
     </row>
-    <row r="336" hidden="1" spans="1:21">
+    <row r="336" spans="1:21">
       <c r="A336" s="20">
         <v>41709</v>
       </c>
@@ -19941,7 +20010,7 @@
       <c r="T336" s="29"/>
       <c r="U336" s="21"/>
     </row>
-    <row r="337" hidden="1" spans="1:22">
+    <row r="337" spans="1:22">
       <c r="A337" s="20">
         <v>42240</v>
       </c>
@@ -19988,7 +20057,7 @@
       </c>
       <c r="V337" s="20"/>
     </row>
-    <row r="338" hidden="1" spans="1:22">
+    <row r="338" spans="1:22">
       <c r="A338" s="20">
         <v>42240</v>
       </c>
@@ -20035,7 +20104,7 @@
       </c>
       <c r="V338" s="20"/>
     </row>
-    <row r="339" hidden="1" spans="1:22">
+    <row r="339" spans="1:22">
       <c r="A339" s="20">
         <v>42240</v>
       </c>
@@ -20088,7 +20157,7 @@
       </c>
       <c r="V339" s="20"/>
     </row>
-    <row r="340" hidden="1" spans="1:21">
+    <row r="340" spans="1:21">
       <c r="A340" s="20">
         <v>41709</v>
       </c>
@@ -20129,7 +20198,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="341" hidden="1" spans="1:22">
+    <row r="341" spans="1:22">
       <c r="A341" s="20">
         <v>42240</v>
       </c>
@@ -20151,14 +20220,16 @@
         <v>516</v>
       </c>
       <c r="I341" s="20"/>
-      <c r="J341" s="20"/>
+      <c r="J341" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="K341" s="20"/>
       <c r="L341" s="20"/>
       <c r="M341" s="20"/>
       <c r="N341" s="20"/>
       <c r="O341" s="23" t="str">
         <f ca="1" t="shared" si="30"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P341" s="21"/>
       <c r="Q341" s="19" t="s">
@@ -20172,7 +20243,7 @@
       <c r="U341" s="20"/>
       <c r="V341" s="20"/>
     </row>
-    <row r="342" hidden="1" spans="1:21">
+    <row r="342" spans="1:21">
       <c r="A342" s="20">
         <v>42096</v>
       </c>
@@ -20217,7 +20288,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="343" hidden="1" spans="1:22">
+    <row r="343" spans="1:22">
       <c r="A343" s="20">
         <v>42487</v>
       </c>
@@ -20268,7 +20339,7 @@
       <c r="U343" s="30"/>
       <c r="V343" s="20"/>
     </row>
-    <row r="344" hidden="1" spans="1:21">
+    <row r="344" spans="1:21">
       <c r="A344" s="20">
         <v>41981</v>
       </c>
@@ -20302,7 +20373,7 @@
       <c r="T344" s="29"/>
       <c r="U344" s="21"/>
     </row>
-    <row r="345" hidden="1" spans="1:21">
+    <row r="345" spans="1:21">
       <c r="A345" s="20">
         <v>41981</v>
       </c>
@@ -20340,7 +20411,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="346" hidden="1" spans="1:22">
+    <row r="346" spans="1:22">
       <c r="A346" s="20">
         <v>42487</v>
       </c>
@@ -20385,7 +20456,7 @@
       <c r="U346" s="30"/>
       <c r="V346" s="20"/>
     </row>
-    <row r="347" hidden="1" spans="1:22">
+    <row r="347" spans="1:22">
       <c r="A347" s="20">
         <v>42320</v>
       </c>
@@ -20438,7 +20509,7 @@
       </c>
       <c r="V347" s="20"/>
     </row>
-    <row r="348" hidden="1" spans="1:21">
+    <row r="348" spans="1:21">
       <c r="A348" s="20">
         <v>41981</v>
       </c>
@@ -20474,7 +20545,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="349" hidden="1" spans="1:21">
+    <row r="349" spans="1:21">
       <c r="A349" s="20">
         <v>42593</v>
       </c>
@@ -20495,7 +20566,7 @@
       </c>
       <c r="U349" s="21"/>
     </row>
-    <row r="350" hidden="1" spans="1:22">
+    <row r="350" spans="1:22">
       <c r="A350" s="20">
         <v>41709</v>
       </c>
@@ -20542,7 +20613,7 @@
       </c>
       <c r="V350" s="20"/>
     </row>
-    <row r="351" hidden="1" spans="1:22">
+    <row r="351" spans="1:22">
       <c r="A351" s="20">
         <v>42240</v>
       </c>
@@ -20587,7 +20658,7 @@
       <c r="U351" s="20"/>
       <c r="V351" s="20"/>
     </row>
-    <row r="352" hidden="1" spans="1:22">
+    <row r="352" spans="1:22">
       <c r="A352" s="20">
         <v>42487</v>
       </c>
@@ -20609,14 +20680,16 @@
         <v>532</v>
       </c>
       <c r="I352" s="20"/>
-      <c r="J352" s="20"/>
+      <c r="J352" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="K352" s="20"/>
       <c r="L352" s="20"/>
       <c r="M352" s="20"/>
       <c r="N352" s="20"/>
       <c r="O352" s="23" t="str">
         <f ca="1" t="shared" si="31"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P352" s="18" t="s">
         <v>72</v>
@@ -20632,7 +20705,7 @@
       <c r="U352" s="30"/>
       <c r="V352" s="20"/>
     </row>
-    <row r="353" hidden="1" spans="1:22">
+    <row r="353" spans="1:22">
       <c r="A353" s="20">
         <v>42487</v>
       </c>
@@ -20679,7 +20752,7 @@
       </c>
       <c r="V353" s="20"/>
     </row>
-    <row r="354" hidden="1" spans="1:22">
+    <row r="354" spans="1:22">
       <c r="A354" s="20">
         <v>41709</v>
       </c>
@@ -20724,7 +20797,7 @@
       <c r="U354" s="20"/>
       <c r="V354" s="20"/>
     </row>
-    <row r="355" hidden="1" spans="1:22">
+    <row r="355" spans="1:22">
       <c r="A355" s="20">
         <v>41709</v>
       </c>
@@ -20773,7 +20846,7 @@
       <c r="U355" s="20"/>
       <c r="V355" s="20"/>
     </row>
-    <row r="356" hidden="1" spans="1:22">
+    <row r="356" spans="1:22">
       <c r="A356" s="20">
         <v>42240</v>
       </c>
@@ -20821,7 +20894,7 @@
       <c r="U356" s="20"/>
       <c r="V356" s="20"/>
     </row>
-    <row r="357" hidden="1" spans="1:21">
+    <row r="357" spans="1:21">
       <c r="A357" s="20">
         <v>41709</v>
       </c>
@@ -20864,7 +20937,7 @@
       </c>
       <c r="U357" s="21"/>
     </row>
-    <row r="358" hidden="1" spans="1:22">
+    <row r="358" spans="1:22">
       <c r="A358" s="20">
         <v>42487</v>
       </c>
@@ -20917,7 +20990,7 @@
       </c>
       <c r="V358" s="20"/>
     </row>
-    <row r="359" hidden="1" spans="1:21">
+    <row r="359" spans="1:21">
       <c r="A359" s="20">
         <v>41981</v>
       </c>
@@ -20960,7 +21033,7 @@
       </c>
       <c r="U359" s="21"/>
     </row>
-    <row r="360" hidden="1" spans="1:21">
+    <row r="360" spans="1:21">
       <c r="A360" s="20">
         <v>42320</v>
       </c>
@@ -20996,7 +21069,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="361" hidden="1" spans="1:21">
+    <row r="361" spans="1:21">
       <c r="A361" s="20">
         <v>41709</v>
       </c>
@@ -23720,7 +23793,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="422" hidden="1" spans="1:21">
+    <row r="422" spans="1:21">
       <c r="A422" s="20">
         <v>42487</v>
       </c>
@@ -23741,7 +23814,7 @@
       </c>
       <c r="U422" s="21"/>
     </row>
-    <row r="423" hidden="1" spans="1:21">
+    <row r="423" spans="1:21">
       <c r="A423" s="20">
         <v>41709</v>
       </c>
@@ -23779,7 +23852,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="424" hidden="1" spans="1:21">
+    <row r="424" spans="1:21">
       <c r="A424" s="20">
         <v>41709</v>
       </c>
@@ -23815,7 +23888,7 @@
       <c r="T424" s="39"/>
       <c r="U424" s="21"/>
     </row>
-    <row r="425" hidden="1" spans="1:21">
+    <row r="425" spans="1:21">
       <c r="A425" s="20">
         <v>41709</v>
       </c>
@@ -23853,7 +23926,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="426" hidden="1" spans="1:21">
+    <row r="426" spans="1:21">
       <c r="A426" s="20">
         <v>41709</v>
       </c>
@@ -23894,7 +23967,7 @@
       </c>
       <c r="U426" s="21"/>
     </row>
-    <row r="427" hidden="1" spans="1:21">
+    <row r="427" spans="1:21">
       <c r="A427" s="20">
         <v>41709</v>
       </c>
@@ -23930,7 +24003,7 @@
       <c r="T427" s="29"/>
       <c r="U427" s="21"/>
     </row>
-    <row r="428" hidden="1" spans="1:21">
+    <row r="428" spans="1:21">
       <c r="A428" s="20">
         <v>42593</v>
       </c>
@@ -23951,7 +24024,7 @@
       </c>
       <c r="U428" s="21"/>
     </row>
-    <row r="429" hidden="1" spans="1:21">
+    <row r="429" spans="1:21">
       <c r="A429" s="20">
         <v>41709</v>
       </c>
@@ -23985,7 +24058,7 @@
       <c r="T429" s="26"/>
       <c r="U429" s="21"/>
     </row>
-    <row r="430" hidden="1" spans="1:21">
+    <row r="430" spans="1:21">
       <c r="A430" s="20">
         <v>41709</v>
       </c>
@@ -24019,7 +24092,7 @@
       <c r="T430" s="26"/>
       <c r="U430" s="21"/>
     </row>
-    <row r="431" hidden="1" spans="1:21">
+    <row r="431" spans="1:21">
       <c r="A431" s="20">
         <v>41709</v>
       </c>
@@ -24058,7 +24131,7 @@
       <c r="T431" s="29"/>
       <c r="U431" s="21"/>
     </row>
-    <row r="432" hidden="1" spans="1:21">
+    <row r="432" spans="1:21">
       <c r="A432" s="20">
         <v>42320</v>
       </c>
@@ -24099,7 +24172,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="433" hidden="1" spans="1:21">
+    <row r="433" spans="1:21">
       <c r="A433" s="20">
         <v>42487</v>
       </c>
@@ -24118,9 +24191,12 @@
       <c r="H433" s="22" t="s">
         <v>636</v>
       </c>
+      <c r="J433" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="U433" s="21"/>
     </row>
-    <row r="434" hidden="1" spans="1:21">
+    <row r="434" spans="1:21">
       <c r="A434" s="20">
         <v>41981</v>
       </c>
@@ -24154,7 +24230,7 @@
       <c r="T434" s="29"/>
       <c r="U434" s="21"/>
     </row>
-    <row r="435" hidden="1" spans="1:22">
+    <row r="435" spans="1:22">
       <c r="A435" s="20">
         <v>42240</v>
       </c>
@@ -24199,7 +24275,7 @@
       </c>
       <c r="V435" s="20"/>
     </row>
-    <row r="436" hidden="1" spans="1:21">
+    <row r="436" spans="1:21">
       <c r="A436" s="20">
         <v>41709</v>
       </c>
@@ -24235,7 +24311,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="437" hidden="1" spans="1:22">
+    <row r="437" spans="1:22">
       <c r="A437" s="20">
         <v>42240</v>
       </c>
@@ -24276,7 +24352,7 @@
       <c r="U437" s="20"/>
       <c r="V437" s="20"/>
     </row>
-    <row r="438" hidden="1" spans="1:22">
+    <row r="438" spans="1:22">
       <c r="A438" s="20">
         <v>42320</v>
       </c>
@@ -24329,7 +24405,7 @@
       <c r="U438" s="21"/>
       <c r="V438" s="20"/>
     </row>
-    <row r="439" hidden="1" spans="1:21">
+    <row r="439" spans="1:21">
       <c r="A439" s="20">
         <v>42320</v>
       </c>
@@ -24363,7 +24439,7 @@
       <c r="T439" s="29"/>
       <c r="U439" s="21"/>
     </row>
-    <row r="440" hidden="1" spans="1:21">
+    <row r="440" spans="1:21">
       <c r="A440" s="20">
         <v>41709</v>
       </c>
@@ -24404,7 +24480,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="441" hidden="1" spans="1:21">
+    <row r="441" spans="1:21">
       <c r="A441" s="20">
         <v>42487</v>
       </c>
@@ -24425,7 +24501,7 @@
       </c>
       <c r="U441" s="21"/>
     </row>
-    <row r="442" hidden="1" spans="1:21">
+    <row r="442" spans="1:21">
       <c r="A442" s="20">
         <v>41981</v>
       </c>
@@ -24459,7 +24535,7 @@
       <c r="T442" s="33"/>
       <c r="U442" s="21"/>
     </row>
-    <row r="443" hidden="1" spans="1:22">
+    <row r="443" spans="1:22">
       <c r="A443" s="20">
         <v>42240</v>
       </c>
@@ -24506,7 +24582,7 @@
       </c>
       <c r="V443" s="20"/>
     </row>
-    <row r="444" hidden="1" spans="1:21">
+    <row r="444" spans="1:21">
       <c r="A444" s="20">
         <v>42487</v>
       </c>
@@ -24528,9 +24604,12 @@
       <c r="J444" s="21" t="s">
         <v>31</v>
       </c>
+      <c r="K444" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="U444" s="21"/>
     </row>
-    <row r="445" hidden="1" spans="1:21">
+    <row r="445" spans="1:21">
       <c r="A445" s="20">
         <v>41709</v>
       </c>
@@ -24562,7 +24641,7 @@
       <c r="T445" s="26"/>
       <c r="U445" s="21"/>
     </row>
-    <row r="446" hidden="1" spans="1:21">
+    <row r="446" spans="1:21">
       <c r="A446" s="20">
         <v>42593</v>
       </c>
@@ -24583,7 +24662,7 @@
       </c>
       <c r="U446" s="21"/>
     </row>
-    <row r="447" hidden="1" spans="1:21">
+    <row r="447" spans="1:21">
       <c r="A447" s="20">
         <v>41709</v>
       </c>
@@ -24629,7 +24708,7 @@
       </c>
       <c r="U447" s="21"/>
     </row>
-    <row r="448" hidden="1" spans="1:21">
+    <row r="448" spans="1:21">
       <c r="A448" s="20">
         <v>42096</v>
       </c>
@@ -24665,7 +24744,7 @@
       <c r="T448" s="39"/>
       <c r="U448" s="21"/>
     </row>
-    <row r="449" hidden="1" spans="1:21">
+    <row r="449" spans="1:21">
       <c r="A449" s="20">
         <v>41709</v>
       </c>
@@ -24699,7 +24778,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="450" hidden="1" spans="1:21">
+    <row r="450" spans="1:21">
       <c r="A450" s="20">
         <v>42487</v>
       </c>
@@ -24720,7 +24799,7 @@
       </c>
       <c r="U450" s="21"/>
     </row>
-    <row r="451" hidden="1" spans="1:21">
+    <row r="451" spans="1:21">
       <c r="A451" s="20">
         <v>41709</v>
       </c>
@@ -24752,7 +24831,7 @@
       <c r="T451" s="33"/>
       <c r="U451" s="21"/>
     </row>
-    <row r="452" hidden="1" spans="1:21">
+    <row r="452" spans="1:21">
       <c r="A452" s="20">
         <v>42096</v>
       </c>
@@ -24788,7 +24867,7 @@
       <c r="T452" s="29"/>
       <c r="U452" s="21"/>
     </row>
-    <row r="453" hidden="1" spans="1:21">
+    <row r="453" spans="1:21">
       <c r="A453" s="20">
         <v>41709</v>
       </c>
@@ -24831,7 +24910,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="454" hidden="1" spans="1:21">
+    <row r="454" spans="1:21">
       <c r="A454" s="20">
         <v>42487</v>
       </c>
@@ -24852,7 +24931,7 @@
       </c>
       <c r="U454" s="21"/>
     </row>
-    <row r="455" hidden="1" spans="1:21">
+    <row r="455" spans="1:21">
       <c r="A455" s="20">
         <v>41709</v>
       </c>
@@ -24888,7 +24967,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="456" hidden="1" spans="1:21">
+    <row r="456" spans="1:21">
       <c r="A456" s="20">
         <v>41709</v>
       </c>
@@ -24924,7 +25003,7 @@
       <c r="T456" s="29"/>
       <c r="U456" s="21"/>
     </row>
-    <row r="457" hidden="1" spans="1:22">
+    <row r="457" spans="1:22">
       <c r="A457" s="20">
         <v>42240</v>
       </c>
@@ -24971,7 +25050,7 @@
       </c>
       <c r="V457" s="20"/>
     </row>
-    <row r="458" hidden="1" spans="1:21">
+    <row r="458" spans="1:21">
       <c r="A458" s="20">
         <v>41842</v>
       </c>
@@ -24990,9 +25069,12 @@
       <c r="H458" s="22" t="s">
         <v>668</v>
       </c>
+      <c r="J458" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="O458" s="23" t="str">
         <f ca="1" t="shared" si="40"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P458" s="19" t="s">
         <v>72</v>
@@ -25009,7 +25091,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="459" hidden="1" spans="1:22">
+    <row r="459" spans="1:22">
       <c r="A459" s="20">
         <v>42240</v>
       </c>
@@ -25031,14 +25113,16 @@
         <v>670</v>
       </c>
       <c r="I459" s="20"/>
-      <c r="J459" s="20"/>
+      <c r="J459" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="K459" s="20"/>
       <c r="L459" s="20"/>
       <c r="M459" s="20"/>
       <c r="N459" s="20"/>
       <c r="O459" s="23" t="str">
         <f ca="1" t="shared" si="40"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P459" s="18" t="s">
         <v>72</v>
@@ -25054,7 +25138,7 @@
       <c r="U459" s="20"/>
       <c r="V459" s="20"/>
     </row>
-    <row r="460" hidden="1" spans="1:22">
+    <row r="460" spans="1:22">
       <c r="A460" s="20">
         <v>41709</v>
       </c>
@@ -25099,7 +25183,7 @@
       <c r="U460" s="20"/>
       <c r="V460" s="20"/>
     </row>
-    <row r="461" hidden="1" spans="1:21">
+    <row r="461" spans="1:21">
       <c r="A461" s="20">
         <v>41981</v>
       </c>
@@ -25137,7 +25221,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="462" hidden="1" spans="1:21">
+    <row r="462" spans="1:21">
       <c r="A462" s="20">
         <v>41981</v>
       </c>
@@ -25175,7 +25259,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="463" hidden="1" spans="1:22">
+    <row r="463" spans="1:22">
       <c r="A463" s="20">
         <v>41709</v>
       </c>
@@ -25222,7 +25306,7 @@
       </c>
       <c r="V463" s="20"/>
     </row>
-    <row r="464" hidden="1" spans="1:22">
+    <row r="464" spans="1:22">
       <c r="A464" s="20">
         <v>42487</v>
       </c>
@@ -25258,7 +25342,7 @@
       <c r="U464" s="20"/>
       <c r="V464" s="20"/>
     </row>
-    <row r="465" hidden="1" spans="1:22">
+    <row r="465" spans="1:22">
       <c r="A465" s="20">
         <v>41981</v>
       </c>
@@ -25303,7 +25387,7 @@
       <c r="U465" s="20"/>
       <c r="V465" s="20"/>
     </row>
-    <row r="466" hidden="1" spans="1:22">
+    <row r="466" spans="1:22">
       <c r="A466" s="20">
         <v>42593</v>
       </c>
@@ -25339,7 +25423,7 @@
       <c r="U466" s="20"/>
       <c r="V466" s="20"/>
     </row>
-    <row r="467" hidden="1" spans="1:22">
+    <row r="467" spans="1:22">
       <c r="A467" s="20">
         <v>41709</v>
       </c>
@@ -25392,7 +25476,7 @@
       <c r="U467" s="20"/>
       <c r="V467" s="20"/>
     </row>
-    <row r="468" hidden="1" spans="1:22">
+    <row r="468" spans="1:22">
       <c r="A468" s="20">
         <v>41709</v>
       </c>
@@ -25439,7 +25523,7 @@
       </c>
       <c r="V468" s="20"/>
     </row>
-    <row r="469" hidden="1" spans="1:22">
+    <row r="469" spans="1:22">
       <c r="A469" s="20">
         <v>41981</v>
       </c>
@@ -25480,7 +25564,7 @@
       </c>
       <c r="V469" s="20"/>
     </row>
-    <row r="470" hidden="1" spans="1:22">
+    <row r="470" spans="1:22">
       <c r="A470" s="20">
         <v>42240</v>
       </c>
@@ -25523,7 +25607,7 @@
       <c r="U470" s="20"/>
       <c r="V470" s="20"/>
     </row>
-    <row r="471" hidden="1" spans="1:21">
+    <row r="471" spans="1:21">
       <c r="A471" s="20">
         <v>41709</v>
       </c>
@@ -25566,7 +25650,7 @@
       </c>
       <c r="U471" s="21"/>
     </row>
-    <row r="472" hidden="1" spans="1:21">
+    <row r="472" spans="1:21">
       <c r="A472" s="20">
         <v>41709</v>
       </c>
@@ -25602,7 +25686,7 @@
       <c r="T472" s="34"/>
       <c r="U472" s="21"/>
     </row>
-    <row r="473" hidden="1" spans="1:22">
+    <row r="473" spans="1:22">
       <c r="A473" s="20">
         <v>42240</v>
       </c>
@@ -25649,7 +25733,7 @@
       </c>
       <c r="V473" s="20"/>
     </row>
-    <row r="474" hidden="1" spans="1:21">
+    <row r="474" spans="1:21">
       <c r="A474" s="20">
         <v>41981</v>
       </c>
@@ -25685,7 +25769,7 @@
       <c r="T474" s="39"/>
       <c r="U474" s="21"/>
     </row>
-    <row r="475" hidden="1" spans="1:22">
+    <row r="475" spans="1:22">
       <c r="A475" s="20">
         <v>42240</v>
       </c>
@@ -25730,7 +25814,7 @@
       <c r="U475" s="20"/>
       <c r="V475" s="20"/>
     </row>
-    <row r="476" hidden="1" spans="1:21">
+    <row r="476" spans="1:21">
       <c r="A476" s="20">
         <v>42487</v>
       </c>
@@ -25754,7 +25838,7 @@
       </c>
       <c r="U476" s="21"/>
     </row>
-    <row r="477" hidden="1" spans="1:22">
+    <row r="477" spans="1:22">
       <c r="A477" s="20">
         <v>42240</v>
       </c>
@@ -25797,7 +25881,7 @@
       <c r="U477" s="20"/>
       <c r="V477" s="20"/>
     </row>
-    <row r="478" hidden="1" spans="1:21">
+    <row r="478" spans="1:21">
       <c r="A478" s="20">
         <v>41709</v>
       </c>
@@ -25835,7 +25919,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="479" hidden="1" spans="1:21">
+    <row r="479" spans="1:21">
       <c r="A479" s="20">
         <v>41709</v>
       </c>
@@ -25876,7 +25960,7 @@
       </c>
       <c r="U479" s="21"/>
     </row>
-    <row r="480" hidden="1" spans="1:21">
+    <row r="480" spans="1:21">
       <c r="A480" s="20">
         <v>41981</v>
       </c>
@@ -25914,7 +25998,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="481" hidden="1" spans="1:21">
+    <row r="481" spans="1:21">
       <c r="A481" s="20">
         <v>42487</v>
       </c>
@@ -25935,7 +26019,7 @@
       </c>
       <c r="U481" s="21"/>
     </row>
-    <row r="482" hidden="1" spans="1:21">
+    <row r="482" spans="1:21">
       <c r="A482" s="20">
         <v>41709</v>
       </c>
@@ -25977,7 +26061,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="483" hidden="1" spans="1:20">
+    <row r="483" spans="1:20">
       <c r="A483" s="20">
         <v>41709</v>
       </c>
@@ -26010,7 +26094,7 @@
       <c r="S483" s="26"/>
       <c r="T483" s="26"/>
     </row>
-    <row r="484" hidden="1" spans="1:21">
+    <row r="484" spans="1:21">
       <c r="A484" s="20">
         <v>41709</v>
       </c>
@@ -26052,7 +26136,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="485" hidden="1" spans="1:21">
+    <row r="485" spans="1:21">
       <c r="A485" s="20">
         <v>42487</v>
       </c>
@@ -26091,7 +26175,7 @@
       </c>
       <c r="U485" s="50"/>
     </row>
-    <row r="486" hidden="1" spans="1:22">
+    <row r="486" spans="1:22">
       <c r="A486" s="20">
         <v>42487</v>
       </c>
@@ -26138,7 +26222,7 @@
       <c r="U486" s="50"/>
       <c r="V486" s="20"/>
     </row>
-    <row r="487" hidden="1" spans="1:22">
+    <row r="487" spans="1:22">
       <c r="A487" s="20">
         <v>41709</v>
       </c>
@@ -26187,7 +26271,7 @@
       </c>
       <c r="V487" s="20"/>
     </row>
-    <row r="488" hidden="1" spans="1:21">
+    <row r="488" spans="1:21">
       <c r="A488" s="20">
         <v>41709</v>
       </c>
@@ -26225,7 +26309,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="489" hidden="1" spans="1:21">
+    <row r="489" spans="1:21">
       <c r="A489" s="20">
         <v>41981</v>
       </c>
@@ -26270,7 +26354,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="490" hidden="1" spans="1:21">
+    <row r="490" spans="1:21">
       <c r="A490" s="20">
         <v>42320</v>
       </c>
@@ -26306,7 +26390,7 @@
       <c r="T490" s="26"/>
       <c r="U490" s="50"/>
     </row>
-    <row r="491" hidden="1" spans="1:22">
+    <row r="491" spans="1:22">
       <c r="A491" s="20">
         <v>42240</v>
       </c>
@@ -26359,7 +26443,7 @@
       </c>
       <c r="V491" s="20"/>
     </row>
-    <row r="492" hidden="1" spans="1:20">
+    <row r="492" spans="1:20">
       <c r="A492" s="20">
         <v>41709</v>
       </c>
@@ -26398,7 +26482,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="493" hidden="1" spans="1:21">
+    <row r="493" spans="1:21">
       <c r="A493" s="20">
         <v>42096</v>
       </c>
@@ -26438,7 +26522,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="494" hidden="1" spans="1:22">
+    <row r="494" spans="1:22">
       <c r="A494" s="20">
         <v>42240</v>
       </c>
@@ -26487,7 +26571,7 @@
       <c r="U494" s="52"/>
       <c r="V494" s="20"/>
     </row>
-    <row r="495" hidden="1" spans="1:22">
+    <row r="495" spans="1:22">
       <c r="A495" s="20">
         <v>42240</v>
       </c>
@@ -26538,7 +26622,7 @@
       </c>
       <c r="V495" s="20"/>
     </row>
-    <row r="496" hidden="1" spans="1:21">
+    <row r="496" spans="1:21">
       <c r="A496" s="20">
         <v>41709</v>
       </c>
@@ -26576,7 +26660,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="497" hidden="1" spans="1:20">
+    <row r="497" spans="1:20">
       <c r="A497" s="20">
         <v>41709</v>
       </c>
@@ -26613,7 +26697,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="498" hidden="1" spans="1:21">
+    <row r="498" spans="1:21">
       <c r="A498" s="20">
         <v>41709</v>
       </c>
@@ -26651,7 +26735,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="499" hidden="1" spans="1:21">
+    <row r="499" spans="1:21">
       <c r="A499" s="20">
         <v>41709</v>
       </c>
@@ -26689,7 +26773,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="500" hidden="1" spans="1:21">
+    <row r="500" spans="1:21">
       <c r="A500" s="20">
         <v>41709</v>
       </c>
@@ -26732,7 +26816,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="501" hidden="1" spans="1:20">
+    <row r="501" spans="1:20">
       <c r="A501" s="20">
         <v>41709</v>
       </c>
@@ -26769,7 +26853,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="502" hidden="1" spans="1:21">
+    <row r="502" spans="1:21">
       <c r="A502" s="20">
         <v>41709</v>
       </c>
@@ -26811,7 +26895,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="503" hidden="1" spans="1:21">
+    <row r="503" spans="1:21">
       <c r="A503" s="20">
         <v>41709</v>
       </c>
@@ -26851,7 +26935,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="504" hidden="1" spans="1:21">
+    <row r="504" spans="1:21">
       <c r="A504" s="20">
         <v>41709</v>
       </c>
@@ -26893,7 +26977,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="505" hidden="1" spans="1:22">
+    <row r="505" spans="1:22">
       <c r="A505" s="20">
         <v>42240</v>
       </c>
@@ -26938,7 +27022,7 @@
       </c>
       <c r="V505" s="20"/>
     </row>
-    <row r="506" hidden="1" spans="1:21">
+    <row r="506" spans="1:21">
       <c r="A506" s="20">
         <v>42593</v>
       </c>
@@ -26973,7 +27057,7 @@
       <c r="T506" s="40"/>
       <c r="U506" s="50"/>
     </row>
-    <row r="507" hidden="1" spans="1:21">
+    <row r="507" spans="1:21">
       <c r="A507" s="20">
         <v>41709</v>
       </c>
@@ -27015,7 +27099,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="508" hidden="1" spans="1:21">
+    <row r="508" spans="1:21">
       <c r="A508" s="20">
         <v>42487</v>
       </c>
@@ -27058,7 +27142,7 @@
       </c>
       <c r="U508" s="50"/>
     </row>
-    <row r="509" hidden="1" spans="1:21">
+    <row r="509" spans="1:21">
       <c r="A509" s="20">
         <v>41981</v>
       </c>
@@ -27098,7 +27182,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="510" hidden="1" spans="1:20">
+    <row r="510" spans="1:20">
       <c r="A510" s="20">
         <v>41709</v>
       </c>
@@ -27137,7 +27221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="511" hidden="1" spans="1:22">
+    <row r="511" spans="1:22">
       <c r="A511" s="20">
         <v>42240</v>
       </c>
@@ -27190,7 +27274,7 @@
       </c>
       <c r="V511" s="20"/>
     </row>
-    <row r="512" hidden="1" spans="1:21">
+    <row r="512" spans="1:21">
       <c r="A512" s="20">
         <v>42487</v>
       </c>
@@ -27224,7 +27308,7 @@
       </c>
       <c r="U512" s="50"/>
     </row>
-    <row r="513" hidden="1" spans="1:22">
+    <row r="513" spans="1:22">
       <c r="A513" s="20">
         <v>42240</v>
       </c>
@@ -27273,7 +27357,7 @@
       <c r="U513" s="52"/>
       <c r="V513" s="20"/>
     </row>
-    <row r="514" hidden="1" spans="1:22">
+    <row r="514" spans="1:22">
       <c r="A514" s="20">
         <v>41981</v>
       </c>
@@ -27317,7 +27401,7 @@
       <c r="U514" s="52"/>
       <c r="V514" s="20"/>
     </row>
-    <row r="515" hidden="1" spans="1:21">
+    <row r="515" spans="1:21">
       <c r="A515" s="20">
         <v>42320</v>
       </c>
@@ -27360,7 +27444,7 @@
       </c>
       <c r="U515" s="50"/>
     </row>
-    <row r="516" hidden="1" spans="1:21">
+    <row r="516" spans="1:21">
       <c r="A516" s="20">
         <v>42487</v>
       </c>
@@ -27403,7 +27487,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="517" hidden="1" spans="1:21">
+    <row r="517" spans="1:21">
       <c r="A517" s="20">
         <v>41709</v>
       </c>
@@ -27439,7 +27523,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="518" hidden="1" spans="1:20">
+    <row r="518" spans="1:20">
       <c r="A518" s="20">
         <v>41709</v>
       </c>
@@ -27477,7 +27561,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="519" hidden="1" spans="1:21">
+    <row r="519" spans="1:21">
       <c r="A519" s="20">
         <v>41981</v>
       </c>
@@ -27520,7 +27604,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="520" hidden="1" spans="1:20">
+    <row r="520" spans="1:20">
       <c r="A520" s="20">
         <v>41709</v>
       </c>
@@ -27560,7 +27644,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="521" hidden="1" spans="1:22">
+    <row r="521" spans="1:22">
       <c r="A521" s="20">
         <v>42240</v>
       </c>
@@ -27605,7 +27689,7 @@
       <c r="U521" s="52"/>
       <c r="V521" s="20"/>
     </row>
-    <row r="522" hidden="1" spans="1:20">
+    <row r="522" spans="1:20">
       <c r="A522" s="20">
         <v>41842</v>
       </c>
@@ -27624,9 +27708,12 @@
       <c r="H522" s="22" t="s">
         <v>756</v>
       </c>
+      <c r="J522" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="O522" s="23" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P522" s="19" t="s">
         <v>72</v>
@@ -27644,7 +27731,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="523" hidden="1" spans="1:22">
+    <row r="523" spans="1:22">
       <c r="A523" s="20">
         <v>42487</v>
       </c>
@@ -27699,7 +27786,7 @@
       </c>
       <c r="V523" s="20"/>
     </row>
-    <row r="524" hidden="1" spans="1:22">
+    <row r="524" spans="1:22">
       <c r="A524" s="20">
         <v>41709</v>
       </c>
@@ -27750,7 +27837,7 @@
       </c>
       <c r="V524" s="20"/>
     </row>
-    <row r="525" hidden="1" spans="1:22">
+    <row r="525" spans="1:22">
       <c r="A525" s="20">
         <v>42096</v>
       </c>
@@ -27793,7 +27880,7 @@
       <c r="U525" s="52"/>
       <c r="V525" s="20"/>
     </row>
-    <row r="526" hidden="1" spans="1:22">
+    <row r="526" spans="1:22">
       <c r="A526" s="20">
         <v>41709</v>
       </c>
@@ -27838,7 +27925,7 @@
       <c r="U526" s="52"/>
       <c r="V526" s="20"/>
     </row>
-    <row r="527" hidden="1" spans="1:22">
+    <row r="527" spans="1:22">
       <c r="A527" s="20">
         <v>42487</v>
       </c>
@@ -27860,14 +27947,16 @@
         <v>762</v>
       </c>
       <c r="I527" s="20"/>
-      <c r="J527" s="20"/>
+      <c r="J527" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="K527" s="20"/>
       <c r="L527" s="20"/>
       <c r="M527" s="20"/>
       <c r="N527" s="20"/>
       <c r="O527" s="23" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P527"/>
       <c r="Q527"/>
@@ -27881,7 +27970,7 @@
       <c r="U527" s="52"/>
       <c r="V527" s="20"/>
     </row>
-    <row r="528" hidden="1" spans="1:22">
+    <row r="528" spans="1:22">
       <c r="A528" s="20">
         <v>41709</v>
       </c>
@@ -27930,7 +28019,7 @@
       </c>
       <c r="V528" s="20"/>
     </row>
-    <row r="529" hidden="1" spans="1:22">
+    <row r="529" spans="1:22">
       <c r="A529" s="20">
         <v>42593</v>
       </c>
@@ -27977,7 +28066,7 @@
       <c r="U529" s="50"/>
       <c r="V529" s="20"/>
     </row>
-    <row r="530" hidden="1" spans="1:22">
+    <row r="530" spans="1:22">
       <c r="A530" s="20">
         <v>42593</v>
       </c>
@@ -28018,7 +28107,7 @@
       <c r="U530" s="50"/>
       <c r="V530" s="20"/>
     </row>
-    <row r="531" hidden="1" spans="1:22">
+    <row r="531" spans="1:22">
       <c r="A531" s="20">
         <v>41981</v>
       </c>
@@ -28064,7 +28153,7 @@
       </c>
       <c r="V531" s="20"/>
     </row>
-    <row r="532" hidden="1" spans="1:20">
+    <row r="532" spans="1:20">
       <c r="A532" s="20">
         <v>41981</v>
       </c>
@@ -28106,7 +28195,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="533" hidden="1" spans="1:21">
+    <row r="533" spans="1:21">
       <c r="A533" s="20">
         <v>41981</v>
       </c>
@@ -28147,7 +28236,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="534" hidden="1" spans="1:22">
+    <row r="534" spans="1:22">
       <c r="A534" s="20">
         <v>42240</v>
       </c>
@@ -28196,7 +28285,7 @@
       <c r="U534" s="52"/>
       <c r="V534" s="20"/>
     </row>
-    <row r="535" hidden="1" spans="1:22">
+    <row r="535" spans="1:22">
       <c r="A535" s="20">
         <v>42320</v>
       </c>
@@ -28247,7 +28336,7 @@
       <c r="U535" s="50"/>
       <c r="V535" s="20"/>
     </row>
-    <row r="536" hidden="1" spans="1:21">
+    <row r="536" spans="1:21">
       <c r="A536" s="20">
         <v>42487</v>
       </c>
@@ -28290,7 +28379,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="537" hidden="1" spans="1:21">
+    <row r="537" spans="1:21">
       <c r="A537" s="20">
         <v>42487</v>
       </c>
@@ -28333,7 +28422,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="538" hidden="1" spans="1:22">
+    <row r="538" spans="1:22">
       <c r="A538" s="20">
         <v>41709</v>
       </c>
@@ -28382,7 +28471,7 @@
       <c r="U538" s="52"/>
       <c r="V538" s="20"/>
     </row>
-    <row r="539" hidden="1" spans="1:21">
+    <row r="539" spans="1:21">
       <c r="A539" s="20">
         <v>41981</v>
       </c>
@@ -28429,7 +28518,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="540" hidden="1" spans="1:21">
+    <row r="540" spans="1:21">
       <c r="A540" s="20">
         <v>41709</v>
       </c>
@@ -28474,7 +28563,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="541" hidden="1" spans="1:22">
+    <row r="541" spans="1:22">
       <c r="A541" s="20">
         <v>42240</v>
       </c>
@@ -29326,9 +29415,12 @@
       <c r="H560" s="22" t="s">
         <v>806</v>
       </c>
+      <c r="J560" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="O560" s="23" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P560" s="18" t="s">
         <v>72</v>
@@ -29893,9 +29985,12 @@
       <c r="H572" s="22" t="s">
         <v>823</v>
       </c>
+      <c r="J572" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="O572" s="23" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P572" s="21"/>
       <c r="Q572" s="19" t="s">
@@ -30771,14 +30866,18 @@
         <v>855</v>
       </c>
       <c r="I591" s="20"/>
-      <c r="J591" s="20"/>
-      <c r="K591" s="20"/>
+      <c r="J591" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K591" s="20" t="s">
+        <v>166</v>
+      </c>
       <c r="L591" s="20"/>
       <c r="M591" s="20"/>
       <c r="N591" s="20"/>
       <c r="O591" s="23" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>亡语;奥秘;</v>
       </c>
       <c r="P591" s="19" t="s">
         <v>72</v>
@@ -31014,14 +31113,16 @@
         <v>862</v>
       </c>
       <c r="I596" s="20"/>
-      <c r="J596" s="20"/>
+      <c r="J596" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="K596" s="20"/>
       <c r="L596" s="20"/>
       <c r="M596" s="20"/>
       <c r="N596" s="20"/>
       <c r="O596" s="23" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P596" s="18" t="s">
         <v>72</v>
@@ -31267,14 +31368,16 @@
       <c r="I601" s="21" t="s">
         <v>799</v>
       </c>
-      <c r="J601" s="20"/>
+      <c r="J601" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="K601" s="20"/>
       <c r="L601" s="20"/>
       <c r="M601" s="20"/>
       <c r="N601" s="20"/>
       <c r="O601" s="23" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P601" s="21"/>
       <c r="Q601" s="19" t="s">
@@ -32423,14 +32526,18 @@
         <v>904</v>
       </c>
       <c r="I625" s="20"/>
-      <c r="J625" s="20"/>
-      <c r="K625" s="20"/>
+      <c r="J625" s="20" t="s">
+        <v>905</v>
+      </c>
+      <c r="K625" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="L625" s="20"/>
       <c r="M625" s="20"/>
       <c r="N625" s="20"/>
       <c r="O625" s="23" t="str">
         <f ca="1" t="shared" si="45"/>
-        <v/>
+        <v>法术伤害;亡语;</v>
       </c>
       <c r="P625" s="19" t="s">
         <v>84</v>
@@ -32471,7 +32578,7 @@
         <v>29</v>
       </c>
       <c r="H626" s="22" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I626" s="20"/>
       <c r="J626" s="20" t="s">
@@ -32497,7 +32604,7 @@
         <v>32</v>
       </c>
       <c r="U626" s="26" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="V626" s="20"/>
     </row>
@@ -32520,7 +32627,7 @@
         <v>29</v>
       </c>
       <c r="H627" s="22" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="I627" s="20"/>
       <c r="J627" s="20"/>
@@ -32563,7 +32670,7 @@
         <v>29</v>
       </c>
       <c r="H628" s="22" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="I628" s="20"/>
       <c r="J628" s="20"/>
@@ -32610,7 +32717,7 @@
         <v>29</v>
       </c>
       <c r="H629" s="22" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="I629" s="20"/>
       <c r="J629" s="20"/>
@@ -32636,7 +32743,7 @@
       </c>
       <c r="T629" s="26"/>
       <c r="U629" s="26" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="V629" s="20"/>
     </row>
@@ -32659,7 +32766,7 @@
         <v>29</v>
       </c>
       <c r="H630" s="22" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="I630" s="20"/>
       <c r="J630" s="20"/>
@@ -32708,7 +32815,7 @@
         <v>29</v>
       </c>
       <c r="H631" s="22" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="I631" s="20"/>
       <c r="J631" s="20"/>
@@ -32730,7 +32837,7 @@
         <v>21</v>
       </c>
       <c r="U631" s="26" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="V631" s="20"/>
     </row>
@@ -32753,7 +32860,7 @@
         <v>29</v>
       </c>
       <c r="H632" s="22" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="I632" s="20"/>
       <c r="J632" s="20"/>
@@ -32798,7 +32905,7 @@
         <v>29</v>
       </c>
       <c r="H633" s="22" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="I633" s="20"/>
       <c r="J633" s="20" t="s">
@@ -32849,17 +32956,19 @@
         <v>29</v>
       </c>
       <c r="H634" s="22" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="I634" s="20"/>
-      <c r="J634" s="20"/>
+      <c r="J634" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="K634" s="20"/>
       <c r="L634" s="20"/>
       <c r="M634" s="20"/>
       <c r="N634" s="20"/>
       <c r="O634" s="23" t="str">
         <f ca="1" t="shared" si="45"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P634" s="18" t="s">
         <v>72</v>
@@ -32894,7 +33003,7 @@
         <v>29</v>
       </c>
       <c r="H635" s="22" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="I635" s="20"/>
       <c r="J635" s="20" t="s">
@@ -32918,7 +33027,7 @@
       <c r="S635" s="26"/>
       <c r="T635" s="26"/>
       <c r="U635" s="26" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="V635" s="20"/>
     </row>
@@ -32941,17 +33050,19 @@
         <v>29</v>
       </c>
       <c r="H636" s="22" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="I636" s="20"/>
-      <c r="J636" s="20"/>
+      <c r="J636" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="K636" s="20"/>
       <c r="L636" s="20"/>
       <c r="M636" s="20"/>
       <c r="N636" s="20"/>
       <c r="O636" s="23" t="str">
         <f ca="1" t="shared" si="45"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P636" s="19" t="s">
         <v>68</v>
@@ -32967,7 +33078,7 @@
         <v>68</v>
       </c>
       <c r="U636" s="26" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="V636" s="20"/>
     </row>
@@ -32990,7 +33101,7 @@
         <v>29</v>
       </c>
       <c r="H637" s="22" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="I637" s="20"/>
       <c r="J637" s="20"/>
@@ -33037,17 +33148,19 @@
         <v>29</v>
       </c>
       <c r="H638" s="22" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="I638" s="20"/>
-      <c r="J638" s="20"/>
+      <c r="J638" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="K638" s="20"/>
       <c r="L638" s="20"/>
       <c r="M638" s="20"/>
       <c r="N638" s="20"/>
       <c r="O638" s="23" t="str">
         <f ca="1" t="shared" si="45"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P638" s="21"/>
       <c r="Q638" s="18" t="s">
@@ -33080,7 +33193,7 @@
         <v>29</v>
       </c>
       <c r="H639" s="22" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I639" s="20"/>
       <c r="J639" s="21" t="s">
@@ -33123,7 +33236,7 @@
         <v>29</v>
       </c>
       <c r="H640" s="22" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="I640" s="20"/>
       <c r="J640" s="20" t="s">
@@ -33166,7 +33279,7 @@
         <v>29</v>
       </c>
       <c r="H641" s="22" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="I641" s="20"/>
       <c r="J641" s="20"/>
@@ -33213,7 +33326,7 @@
         <v>29</v>
       </c>
       <c r="H642" s="22" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="I642" s="20"/>
       <c r="J642" s="20"/>
@@ -33235,7 +33348,7 @@
         <v>21</v>
       </c>
       <c r="U642" s="26" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="V642" s="21"/>
     </row>
@@ -33258,7 +33371,7 @@
         <v>29</v>
       </c>
       <c r="H643" s="22" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="I643" s="20"/>
       <c r="J643" s="21" t="s">
@@ -33284,7 +33397,7 @@
         <v>712</v>
       </c>
       <c r="U643" s="26" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="V643" s="21"/>
     </row>
@@ -33307,7 +33420,7 @@
         <v>29</v>
       </c>
       <c r="H644" s="22" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="I644" s="20"/>
       <c r="J644" s="20"/>
@@ -33348,7 +33461,7 @@
         <v>29</v>
       </c>
       <c r="H645" s="22" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="I645" s="20"/>
       <c r="J645" s="20" t="s">
@@ -33378,7 +33491,7 @@
         <v>68</v>
       </c>
       <c r="U645" s="26" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="V645" s="21"/>
     </row>
@@ -33401,7 +33514,7 @@
         <v>29</v>
       </c>
       <c r="H646" s="22" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="I646" s="20"/>
       <c r="J646" s="20" t="s">
@@ -33450,7 +33563,7 @@
         <v>29</v>
       </c>
       <c r="H647" s="22" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="I647" s="21" t="s">
         <v>799</v>
@@ -33497,7 +33610,7 @@
         <v>29</v>
       </c>
       <c r="H648" s="22" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="I648" s="20"/>
       <c r="J648" s="20"/>
@@ -33544,7 +33657,7 @@
         <v>29</v>
       </c>
       <c r="H649" s="22" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="I649" s="20"/>
       <c r="J649" s="20"/>
@@ -33568,7 +33681,7 @@
         <v>84</v>
       </c>
       <c r="U649" s="26" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="V649" s="21"/>
     </row>
@@ -33591,7 +33704,7 @@
         <v>29</v>
       </c>
       <c r="H650" s="22" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I650" s="20"/>
       <c r="J650" s="20" t="s">
@@ -33621,7 +33734,7 @@
         <v>32</v>
       </c>
       <c r="U650" s="26" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="V650" s="21"/>
     </row>
@@ -33644,7 +33757,7 @@
         <v>29</v>
       </c>
       <c r="H651" s="22" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="I651" s="20"/>
       <c r="J651" s="20"/>
@@ -33670,7 +33783,7 @@
         <v>68</v>
       </c>
       <c r="U651" s="26" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="V651" s="21"/>
     </row>
@@ -33693,7 +33806,7 @@
         <v>29</v>
       </c>
       <c r="H652" s="22" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="I652" s="20"/>
       <c r="J652" s="20"/>
@@ -33738,7 +33851,7 @@
         <v>29</v>
       </c>
       <c r="H653" s="22" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="O653" s="23" t="str">
         <f ca="1" t="shared" si="45"/>
@@ -33775,11 +33888,14 @@
         <v>29</v>
       </c>
       <c r="H654" s="22" t="s">
-        <v>944</v>
+        <v>945</v>
+      </c>
+      <c r="J654" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="O654" s="23" t="str">
         <f ca="1" t="shared" si="45"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P654" s="21"/>
       <c r="Q654" s="19" t="s">
@@ -33811,7 +33927,7 @@
         <v>29</v>
       </c>
       <c r="H655" s="22" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="O655" s="23" t="str">
         <f ca="1" t="shared" si="45"/>
@@ -33827,7 +33943,7 @@
         <v>480</v>
       </c>
       <c r="U655" s="26" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="V655" s="21"/>
     </row>
@@ -33848,7 +33964,7 @@
         <v>29</v>
       </c>
       <c r="H656" s="22" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="O656" s="23" t="str">
         <f ca="1" t="shared" si="45"/>
@@ -33886,7 +34002,7 @@
         <v>29</v>
       </c>
       <c r="H657" s="22" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="J657" s="21" t="s">
         <v>31</v>
@@ -33932,7 +34048,7 @@
         <v>29</v>
       </c>
       <c r="H658" s="22" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="J658" s="21" t="s">
         <v>31</v>
@@ -33971,13 +34087,13 @@
         <v>29</v>
       </c>
       <c r="H659" s="22" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="J659" s="21" t="s">
         <v>31</v>
       </c>
       <c r="K659" s="21" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="O659" s="23" t="str">
         <f ca="1" t="shared" si="45"/>
@@ -33997,7 +34113,7 @@
         <v>32</v>
       </c>
       <c r="U659" s="26" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="V659" s="21"/>
     </row>
@@ -34018,7 +34134,7 @@
         <v>29</v>
       </c>
       <c r="H660" s="22" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="O660" s="23" t="str">
         <f ca="1" t="shared" si="45"/>
@@ -34058,7 +34174,7 @@
         <v>29</v>
       </c>
       <c r="H661" s="22" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="J661" s="21" t="s">
         <v>546</v>
@@ -34083,7 +34199,7 @@
         <v>35</v>
       </c>
       <c r="U661" s="26" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="V661" s="21"/>
     </row>
@@ -34104,7 +34220,7 @@
         <v>29</v>
       </c>
       <c r="H662" s="22" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="J662" s="20" t="s">
         <v>31</v>
@@ -34126,7 +34242,7 @@
         <v>32</v>
       </c>
       <c r="U662" s="26" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="V662" s="21"/>
     </row>
@@ -34147,7 +34263,7 @@
         <v>29</v>
       </c>
       <c r="H663" s="22" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J663" s="20" t="s">
         <v>31</v>
@@ -34164,7 +34280,7 @@
       <c r="S663" s="26"/>
       <c r="T663" s="26"/>
       <c r="U663" s="26" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="V663" s="21"/>
     </row>
@@ -34185,7 +34301,7 @@
         <v>29</v>
       </c>
       <c r="H664" s="22" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="O664" s="23" t="str">
         <f ca="1" t="shared" si="45"/>
@@ -34207,7 +34323,7 @@
         <v>35</v>
       </c>
       <c r="U664" s="26" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="V664" s="21"/>
     </row>
@@ -34228,7 +34344,7 @@
         <v>29</v>
       </c>
       <c r="H665" s="22" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="J665" s="21" t="s">
         <v>31</v>
@@ -34272,7 +34388,7 @@
         <v>29</v>
       </c>
       <c r="H666" s="22" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="J666" s="21" t="s">
         <v>31</v>
@@ -34295,7 +34411,7 @@
         <v>32</v>
       </c>
       <c r="U666" s="26" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="V666" s="21"/>
     </row>
@@ -34318,7 +34434,7 @@
         <v>29</v>
       </c>
       <c r="H667" s="22" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="I667" s="21" t="s">
         <v>311</v>
@@ -34367,7 +34483,7 @@
         <v>29</v>
       </c>
       <c r="H668" s="22" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="O668" s="23" t="str">
         <f ca="1" t="shared" si="45"/>
@@ -34405,7 +34521,7 @@
         <v>29</v>
       </c>
       <c r="H669" s="22" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="J669" s="21" t="s">
         <v>31</v>
@@ -34451,7 +34567,7 @@
         <v>29</v>
       </c>
       <c r="H670" s="22" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="J670" s="21" t="s">
         <v>31</v>
@@ -34492,7 +34608,7 @@
         <v>29</v>
       </c>
       <c r="H671" s="22" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="O671" s="23" t="str">
         <f ca="1" t="shared" si="45"/>
@@ -34514,7 +34630,7 @@
         <v>68</v>
       </c>
       <c r="U671" s="26" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="V671" s="21"/>
     </row>
@@ -34535,7 +34651,7 @@
         <v>29</v>
       </c>
       <c r="H672" s="22" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="O672" s="23" t="str">
         <f ca="1" t="shared" si="45"/>
@@ -34575,7 +34691,7 @@
         <v>29</v>
       </c>
       <c r="H673" s="22" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="I673" s="20"/>
       <c r="J673" s="20" t="s">
@@ -34623,7 +34739,7 @@
         <v>29</v>
       </c>
       <c r="H674" s="22" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="O674" s="23" t="str">
         <f ca="1" t="shared" si="45"/>
@@ -34659,11 +34775,14 @@
         <v>29</v>
       </c>
       <c r="H675" s="22" t="s">
-        <v>973</v>
+        <v>974</v>
+      </c>
+      <c r="J675" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="O675" s="23" t="str">
         <f ca="1" t="shared" ref="O675:O738" si="46">PHONETIC(J675:N675)</f>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P675" s="18" t="s">
         <v>72</v>
@@ -34697,7 +34816,7 @@
         <v>29</v>
       </c>
       <c r="H676" s="22" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="O676" s="23" t="str">
         <f ca="1" t="shared" si="46"/>
@@ -34717,7 +34836,7 @@
         <v>193</v>
       </c>
       <c r="U676" s="26" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="V676" s="21"/>
     </row>
@@ -34740,7 +34859,7 @@
         <v>29</v>
       </c>
       <c r="H677" s="22" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I677" s="20"/>
       <c r="J677" s="21" t="s">
@@ -34787,7 +34906,7 @@
         <v>29</v>
       </c>
       <c r="H678" s="22" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="O678" s="23" t="str">
         <f ca="1" t="shared" si="46"/>
@@ -34809,7 +34928,7 @@
         <v>193</v>
       </c>
       <c r="U678" s="26" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="V678" s="21"/>
     </row>
@@ -34830,7 +34949,7 @@
         <v>29</v>
       </c>
       <c r="H679" s="22" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="J679" s="21" t="s">
         <v>31</v>
@@ -34867,7 +34986,7 @@
         <v>29</v>
       </c>
       <c r="H680" s="22" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="O680" s="23" t="str">
         <f ca="1" t="shared" si="46"/>
@@ -34903,7 +35022,7 @@
         <v>29</v>
       </c>
       <c r="H681" s="22" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="O681" s="23" t="str">
         <f ca="1" t="shared" si="46"/>
@@ -34925,7 +35044,7 @@
         <v>190</v>
       </c>
       <c r="U681" s="26" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="V681" s="21"/>
     </row>
@@ -34946,7 +35065,7 @@
         <v>29</v>
       </c>
       <c r="H682" s="22" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="J682" s="21" t="s">
         <v>53</v>
@@ -34993,7 +35112,7 @@
         <v>29</v>
       </c>
       <c r="H683" s="22" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="I683" s="20"/>
       <c r="J683" s="20" t="s">
@@ -35039,7 +35158,7 @@
         <v>29</v>
       </c>
       <c r="H684" s="22" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="J684" s="21" t="s">
         <v>31</v>
@@ -35078,7 +35197,7 @@
         <v>29</v>
       </c>
       <c r="H685" s="22" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="J685" s="21" t="s">
         <v>31</v>
@@ -35120,13 +35239,13 @@
         <v>29</v>
       </c>
       <c r="H686" s="22" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="J686" s="21" t="s">
         <v>31</v>
       </c>
       <c r="K686" s="21" t="s">
-        <v>988</v>
+        <v>905</v>
       </c>
       <c r="O686" s="23" t="str">
         <f ca="1" t="shared" si="46"/>
@@ -35631,14 +35750,16 @@
         <v>1006</v>
       </c>
       <c r="I697" s="20"/>
-      <c r="J697" s="20"/>
+      <c r="J697" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="K697" s="20"/>
       <c r="L697" s="20"/>
       <c r="M697" s="20"/>
       <c r="N697" s="20"/>
       <c r="O697" s="23" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P697" s="58"/>
       <c r="Q697" s="19" t="s">
@@ -36365,7 +36486,7 @@
         <v>32</v>
       </c>
       <c r="U712" s="26" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="V712" s="20"/>
     </row>
@@ -37304,7 +37425,7 @@
       </c>
       <c r="I732" s="20"/>
       <c r="J732" s="21" t="s">
-        <v>988</v>
+        <v>905</v>
       </c>
       <c r="K732" s="20"/>
       <c r="L732" s="20"/>
@@ -38053,7 +38174,7 @@
         <v>31</v>
       </c>
       <c r="K747" s="21" t="s">
-        <v>988</v>
+        <v>905</v>
       </c>
       <c r="L747" s="20"/>
       <c r="M747" s="20"/>
@@ -38312,14 +38433,16 @@
         <v>1079</v>
       </c>
       <c r="I752" s="20"/>
-      <c r="J752" s="20"/>
+      <c r="J752" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="K752" s="20"/>
       <c r="L752" s="20"/>
       <c r="M752" s="20"/>
       <c r="N752" s="20"/>
       <c r="O752" s="23" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P752" s="19" t="s">
         <v>68</v>
@@ -38555,7 +38678,7 @@
       </c>
       <c r="I757" s="20"/>
       <c r="J757" s="21" t="s">
-        <v>988</v>
+        <v>905</v>
       </c>
       <c r="K757" s="20"/>
       <c r="L757" s="20"/>
@@ -38709,7 +38832,7 @@
         <v>1088</v>
       </c>
       <c r="J760" s="21" t="s">
-        <v>988</v>
+        <v>905</v>
       </c>
       <c r="O760" s="23" t="str">
         <f ca="1" t="shared" si="47"/>
@@ -38802,7 +38925,7 @@
       </c>
       <c r="I762" s="20"/>
       <c r="J762" s="21" t="s">
-        <v>988</v>
+        <v>905</v>
       </c>
       <c r="K762" s="20"/>
       <c r="L762" s="20"/>
@@ -39399,7 +39522,7 @@
         <v>31</v>
       </c>
       <c r="K774" s="21" t="s">
-        <v>988</v>
+        <v>905</v>
       </c>
       <c r="L774" s="20"/>
       <c r="M774" s="20"/>
@@ -39424,7 +39547,7 @@
         <v>32</v>
       </c>
       <c r="U774" s="26" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="V774" s="20"/>
     </row>
@@ -39622,7 +39745,7 @@
         <v>32</v>
       </c>
       <c r="U778" s="26" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="V778" s="20"/>
     </row>
@@ -40653,7 +40776,7 @@
         <v>32</v>
       </c>
       <c r="U799" s="26" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="V799" s="20"/>
     </row>
@@ -40834,7 +40957,7 @@
         <v>32</v>
       </c>
       <c r="U803" s="26" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="V803" s="20"/>
     </row>
@@ -41334,9 +41457,12 @@
       <c r="H814" s="22" t="s">
         <v>1154</v>
       </c>
+      <c r="J814" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="O814" s="23" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P814" s="18" t="s">
         <v>72</v>
@@ -41942,14 +42068,16 @@
       <c r="I827" s="21" t="s">
         <v>799</v>
       </c>
-      <c r="J827" s="20"/>
+      <c r="J827" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="K827" s="20"/>
       <c r="L827" s="20"/>
       <c r="M827" s="20"/>
       <c r="N827" s="20"/>
       <c r="O827" s="23" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P827" s="21"/>
       <c r="Q827" s="19" t="s">
@@ -42694,14 +42822,16 @@
         <v>1187</v>
       </c>
       <c r="I843" s="20"/>
-      <c r="J843" s="20"/>
+      <c r="J843" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="K843" s="20"/>
       <c r="L843" s="20"/>
       <c r="M843" s="20"/>
       <c r="N843" s="20"/>
       <c r="O843" s="23" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P843" s="21"/>
       <c r="Q843" s="18" t="s">
@@ -42784,14 +42914,16 @@
         <v>1189</v>
       </c>
       <c r="I845" s="20"/>
-      <c r="J845" s="20"/>
+      <c r="J845" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="K845" s="20"/>
       <c r="L845" s="20"/>
       <c r="M845" s="20"/>
       <c r="N845" s="20"/>
       <c r="O845" s="23" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P845" s="18" t="s">
         <v>72</v>
@@ -43569,12 +43701,14 @@
       <c r="K861" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="L861" s="20"/>
+      <c r="L861" s="20" t="s">
+        <v>952</v>
+      </c>
       <c r="M861" s="20"/>
       <c r="N861" s="20"/>
       <c r="O861" s="23" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>战吼;亡语;</v>
+        <v>战吼;亡语;零件;</v>
       </c>
       <c r="P861" s="18" t="s">
         <v>32</v>
@@ -43616,14 +43750,16 @@
         <v>764</v>
       </c>
       <c r="I862" s="20"/>
-      <c r="J862" s="20"/>
+      <c r="J862" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="K862" s="20"/>
       <c r="L862" s="20"/>
       <c r="M862" s="20"/>
       <c r="N862" s="20"/>
       <c r="O862" s="23" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P862" s="19" t="s">
         <v>72</v>
@@ -43667,14 +43803,16 @@
         <v>1210</v>
       </c>
       <c r="I863" s="20"/>
-      <c r="J863" s="20"/>
+      <c r="J863" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="K863" s="20"/>
       <c r="L863" s="20"/>
       <c r="M863" s="20"/>
       <c r="N863" s="20"/>
       <c r="O863" s="23" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P863" s="18" t="s">
         <v>72</v>
@@ -43861,14 +43999,16 @@
         <v>1214</v>
       </c>
       <c r="I867" s="20"/>
-      <c r="J867" s="20"/>
+      <c r="J867" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="K867" s="20"/>
       <c r="L867" s="20"/>
       <c r="M867" s="20"/>
       <c r="N867" s="20"/>
       <c r="O867" s="23" t="str">
-        <f ca="1" t="shared" ref="O867:O926" si="49">PHONETIC(J867:N867)</f>
-        <v/>
+        <f ca="1" t="shared" ref="O867:O927" si="49">PHONETIC(J867:N867)</f>
+        <v>亡语;</v>
       </c>
       <c r="P867" s="19" t="s">
         <v>72</v>
@@ -45109,9 +45249,12 @@
       <c r="I894" s="21" t="s">
         <v>311</v>
       </c>
+      <c r="J894" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="O894" s="23" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P894" s="21"/>
       <c r="Q894" s="18" t="s">
@@ -45436,9 +45579,12 @@
       <c r="H901" s="22" t="s">
         <v>1256</v>
       </c>
+      <c r="J901" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="O901" s="23" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P901" s="18" t="s">
         <v>72</v>
@@ -45503,7 +45649,7 @@
         <v>84</v>
       </c>
       <c r="U902" s="26" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="V902" s="20"/>
     </row>
@@ -45893,9 +46039,12 @@
       <c r="J911" s="21" t="s">
         <v>31</v>
       </c>
+      <c r="K911" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="O911" s="23" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>战吼;</v>
+        <v>战吼;亡语;</v>
       </c>
       <c r="P911" s="19" t="s">
         <v>32</v>
@@ -45991,14 +46140,16 @@
       <c r="I913" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="J913" s="20"/>
+      <c r="J913" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="K913" s="20"/>
       <c r="L913" s="20"/>
       <c r="M913" s="20"/>
       <c r="N913" s="20"/>
       <c r="O913" s="23" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>亡语;</v>
       </c>
       <c r="P913" s="19" t="s">
         <v>35</v>
@@ -46421,7 +46572,7 @@
       </c>
       <c r="V922" s="20"/>
     </row>
-    <row r="923" hidden="1" spans="6:21">
+    <row r="923" spans="6:21">
       <c r="F923" s="24"/>
       <c r="H923" s="60"/>
       <c r="O923" s="23" t="str">
@@ -46430,7 +46581,7 @@
       </c>
       <c r="U923" s="21"/>
     </row>
-    <row r="924" hidden="1" spans="6:21">
+    <row r="924" spans="6:21">
       <c r="F924" s="24"/>
       <c r="H924" s="60"/>
       <c r="O924" s="23" t="str">
@@ -46439,7 +46590,7 @@
       </c>
       <c r="U924" s="21"/>
     </row>
-    <row r="925" hidden="1" spans="6:21">
+    <row r="925" spans="6:21">
       <c r="F925" s="24"/>
       <c r="H925" s="60"/>
       <c r="O925" s="23" t="str">
@@ -46448,7 +46599,7 @@
       </c>
       <c r="U925" s="21"/>
     </row>
-    <row r="926" hidden="1" spans="6:21">
+    <row r="926" spans="6:21">
       <c r="F926" s="24"/>
       <c r="H926" s="60"/>
       <c r="O926" s="23" t="str">
@@ -46457,15 +46608,36 @@
       </c>
       <c r="U926" s="21"/>
     </row>
+    <row r="927" spans="1:15">
+      <c r="A927" s="20">
+        <v>42487</v>
+      </c>
+      <c r="B927" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C927" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F927" s="22">
+        <v>8</v>
+      </c>
+      <c r="G927" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H927" s="22" t="s">
+        <v>1280</v>
+      </c>
+      <c r="J927" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="O927" s="23" t="str">
+        <f ca="1" t="shared" si="49"/>
+        <v>亡语;</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V926">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="equal" val="圣骑士"/>
-        <customFilter operator="equal" val="中立"/>
-      </customFilters>
-    </filterColumn>
-    <sortState ref="A1:V926">
+  <autoFilter ref="A1:V927">
+    <sortState ref="A1:V927">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
@@ -46893,28 +47065,28 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1 C1 O1 O247 O259 O260 O261 O262 O263 O264 O265 O266 O267 O268 O269 O270 O271 O272 O273 O274 O275 O276 O277 O278 O279 O830 O831 O850 O851 O852 O853 O854 O855 O856 O857 O858 O859 O860 O861 O862 O863 O927 O2:O8 O9:O45 O46:O58 O59:O75 O76:O246 O248:O258 O280:O363"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C830 C831 C832 C833 C834 C835 C836 C837 C838 C839 C840 C841 C842 C843 C844 C845 C846 C847 C848 C849 C850 C851 C852 C853 C854 C855 C856 C857 C858 C859 C860 C861 C862 C863 C864 C865 C866 C867 C868 C869 C870 C871 C872 C873 C874 C899 C900 C923 C2:C302 C303:C363 C364:C411 C412:C468 C469:C516 C517:C564 C565:C613 C614:C661 C662:C709 C710:C769 C770:C826 C827:C829 C875:C883 C884:C886 C887:C895 C896:C898 C901:C907 C908:C910 C911:C919 C920:C922 C924:C926 C927:C65536">
+      <formula1>"德鲁伊,猎人,法师,圣骑士,牧师,潜行者,萨满祭司,术士,战士,中立"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G292 G301 G302 G307 G317 G318 G327 G328 G333 G334 G346 G347 G348 G378 G386 G470 G485 G919 G923 G1:G291 G293:G300 G303:G306 G308:G316 G319:G326 G329:G332 G335:G345 G349:G377 G379:G385 G387:G469 G471:G484 G486:G709 G710:G918 G920:G922 G924:G926 G927:G1048576">
       <formula1>"随从,法术,武器"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1 C1 O1 O247 O830 O831 O850 O851 O852 O853 O854 O855 O856 O857 O858 O859 O860 O861 O862 O863 O2:O8 O9:O45 O46:O58 O59:O75 O76:O246 O248:O363"/>
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A156 A751 A878 A2:A33 A34:A116 A117:A155 A157:A235 A236:A257 A258:A280 A281:A292 A293:A308 A309:A311 A312:A319 A320:A322 A323:A353 A354:A357 A358:A402 A403:A406 A407:A413 A414:A420 A421:A625 A626:A721 A722:A750 A752:A868 A869:A877 A879:A911 A912:A923 A924:A926 A927:A1048576">
+    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A156 A751 A878 A927 A2:A33 A34:A116 A117:A155 A157:A235 A236:A257 A258:A280 A281:A292 A293:A308 A309:A311 A312:A319 A320:A322 A323:A353 A354:A357 A358:A402 A403:A406 A407:A413 A414:A420 A421:A625 A626:A721 A722:A750 A752:A868 A869:A877 A879:A911 A912:A923 A924:A926 A928:A1048576">
       <formula1>41709</formula1>
       <formula2>TODAY()</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B109 B110 B111 B112 B116 B117 B118 B119 B120 B121 B122 B123 B124 B125 B128 B129 B130 B131 B132 B133 B134 B135 B136 B137 B138 B139 B140 B141 B142 B143 B144 B145 B146 B147 B148 B149 B150 B151 B152 B153 B154 B155 B156 B157 B187 B188 B189 B192 B193 B194 B195 B196 B197 B198 B199 B200 B201 B202 B203 B204 B205 B206 B207 B208 B209 B210 B211 B212 B213 B214 B215 B216 B217 B218 B219 B220 B221 B222 B223 B224 B225 B226 B227 B228 B229 B230 B231 B232 B233 B234 B235 B236 B237 B238 B239 B240 B241 B242 B243 B244 B245 B246 B247 B248 B249 B250 B251 B252 B253 B254 B255 B256 B257 B258 B259 B260 B261 B262 B263 B264 B265 B266 B267 B268 B269 B270 B271 B272 B273 B274 B275 B276 B277 B278 B279 B280 B281 B284 B285 B286 B287 B288 B289 B290 B291 B292 B293 B294 B295 B296 B297 B298 B299 B300 B301 B302 B303 B304 B305 B306 B307 B308 B309 B310 B311 B312 B313 B314 B315 B316 B317 B318 B319 B320 B321 B322 B323 B324 B325 B326 B327 B328 B329 B330 B331 B332 B333 B334 B335 B336 B337 B338 B339 B340 B341 B342 B343 B344 B345 B346 B347 B348 B349 B350 B351 B352 B353 B354 B355 B356 B357 B358 B359 B360 B361 B362 B363 B364 B365 B366 B367 B368 B369 B370 B371 B372 B373 B374 B375 B376 B377 B378 B379 B380 B381 B382 B383 B384 B385 B386 B387 B388 B389 B390 B391 B392 B393 B394 B395 B396 B397 B398 B399 B400 B401 B402 B403 B404 B405 B406 B407 B408 B409 B410 B411 B412 B413 B414 B415 B416 B417 B418 B419 B420 B421 B422 B423 B424 B425 B426 B427 B428 B429 B430 B431 B432 B433 B434 B435 B436 B437 B438 B439 B440 B441 B442 B443 B444 B445 B446 B447 B448 B449 B450 B451 B452 B453 B454 B455 B456 B457 B458 B459 B460 B461 B462 B463 B464 B465 B466 B467 B468 B469 B470 B471 B472 B473 B474 B475 B476 B477 B478 B479 B480 B481 B482 B483 B484 B485 B486 B487 B488 B489 B490 B491 B492 B493 B494 B495 B496 B497 B498 B499 B500 B501 B502 B503 B504 B505 B506 B507 B508 B509 B510 B511 B512 B513 B514 B515 B516 B517 B518 B519 B520 B521 B522 B523 B524 B525 B526 B527 B528 B529 B530 B531 B532 B533 B534 B535 B536 B537 B538 B542 B543 B544 B545 B546 B547 B548 B549 B550 B551 B552 B553 B554 B555 B556 B557 B558 B559 B560 B561 B562 B563 B564 B565 B566 B567 B568 B569 B570 B571 B572 B573 B574 B575 B576 B577 B578 B579 B580 B581 B582 B583 B584 B585 B586 B587 B588 B589 B590 B591 B592 B593 B596 B597 B598 B599 B600 B601 B602 B603 B604 B605 B606 B607 B608 B609 B610 B611 B612 B613 B614 B615 B616 B617 B618 B619 B620 B621 B622 B623 B624 B625 B626 B627 B628 B629 B630 B631 B632 B633 B634 B635 B636 B637 B638 B639 B640 B641 B642 B643 B644 B645 B646 B647 B648 B649 B650 B651 B652 B655 B656 B657 B658 B659 B660 B661 B662 B663 B664 B665 B666 B667 B668 B669 B670 B671 B672 B673 B674 B675 B676 B677 B678 B679 B680 B681 B682 B683 B684 B685 B686 B689 B851 B852 B853 B854 B855 B856 B857 B858 B873 B874 B875 B884 B885 B886 B887 B896 B899 B900 B908 B909 B910 B911 B920 B7:B8 B49:B108 B113:B115 B126:B127 B158:B186 B190:B191 B282:B283 B539:B541 B594:B595 B653:B654 B687:B688 B690:B850 B859:B864 B865:B872 B876:B883 B888:B895 B897:B898 B901:B907 B912:B919 B921:B922 B923:B924 B925:B926 B927:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B109 B110 B111 B112 B116 B117 B118 B119 B120 B121 B122 B123 B124 B125 B128 B129 B130 B131 B132 B133 B134 B135 B136 B137 B138 B139 B140 B141 B142 B143 B144 B145 B146 B147 B148 B149 B150 B151 B152 B153 B154 B155 B156 B157 B187 B188 B189 B192 B193 B194 B195 B196 B197 B198 B199 B200 B201 B202 B203 B204 B205 B206 B207 B208 B209 B210 B211 B212 B213 B214 B215 B216 B217 B218 B219 B220 B221 B222 B223 B224 B225 B226 B227 B228 B229 B230 B231 B232 B233 B234 B235 B236 B237 B238 B239 B240 B241 B242 B243 B244 B245 B246 B247 B248 B249 B250 B251 B252 B253 B254 B255 B256 B257 B258 B259 B260 B261 B262 B263 B264 B265 B266 B267 B268 B269 B270 B271 B272 B273 B274 B275 B276 B277 B278 B279 B280 B281 B284 B285 B286 B287 B288 B289 B290 B291 B292 B293 B294 B295 B296 B297 B298 B299 B300 B301 B302 B303 B304 B305 B306 B307 B308 B309 B310 B311 B312 B313 B314 B315 B316 B317 B318 B319 B320 B321 B322 B323 B324 B325 B326 B327 B328 B329 B330 B331 B332 B333 B334 B335 B336 B337 B338 B339 B340 B341 B342 B343 B344 B345 B346 B347 B348 B349 B350 B351 B352 B353 B354 B355 B356 B357 B358 B359 B360 B361 B362 B363 B364 B365 B366 B367 B368 B369 B370 B371 B372 B373 B374 B375 B376 B377 B378 B379 B380 B381 B382 B383 B384 B385 B386 B387 B388 B389 B390 B391 B392 B393 B394 B395 B396 B397 B398 B399 B400 B401 B402 B403 B404 B405 B406 B407 B408 B409 B410 B411 B412 B413 B414 B415 B416 B417 B418 B419 B420 B421 B422 B423 B424 B425 B426 B427 B428 B429 B430 B431 B432 B433 B434 B435 B436 B437 B438 B439 B440 B441 B442 B443 B444 B445 B446 B447 B448 B449 B450 B451 B452 B453 B454 B455 B456 B457 B458 B459 B460 B461 B462 B463 B464 B465 B466 B467 B468 B469 B470 B471 B472 B473 B474 B475 B476 B477 B478 B479 B480 B481 B482 B483 B484 B485 B486 B487 B488 B489 B490 B491 B492 B493 B494 B495 B496 B497 B498 B499 B500 B501 B502 B503 B504 B505 B506 B507 B508 B509 B510 B511 B512 B513 B514 B515 B516 B517 B518 B519 B520 B521 B522 B523 B524 B525 B526 B527 B528 B529 B530 B531 B532 B533 B534 B535 B536 B537 B538 B542 B543 B544 B545 B546 B547 B548 B549 B550 B551 B552 B553 B554 B555 B556 B557 B558 B559 B560 B561 B562 B563 B564 B565 B566 B567 B568 B569 B570 B571 B572 B573 B574 B575 B576 B577 B578 B579 B580 B581 B582 B583 B584 B585 B586 B587 B588 B589 B590 B591 B592 B593 B596 B597 B598 B599 B600 B601 B602 B603 B604 B605 B606 B607 B608 B609 B610 B611 B612 B613 B614 B615 B616 B617 B618 B619 B620 B621 B622 B623 B624 B625 B626 B627 B628 B629 B630 B631 B632 B633 B634 B635 B636 B637 B638 B639 B640 B641 B642 B643 B644 B645 B646 B647 B648 B649 B650 B651 B652 B655 B656 B657 B658 B659 B660 B661 B662 B663 B664 B665 B666 B667 B668 B669 B670 B671 B672 B673 B674 B675 B676 B677 B678 B679 B680 B681 B682 B683 B684 B685 B686 B689 B851 B852 B853 B854 B855 B856 B857 B858 B873 B874 B875 B884 B885 B886 B887 B896 B899 B900 B908 B909 B910 B911 B920 B927 B7:B8 B49:B108 B113:B115 B126:B127 B158:B186 B190:B191 B282:B283 B539:B541 B594:B595 B653:B654 B687:B688 B690:B850 B859:B864 B865:B872 B876:B883 B888:B895 B897:B898 B901:B907 B912:B919 B921:B922 B923:B924 B925:B926 B928:B1048576">
       <formula1>"基本,经典,奖励,纳克萨玛斯,地精大战侏儒,黑石山的火焰,冠军的试练,探险者协会,上古之神,卡拉赞"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J279 K279:N279 J282 K282:N282 J300 K300:N300 J328 K328:N328 J341 K341:N341 J352 K352:N352 J444 K444 L444:N444 J458 K458:N458 J459 K459:N459 J527 K527:N527 J1:N278 J280:N281 J283:N299 J301:N327 J329:N340 J342:N351 J353:N443 J445:N457 J460:N526 J528:N1048576">
+      <formula1>"战吼;,激怒;,亡语;,潜行;,冲锋;,法术伤害;,风怒;,圣盾;,嘲讽;,激励;,过载;,连击;,免疫;,传说;,奥秘;,冻结;,抉择;,发现;,沉默;,零件;"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="已有此项" sqref="H$1:H$1048576">
       <formula1>COUNTIF(H:H,H1)=1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C830 C831 C832 C833 C834 C835 C836 C837 C838 C839 C840 C841 C842 C843 C844 C845 C846 C847 C848 C849 C850 C851 C852 C853 C854 C855 C856 C857 C858 C859 C860 C861 C862 C863 C864 C865 C866 C867 C868 C869 C870 C871 C872 C873 C874 C899 C900 C923 C2:C302 C303:C363 C364:C411 C412:C468 C469:C516 C517:C564 C565:C613 C614:C661 C662:C709 C710:C769 C770:C826 C827:C829 C875:C883 C884:C886 C887:C895 C896:C898 C901:C907 C908:C910 C911:C919 C920:C922 C924:C926 C927:C65536">
-      <formula1>"德鲁伊,猎人,法师,圣骑士,牧师,潜行者,萨满祭司,术士,战士,中立"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
       <formula1>"野兽,机械,龙,鱼人,恶魔,海盗"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:N$1048576">
-      <formula1>"战吼;,激怒;,亡语;,潜行;,冲锋;,法术伤害;,风怒;,圣盾;,嘲讽;,激励;,过载;,连击;,免疫;,传说;,奥秘;,冻结;,抉择;,发现;,沉默;,零件;"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
@@ -46945,12 +47117,12 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -46980,7 +47152,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -46997,7 +47169,7 @@
         <v>0.852</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -47014,7 +47186,7 @@
         <v>1.33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -47031,7 +47203,7 @@
         <v>0.41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -47048,7 +47220,7 @@
         <v>0.33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -47066,7 +47238,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -47083,7 +47255,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -47101,7 +47273,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -47118,12 +47290,12 @@
         <v>0.66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B14:B18)</f>
@@ -47140,7 +47312,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -47154,7 +47326,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B15" s="2">
         <v>0.5</v>
@@ -47215,22 +47387,22 @@
     </row>
     <row r="21" ht="17.25" spans="1:1">
       <c r="A21" s="16" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="22" ht="17.25" spans="1:1">
       <c r="A22" s="17" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="1:1">
       <c r="A23" s="18" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="1:1">
       <c r="A24" s="19" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
   </sheetData>

--- a/Gamming/卡牌分类.xlsx
+++ b/Gamming/卡牌分类.xlsx
@@ -3944,10 +3944,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="24">
@@ -3985,55 +3985,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="16"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -4045,16 +3998,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="53"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -4074,14 +4032,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="19"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="53"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -4092,14 +4084,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="19"/>
+      <b/>
+      <sz val="13"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -4209,7 +4209,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4221,25 +4239,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4267,12 +4273,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -4289,6 +4289,32 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="48"/>
+      </top>
+      <bottom style="double">
+        <color indexed="48"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4316,6 +4342,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -4339,56 +4389,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="48"/>
-      </top>
-      <bottom style="double">
-        <color indexed="48"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4400,7 +4400,7 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4412,130 +4412,130 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6083,11 +6083,11 @@
   <dimension ref="A1:V927"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I422" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I196" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O908" sqref="O908"/>
+      <selection pane="bottomRight" activeCell="I587" sqref="I587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -14067,7 +14067,7 @@
       </c>
       <c r="U194" s="21"/>
     </row>
-    <row r="195" hidden="1" spans="1:21">
+    <row r="195" spans="1:21">
       <c r="A195" s="20">
         <v>41709</v>
       </c>
@@ -14105,7 +14105,7 @@
       </c>
       <c r="U195" s="21"/>
     </row>
-    <row r="196" hidden="1" spans="1:22">
+    <row r="196" spans="1:22">
       <c r="A196" s="20">
         <v>41981</v>
       </c>
@@ -14162,7 +14162,7 @@
       </c>
       <c r="V196" s="20"/>
     </row>
-    <row r="197" hidden="1" spans="1:21">
+    <row r="197" spans="1:21">
       <c r="A197" s="20">
         <v>42487</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="1:21">
+    <row r="198" spans="1:21">
       <c r="A198" s="20">
         <v>42320</v>
       </c>
@@ -14254,7 +14254,7 @@
       </c>
       <c r="U198" s="30"/>
     </row>
-    <row r="199" hidden="1" spans="1:21">
+    <row r="199" spans="1:21">
       <c r="A199" s="20">
         <v>42240</v>
       </c>
@@ -14288,7 +14288,7 @@
       </c>
       <c r="U199" s="21"/>
     </row>
-    <row r="200" hidden="1" spans="1:21">
+    <row r="200" spans="1:21">
       <c r="A200" s="20">
         <v>42096</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:22">
+    <row r="201" spans="1:22">
       <c r="A201" s="20">
         <v>41709</v>
       </c>
@@ -14381,7 +14381,7 @@
       </c>
       <c r="V201" s="20"/>
     </row>
-    <row r="202" hidden="1" spans="1:21">
+    <row r="202" spans="1:21">
       <c r="A202" s="20">
         <v>42593</v>
       </c>
@@ -14412,7 +14412,7 @@
       </c>
       <c r="U202" s="21"/>
     </row>
-    <row r="203" hidden="1" spans="1:21">
+    <row r="203" spans="1:21">
       <c r="A203" s="20">
         <v>42240</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="204" hidden="1" spans="1:22">
+    <row r="204" spans="1:22">
       <c r="A204" s="20">
         <v>42240</v>
       </c>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="V204" s="20"/>
     </row>
-    <row r="205" hidden="1" spans="1:22">
+    <row r="205" spans="1:22">
       <c r="A205" s="20">
         <v>41709</v>
       </c>
@@ -14558,7 +14558,7 @@
       </c>
       <c r="V205" s="20"/>
     </row>
-    <row r="206" hidden="1" spans="1:21">
+    <row r="206" spans="1:21">
       <c r="A206" s="20">
         <v>41981</v>
       </c>
@@ -14601,7 +14601,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="1:21">
+    <row r="207" spans="1:21">
       <c r="A207" s="20">
         <v>41709</v>
       </c>
@@ -14667,7 +14667,7 @@
       <c r="R208" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="S208" s="32" t="s">
+      <c r="S208" s="29" t="s">
         <v>47</v>
       </c>
       <c r="T208" s="29" t="s">
@@ -15870,7 +15870,7 @@
       <c r="R235" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="S235" s="19" t="s">
+      <c r="S235" s="28" t="s">
         <v>32</v>
       </c>
       <c r="T235" s="32" t="s">
@@ -16349,7 +16349,7 @@
         <v>386</v>
       </c>
       <c r="O246" s="23" t="str">
-        <f ca="1" t="shared" ref="O246:O251" si="22">PHONETIC(J246:N246)</f>
+        <f ca="1" t="shared" ref="O246:O252" si="22">PHONETIC(J246:N246)</f>
         <v/>
       </c>
       <c r="P246" s="21"/>
@@ -16444,7 +16444,7 @@
       <c r="M248" s="20"/>
       <c r="N248" s="20"/>
       <c r="O248" s="23" t="str">
-        <f ca="1">PHONETIC(J248:N248)</f>
+        <f ca="1" t="shared" si="22"/>
         <v>发现;亡语;</v>
       </c>
       <c r="P248" s="19" t="s">
@@ -16608,7 +16608,7 @@
         <v>396</v>
       </c>
       <c r="O252" s="23" t="str">
-        <f ca="1">PHONETIC(J252:N252)</f>
+        <f ca="1" t="shared" si="22"/>
         <v>连击;</v>
       </c>
       <c r="P252" s="19" t="s">
@@ -17230,7 +17230,7 @@
         <v>416</v>
       </c>
       <c r="O267" s="23" t="str">
-        <f ca="1">PHONETIC(J267:N267)</f>
+        <f ca="1" t="shared" si="24"/>
         <v/>
       </c>
       <c r="P267" s="19" t="s">
@@ -17814,7 +17814,7 @@
         <v>435</v>
       </c>
       <c r="O280" s="23" t="str">
-        <f ca="1" t="shared" ref="O278:O282" si="25">PHONETIC(J280:N280)</f>
+        <f ca="1" t="shared" ref="O278:O283" si="25">PHONETIC(J280:N280)</f>
         <v/>
       </c>
       <c r="P280" s="19" t="s">
@@ -17954,7 +17954,7 @@
         <v>50</v>
       </c>
       <c r="O283" s="23" t="str">
-        <f ca="1">PHONETIC(J283:N283)</f>
+        <f ca="1" t="shared" si="25"/>
         <v>战吼;亡语;</v>
       </c>
       <c r="P283" s="19" t="s">
@@ -17994,7 +17994,7 @@
         <v>439</v>
       </c>
       <c r="O284" s="23" t="str">
-        <f ca="1" t="shared" ref="O284:O287" si="26">PHONETIC(J284:N284)</f>
+        <f ca="1" t="shared" ref="O284:O288" si="26">PHONETIC(J284:N284)</f>
         <v/>
       </c>
       <c r="P284" s="19" t="s">
@@ -18033,7 +18033,7 @@
         <v>50</v>
       </c>
       <c r="O285" s="23" t="str">
-        <f ca="1">PHONETIC(J285:N285)</f>
+        <f ca="1" t="shared" si="26"/>
         <v>亡语;</v>
       </c>
       <c r="P285" s="28" t="s">
@@ -18180,7 +18180,7 @@
       <c r="M288" s="20"/>
       <c r="N288" s="20"/>
       <c r="O288" s="23" t="str">
-        <f ca="1">PHONETIC(J288:N288)</f>
+        <f ca="1" t="shared" si="26"/>
         <v>战吼;</v>
       </c>
       <c r="P288" s="19" t="s">
@@ -18225,7 +18225,7 @@
       <c r="M289" s="20"/>
       <c r="N289" s="20"/>
       <c r="O289" s="23" t="str">
-        <f ca="1" t="shared" ref="O289:O292" si="27">PHONETIC(J289:N289)</f>
+        <f ca="1" t="shared" ref="O289:O293" si="27">PHONETIC(J289:N289)</f>
         <v/>
       </c>
       <c r="P289" s="19" t="s">
@@ -18414,7 +18414,7 @@
         <v>31</v>
       </c>
       <c r="O293" s="23" t="str">
-        <f ca="1">PHONETIC(J293:N293)</f>
+        <f ca="1" t="shared" si="27"/>
         <v>战吼;</v>
       </c>
       <c r="P293" s="29" t="s">
@@ -18466,7 +18466,7 @@
       <c r="M294" s="20"/>
       <c r="N294" s="20"/>
       <c r="O294" s="23" t="str">
-        <f ca="1" t="shared" ref="O294:O300" si="28">PHONETIC(J294:N294)</f>
+        <f ca="1" t="shared" ref="O294:O301" si="28">PHONETIC(J294:N294)</f>
         <v>连击;</v>
       </c>
       <c r="P294" s="19" t="s">
@@ -18594,7 +18594,7 @@
         <v>457</v>
       </c>
       <c r="O297" s="23" t="str">
-        <f ca="1">PHONETIC(J297:N297)</f>
+        <f ca="1" t="shared" si="28"/>
         <v/>
       </c>
       <c r="P297" s="19" t="s">
@@ -18757,7 +18757,7 @@
         <v>31</v>
       </c>
       <c r="O301" s="23" t="str">
-        <f ca="1">PHONETIC(J301:N301)</f>
+        <f ca="1" t="shared" si="28"/>
         <v>战吼;</v>
       </c>
       <c r="P301" s="19" t="s">
@@ -18769,7 +18769,6 @@
       <c r="R301" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="S301" s="25"/>
       <c r="T301" s="19" t="s">
         <v>32</v>
       </c>
@@ -24171,7 +24170,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="422" spans="1:21">
+    <row r="422" hidden="1" spans="1:21">
       <c r="A422" s="20">
         <v>42487</v>
       </c>
@@ -24201,7 +24200,7 @@
       </c>
       <c r="U422" s="21"/>
     </row>
-    <row r="423" spans="1:21">
+    <row r="423" hidden="1" spans="1:21">
       <c r="A423" s="20">
         <v>41709</v>
       </c>
@@ -24240,7 +24239,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="424" spans="1:21">
+    <row r="424" hidden="1" spans="1:21">
       <c r="A424" s="20">
         <v>41709</v>
       </c>
@@ -24280,7 +24279,7 @@
       </c>
       <c r="U424" s="21"/>
     </row>
-    <row r="425" spans="1:21">
+    <row r="425" hidden="1" spans="1:21">
       <c r="A425" s="20">
         <v>41709</v>
       </c>
@@ -24320,7 +24319,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="426" spans="1:21">
+    <row r="426" hidden="1" spans="1:21">
       <c r="A426" s="20">
         <v>41709</v>
       </c>
@@ -24361,7 +24360,7 @@
       </c>
       <c r="U426" s="21"/>
     </row>
-    <row r="427" spans="1:21">
+    <row r="427" hidden="1" spans="1:21">
       <c r="A427" s="20">
         <v>41709</v>
       </c>
@@ -24401,7 +24400,7 @@
       </c>
       <c r="U427" s="21"/>
     </row>
-    <row r="428" spans="1:21">
+    <row r="428" hidden="1" spans="1:21">
       <c r="A428" s="20">
         <v>42593</v>
       </c>
@@ -24439,7 +24438,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="429" spans="1:21">
+    <row r="429" hidden="1" spans="1:21">
       <c r="A429" s="20">
         <v>41709</v>
       </c>
@@ -24477,7 +24476,7 @@
       </c>
       <c r="U429" s="21"/>
     </row>
-    <row r="430" spans="1:21">
+    <row r="430" hidden="1" spans="1:21">
       <c r="A430" s="20">
         <v>41709</v>
       </c>
@@ -24513,7 +24512,7 @@
       </c>
       <c r="U430" s="21"/>
     </row>
-    <row r="431" spans="1:21">
+    <row r="431" hidden="1" spans="1:21">
       <c r="A431" s="20">
         <v>41709</v>
       </c>
@@ -24556,7 +24555,7 @@
       </c>
       <c r="U431" s="21"/>
     </row>
-    <row r="432" spans="1:21">
+    <row r="432" hidden="1" spans="1:21">
       <c r="A432" s="20">
         <v>42320</v>
       </c>
@@ -24597,7 +24596,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="433" spans="1:21">
+    <row r="433" hidden="1" spans="1:21">
       <c r="A433" s="20">
         <v>42487</v>
       </c>
@@ -24630,7 +24629,7 @@
       </c>
       <c r="U433" s="21"/>
     </row>
-    <row r="434" spans="1:21">
+    <row r="434" hidden="1" spans="1:21">
       <c r="A434" s="20">
         <v>41981</v>
       </c>
@@ -24668,7 +24667,7 @@
       </c>
       <c r="U434" s="21"/>
     </row>
-    <row r="435" spans="1:22">
+    <row r="435" hidden="1" spans="1:22">
       <c r="A435" s="20">
         <v>42240</v>
       </c>
@@ -24715,7 +24714,7 @@
       </c>
       <c r="V435" s="20"/>
     </row>
-    <row r="436" spans="1:21">
+    <row r="436" hidden="1" spans="1:21">
       <c r="A436" s="20">
         <v>41709</v>
       </c>
@@ -24755,7 +24754,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="437" spans="1:22">
+    <row r="437" hidden="1" spans="1:22">
       <c r="A437" s="20">
         <v>42240</v>
       </c>
@@ -24800,7 +24799,7 @@
       <c r="U437" s="20"/>
       <c r="V437" s="20"/>
     </row>
-    <row r="438" spans="1:22">
+    <row r="438" hidden="1" spans="1:22">
       <c r="A438" s="20">
         <v>42320</v>
       </c>
@@ -24853,7 +24852,7 @@
       <c r="U438" s="21"/>
       <c r="V438" s="20"/>
     </row>
-    <row r="439" spans="1:21">
+    <row r="439" hidden="1" spans="1:21">
       <c r="A439" s="20">
         <v>42320</v>
       </c>
@@ -24888,7 +24887,7 @@
       </c>
       <c r="U439" s="21"/>
     </row>
-    <row r="440" spans="1:21">
+    <row r="440" hidden="1" spans="1:21">
       <c r="A440" s="20">
         <v>41709</v>
       </c>
@@ -24929,7 +24928,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="441" spans="1:21">
+    <row r="441" hidden="1" spans="1:21">
       <c r="A441" s="20">
         <v>42487</v>
       </c>
@@ -24967,7 +24966,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="442" spans="1:21">
+    <row r="442" hidden="1" spans="1:21">
       <c r="A442" s="20">
         <v>41981</v>
       </c>
@@ -25005,7 +25004,7 @@
       </c>
       <c r="U442" s="21"/>
     </row>
-    <row r="443" spans="1:22">
+    <row r="443" hidden="1" spans="1:22">
       <c r="A443" s="20">
         <v>42240</v>
       </c>
@@ -25056,7 +25055,7 @@
       </c>
       <c r="V443" s="20"/>
     </row>
-    <row r="444" spans="1:21">
+    <row r="444" hidden="1" spans="1:21">
       <c r="A444" s="20">
         <v>42487</v>
       </c>
@@ -25098,7 +25097,7 @@
       </c>
       <c r="U444" s="21"/>
     </row>
-    <row r="445" spans="1:21">
+    <row r="445" hidden="1" spans="1:21">
       <c r="A445" s="20">
         <v>41709</v>
       </c>
@@ -25134,7 +25133,7 @@
       </c>
       <c r="U445" s="21"/>
     </row>
-    <row r="446" spans="1:21">
+    <row r="446" hidden="1" spans="1:21">
       <c r="A446" s="20">
         <v>42593</v>
       </c>
@@ -25172,7 +25171,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="447" spans="1:21">
+    <row r="447" hidden="1" spans="1:21">
       <c r="A447" s="20">
         <v>41709</v>
       </c>
@@ -25218,7 +25217,7 @@
       </c>
       <c r="U447" s="21"/>
     </row>
-    <row r="448" spans="1:21">
+    <row r="448" hidden="1" spans="1:21">
       <c r="A448" s="20">
         <v>42096</v>
       </c>
@@ -25258,7 +25257,7 @@
       </c>
       <c r="U448" s="21"/>
     </row>
-    <row r="449" spans="1:21">
+    <row r="449" hidden="1" spans="1:21">
       <c r="A449" s="20">
         <v>41709</v>
       </c>
@@ -25294,7 +25293,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="450" spans="1:21">
+    <row r="450" hidden="1" spans="1:21">
       <c r="A450" s="20">
         <v>42487</v>
       </c>
@@ -25332,7 +25331,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="451" spans="1:21">
+    <row r="451" hidden="1" spans="1:21">
       <c r="A451" s="20">
         <v>41709</v>
       </c>
@@ -25368,7 +25367,7 @@
       </c>
       <c r="U451" s="21"/>
     </row>
-    <row r="452" spans="1:21">
+    <row r="452" hidden="1" spans="1:21">
       <c r="A452" s="20">
         <v>42096</v>
       </c>
@@ -25408,7 +25407,7 @@
       </c>
       <c r="U452" s="21"/>
     </row>
-    <row r="453" spans="1:21">
+    <row r="453" hidden="1" spans="1:21">
       <c r="A453" s="20">
         <v>41709</v>
       </c>
@@ -25451,7 +25450,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="454" spans="1:21">
+    <row r="454" hidden="1" spans="1:21">
       <c r="A454" s="20">
         <v>42487</v>
       </c>
@@ -25487,7 +25486,7 @@
       </c>
       <c r="U454" s="21"/>
     </row>
-    <row r="455" spans="1:21">
+    <row r="455" hidden="1" spans="1:21">
       <c r="A455" s="20">
         <v>41709</v>
       </c>
@@ -25525,7 +25524,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="456" spans="1:21">
+    <row r="456" hidden="1" spans="1:21">
       <c r="A456" s="20">
         <v>41709</v>
       </c>
@@ -25565,7 +25564,7 @@
       </c>
       <c r="U456" s="21"/>
     </row>
-    <row r="457" spans="1:22">
+    <row r="457" hidden="1" spans="1:22">
       <c r="A457" s="20">
         <v>42240</v>
       </c>
@@ -25616,7 +25615,7 @@
       </c>
       <c r="V457" s="20"/>
     </row>
-    <row r="458" spans="1:21">
+    <row r="458" hidden="1" spans="1:21">
       <c r="A458" s="20">
         <v>41842</v>
       </c>
@@ -25661,7 +25660,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="459" spans="1:22">
+    <row r="459" hidden="1" spans="1:22">
       <c r="A459" s="20">
         <v>42240</v>
       </c>
@@ -25710,7 +25709,7 @@
       <c r="U459" s="20"/>
       <c r="V459" s="20"/>
     </row>
-    <row r="460" spans="1:22">
+    <row r="460" hidden="1" spans="1:22">
       <c r="A460" s="20">
         <v>41709</v>
       </c>
@@ -25755,7 +25754,7 @@
       <c r="U460" s="20"/>
       <c r="V460" s="20"/>
     </row>
-    <row r="461" spans="1:21">
+    <row r="461" hidden="1" spans="1:21">
       <c r="A461" s="20">
         <v>41981</v>
       </c>
@@ -25797,7 +25796,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="462" spans="1:21">
+    <row r="462" hidden="1" spans="1:21">
       <c r="A462" s="20">
         <v>41981</v>
       </c>
@@ -25839,7 +25838,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="463" spans="1:22">
+    <row r="463" hidden="1" spans="1:22">
       <c r="A463" s="20">
         <v>41709</v>
       </c>
@@ -25890,7 +25889,7 @@
       </c>
       <c r="V463" s="20"/>
     </row>
-    <row r="464" spans="1:22">
+    <row r="464" hidden="1" spans="1:22">
       <c r="A464" s="20">
         <v>42487</v>
       </c>
@@ -25936,7 +25935,7 @@
       <c r="U464" s="20"/>
       <c r="V464" s="20"/>
     </row>
-    <row r="465" spans="1:22">
+    <row r="465" hidden="1" spans="1:22">
       <c r="A465" s="20">
         <v>41981</v>
       </c>
@@ -25985,7 +25984,7 @@
       <c r="U465" s="20"/>
       <c r="V465" s="20"/>
     </row>
-    <row r="466" spans="1:22">
+    <row r="466" hidden="1" spans="1:22">
       <c r="A466" s="20">
         <v>42593</v>
       </c>
@@ -26031,7 +26030,7 @@
       <c r="U466" s="20"/>
       <c r="V466" s="20"/>
     </row>
-    <row r="467" spans="1:22">
+    <row r="467" hidden="1" spans="1:22">
       <c r="A467" s="20">
         <v>41709</v>
       </c>
@@ -26084,7 +26083,7 @@
       <c r="U467" s="20"/>
       <c r="V467" s="20"/>
     </row>
-    <row r="468" spans="1:22">
+    <row r="468" hidden="1" spans="1:22">
       <c r="A468" s="20">
         <v>41709</v>
       </c>
@@ -26135,7 +26134,7 @@
       </c>
       <c r="V468" s="20"/>
     </row>
-    <row r="469" spans="1:22">
+    <row r="469" hidden="1" spans="1:22">
       <c r="A469" s="20">
         <v>41981</v>
       </c>
@@ -26186,7 +26185,7 @@
       </c>
       <c r="V469" s="20"/>
     </row>
-    <row r="470" spans="1:22">
+    <row r="470" hidden="1" spans="1:22">
       <c r="A470" s="20">
         <v>42240</v>
       </c>
@@ -26233,7 +26232,7 @@
       <c r="U470" s="20"/>
       <c r="V470" s="20"/>
     </row>
-    <row r="471" spans="1:21">
+    <row r="471" hidden="1" spans="1:21">
       <c r="A471" s="20">
         <v>41709</v>
       </c>
@@ -26276,7 +26275,7 @@
       </c>
       <c r="U471" s="21"/>
     </row>
-    <row r="472" spans="1:21">
+    <row r="472" hidden="1" spans="1:21">
       <c r="A472" s="20">
         <v>41709</v>
       </c>
@@ -26316,7 +26315,7 @@
       </c>
       <c r="U472" s="21"/>
     </row>
-    <row r="473" spans="1:22">
+    <row r="473" hidden="1" spans="1:22">
       <c r="A473" s="20">
         <v>42240</v>
       </c>
@@ -26367,7 +26366,7 @@
       </c>
       <c r="V473" s="20"/>
     </row>
-    <row r="474" spans="1:21">
+    <row r="474" hidden="1" spans="1:21">
       <c r="A474" s="20">
         <v>41981</v>
       </c>
@@ -26404,7 +26403,7 @@
       </c>
       <c r="U474" s="21"/>
     </row>
-    <row r="475" spans="1:22">
+    <row r="475" hidden="1" spans="1:22">
       <c r="A475" s="20">
         <v>42240</v>
       </c>
@@ -26453,7 +26452,7 @@
       <c r="U475" s="20"/>
       <c r="V475" s="20"/>
     </row>
-    <row r="476" spans="1:21">
+    <row r="476" hidden="1" spans="1:21">
       <c r="A476" s="20">
         <v>42487</v>
       </c>
@@ -26494,7 +26493,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="477" spans="1:22">
+    <row r="477" hidden="1" spans="1:22">
       <c r="A477" s="20">
         <v>42240</v>
       </c>
@@ -26541,7 +26540,7 @@
       <c r="U477" s="20"/>
       <c r="V477" s="20"/>
     </row>
-    <row r="478" spans="1:21">
+    <row r="478" hidden="1" spans="1:21">
       <c r="A478" s="20">
         <v>41709</v>
       </c>
@@ -26581,7 +26580,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="479" spans="1:21">
+    <row r="479" hidden="1" spans="1:21">
       <c r="A479" s="20">
         <v>41709</v>
       </c>
@@ -26622,7 +26621,7 @@
       </c>
       <c r="U479" s="21"/>
     </row>
-    <row r="480" spans="1:21">
+    <row r="480" hidden="1" spans="1:21">
       <c r="A480" s="20">
         <v>41981</v>
       </c>
@@ -26664,7 +26663,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="481" spans="1:21">
+    <row r="481" hidden="1" spans="1:21">
       <c r="A481" s="20">
         <v>42487</v>
       </c>
@@ -29532,7 +29531,7 @@
         <v>795</v>
       </c>
       <c r="O547" s="23" t="str">
-        <f ca="1">PHONETIC(J547:N547)</f>
+        <f ca="1" t="shared" si="44"/>
         <v/>
       </c>
       <c r="P547" s="19" t="s">
@@ -30991,7 +30990,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="580" hidden="1" spans="1:22">
+    <row r="580" spans="1:22">
       <c r="A580" s="20">
         <v>41709</v>
       </c>
@@ -31042,7 +31041,7 @@
       </c>
       <c r="V580" s="20"/>
     </row>
-    <row r="581" hidden="1" spans="1:22">
+    <row r="581" spans="1:22">
       <c r="A581" s="20">
         <v>42240</v>
       </c>
@@ -31087,7 +31086,7 @@
       <c r="U581" s="44"/>
       <c r="V581" s="20"/>
     </row>
-    <row r="582" hidden="1" spans="1:22">
+    <row r="582" spans="1:22">
       <c r="A582" s="20">
         <v>42320</v>
       </c>
@@ -31138,7 +31137,7 @@
       <c r="U582" s="44"/>
       <c r="V582" s="20"/>
     </row>
-    <row r="583" hidden="1" spans="1:22">
+    <row r="583" spans="1:22">
       <c r="A583" s="20">
         <v>41981</v>
       </c>
@@ -31191,7 +31190,7 @@
       </c>
       <c r="V583" s="20"/>
     </row>
-    <row r="584" hidden="1" spans="1:22">
+    <row r="584" spans="1:22">
       <c r="A584" s="20">
         <v>42240</v>
       </c>
@@ -31237,7 +31236,7 @@
       </c>
       <c r="V584" s="20"/>
     </row>
-    <row r="585" hidden="1" spans="1:22">
+    <row r="585" spans="1:22">
       <c r="A585" s="20">
         <v>41981</v>
       </c>
@@ -31288,7 +31287,7 @@
       </c>
       <c r="V585" s="20"/>
     </row>
-    <row r="586" hidden="1" spans="1:22">
+    <row r="586" spans="1:22">
       <c r="A586" s="20">
         <v>41709</v>
       </c>
@@ -31335,7 +31334,7 @@
       </c>
       <c r="V586" s="20"/>
     </row>
-    <row r="587" hidden="1" spans="1:22">
+    <row r="587" spans="1:22">
       <c r="A587" s="20">
         <v>41709</v>
       </c>
@@ -31377,7 +31376,7 @@
       </c>
       <c r="V587" s="20"/>
     </row>
-    <row r="588" hidden="1" spans="1:22">
+    <row r="588" spans="1:22">
       <c r="A588" s="20">
         <v>41709</v>
       </c>
@@ -31420,7 +31419,7 @@
       </c>
       <c r="V588" s="20"/>
     </row>
-    <row r="589" hidden="1" spans="1:22">
+    <row r="589" spans="1:22">
       <c r="A589" s="20">
         <v>41709</v>
       </c>
@@ -31471,7 +31470,7 @@
       </c>
       <c r="V589" s="20"/>
     </row>
-    <row r="590" hidden="1" spans="1:22">
+    <row r="590" spans="1:22">
       <c r="A590" s="20">
         <v>41842</v>
       </c>
@@ -31522,7 +31521,7 @@
       </c>
       <c r="V590" s="20"/>
     </row>
-    <row r="591" hidden="1" spans="1:22">
+    <row r="591" spans="1:22">
       <c r="A591" s="20">
         <v>41842</v>
       </c>
@@ -31575,7 +31574,7 @@
       </c>
       <c r="V591" s="20"/>
     </row>
-    <row r="592" hidden="1" spans="1:22">
+    <row r="592" spans="1:22">
       <c r="A592" s="20">
         <v>41709</v>
       </c>
@@ -31624,7 +31623,7 @@
       <c r="U592" s="44"/>
       <c r="V592" s="20"/>
     </row>
-    <row r="593" hidden="1" spans="1:22">
+    <row r="593" spans="1:22">
       <c r="A593" s="20">
         <v>41709</v>
       </c>
@@ -31673,7 +31672,7 @@
       <c r="U593" s="44"/>
       <c r="V593" s="20"/>
     </row>
-    <row r="594" hidden="1" spans="1:22">
+    <row r="594" spans="1:22">
       <c r="A594" s="20">
         <v>41709</v>
       </c>
@@ -31720,7 +31719,7 @@
       <c r="U594" s="44"/>
       <c r="V594" s="20"/>
     </row>
-    <row r="595" hidden="1" spans="1:22">
+    <row r="595" spans="1:22">
       <c r="A595" s="20">
         <v>41709</v>
       </c>
@@ -31769,7 +31768,7 @@
       </c>
       <c r="V595" s="20"/>
     </row>
-    <row r="596" hidden="1" spans="1:22">
+    <row r="596" spans="1:22">
       <c r="A596" s="20">
         <v>41842</v>
       </c>
@@ -31818,7 +31817,7 @@
       <c r="U596" s="44"/>
       <c r="V596" s="20"/>
     </row>
-    <row r="597" hidden="1" spans="1:22">
+    <row r="597" spans="1:22">
       <c r="A597" s="20">
         <v>41981</v>
       </c>
@@ -31869,7 +31868,7 @@
       </c>
       <c r="V597" s="20"/>
     </row>
-    <row r="598" hidden="1" spans="1:22">
+    <row r="598" spans="1:22">
       <c r="A598" s="20">
         <v>42240</v>
       </c>
@@ -31920,7 +31919,7 @@
       <c r="U598" s="44"/>
       <c r="V598" s="20"/>
     </row>
-    <row r="599" hidden="1" spans="1:22">
+    <row r="599" spans="1:22">
       <c r="A599" s="20">
         <v>41981</v>
       </c>
@@ -31971,7 +31970,7 @@
       </c>
       <c r="V599" s="20"/>
     </row>
-    <row r="600" hidden="1" spans="1:22">
+    <row r="600" spans="1:22">
       <c r="A600" s="20">
         <v>41709</v>
       </c>
@@ -32022,7 +32021,7 @@
       </c>
       <c r="V600" s="20"/>
     </row>
-    <row r="601" hidden="1" spans="1:22">
+    <row r="601" spans="1:22">
       <c r="A601" s="20">
         <v>42320</v>
       </c>
@@ -32073,7 +32072,7 @@
       <c r="U601" s="44"/>
       <c r="V601" s="20"/>
     </row>
-    <row r="602" hidden="1" spans="1:22">
+    <row r="602" spans="1:22">
       <c r="A602" s="20">
         <v>41709</v>
       </c>
@@ -32122,7 +32121,7 @@
       <c r="U602" s="44"/>
       <c r="V602" s="20"/>
     </row>
-    <row r="603" hidden="1" spans="1:22">
+    <row r="603" spans="1:22">
       <c r="A603" s="20">
         <v>41709</v>
       </c>
@@ -32169,7 +32168,7 @@
       </c>
       <c r="V603" s="20"/>
     </row>
-    <row r="604" customFormat="1" hidden="1" spans="1:22">
+    <row r="604" customFormat="1" spans="1:22">
       <c r="A604" s="20">
         <v>41709</v>
       </c>
@@ -32216,7 +32215,7 @@
       <c r="U604" s="44"/>
       <c r="V604" s="20"/>
     </row>
-    <row r="605" customFormat="1" hidden="1" spans="1:22">
+    <row r="605" customFormat="1" spans="1:22">
       <c r="A605" s="20">
         <v>41709</v>
       </c>
@@ -32267,7 +32266,7 @@
       </c>
       <c r="V605" s="20"/>
     </row>
-    <row r="606" customFormat="1" hidden="1" spans="1:22">
+    <row r="606" customFormat="1" spans="1:22">
       <c r="A606" s="20">
         <v>41709</v>
       </c>
@@ -32314,7 +32313,7 @@
       </c>
       <c r="V606" s="20"/>
     </row>
-    <row r="607" customFormat="1" hidden="1" spans="1:22">
+    <row r="607" customFormat="1" spans="1:22">
       <c r="A607" s="20">
         <v>41709</v>
       </c>
@@ -32361,7 +32360,7 @@
       </c>
       <c r="V607" s="20"/>
     </row>
-    <row r="608" customFormat="1" hidden="1" spans="1:22">
+    <row r="608" customFormat="1" spans="1:22">
       <c r="A608" s="20">
         <v>42487</v>
       </c>
@@ -32416,7 +32415,7 @@
       </c>
       <c r="V608" s="20"/>
     </row>
-    <row r="609" customFormat="1" hidden="1" spans="1:22">
+    <row r="609" customFormat="1" spans="1:22">
       <c r="A609" s="20">
         <v>42487</v>
       </c>
@@ -32459,7 +32458,7 @@
       <c r="U609" s="44"/>
       <c r="V609" s="20"/>
     </row>
-    <row r="610" customFormat="1" hidden="1" spans="1:22">
+    <row r="610" customFormat="1" spans="1:22">
       <c r="A610" s="20">
         <v>41709</v>
       </c>
@@ -32502,7 +32501,7 @@
       <c r="U610" s="44"/>
       <c r="V610" s="20"/>
     </row>
-    <row r="611" customFormat="1" hidden="1" spans="1:22">
+    <row r="611" customFormat="1" spans="1:22">
       <c r="A611" s="20">
         <v>41842</v>
       </c>
@@ -32549,7 +32548,7 @@
       <c r="U611" s="44"/>
       <c r="V611" s="20"/>
     </row>
-    <row r="612" customFormat="1" hidden="1" spans="1:22">
+    <row r="612" customFormat="1" spans="1:22">
       <c r="A612" s="20">
         <v>41709</v>
       </c>
@@ -32598,7 +32597,7 @@
       </c>
       <c r="V612" s="20"/>
     </row>
-    <row r="613" customFormat="1" hidden="1" spans="1:22">
+    <row r="613" customFormat="1" spans="1:22">
       <c r="A613" s="20">
         <v>42487</v>
       </c>
@@ -32643,7 +32642,7 @@
       <c r="U613" s="44"/>
       <c r="V613" s="20"/>
     </row>
-    <row r="614" customFormat="1" hidden="1" spans="1:22">
+    <row r="614" customFormat="1" spans="1:22">
       <c r="A614" s="20">
         <v>42487</v>
       </c>
@@ -32692,7 +32691,7 @@
       <c r="U614" s="44"/>
       <c r="V614" s="20"/>
     </row>
-    <row r="615" customFormat="1" hidden="1" spans="1:22">
+    <row r="615" customFormat="1" spans="1:22">
       <c r="A615" s="20">
         <v>41842</v>
       </c>
@@ -32741,7 +32740,7 @@
       <c r="U615" s="44"/>
       <c r="V615" s="20"/>
     </row>
-    <row r="616" customFormat="1" hidden="1" spans="1:22">
+    <row r="616" customFormat="1" spans="1:22">
       <c r="A616" s="20">
         <v>41709</v>
       </c>
@@ -32796,7 +32795,7 @@
       </c>
       <c r="V616" s="20"/>
     </row>
-    <row r="617" customFormat="1" hidden="1" spans="1:22">
+    <row r="617" customFormat="1" spans="1:22">
       <c r="A617" s="20">
         <v>41709</v>
       </c>
@@ -32847,7 +32846,7 @@
       </c>
       <c r="V617" s="20"/>
     </row>
-    <row r="618" customFormat="1" hidden="1" spans="1:22">
+    <row r="618" customFormat="1" spans="1:22">
       <c r="A618" s="20">
         <v>41709</v>
       </c>
@@ -32892,7 +32891,7 @@
       <c r="U618" s="44"/>
       <c r="V618" s="20"/>
     </row>
-    <row r="619" customFormat="1" hidden="1" spans="1:22">
+    <row r="619" customFormat="1" spans="1:22">
       <c r="A619" s="20">
         <v>41709</v>
       </c>
@@ -32941,7 +32940,7 @@
       </c>
       <c r="V619" s="20"/>
     </row>
-    <row r="620" customFormat="1" hidden="1" spans="1:22">
+    <row r="620" customFormat="1" spans="1:22">
       <c r="A620" s="20">
         <v>41981</v>
       </c>
@@ -32986,7 +32985,7 @@
       <c r="U620" s="44"/>
       <c r="V620" s="20"/>
     </row>
-    <row r="621" customFormat="1" hidden="1" spans="1:22">
+    <row r="621" customFormat="1" spans="1:22">
       <c r="A621" s="20">
         <v>41981</v>
       </c>
@@ -33031,7 +33030,7 @@
       <c r="U621" s="44"/>
       <c r="V621" s="20"/>
     </row>
-    <row r="622" customFormat="1" hidden="1" spans="1:22">
+    <row r="622" customFormat="1" spans="1:22">
       <c r="A622" s="20">
         <v>41709</v>
       </c>
@@ -33078,7 +33077,7 @@
       </c>
       <c r="V622" s="20"/>
     </row>
-    <row r="623" customFormat="1" hidden="1" spans="1:22">
+    <row r="623" customFormat="1" spans="1:22">
       <c r="A623" s="20">
         <v>42487</v>
       </c>
@@ -33129,7 +33128,7 @@
       </c>
       <c r="V623" s="20"/>
     </row>
-    <row r="624" customFormat="1" hidden="1" spans="1:22">
+    <row r="624" customFormat="1" spans="1:22">
       <c r="A624" s="20">
         <v>42593</v>
       </c>
@@ -33182,7 +33181,7 @@
       </c>
       <c r="V624" s="20"/>
     </row>
-    <row r="625" customFormat="1" hidden="1" spans="1:22">
+    <row r="625" customFormat="1" spans="1:22">
       <c r="A625" s="20">
         <v>41709</v>
       </c>
@@ -33237,7 +33236,7 @@
       </c>
       <c r="V625" s="20"/>
     </row>
-    <row r="626" customFormat="1" hidden="1" spans="1:22">
+    <row r="626" customFormat="1" spans="1:22">
       <c r="A626" s="20">
         <v>41709</v>
       </c>
@@ -33286,7 +33285,7 @@
       </c>
       <c r="V626" s="20"/>
     </row>
-    <row r="627" customFormat="1" hidden="1" spans="1:22">
+    <row r="627" customFormat="1" spans="1:22">
       <c r="A627" s="20">
         <v>41709</v>
       </c>
@@ -33329,7 +33328,7 @@
       </c>
       <c r="V627" s="20"/>
     </row>
-    <row r="628" customFormat="1" hidden="1" spans="1:22">
+    <row r="628" customFormat="1" spans="1:22">
       <c r="A628" s="20">
         <v>42240</v>
       </c>
@@ -33376,7 +33375,7 @@
       </c>
       <c r="V628" s="20"/>
     </row>
-    <row r="629" customFormat="1" hidden="1" spans="1:22">
+    <row r="629" customFormat="1" spans="1:22">
       <c r="A629" s="20">
         <v>42487</v>
       </c>
@@ -33425,7 +33424,7 @@
       </c>
       <c r="V629" s="20"/>
     </row>
-    <row r="630" customFormat="1" hidden="1" spans="1:22">
+    <row r="630" customFormat="1" spans="1:22">
       <c r="A630" s="20">
         <v>42240</v>
       </c>
@@ -33474,7 +33473,7 @@
       <c r="U630" s="44"/>
       <c r="V630" s="20"/>
     </row>
-    <row r="631" customFormat="1" hidden="1" spans="1:22">
+    <row r="631" customFormat="1" spans="1:22">
       <c r="A631" s="20">
         <v>41709</v>
       </c>
@@ -33519,7 +33518,7 @@
       </c>
       <c r="V631" s="20"/>
     </row>
-    <row r="632" customFormat="1" hidden="1" spans="1:22">
+    <row r="632" customFormat="1" spans="1:22">
       <c r="A632" s="20">
         <v>41981</v>
       </c>
@@ -33564,7 +33563,7 @@
       </c>
       <c r="V632" s="20"/>
     </row>
-    <row r="633" customFormat="1" hidden="1" spans="1:22">
+    <row r="633" customFormat="1" spans="1:22">
       <c r="A633" s="20">
         <v>41709</v>
       </c>
@@ -33615,7 +33614,7 @@
       </c>
       <c r="V633" s="20"/>
     </row>
-    <row r="634" customFormat="1" hidden="1" spans="1:22">
+    <row r="634" customFormat="1" spans="1:22">
       <c r="A634" s="20">
         <v>41709</v>
       </c>
@@ -33662,7 +33661,7 @@
       <c r="U634" s="44"/>
       <c r="V634" s="20"/>
     </row>
-    <row r="635" customFormat="1" hidden="1" spans="1:22">
+    <row r="635" customFormat="1" spans="1:22">
       <c r="A635" s="20">
         <v>41981</v>
       </c>
@@ -33709,7 +33708,7 @@
       </c>
       <c r="V635" s="20"/>
     </row>
-    <row r="636" customFormat="1" hidden="1" spans="1:22">
+    <row r="636" customFormat="1" spans="1:22">
       <c r="A636" s="20">
         <v>41842</v>
       </c>
@@ -33760,7 +33759,7 @@
       </c>
       <c r="V636" s="20"/>
     </row>
-    <row r="637" customFormat="1" hidden="1" spans="1:22">
+    <row r="637" customFormat="1" spans="1:22">
       <c r="A637" s="20">
         <v>41709</v>
       </c>
@@ -33807,7 +33806,7 @@
       </c>
       <c r="V637" s="20"/>
     </row>
-    <row r="638" customFormat="1" hidden="1" spans="1:22">
+    <row r="638" customFormat="1" spans="1:22">
       <c r="A638" s="20">
         <v>41981</v>
       </c>
@@ -33852,7 +33851,7 @@
       <c r="U638" s="44"/>
       <c r="V638" s="20"/>
     </row>
-    <row r="639" customFormat="1" hidden="1" spans="1:22">
+    <row r="639" customFormat="1" spans="1:22">
       <c r="A639" s="20">
         <v>42593</v>
       </c>
@@ -47334,7 +47333,13 @@
   <autoFilter ref="A1:V927">
     <filterColumn colId="2">
       <customFilters>
-        <customFilter operator="equal" val="术士"/>
+        <customFilter operator="equal" val="牧师"/>
+        <customFilter operator="equal" val="中立"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="equal" val="2"/>
       </customFilters>
     </filterColumn>
     <sortState ref="A1:V927">
@@ -47765,9 +47770,6 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
-      <formula1>"野兽,机械,龙,鱼人,恶魔,海盗"</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1 C1 O1 O245 O246 O247 O248 O252 O259 O260 O261 O262 O263 O264 O265 O266 O267 O268 O269 O270 O271 O272 O273 O274 O275 O276 O277 O278 O279 O283 O284 O285 O288 O293 O297 O301 O547 O830 O831 O850 O851 O852 O853 O854 O855 O856 O857 O858 O859 O860 O861 O862 O863 O927 O2:O8 O9:O45 O46:O58 O59:O75 O76:O244 O249:O251 O253:O258 O280:O282 O286:O287 O289:O292 O294:O296 O298:O300 O302:O363"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B109 B110 B111 B112 B116 B117 B118 B119 B120 B121 B122 B123 B124 B125 B128 B129 B130 B131 B132 B133 B134 B135 B136 B137 B138 B139 B140 B141 B142 B143 B144 B145 B146 B147 B148 B149 B150 B151 B152 B153 B154 B155 B156 B157 B187 B188 B189 B192 B193 B194 B195 B196 B197 B198 B199 B200 B201 B202 B203 B204 B205 B206 B207 B208 B209 B210 B211 B212 B213 B214 B215 B216 B217 B218 B219 B220 B221 B222 B223 B224 B225 B226 B227 B228 B229 B230 B231 B232 B233 B234 B235 B236 B237 B238 B239 B240 B241 B242 B243 B244 B245 B246 B247 B248 B249 B250 B251 B252 B253 B254 B255 B256 B257 B258 B259 B260 B261 B262 B263 B264 B265 B266 B267 B268 B269 B270 B271 B272 B273 B274 B275 B276 B277 B278 B279 B280 B281 B284 B285 B286 B287 B288 B289 B290 B291 B292 B293 B294 B295 B296 B297 B298 B299 B300 B301 B302 B303 B304 B305 B306 B307 B308 B309 B310 B311 B312 B313 B314 B315 B316 B317 B318 B319 B320 B321 B322 B323 B324 B325 B326 B327 B328 B329 B330 B331 B332 B333 B334 B335 B336 B337 B338 B339 B340 B341 B342 B343 B344 B345 B346 B347 B348 B349 B350 B351 B352 B353 B354 B355 B356 B357 B358 B359 B360 B361 B362 B363 B364 B365 B366 B367 B368 B369 B370 B371 B372 B373 B374 B375 B376 B377 B378 B379 B380 B381 B382 B383 B384 B385 B386 B387 B388 B389 B390 B391 B392 B393 B394 B395 B396 B397 B398 B399 B400 B401 B402 B403 B404 B405 B406 B407 B408 B409 B410 B411 B412 B413 B414 B415 B416 B417 B418 B419 B420 B421 B422 B423 B424 B425 B426 B427 B428 B429 B430 B431 B432 B433 B434 B435 B436 B437 B438 B439 B440 B441 B442 B443 B444 B445 B446 B447 B448 B449 B450 B451 B452 B453 B454 B455 B456 B457 B458 B459 B460 B461 B462 B463 B464 B465 B466 B467 B468 B469 B470 B471 B472 B473 B474 B475 B476 B477 B478 B479 B480 B481 B482 B483 B484 B485 B486 B487 B488 B489 B490 B491 B492 B493 B494 B495 B496 B497 B498 B499 B500 B501 B502 B503 B504 B505 B506 B507 B508 B509 B510 B511 B512 B513 B514 B515 B516 B517 B518 B519 B520 B521 B522 B523 B524 B525 B526 B527 B528 B529 B530 B531 B532 B533 B534 B535 B536 B537 B538 B542 B543 B544 B545 B546 B547 B548 B549 B550 B551 B552 B553 B554 B555 B556 B557 B558 B559 B560 B561 B562 B563 B564 B565 B566 B567 B568 B569 B570 B571 B572 B573 B574 B575 B576 B577 B578 B579 B580 B581 B582 B583 B584 B585 B586 B587 B588 B589 B590 B591 B592 B593 B596 B597 B598 B599 B600 B601 B602 B603 B604 B605 B606 B607 B608 B609 B610 B611 B612 B613 B614 B615 B616 B617 B618 B619 B620 B621 B622 B623 B624 B625 B626 B627 B628 B629 B630 B631 B632 B633 B634 B635 B636 B637 B638 B639 B640 B641 B642 B643 B644 B645 B646 B647 B648 B649 B650 B651 B652 B655 B656 B657 B658 B659 B660 B661 B662 B663 B664 B665 B666 B667 B668 B669 B670 B671 B672 B673 B674 B675 B676 B677 B678 B679 B680 B681 B682 B683 B684 B685 B686 B689 B851 B852 B853 B854 B855 B856 B857 B858 B873 B874 B875 B884 B885 B886 B887 B896 B899 B900 B908 B909 B910 B911 B920 B927 B7:B8 B49:B108 B113:B115 B126:B127 B158:B186 B190:B191 B282:B283 B539:B541 B594:B595 B653:B654 B687:B688 B690:B850 B859:B864 B865:B872 B876:B883 B888:B895 B897:B898 B901:B907 B912:B919 B921:B922 B923:B924 B925:B926 B928:B1048576">
       <formula1>"基本,经典,奖励,纳克萨玛斯,地精大战侏儒,黑石山的火焰,冠军的试练,探险者协会,上古之神,卡拉赞"</formula1>
@@ -47782,11 +47784,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G292 G301 G302 G307 G317 G318 G327 G328 G333 G334 G346 G347 G348 G378 G386 G470 G485 G919 G923 G1:G291 G293:G300 G303:G306 G308:G316 G319:G326 G329:G332 G335:G345 G349:G377 G379:G385 G387:G469 G471:G484 G486:G709 G710:G918 G920:G922 G924:G926 G927:G1048576">
       <formula1>"随从,法术,武器"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="已有此项" sqref="H$1:H$1048576">
-      <formula1>COUNTIF(H:H,H1)=1</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
+      <formula1>"野兽,机械,龙,鱼人,恶魔,海盗"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C830 C831 C832 C833 C834 C835 C836 C837 C838 C839 C840 C841 C842 C843 C844 C845 C846 C847 C848 C849 C850 C851 C852 C853 C854 C855 C856 C857 C858 C859 C860 C861 C862 C863 C864 C865 C866 C867 C868 C869 C870 C871 C872 C873 C874 C899 C900 C923 C2:C302 C303:C363 C364:C411 C412:C468 C469:C516 C517:C564 C565:C613 C614:C661 C662:C709 C710:C769 C770:C826 C827:C829 C875:C883 C884:C886 C887:C895 C896:C898 C901:C907 C908:C910 C911:C919 C920:C922 C924:C926 C927:C65536">
       <formula1>"德鲁伊,猎人,法师,圣骑士,牧师,潜行者,萨满祭司,术士,战士,中立"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="已有此项" sqref="H$1:H$1048576">
+      <formula1>COUNTIF(H:H,H1)=1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>

--- a/Gamming/卡牌分类.xlsx
+++ b/Gamming/卡牌分类.xlsx
@@ -1182,6 +1182,9 @@
     <t>冷血</t>
   </si>
   <si>
+    <t>连击;</t>
+  </si>
+  <si>
     <t>深渊巨蟒</t>
   </si>
   <si>
@@ -1207,9 +1210,6 @@
   </si>
   <si>
     <t>执刀教徒</t>
-  </si>
-  <si>
-    <t>连击;</t>
   </si>
   <si>
     <t>连击</t>
@@ -3944,10 +3944,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="24">
@@ -3985,15 +3985,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="16"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color indexed="54"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -4004,8 +4011,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="16"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -4037,6 +4051,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
@@ -4051,55 +4098,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="53"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -4209,7 +4209,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4221,13 +4221,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4239,37 +4263,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="24"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="54"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4292,27 +4292,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="48"/>
       </top>
-      <bottom style="thin">
-        <color indexed="23"/>
+      <bottom style="double">
+        <color indexed="48"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="48"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color indexed="48"/>
       </bottom>
       <diagonal/>
@@ -4333,11 +4327,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="48"/>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4353,15 +4353,6 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4389,6 +4380,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4400,7 +4400,7 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4412,130 +4412,130 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6083,11 +6083,11 @@
   <dimension ref="A1:V927"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I196" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I808" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I587" sqref="I587"/>
+      <selection pane="bottomRight" activeCell="S817" sqref="S817"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -14067,7 +14067,7 @@
       </c>
       <c r="U194" s="21"/>
     </row>
-    <row r="195" spans="1:21">
+    <row r="195" hidden="1" spans="1:21">
       <c r="A195" s="20">
         <v>41709</v>
       </c>
@@ -14105,7 +14105,7 @@
       </c>
       <c r="U195" s="21"/>
     </row>
-    <row r="196" spans="1:22">
+    <row r="196" hidden="1" spans="1:22">
       <c r="A196" s="20">
         <v>41981</v>
       </c>
@@ -14162,7 +14162,7 @@
       </c>
       <c r="V196" s="20"/>
     </row>
-    <row r="197" spans="1:21">
+    <row r="197" hidden="1" spans="1:21">
       <c r="A197" s="20">
         <v>42487</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="198" spans="1:21">
+    <row r="198" hidden="1" spans="1:21">
       <c r="A198" s="20">
         <v>42320</v>
       </c>
@@ -14254,7 +14254,7 @@
       </c>
       <c r="U198" s="30"/>
     </row>
-    <row r="199" spans="1:21">
+    <row r="199" hidden="1" spans="1:21">
       <c r="A199" s="20">
         <v>42240</v>
       </c>
@@ -14288,7 +14288,7 @@
       </c>
       <c r="U199" s="21"/>
     </row>
-    <row r="200" spans="1:21">
+    <row r="200" hidden="1" spans="1:21">
       <c r="A200" s="20">
         <v>42096</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="201" spans="1:22">
+    <row r="201" hidden="1" spans="1:22">
       <c r="A201" s="20">
         <v>41709</v>
       </c>
@@ -14381,7 +14381,7 @@
       </c>
       <c r="V201" s="20"/>
     </row>
-    <row r="202" spans="1:21">
+    <row r="202" hidden="1" spans="1:21">
       <c r="A202" s="20">
         <v>42593</v>
       </c>
@@ -14412,7 +14412,7 @@
       </c>
       <c r="U202" s="21"/>
     </row>
-    <row r="203" spans="1:21">
+    <row r="203" hidden="1" spans="1:21">
       <c r="A203" s="20">
         <v>42240</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="204" spans="1:22">
+    <row r="204" hidden="1" spans="1:22">
       <c r="A204" s="20">
         <v>42240</v>
       </c>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="V204" s="20"/>
     </row>
-    <row r="205" spans="1:22">
+    <row r="205" hidden="1" spans="1:22">
       <c r="A205" s="20">
         <v>41709</v>
       </c>
@@ -14558,7 +14558,7 @@
       </c>
       <c r="V205" s="20"/>
     </row>
-    <row r="206" spans="1:21">
+    <row r="206" hidden="1" spans="1:21">
       <c r="A206" s="20">
         <v>41981</v>
       </c>
@@ -14601,7 +14601,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="207" spans="1:21">
+    <row r="207" hidden="1" spans="1:21">
       <c r="A207" s="20">
         <v>41709</v>
       </c>
@@ -16167,7 +16167,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="242" hidden="1" spans="1:21">
+    <row r="242" spans="1:21">
       <c r="A242" s="20">
         <v>41709</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="243" hidden="1" spans="1:21">
+    <row r="243" spans="1:21">
       <c r="A243" s="20">
         <v>41709</v>
       </c>
@@ -16246,7 +16246,7 @@
       </c>
       <c r="U243" s="21"/>
     </row>
-    <row r="244" hidden="1" spans="1:21">
+    <row r="244" spans="1:21">
       <c r="A244" s="20">
         <v>41709</v>
       </c>
@@ -16286,7 +16286,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="245" hidden="1" spans="1:21">
+    <row r="245" spans="1:21">
       <c r="A245" s="20">
         <v>42593</v>
       </c>
@@ -16329,7 +16329,7 @@
       </c>
       <c r="U245" s="21"/>
     </row>
-    <row r="246" hidden="1" spans="1:21">
+    <row r="246" spans="1:21">
       <c r="A246" s="20">
         <v>41709</v>
       </c>
@@ -16348,9 +16348,12 @@
       <c r="H246" s="22" t="s">
         <v>386</v>
       </c>
+      <c r="J246" s="21" t="s">
+        <v>387</v>
+      </c>
       <c r="O246" s="23" t="str">
         <f ca="1" t="shared" ref="O246:O252" si="22">PHONETIC(J246:N246)</f>
-        <v/>
+        <v>连击;</v>
       </c>
       <c r="P246" s="21"/>
       <c r="Q246" s="19" t="s">
@@ -16369,7 +16372,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="1:22">
+    <row r="247" spans="1:22">
       <c r="A247" s="20">
         <v>42320</v>
       </c>
@@ -16388,7 +16391,7 @@
         <v>29</v>
       </c>
       <c r="H247" s="22" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I247" s="20"/>
       <c r="J247" s="20"/>
@@ -16401,10 +16404,10 @@
         <v/>
       </c>
       <c r="P247" s="19" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q247" s="19" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="R247" s="26"/>
       <c r="S247" s="26"/>
@@ -16412,7 +16415,7 @@
       <c r="U247" s="20"/>
       <c r="V247" s="20"/>
     </row>
-    <row r="248" hidden="1" spans="1:22">
+    <row r="248" spans="1:22">
       <c r="A248" s="20">
         <v>42487</v>
       </c>
@@ -16431,7 +16434,7 @@
         <v>19</v>
       </c>
       <c r="H248" s="22" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I248" s="20"/>
       <c r="J248" s="20" t="s">
@@ -16448,24 +16451,24 @@
         <v>发现;亡语;</v>
       </c>
       <c r="P248" s="19" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q248" s="19" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="R248" s="19" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="S248" s="28" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="T248" s="19" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="U248" s="20"/>
       <c r="V248" s="20"/>
     </row>
-    <row r="249" hidden="1" spans="1:22">
+    <row r="249" spans="1:22">
       <c r="A249" s="20">
         <v>42240</v>
       </c>
@@ -16484,7 +16487,7 @@
         <v>29</v>
       </c>
       <c r="H249" s="22" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I249" s="20"/>
       <c r="J249" s="21" t="s">
@@ -16514,7 +16517,7 @@
       <c r="U249" s="20"/>
       <c r="V249" s="20"/>
     </row>
-    <row r="250" hidden="1" spans="1:21">
+    <row r="250" spans="1:21">
       <c r="A250" s="20">
         <v>41709</v>
       </c>
@@ -16531,7 +16534,7 @@
         <v>19</v>
       </c>
       <c r="H250" s="22" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O250" s="23" t="str">
         <f ca="1" t="shared" si="22"/>
@@ -16549,10 +16552,10 @@
         <v>21</v>
       </c>
       <c r="U250" s="21" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="251" hidden="1" spans="1:21">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21">
       <c r="A251" s="20">
         <v>41709</v>
       </c>
@@ -16569,7 +16572,7 @@
         <v>19</v>
       </c>
       <c r="H251" s="22" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O251" s="23" t="str">
         <f ca="1" t="shared" si="22"/>
@@ -16585,7 +16588,7 @@
       </c>
       <c r="U251" s="21"/>
     </row>
-    <row r="252" hidden="1" spans="1:21">
+    <row r="252" spans="1:21">
       <c r="A252" s="20">
         <v>42487</v>
       </c>
@@ -16602,10 +16605,10 @@
         <v>29</v>
       </c>
       <c r="H252" s="22" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J252" s="21" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="O252" s="23" t="str">
         <f ca="1" t="shared" si="22"/>
@@ -16620,15 +16623,13 @@
       <c r="R252" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="S252" s="28" t="s">
-        <v>397</v>
-      </c>
+      <c r="S252" s="26"/>
       <c r="T252" s="19" t="s">
         <v>397</v>
       </c>
       <c r="U252" s="21"/>
     </row>
-    <row r="253" hidden="1" spans="1:21">
+    <row r="253" spans="1:21">
       <c r="A253" s="20">
         <v>41709</v>
       </c>
@@ -16664,7 +16665,7 @@
       </c>
       <c r="U253" s="21"/>
     </row>
-    <row r="254" hidden="1" spans="1:21">
+    <row r="254" spans="1:21">
       <c r="A254" s="20">
         <v>41709</v>
       </c>
@@ -16702,7 +16703,7 @@
       </c>
       <c r="U254" s="21"/>
     </row>
-    <row r="255" hidden="1" spans="1:21">
+    <row r="255" spans="1:21">
       <c r="A255" s="20">
         <v>41709</v>
       </c>
@@ -16721,9 +16722,12 @@
       <c r="H255" s="22" t="s">
         <v>400</v>
       </c>
+      <c r="J255" s="21" t="s">
+        <v>387</v>
+      </c>
       <c r="O255" s="23" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>连击;</v>
       </c>
       <c r="P255" s="21"/>
       <c r="Q255" s="19" t="s">
@@ -16742,7 +16746,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="256" hidden="1" spans="1:22">
+    <row r="256" spans="1:22">
       <c r="A256" s="20">
         <v>41709</v>
       </c>
@@ -16764,14 +16768,16 @@
         <v>402</v>
       </c>
       <c r="I256" s="20"/>
-      <c r="J256" s="20"/>
+      <c r="J256" s="20" t="s">
+        <v>387</v>
+      </c>
       <c r="K256" s="20"/>
       <c r="L256" s="20"/>
       <c r="M256" s="20"/>
       <c r="N256" s="20"/>
       <c r="O256" s="23" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>连击;</v>
       </c>
       <c r="P256" s="21"/>
       <c r="Q256" s="19" t="s">
@@ -16791,7 +16797,7 @@
       </c>
       <c r="V256" s="20"/>
     </row>
-    <row r="257" hidden="1" spans="1:21">
+    <row r="257" spans="1:21">
       <c r="A257" s="20">
         <v>41981</v>
       </c>
@@ -16830,7 +16836,7 @@
       </c>
       <c r="U257" s="21"/>
     </row>
-    <row r="258" hidden="1" spans="1:21">
+    <row r="258" spans="1:21">
       <c r="A258" s="20">
         <v>41709</v>
       </c>
@@ -16870,7 +16876,7 @@
       </c>
       <c r="U258" s="21"/>
     </row>
-    <row r="259" hidden="1" spans="1:21">
+    <row r="259" spans="1:21">
       <c r="A259" s="20">
         <v>41981</v>
       </c>
@@ -16908,7 +16914,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="260" hidden="1" spans="1:21">
+    <row r="260" spans="1:21">
       <c r="A260" s="20">
         <v>41709</v>
       </c>
@@ -16948,7 +16954,7 @@
       </c>
       <c r="U260" s="21"/>
     </row>
-    <row r="261" hidden="1" spans="1:22">
+    <row r="261" spans="1:22">
       <c r="A261" s="20">
         <v>41709</v>
       </c>
@@ -16980,22 +16986,22 @@
         <v/>
       </c>
       <c r="P261" s="19" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q261" s="19" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="R261" s="32" t="s">
         <v>410</v>
       </c>
       <c r="S261" s="26"/>
       <c r="T261" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="U261" s="20"/>
       <c r="V261" s="20"/>
     </row>
-    <row r="262" hidden="1" spans="1:22">
+    <row r="262" spans="1:22">
       <c r="A262" s="20">
         <v>42240</v>
       </c>
@@ -17042,7 +17048,7 @@
       <c r="U262" s="20"/>
       <c r="V262" s="20"/>
     </row>
-    <row r="263" hidden="1" spans="1:21">
+    <row r="263" spans="1:21">
       <c r="A263" s="20">
         <v>42096</v>
       </c>
@@ -17076,7 +17082,7 @@
       </c>
       <c r="U263" s="21"/>
     </row>
-    <row r="264" hidden="1" spans="1:21">
+    <row r="264" spans="1:21">
       <c r="A264" s="20">
         <v>42487</v>
       </c>
@@ -17116,7 +17122,7 @@
       </c>
       <c r="U264" s="21"/>
     </row>
-    <row r="265" hidden="1" spans="1:22">
+    <row r="265" spans="1:22">
       <c r="A265" s="20">
         <v>42240</v>
       </c>
@@ -17138,14 +17144,16 @@
         <v>414</v>
       </c>
       <c r="I265" s="20"/>
-      <c r="J265" s="20"/>
+      <c r="J265" s="20" t="s">
+        <v>387</v>
+      </c>
       <c r="K265" s="20"/>
       <c r="L265" s="20"/>
       <c r="M265" s="20"/>
       <c r="N265" s="20"/>
       <c r="O265" s="23" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>连击;</v>
       </c>
       <c r="P265" s="21"/>
       <c r="Q265" s="19" t="s">
@@ -17161,7 +17169,7 @@
       <c r="U265" s="20"/>
       <c r="V265" s="20"/>
     </row>
-    <row r="266" hidden="1" spans="1:22">
+    <row r="266" spans="1:22">
       <c r="A266" s="20">
         <v>41709</v>
       </c>
@@ -17183,14 +17191,16 @@
         <v>415</v>
       </c>
       <c r="I266" s="20"/>
-      <c r="J266" s="20"/>
+      <c r="J266" s="20" t="s">
+        <v>387</v>
+      </c>
       <c r="K266" s="20"/>
       <c r="L266" s="20"/>
       <c r="M266" s="20"/>
       <c r="N266" s="20"/>
       <c r="O266" s="23" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>连击;</v>
       </c>
       <c r="P266" s="19" t="s">
         <v>397</v>
@@ -17210,7 +17220,7 @@
       </c>
       <c r="V266" s="20"/>
     </row>
-    <row r="267" hidden="1" spans="1:21">
+    <row r="267" spans="1:21">
       <c r="A267" s="20">
         <v>42487</v>
       </c>
@@ -17247,7 +17257,7 @@
       </c>
       <c r="U267" s="21"/>
     </row>
-    <row r="268" hidden="1" spans="1:21">
+    <row r="268" spans="1:21">
       <c r="A268" s="20">
         <v>41981</v>
       </c>
@@ -17287,7 +17297,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="269" hidden="1" spans="1:21">
+    <row r="269" spans="1:21">
       <c r="A269" s="20">
         <v>41709</v>
       </c>
@@ -17325,7 +17335,7 @@
       </c>
       <c r="U269" s="21"/>
     </row>
-    <row r="270" hidden="1" spans="1:21">
+    <row r="270" spans="1:21">
       <c r="A270" s="20">
         <v>41981</v>
       </c>
@@ -17367,7 +17377,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="271" hidden="1" spans="1:22">
+    <row r="271" spans="1:22">
       <c r="A271" s="20">
         <v>41709</v>
       </c>
@@ -17393,7 +17403,7 @@
         <v>31</v>
       </c>
       <c r="K271" s="20" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="L271" s="20"/>
       <c r="M271" s="20"/>
@@ -17420,7 +17430,7 @@
       <c r="U271" s="20"/>
       <c r="V271" s="20"/>
     </row>
-    <row r="272" hidden="1" spans="1:22">
+    <row r="272" spans="1:22">
       <c r="A272" s="20">
         <v>41709</v>
       </c>
@@ -17442,14 +17452,16 @@
         <v>423</v>
       </c>
       <c r="I272" s="20"/>
-      <c r="J272" s="20"/>
+      <c r="J272" s="20" t="s">
+        <v>387</v>
+      </c>
       <c r="K272" s="20"/>
       <c r="L272" s="20"/>
       <c r="M272" s="20"/>
       <c r="N272" s="20"/>
       <c r="O272" s="23" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>连击;</v>
       </c>
       <c r="P272" s="19" t="s">
         <v>397</v>
@@ -17471,7 +17483,7 @@
       </c>
       <c r="V272" s="20"/>
     </row>
-    <row r="273" hidden="1" spans="1:21">
+    <row r="273" spans="1:21">
       <c r="A273" s="20">
         <v>41709</v>
       </c>
@@ -17490,9 +17502,12 @@
       <c r="H273" s="22" t="s">
         <v>424</v>
       </c>
+      <c r="J273" s="20" t="s">
+        <v>387</v>
+      </c>
       <c r="O273" s="23" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>连击;</v>
       </c>
       <c r="P273" s="21"/>
       <c r="Q273" s="19" t="s">
@@ -17507,7 +17522,7 @@
       </c>
       <c r="U273" s="21"/>
     </row>
-    <row r="274" hidden="1" spans="1:22">
+    <row r="274" spans="1:22">
       <c r="A274" s="20">
         <v>42240</v>
       </c>
@@ -17552,7 +17567,7 @@
       <c r="U274" s="20"/>
       <c r="V274" s="20"/>
     </row>
-    <row r="275" hidden="1" spans="1:22">
+    <row r="275" spans="1:22">
       <c r="A275" s="20">
         <v>42320</v>
       </c>
@@ -17607,7 +17622,7 @@
       </c>
       <c r="V275" s="20"/>
     </row>
-    <row r="276" hidden="1" spans="1:22">
+    <row r="276" spans="1:22">
       <c r="A276" s="20">
         <v>42240</v>
       </c>
@@ -17656,7 +17671,7 @@
       </c>
       <c r="V276" s="20"/>
     </row>
-    <row r="277" hidden="1" spans="1:21">
+    <row r="277" spans="1:21">
       <c r="A277" s="20">
         <v>42593</v>
       </c>
@@ -17696,7 +17711,7 @@
       </c>
       <c r="U277" s="21"/>
     </row>
-    <row r="278" hidden="1" spans="1:22">
+    <row r="278" spans="1:22">
       <c r="A278" s="20">
         <v>42240</v>
       </c>
@@ -17749,7 +17764,7 @@
       </c>
       <c r="V278" s="20"/>
     </row>
-    <row r="279" hidden="1" spans="1:21">
+    <row r="279" spans="1:21">
       <c r="A279" s="20">
         <v>41842</v>
       </c>
@@ -17794,7 +17809,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:21">
+    <row r="280" spans="1:21">
       <c r="A280" s="20">
         <v>41981</v>
       </c>
@@ -17813,9 +17828,12 @@
       <c r="H280" s="22" t="s">
         <v>435</v>
       </c>
+      <c r="J280" s="20" t="s">
+        <v>387</v>
+      </c>
       <c r="O280" s="23" t="str">
         <f ca="1" t="shared" ref="O278:O283" si="25">PHONETIC(J280:N280)</f>
-        <v/>
+        <v>连击;</v>
       </c>
       <c r="P280" s="19" t="s">
         <v>397</v>
@@ -17834,7 +17852,7 @@
       </c>
       <c r="U280" s="21"/>
     </row>
-    <row r="281" hidden="1" spans="1:22">
+    <row r="281" spans="1:22">
       <c r="A281" s="20">
         <v>42240</v>
       </c>
@@ -17877,7 +17895,7 @@
       <c r="U281" s="20"/>
       <c r="V281" s="20"/>
     </row>
-    <row r="282" hidden="1" spans="1:22">
+    <row r="282" spans="1:22">
       <c r="A282" s="20">
         <v>42320</v>
       </c>
@@ -17928,7 +17946,7 @@
       <c r="U282" s="20"/>
       <c r="V282" s="20"/>
     </row>
-    <row r="283" hidden="1" spans="1:21">
+    <row r="283" spans="1:21">
       <c r="A283" s="20">
         <v>42487</v>
       </c>
@@ -17974,7 +17992,7 @@
       </c>
       <c r="U283" s="21"/>
     </row>
-    <row r="284" hidden="1" spans="1:21">
+    <row r="284" spans="1:21">
       <c r="A284" s="20">
         <v>41709</v>
       </c>
@@ -18010,7 +18028,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="285" hidden="1" spans="1:21">
+    <row r="285" spans="1:21">
       <c r="A285" s="20">
         <v>42487</v>
       </c>
@@ -18050,7 +18068,7 @@
       </c>
       <c r="U285" s="21"/>
     </row>
-    <row r="286" hidden="1" spans="1:22">
+    <row r="286" spans="1:22">
       <c r="A286" s="20">
         <v>41709</v>
       </c>
@@ -18103,7 +18121,7 @@
       </c>
       <c r="V286" s="20"/>
     </row>
-    <row r="287" hidden="1" customHeight="1" spans="1:22">
+    <row r="287" customHeight="1" spans="1:22">
       <c r="A287" s="20">
         <v>41981</v>
       </c>
@@ -18125,14 +18143,16 @@
         <v>445</v>
       </c>
       <c r="I287" s="20"/>
-      <c r="J287" s="20"/>
+      <c r="J287" s="20" t="s">
+        <v>387</v>
+      </c>
       <c r="K287" s="20"/>
       <c r="L287" s="20"/>
       <c r="M287" s="20"/>
       <c r="N287" s="20"/>
       <c r="O287" s="23" t="str">
         <f ca="1" t="shared" si="26"/>
-        <v/>
+        <v>连击;</v>
       </c>
       <c r="P287" s="21"/>
       <c r="Q287" s="19" t="s">
@@ -18150,7 +18170,7 @@
       </c>
       <c r="V287" s="20"/>
     </row>
-    <row r="288" hidden="1" customHeight="1" spans="1:22">
+    <row r="288" customHeight="1" spans="1:22">
       <c r="A288" s="20">
         <v>42487</v>
       </c>
@@ -18197,7 +18217,7 @@
       <c r="U288" s="20"/>
       <c r="V288" s="20"/>
     </row>
-    <row r="289" hidden="1" customHeight="1" spans="1:22">
+    <row r="289" customHeight="1" spans="1:22">
       <c r="A289" s="20">
         <v>41709</v>
       </c>
@@ -18244,7 +18264,7 @@
       <c r="U289" s="20"/>
       <c r="V289" s="20"/>
     </row>
-    <row r="290" hidden="1" customHeight="1" spans="1:22">
+    <row r="290" customHeight="1" spans="1:22">
       <c r="A290" s="20">
         <v>41709</v>
       </c>
@@ -18291,7 +18311,7 @@
       <c r="U290" s="20"/>
       <c r="V290" s="20"/>
     </row>
-    <row r="291" hidden="1" spans="1:22">
+    <row r="291" spans="1:22">
       <c r="A291" s="20">
         <v>42096</v>
       </c>
@@ -18342,7 +18362,7 @@
       <c r="U291" s="20"/>
       <c r="V291" s="20"/>
     </row>
-    <row r="292" hidden="1" spans="1:22">
+    <row r="292" spans="1:22">
       <c r="A292" s="20">
         <v>41981</v>
       </c>
@@ -18391,7 +18411,7 @@
       <c r="U292" s="20"/>
       <c r="V292" s="20"/>
     </row>
-    <row r="293" hidden="1" spans="1:21">
+    <row r="293" spans="1:21">
       <c r="A293" s="20">
         <v>42593</v>
       </c>
@@ -18436,7 +18456,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="294" hidden="1" spans="1:22">
+    <row r="294" spans="1:22">
       <c r="A294" s="20">
         <v>42240</v>
       </c>
@@ -18459,7 +18479,7 @@
       </c>
       <c r="I294" s="20"/>
       <c r="J294" s="21" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K294" s="20"/>
       <c r="L294" s="20"/>
@@ -18489,7 +18509,7 @@
       </c>
       <c r="V294" s="20"/>
     </row>
-    <row r="295" hidden="1" spans="1:21">
+    <row r="295" spans="1:21">
       <c r="A295" s="20">
         <v>41981</v>
       </c>
@@ -18529,7 +18549,7 @@
       </c>
       <c r="U295" s="21"/>
     </row>
-    <row r="296" hidden="1" spans="1:22">
+    <row r="296" spans="1:22">
       <c r="A296" s="20">
         <v>41709</v>
       </c>
@@ -18551,14 +18571,16 @@
         <v>456</v>
       </c>
       <c r="I296" s="20"/>
-      <c r="J296" s="20"/>
+      <c r="J296" s="20" t="s">
+        <v>387</v>
+      </c>
       <c r="K296" s="20"/>
       <c r="L296" s="20"/>
       <c r="M296" s="20"/>
       <c r="N296" s="20"/>
       <c r="O296" s="23" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>连击;</v>
       </c>
       <c r="P296" s="21"/>
       <c r="Q296" s="19" t="s">
@@ -18574,7 +18596,7 @@
       </c>
       <c r="V296" s="20"/>
     </row>
-    <row r="297" hidden="1" spans="1:21">
+    <row r="297" spans="1:21">
       <c r="A297" s="20">
         <v>42487</v>
       </c>
@@ -18609,7 +18631,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="298" hidden="1" spans="1:21">
+    <row r="298" spans="1:21">
       <c r="A298" s="20">
         <v>41709</v>
       </c>
@@ -18645,7 +18667,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="299" hidden="1" spans="1:21">
+    <row r="299" spans="1:21">
       <c r="A299" s="20">
         <v>41709</v>
       </c>
@@ -18685,7 +18707,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="300" hidden="1" spans="1:22">
+    <row r="300" spans="1:22">
       <c r="A300" s="20">
         <v>42240</v>
       </c>
@@ -18734,7 +18756,7 @@
       <c r="U300" s="20"/>
       <c r="V300" s="20"/>
     </row>
-    <row r="301" hidden="1" spans="1:21">
+    <row r="301" spans="1:21">
       <c r="A301" s="20">
         <v>42487</v>
       </c>
@@ -22266,17 +22288,17 @@
         <v/>
       </c>
       <c r="P380" s="19" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q380" s="19" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="R380" s="28" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="S380" s="20"/>
       <c r="T380" s="19" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="U380" s="20"/>
       <c r="V380" s="20"/>
@@ -29293,7 +29315,7 @@
       </c>
       <c r="V541" s="20"/>
     </row>
-    <row r="542" hidden="1" spans="1:22">
+    <row r="542" spans="1:22">
       <c r="A542" s="20">
         <v>41981</v>
       </c>
@@ -29341,7 +29363,7 @@
       <c r="T542" s="43"/>
       <c r="V542" s="20"/>
     </row>
-    <row r="543" hidden="1" spans="1:20">
+    <row r="543" spans="1:20">
       <c r="A543" s="20">
         <v>41709</v>
       </c>
@@ -29378,7 +29400,7 @@
       <c r="S543" s="26"/>
       <c r="T543" s="26"/>
     </row>
-    <row r="544" hidden="1" spans="1:20">
+    <row r="544" spans="1:20">
       <c r="A544" s="20">
         <v>42320</v>
       </c>
@@ -29418,7 +29440,7 @@
       <c r="S544" s="26"/>
       <c r="T544" s="26"/>
     </row>
-    <row r="545" hidden="1" spans="1:21">
+    <row r="545" spans="1:21">
       <c r="A545" s="20">
         <v>41709</v>
       </c>
@@ -29465,7 +29487,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="546" hidden="1" spans="1:21">
+    <row r="546" spans="1:21">
       <c r="A546" s="20">
         <v>41709</v>
       </c>
@@ -29511,7 +29533,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="547" hidden="1" spans="1:21">
+    <row r="547" spans="1:21">
       <c r="A547" s="20">
         <v>42593</v>
       </c>
@@ -29547,7 +29569,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="548" hidden="1" spans="1:8">
+    <row r="548" spans="1:8">
       <c r="A548" s="20">
         <v>42487</v>
       </c>
@@ -29567,7 +29589,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="549" hidden="1" spans="1:21">
+    <row r="549" spans="1:21">
       <c r="A549" s="20">
         <v>41709</v>
       </c>
@@ -29612,7 +29634,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="550" hidden="1" spans="1:21">
+    <row r="550" spans="1:21">
       <c r="A550" s="20">
         <v>41981</v>
       </c>
@@ -29658,7 +29680,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="551" hidden="1" spans="1:22">
+    <row r="551" spans="1:22">
       <c r="A551" s="20">
         <v>42240</v>
       </c>
@@ -29709,7 +29731,7 @@
       <c r="U551" s="44"/>
       <c r="V551" s="20"/>
     </row>
-    <row r="552" hidden="1" spans="1:20">
+    <row r="552" spans="1:20">
       <c r="A552" s="20">
         <v>42487</v>
       </c>
@@ -29751,7 +29773,7 @@
       </c>
       <c r="T552" s="26"/>
     </row>
-    <row r="553" hidden="1" spans="1:20">
+    <row r="553" spans="1:20">
       <c r="A553" s="20">
         <v>41981</v>
       </c>
@@ -29800,7 +29822,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="554" hidden="1" spans="1:21">
+    <row r="554" spans="1:21">
       <c r="A554" s="20">
         <v>42320</v>
       </c>
@@ -29850,7 +29872,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="555" hidden="1" spans="1:21">
+    <row r="555" spans="1:21">
       <c r="A555" s="20">
         <v>41709</v>
       </c>
@@ -29894,7 +29916,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="556" hidden="1" spans="1:20">
+    <row r="556" spans="1:20">
       <c r="A556" s="20">
         <v>42593</v>
       </c>
@@ -29924,7 +29946,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="557" hidden="1" spans="1:21">
+    <row r="557" spans="1:21">
       <c r="A557" s="20">
         <v>42240</v>
       </c>
@@ -29973,7 +29995,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="558" hidden="1" spans="1:21">
+    <row r="558" spans="1:21">
       <c r="A558" s="20">
         <v>41709</v>
       </c>
@@ -30020,7 +30042,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="559" hidden="1" spans="1:21">
+    <row r="559" spans="1:21">
       <c r="A559" s="20">
         <v>41709</v>
       </c>
@@ -30067,7 +30089,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="560" hidden="1" spans="1:20">
+    <row r="560" spans="1:20">
       <c r="A560" s="20">
         <v>42487</v>
       </c>
@@ -30111,7 +30133,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="561" hidden="1" spans="1:20">
+    <row r="561" spans="1:20">
       <c r="A561" s="20">
         <v>41709</v>
       </c>
@@ -30157,7 +30179,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="562" hidden="1" spans="1:22">
+    <row r="562" spans="1:22">
       <c r="A562" s="20">
         <v>42096</v>
       </c>
@@ -30210,7 +30232,7 @@
       </c>
       <c r="V562" s="20"/>
     </row>
-    <row r="563" hidden="1" spans="1:20">
+    <row r="563" spans="1:20">
       <c r="A563" s="20">
         <v>41709</v>
       </c>
@@ -30256,7 +30278,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="564" hidden="1" spans="1:21">
+    <row r="564" spans="1:21">
       <c r="A564" s="20">
         <v>41709</v>
       </c>
@@ -30305,7 +30327,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="565" hidden="1" spans="1:21">
+    <row r="565" spans="1:21">
       <c r="A565" s="20">
         <v>41709</v>
       </c>
@@ -30349,7 +30371,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="566" hidden="1" spans="1:21">
+    <row r="566" spans="1:21">
       <c r="A566" s="20">
         <v>41842</v>
       </c>
@@ -30396,7 +30418,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="567" hidden="1" spans="1:20">
+    <row r="567" spans="1:20">
       <c r="A567" s="20">
         <v>42240</v>
       </c>
@@ -30440,7 +30462,7 @@
       </c>
       <c r="T567" s="26"/>
     </row>
-    <row r="568" hidden="1" spans="1:21">
+    <row r="568" spans="1:21">
       <c r="A568" s="20">
         <v>41709</v>
       </c>
@@ -30489,7 +30511,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="569" hidden="1" spans="1:22">
+    <row r="569" spans="1:22">
       <c r="A569" s="20">
         <v>41709</v>
       </c>
@@ -30540,7 +30562,7 @@
       </c>
       <c r="V569" s="20"/>
     </row>
-    <row r="570" hidden="1" spans="1:22">
+    <row r="570" spans="1:22">
       <c r="A570" s="20">
         <v>41709</v>
       </c>
@@ -30587,7 +30609,7 @@
       <c r="U570" s="44"/>
       <c r="V570" s="20"/>
     </row>
-    <row r="571" hidden="1" spans="1:22">
+    <row r="571" spans="1:22">
       <c r="A571" s="20">
         <v>42240</v>
       </c>
@@ -30640,7 +30662,7 @@
       </c>
       <c r="V571" s="20"/>
     </row>
-    <row r="572" hidden="1" spans="1:21">
+    <row r="572" spans="1:21">
       <c r="A572" s="20">
         <v>41842</v>
       </c>
@@ -30682,7 +30704,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="573" hidden="1" spans="1:20">
+    <row r="573" spans="1:20">
       <c r="A573" s="20">
         <v>41709</v>
       </c>
@@ -30725,7 +30747,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="574" hidden="1" spans="1:21">
+    <row r="574" spans="1:21">
       <c r="A574" s="20">
         <v>41709</v>
       </c>
@@ -30771,7 +30793,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="575" hidden="1" spans="1:21">
+    <row r="575" spans="1:21">
       <c r="A575" s="20">
         <v>41709</v>
       </c>
@@ -30816,7 +30838,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="576" hidden="1" spans="1:21">
+    <row r="576" spans="1:21">
       <c r="A576" s="20">
         <v>41709</v>
       </c>
@@ -30856,7 +30878,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="577" hidden="1" spans="1:21">
+    <row r="577" spans="1:21">
       <c r="A577" s="20">
         <v>41709</v>
       </c>
@@ -30905,7 +30927,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="578" hidden="1" spans="1:21">
+    <row r="578" spans="1:21">
       <c r="A578" s="20">
         <v>41709</v>
       </c>
@@ -30945,7 +30967,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="579" hidden="1" spans="1:21">
+    <row r="579" spans="1:21">
       <c r="A579" s="20">
         <v>41709</v>
       </c>
@@ -33894,7 +33916,7 @@
       <c r="U639" s="44"/>
       <c r="V639" s="20"/>
     </row>
-    <row r="640" customFormat="1" hidden="1" spans="1:22">
+    <row r="640" customFormat="1" spans="1:22">
       <c r="A640" s="20">
         <v>41709</v>
       </c>
@@ -33937,7 +33959,7 @@
       <c r="U640" s="44"/>
       <c r="V640" s="21"/>
     </row>
-    <row r="641" customFormat="1" hidden="1" spans="1:22">
+    <row r="641" customFormat="1" spans="1:22">
       <c r="A641" s="20">
         <v>42240</v>
       </c>
@@ -33984,7 +34006,7 @@
       <c r="U641" s="44"/>
       <c r="V641" s="21"/>
     </row>
-    <row r="642" customFormat="1" hidden="1" spans="1:22">
+    <row r="642" customFormat="1" spans="1:22">
       <c r="A642" s="20">
         <v>41709</v>
       </c>
@@ -34029,7 +34051,7 @@
       </c>
       <c r="V642" s="21"/>
     </row>
-    <row r="643" customFormat="1" hidden="1" spans="1:22">
+    <row r="643" customFormat="1" spans="1:22">
       <c r="A643" s="20">
         <v>41709</v>
       </c>
@@ -34078,7 +34100,7 @@
       </c>
       <c r="V643" s="21"/>
     </row>
-    <row r="644" customFormat="1" hidden="1" spans="1:22">
+    <row r="644" customFormat="1" spans="1:22">
       <c r="A644" s="20">
         <v>42240</v>
       </c>
@@ -34119,7 +34141,7 @@
       <c r="U644" s="44"/>
       <c r="V644" s="21"/>
     </row>
-    <row r="645" customFormat="1" hidden="1" spans="1:22">
+    <row r="645" customFormat="1" spans="1:22">
       <c r="A645" s="20">
         <v>42320</v>
       </c>
@@ -34172,7 +34194,7 @@
       </c>
       <c r="V645" s="21"/>
     </row>
-    <row r="646" customFormat="1" hidden="1" spans="1:22">
+    <row r="646" customFormat="1" spans="1:22">
       <c r="A646" s="20">
         <v>42240</v>
       </c>
@@ -34221,7 +34243,7 @@
       <c r="U646" s="44"/>
       <c r="V646" s="21"/>
     </row>
-    <row r="647" customFormat="1" hidden="1" spans="1:22">
+    <row r="647" customFormat="1" spans="1:22">
       <c r="A647" s="20">
         <v>42593</v>
       </c>
@@ -34268,7 +34290,7 @@
       <c r="U647" s="44"/>
       <c r="V647" s="20"/>
     </row>
-    <row r="648" customFormat="1" hidden="1" spans="1:22">
+    <row r="648" customFormat="1" spans="1:22">
       <c r="A648" s="20">
         <v>41709</v>
       </c>
@@ -34315,7 +34337,7 @@
       </c>
       <c r="V648" s="21"/>
     </row>
-    <row r="649" customFormat="1" hidden="1" spans="1:22">
+    <row r="649" customFormat="1" spans="1:22">
       <c r="A649" s="20">
         <v>41709</v>
       </c>
@@ -34362,7 +34384,7 @@
       </c>
       <c r="V649" s="21"/>
     </row>
-    <row r="650" customFormat="1" hidden="1" spans="1:22">
+    <row r="650" customFormat="1" spans="1:22">
       <c r="A650" s="20">
         <v>41709</v>
       </c>
@@ -34415,7 +34437,7 @@
       </c>
       <c r="V650" s="21"/>
     </row>
-    <row r="651" hidden="1" spans="1:22">
+    <row r="651" spans="1:22">
       <c r="A651" s="20">
         <v>41981</v>
       </c>
@@ -34464,7 +34486,7 @@
       </c>
       <c r="V651" s="21"/>
     </row>
-    <row r="652" hidden="1" spans="1:22">
+    <row r="652" spans="1:22">
       <c r="A652" s="20">
         <v>41981</v>
       </c>
@@ -34511,7 +34533,7 @@
       <c r="U652" s="44"/>
       <c r="V652" s="21"/>
     </row>
-    <row r="653" hidden="1" spans="1:22">
+    <row r="653" spans="1:22">
       <c r="A653" s="20">
         <v>41709</v>
       </c>
@@ -34536,11 +34558,11 @@
       </c>
       <c r="P653" s="21"/>
       <c r="Q653" s="19" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="R653" s="26"/>
       <c r="S653" s="32" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="T653" s="26"/>
       <c r="U653" s="26" t="s">
@@ -34548,7 +34570,7 @@
       </c>
       <c r="V653" s="21"/>
     </row>
-    <row r="654" hidden="1" spans="1:22">
+    <row r="654" spans="1:22">
       <c r="A654" s="20">
         <v>42487</v>
       </c>
@@ -34587,7 +34609,7 @@
       </c>
       <c r="V654" s="21"/>
     </row>
-    <row r="655" hidden="1" spans="1:22">
+    <row r="655" spans="1:22">
       <c r="A655" s="20">
         <v>41981</v>
       </c>
@@ -34624,7 +34646,7 @@
       </c>
       <c r="V655" s="21"/>
     </row>
-    <row r="656" hidden="1" spans="1:22">
+    <row r="656" spans="1:22">
       <c r="A656" s="20">
         <v>41709</v>
       </c>
@@ -34662,7 +34684,7 @@
       </c>
       <c r="V656" s="21"/>
     </row>
-    <row r="657" hidden="1" spans="1:22">
+    <row r="657" spans="1:22">
       <c r="A657" s="20">
         <v>41709</v>
       </c>
@@ -34708,7 +34730,7 @@
       </c>
       <c r="V657" s="21"/>
     </row>
-    <row r="658" hidden="1" spans="1:22">
+    <row r="658" spans="1:22">
       <c r="A658" s="20">
         <v>41709</v>
       </c>
@@ -34747,7 +34769,7 @@
       <c r="T658" s="26"/>
       <c r="V658" s="21"/>
     </row>
-    <row r="659" hidden="1" spans="1:22">
+    <row r="659" spans="1:22">
       <c r="A659" s="20">
         <v>41981</v>
       </c>
@@ -34794,7 +34816,7 @@
       </c>
       <c r="V659" s="21"/>
     </row>
-    <row r="660" hidden="1" spans="1:22">
+    <row r="660" spans="1:22">
       <c r="A660" s="20">
         <v>41709</v>
       </c>
@@ -34834,7 +34856,7 @@
       </c>
       <c r="V660" s="21"/>
     </row>
-    <row r="661" hidden="1" spans="1:22">
+    <row r="661" spans="1:22">
       <c r="A661" s="20">
         <v>42240</v>
       </c>
@@ -34880,7 +34902,7 @@
       </c>
       <c r="V661" s="21"/>
     </row>
-    <row r="662" hidden="1" spans="1:22">
+    <row r="662" spans="1:22">
       <c r="A662" s="20">
         <v>41709</v>
       </c>
@@ -34923,7 +34945,7 @@
       </c>
       <c r="V662" s="21"/>
     </row>
-    <row r="663" hidden="1" spans="1:22">
+    <row r="663" spans="1:22">
       <c r="A663" s="20">
         <v>41709</v>
       </c>
@@ -34961,7 +34983,7 @@
       </c>
       <c r="V663" s="21"/>
     </row>
-    <row r="664" hidden="1" spans="1:22">
+    <row r="664" spans="1:22">
       <c r="A664" s="20">
         <v>42240</v>
       </c>
@@ -35004,7 +35026,7 @@
       </c>
       <c r="V664" s="21"/>
     </row>
-    <row r="665" hidden="1" spans="1:22">
+    <row r="665" spans="1:22">
       <c r="A665" s="20">
         <v>42096</v>
       </c>
@@ -35048,7 +35070,7 @@
       </c>
       <c r="V665" s="21"/>
     </row>
-    <row r="666" hidden="1" spans="1:22">
+    <row r="666" spans="1:22">
       <c r="A666" s="20">
         <v>42240</v>
       </c>
@@ -35092,7 +35114,7 @@
       </c>
       <c r="V666" s="21"/>
     </row>
-    <row r="667" hidden="1" spans="1:22">
+    <row r="667" spans="1:22">
       <c r="A667" s="20">
         <v>42593</v>
       </c>
@@ -35143,7 +35165,7 @@
       <c r="U667" s="44"/>
       <c r="V667" s="20"/>
     </row>
-    <row r="668" hidden="1" spans="1:22">
+    <row r="668" spans="1:22">
       <c r="A668" s="20">
         <v>42240</v>
       </c>
@@ -35181,7 +35203,7 @@
       <c r="T668" s="26"/>
       <c r="V668" s="21"/>
     </row>
-    <row r="669" hidden="1" spans="1:22">
+    <row r="669" spans="1:22">
       <c r="A669" s="20">
         <v>41709</v>
       </c>
@@ -35227,7 +35249,7 @@
       </c>
       <c r="V669" s="21"/>
     </row>
-    <row r="670" hidden="1" spans="1:22">
+    <row r="670" spans="1:22">
       <c r="A670" s="20">
         <v>42487</v>
       </c>
@@ -35268,7 +35290,7 @@
       </c>
       <c r="V670" s="21"/>
     </row>
-    <row r="671" hidden="1" spans="1:22">
+    <row r="671" spans="1:22">
       <c r="A671" s="20">
         <v>41709</v>
       </c>
@@ -35311,7 +35333,7 @@
       </c>
       <c r="V671" s="21"/>
     </row>
-    <row r="672" hidden="1" spans="1:22">
+    <row r="672" spans="1:22">
       <c r="A672" s="20">
         <v>41709</v>
       </c>
@@ -35349,7 +35371,7 @@
       </c>
       <c r="V672" s="21"/>
     </row>
-    <row r="673" hidden="1" spans="1:22">
+    <row r="673" spans="1:22">
       <c r="A673" s="20">
         <v>42487</v>
       </c>
@@ -35399,7 +35421,7 @@
       </c>
       <c r="V673" s="21"/>
     </row>
-    <row r="674" hidden="1" spans="1:22">
+    <row r="674" spans="1:22">
       <c r="A674" s="20">
         <v>42240</v>
       </c>
@@ -35435,7 +35457,7 @@
       </c>
       <c r="V674" s="21"/>
     </row>
-    <row r="675" hidden="1" spans="1:22">
+    <row r="675" spans="1:22">
       <c r="A675" s="20">
         <v>41709</v>
       </c>
@@ -35476,7 +35498,7 @@
       </c>
       <c r="V675" s="21"/>
     </row>
-    <row r="676" hidden="1" spans="1:22">
+    <row r="676" spans="1:22">
       <c r="A676" s="20">
         <v>41981</v>
       </c>
@@ -35517,7 +35539,7 @@
       </c>
       <c r="V676" s="21"/>
     </row>
-    <row r="677" hidden="1" spans="1:22">
+    <row r="677" spans="1:22">
       <c r="A677" s="20">
         <v>42593</v>
       </c>
@@ -35566,7 +35588,7 @@
       <c r="U677" s="44"/>
       <c r="V677" s="20"/>
     </row>
-    <row r="678" hidden="1" spans="1:22">
+    <row r="678" spans="1:22">
       <c r="A678" s="20">
         <v>42487</v>
       </c>
@@ -35609,7 +35631,7 @@
       </c>
       <c r="V678" s="21"/>
     </row>
-    <row r="679" hidden="1" spans="1:22">
+    <row r="679" spans="1:22">
       <c r="A679" s="20">
         <v>41709</v>
       </c>
@@ -35646,7 +35668,7 @@
       </c>
       <c r="V679" s="21"/>
     </row>
-    <row r="680" hidden="1" spans="1:22">
+    <row r="680" spans="1:22">
       <c r="A680" s="20">
         <v>41842</v>
       </c>
@@ -35682,7 +35704,7 @@
       </c>
       <c r="V680" s="21"/>
     </row>
-    <row r="681" hidden="1" spans="1:22">
+    <row r="681" spans="1:22">
       <c r="A681" s="20">
         <v>41709</v>
       </c>
@@ -35725,7 +35747,7 @@
       </c>
       <c r="V681" s="21"/>
     </row>
-    <row r="682" hidden="1" spans="1:22">
+    <row r="682" spans="1:22">
       <c r="A682" s="20">
         <v>41709</v>
       </c>
@@ -35770,7 +35792,7 @@
       </c>
       <c r="V682" s="21"/>
     </row>
-    <row r="683" hidden="1" spans="1:22">
+    <row r="683" spans="1:22">
       <c r="A683" s="20">
         <v>41981</v>
       </c>
@@ -35818,7 +35840,7 @@
       </c>
       <c r="V683" s="21"/>
     </row>
-    <row r="684" hidden="1" spans="1:22">
+    <row r="684" spans="1:22">
       <c r="A684" s="20">
         <v>42240</v>
       </c>
@@ -35857,7 +35879,7 @@
       </c>
       <c r="V684" s="21"/>
     </row>
-    <row r="685" hidden="1" spans="1:22">
+    <row r="685" spans="1:22">
       <c r="A685" s="20">
         <v>41709</v>
       </c>
@@ -35899,7 +35921,7 @@
       </c>
       <c r="V685" s="21"/>
     </row>
-    <row r="686" hidden="1" spans="1:22">
+    <row r="686" spans="1:22">
       <c r="A686" s="20">
         <v>42240</v>
       </c>
@@ -35946,7 +35968,7 @@
       </c>
       <c r="V686" s="21"/>
     </row>
-    <row r="687" hidden="1" spans="1:22">
+    <row r="687" spans="1:22">
       <c r="A687" s="20">
         <v>41709</v>
       </c>
@@ -35993,7 +36015,7 @@
       </c>
       <c r="V687" s="21"/>
     </row>
-    <row r="688" hidden="1" spans="1:22">
+    <row r="688" spans="1:22">
       <c r="A688" s="20">
         <v>41709</v>
       </c>
@@ -36030,7 +36052,7 @@
       </c>
       <c r="V688" s="21"/>
     </row>
-    <row r="689" hidden="1" spans="1:22">
+    <row r="689" spans="1:22">
       <c r="A689" s="20">
         <v>42240</v>
       </c>
@@ -36079,7 +36101,7 @@
       <c r="U689" s="44"/>
       <c r="V689" s="21"/>
     </row>
-    <row r="690" hidden="1" spans="1:22">
+    <row r="690" spans="1:22">
       <c r="A690" s="20">
         <v>41981</v>
       </c>
@@ -36125,7 +36147,7 @@
       </c>
       <c r="V690" s="21"/>
     </row>
-    <row r="691" hidden="1" spans="1:22">
+    <row r="691" spans="1:22">
       <c r="A691" s="20">
         <v>41842</v>
       </c>
@@ -36175,7 +36197,7 @@
       <c r="T691" s="26"/>
       <c r="V691" s="21"/>
     </row>
-    <row r="692" hidden="1" spans="1:22">
+    <row r="692" spans="1:22">
       <c r="A692" s="20">
         <v>41709</v>
       </c>
@@ -36222,7 +36244,7 @@
       </c>
       <c r="V692" s="21"/>
     </row>
-    <row r="693" hidden="1" spans="1:22">
+    <row r="693" spans="1:22">
       <c r="A693" s="20">
         <v>41709</v>
       </c>
@@ -36273,7 +36295,7 @@
       </c>
       <c r="V693" s="21"/>
     </row>
-    <row r="694" hidden="1" spans="1:22">
+    <row r="694" spans="1:22">
       <c r="A694" s="20">
         <v>41709</v>
       </c>
@@ -36311,7 +36333,7 @@
       </c>
       <c r="V694" s="21"/>
     </row>
-    <row r="695" hidden="1" spans="1:22">
+    <row r="695" spans="1:22">
       <c r="A695" s="20">
         <v>41709</v>
       </c>
@@ -36358,7 +36380,7 @@
       </c>
       <c r="V695" s="21"/>
     </row>
-    <row r="696" hidden="1" spans="1:22">
+    <row r="696" spans="1:22">
       <c r="A696" s="20">
         <v>41709</v>
       </c>
@@ -36405,7 +36427,7 @@
       </c>
       <c r="V696" s="20"/>
     </row>
-    <row r="697" hidden="1" spans="1:22">
+    <row r="697" spans="1:22">
       <c r="A697" s="20">
         <v>41842</v>
       </c>
@@ -36452,7 +36474,7 @@
       </c>
       <c r="V697" s="20"/>
     </row>
-    <row r="698" hidden="1" spans="1:22">
+    <row r="698" spans="1:22">
       <c r="A698" s="20">
         <v>41981</v>
       </c>
@@ -36502,7 +36524,7 @@
       </c>
       <c r="V698" s="21"/>
     </row>
-    <row r="699" hidden="1" spans="1:22">
+    <row r="699" spans="1:22">
       <c r="A699" s="20">
         <v>41709</v>
       </c>
@@ -36549,7 +36571,7 @@
       </c>
       <c r="V699" s="20"/>
     </row>
-    <row r="700" hidden="1" spans="1:22">
+    <row r="700" spans="1:22">
       <c r="A700" s="20">
         <v>41709</v>
       </c>
@@ -36598,7 +36620,7 @@
       </c>
       <c r="V700" s="21"/>
     </row>
-    <row r="701" hidden="1" spans="1:22">
+    <row r="701" spans="1:22">
       <c r="A701" s="20">
         <v>41709</v>
       </c>
@@ -36648,7 +36670,7 @@
       </c>
       <c r="V701" s="20"/>
     </row>
-    <row r="702" hidden="1" spans="1:22">
+    <row r="702" spans="1:22">
       <c r="A702" s="20">
         <v>41842</v>
       </c>
@@ -36693,7 +36715,7 @@
       </c>
       <c r="V702" s="20"/>
     </row>
-    <row r="703" hidden="1" spans="1:22">
+    <row r="703" spans="1:22">
       <c r="A703" s="20">
         <v>41709</v>
       </c>
@@ -36734,7 +36756,7 @@
       <c r="U703" s="44"/>
       <c r="V703" s="20"/>
     </row>
-    <row r="704" hidden="1" spans="1:22">
+    <row r="704" spans="1:22">
       <c r="A704" s="20">
         <v>42487</v>
       </c>
@@ -36783,7 +36805,7 @@
       </c>
       <c r="V704" s="20"/>
     </row>
-    <row r="705" hidden="1" spans="1:22">
+    <row r="705" spans="1:22">
       <c r="A705" s="20">
         <v>41709</v>
       </c>
@@ -36828,7 +36850,7 @@
       <c r="U705" s="44"/>
       <c r="V705" s="21"/>
     </row>
-    <row r="706" hidden="1" spans="1:22">
+    <row r="706" spans="1:22">
       <c r="A706" s="20">
         <v>42240</v>
       </c>
@@ -36879,7 +36901,7 @@
       <c r="U706" s="44"/>
       <c r="V706" s="21"/>
     </row>
-    <row r="707" hidden="1" spans="1:22">
+    <row r="707" spans="1:22">
       <c r="A707" s="20">
         <v>41709</v>
       </c>
@@ -36930,7 +36952,7 @@
       </c>
       <c r="V707" s="21"/>
     </row>
-    <row r="708" hidden="1" spans="1:22">
+    <row r="708" spans="1:22">
       <c r="A708" s="20">
         <v>42487</v>
       </c>
@@ -36973,7 +36995,7 @@
       <c r="U708" s="44"/>
       <c r="V708" s="20"/>
     </row>
-    <row r="709" hidden="1" spans="1:22">
+    <row r="709" spans="1:22">
       <c r="A709" s="20">
         <v>41981</v>
       </c>
@@ -37018,7 +37040,7 @@
       <c r="U709" s="44"/>
       <c r="V709" s="20"/>
     </row>
-    <row r="710" hidden="1" spans="1:22">
+    <row r="710" spans="1:22">
       <c r="A710" s="20">
         <v>41981</v>
       </c>
@@ -37063,7 +37085,7 @@
       </c>
       <c r="V710" s="20"/>
     </row>
-    <row r="711" hidden="1" spans="1:22">
+    <row r="711" spans="1:22">
       <c r="A711" s="20">
         <v>42593</v>
       </c>
@@ -37112,7 +37134,7 @@
       <c r="U711" s="44"/>
       <c r="V711" s="20"/>
     </row>
-    <row r="712" hidden="1" spans="1:22">
+    <row r="712" spans="1:22">
       <c r="A712" s="20">
         <v>42320</v>
       </c>
@@ -37167,7 +37189,7 @@
       </c>
       <c r="V712" s="20"/>
     </row>
-    <row r="713" hidden="1" spans="1:22">
+    <row r="713" spans="1:22">
       <c r="A713" s="20">
         <v>41709</v>
       </c>
@@ -37220,7 +37242,7 @@
       </c>
       <c r="V713" s="20"/>
     </row>
-    <row r="714" hidden="1" spans="1:22">
+    <row r="714" spans="1:22">
       <c r="A714" s="20">
         <v>41842</v>
       </c>
@@ -37271,7 +37293,7 @@
       </c>
       <c r="V714" s="20"/>
     </row>
-    <row r="715" hidden="1" spans="1:22">
+    <row r="715" spans="1:22">
       <c r="A715" s="20">
         <v>42487</v>
       </c>
@@ -37326,7 +37348,7 @@
       </c>
       <c r="V715" s="20"/>
     </row>
-    <row r="716" hidden="1" spans="1:22">
+    <row r="716" spans="1:22">
       <c r="A716" s="20">
         <v>42593</v>
       </c>
@@ -37379,7 +37401,7 @@
       <c r="U716" s="44"/>
       <c r="V716" s="20"/>
     </row>
-    <row r="717" hidden="1" spans="1:22">
+    <row r="717" spans="1:22">
       <c r="A717" s="20">
         <v>42593</v>
       </c>
@@ -37432,7 +37454,7 @@
       </c>
       <c r="V717" s="20"/>
     </row>
-    <row r="718" hidden="1" spans="1:21">
+    <row r="718" spans="1:21">
       <c r="A718" s="20">
         <v>41709</v>
       </c>
@@ -37471,7 +37493,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="719" hidden="1" spans="1:22">
+    <row r="719" spans="1:22">
       <c r="A719" s="20">
         <v>42487</v>
       </c>
@@ -37518,7 +37540,7 @@
       <c r="U719" s="44"/>
       <c r="V719" s="20"/>
     </row>
-    <row r="720" hidden="1" spans="1:22">
+    <row r="720" spans="1:22">
       <c r="A720" s="20">
         <v>42487</v>
       </c>
@@ -37563,7 +37585,7 @@
       <c r="U720" s="44"/>
       <c r="V720" s="20"/>
     </row>
-    <row r="721" hidden="1" spans="1:20">
+    <row r="721" spans="1:20">
       <c r="A721" s="20">
         <v>41709</v>
       </c>
@@ -37598,7 +37620,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="722" hidden="1" spans="1:22">
+    <row r="722" spans="1:22">
       <c r="A722" s="20">
         <v>42240</v>
       </c>
@@ -37649,7 +37671,7 @@
       </c>
       <c r="V722" s="20"/>
     </row>
-    <row r="723" hidden="1" spans="1:22">
+    <row r="723" spans="1:22">
       <c r="A723" s="20">
         <v>42320</v>
       </c>
@@ -37698,7 +37720,7 @@
       </c>
       <c r="V723" s="20"/>
     </row>
-    <row r="724" hidden="1" spans="1:22">
+    <row r="724" spans="1:22">
       <c r="A724" s="20">
         <v>42487</v>
       </c>
@@ -37749,7 +37771,7 @@
       </c>
       <c r="V724" s="20"/>
     </row>
-    <row r="725" hidden="1" spans="1:22">
+    <row r="725" spans="1:22">
       <c r="A725" s="20">
         <v>41709</v>
       </c>
@@ -37798,7 +37820,7 @@
       </c>
       <c r="V725" s="20"/>
     </row>
-    <row r="726" hidden="1" spans="1:22">
+    <row r="726" spans="1:22">
       <c r="A726" s="20">
         <v>42240</v>
       </c>
@@ -37849,7 +37871,7 @@
       </c>
       <c r="V726" s="20"/>
     </row>
-    <row r="727" hidden="1" spans="1:22">
+    <row r="727" spans="1:22">
       <c r="A727" s="20">
         <v>42096</v>
       </c>
@@ -37896,7 +37918,7 @@
       <c r="U727" s="44"/>
       <c r="V727" s="20"/>
     </row>
-    <row r="728" hidden="1" spans="1:21">
+    <row r="728" spans="1:21">
       <c r="A728" s="20">
         <v>41981</v>
       </c>
@@ -37941,7 +37963,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="729" hidden="1" spans="1:20">
+    <row r="729" spans="1:20">
       <c r="A729" s="20">
         <v>41709</v>
       </c>
@@ -37983,7 +38005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="730" hidden="1" spans="1:20">
+    <row r="730" spans="1:20">
       <c r="A730" s="20">
         <v>41981</v>
       </c>
@@ -38018,7 +38040,7 @@
       <c r="S730" s="32"/>
       <c r="T730" s="32"/>
     </row>
-    <row r="731" hidden="1" spans="1:22">
+    <row r="731" spans="1:22">
       <c r="A731" s="20">
         <v>42487</v>
       </c>
@@ -38075,7 +38097,7 @@
       </c>
       <c r="V731" s="20"/>
     </row>
-    <row r="732" hidden="1" spans="1:22">
+    <row r="732" spans="1:22">
       <c r="A732" s="20">
         <v>42487</v>
       </c>
@@ -38126,7 +38148,7 @@
       </c>
       <c r="V732" s="20"/>
     </row>
-    <row r="733" hidden="1" spans="1:22">
+    <row r="733" spans="1:22">
       <c r="A733" s="20">
         <v>42487</v>
       </c>
@@ -38183,7 +38205,7 @@
       </c>
       <c r="V733" s="20"/>
     </row>
-    <row r="734" hidden="1" spans="1:21">
+    <row r="734" spans="1:21">
       <c r="A734" s="20">
         <v>41981</v>
       </c>
@@ -38229,7 +38251,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="735" hidden="1" spans="1:22">
+    <row r="735" spans="1:22">
       <c r="A735" s="20">
         <v>42487</v>
       </c>
@@ -38284,7 +38306,7 @@
       </c>
       <c r="V735" s="20"/>
     </row>
-    <row r="736" hidden="1" spans="1:22">
+    <row r="736" spans="1:22">
       <c r="A736" s="20">
         <v>41709</v>
       </c>
@@ -38335,7 +38357,7 @@
       </c>
       <c r="V736" s="20"/>
     </row>
-    <row r="737" hidden="1" spans="1:21">
+    <row r="737" spans="1:21">
       <c r="A737" s="20">
         <v>41709</v>
       </c>
@@ -38378,7 +38400,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="738" hidden="1" spans="1:22">
+    <row r="738" spans="1:22">
       <c r="A738" s="20">
         <v>42240</v>
       </c>
@@ -38427,7 +38449,7 @@
       <c r="U738" s="44"/>
       <c r="V738" s="20"/>
     </row>
-    <row r="739" hidden="1" spans="1:22">
+    <row r="739" spans="1:22">
       <c r="A739" s="20">
         <v>42096</v>
       </c>
@@ -38480,7 +38502,7 @@
       </c>
       <c r="V739" s="20"/>
     </row>
-    <row r="740" hidden="1" spans="1:21">
+    <row r="740" spans="1:21">
       <c r="A740" s="20">
         <v>41709</v>
       </c>
@@ -38519,7 +38541,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="741" hidden="1" spans="1:21">
+    <row r="741" spans="1:21">
       <c r="A741" s="20">
         <v>41981</v>
       </c>
@@ -38560,7 +38582,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="742" hidden="1" spans="1:22">
+    <row r="742" spans="1:22">
       <c r="A742" s="20">
         <v>41709</v>
       </c>
@@ -38611,7 +38633,7 @@
       </c>
       <c r="V742" s="20"/>
     </row>
-    <row r="743" hidden="1" spans="1:22">
+    <row r="743" spans="1:22">
       <c r="A743" s="20">
         <v>42320</v>
       </c>
@@ -38664,7 +38686,7 @@
       <c r="U743" s="44"/>
       <c r="V743" s="20"/>
     </row>
-    <row r="744" hidden="1" spans="1:22">
+    <row r="744" spans="1:22">
       <c r="A744" s="20">
         <v>42240</v>
       </c>
@@ -38721,7 +38743,7 @@
       </c>
       <c r="V744" s="20"/>
     </row>
-    <row r="745" hidden="1" spans="1:22">
+    <row r="745" spans="1:22">
       <c r="A745" s="20">
         <v>41709</v>
       </c>
@@ -38776,7 +38798,7 @@
       </c>
       <c r="V745" s="20"/>
     </row>
-    <row r="746" hidden="1" spans="1:22">
+    <row r="746" spans="1:22">
       <c r="A746" s="20">
         <v>42487</v>
       </c>
@@ -38825,7 +38847,7 @@
       <c r="U746" s="44"/>
       <c r="V746" s="20"/>
     </row>
-    <row r="747" hidden="1" spans="1:22">
+    <row r="747" spans="1:22">
       <c r="A747" s="20">
         <v>41709</v>
       </c>
@@ -38878,7 +38900,7 @@
       </c>
       <c r="V747" s="20"/>
     </row>
-    <row r="748" hidden="1" spans="1:22">
+    <row r="748" spans="1:22">
       <c r="A748" s="20">
         <v>41709</v>
       </c>
@@ -38931,7 +38953,7 @@
       </c>
       <c r="V748" s="20"/>
     </row>
-    <row r="749" hidden="1" spans="1:22">
+    <row r="749" spans="1:22">
       <c r="A749" s="20">
         <v>41709</v>
       </c>
@@ -38980,7 +39002,7 @@
       <c r="U749" s="44"/>
       <c r="V749" s="20"/>
     </row>
-    <row r="750" hidden="1" spans="1:21">
+    <row r="750" spans="1:21">
       <c r="A750" s="20">
         <v>41981</v>
       </c>
@@ -39035,7 +39057,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="751" hidden="1" spans="1:22">
+    <row r="751" spans="1:22">
       <c r="A751" s="20">
         <v>42240</v>
       </c>
@@ -39088,7 +39110,7 @@
       </c>
       <c r="V751" s="20"/>
     </row>
-    <row r="752" hidden="1" spans="1:22">
+    <row r="752" spans="1:22">
       <c r="A752" s="20">
         <v>41842</v>
       </c>
@@ -39141,7 +39163,7 @@
       </c>
       <c r="V752" s="20"/>
     </row>
-    <row r="753" hidden="1" spans="1:22">
+    <row r="753" spans="1:22">
       <c r="A753" s="20">
         <v>42240</v>
       </c>
@@ -39190,7 +39212,7 @@
       <c r="U753" s="44"/>
       <c r="V753" s="20"/>
     </row>
-    <row r="754" hidden="1" spans="1:20">
+    <row r="754" spans="1:20">
       <c r="A754" s="20">
         <v>41709</v>
       </c>
@@ -39232,7 +39254,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="755" hidden="1" spans="1:22">
+    <row r="755" spans="1:22">
       <c r="A755" s="20">
         <v>41981</v>
       </c>
@@ -39283,7 +39305,7 @@
       <c r="U755" s="44"/>
       <c r="V755" s="20"/>
     </row>
-    <row r="756" hidden="1" spans="1:22">
+    <row r="756" spans="1:22">
       <c r="A756" s="20">
         <v>41981</v>
       </c>
@@ -39332,7 +39354,7 @@
       <c r="U756" s="44"/>
       <c r="V756" s="20"/>
     </row>
-    <row r="757" hidden="1" spans="1:22">
+    <row r="757" spans="1:22">
       <c r="A757" s="20">
         <v>41709</v>
       </c>
@@ -39385,7 +39407,7 @@
       </c>
       <c r="V757" s="20"/>
     </row>
-    <row r="758" hidden="1" spans="1:22">
+    <row r="758" spans="1:22">
       <c r="A758" s="20">
         <v>42487</v>
       </c>
@@ -39438,7 +39460,7 @@
       </c>
       <c r="V758" s="20"/>
     </row>
-    <row r="759" hidden="1" spans="1:22">
+    <row r="759" spans="1:22">
       <c r="A759" s="20">
         <v>42487</v>
       </c>
@@ -39489,7 +39511,7 @@
       </c>
       <c r="V759" s="20"/>
     </row>
-    <row r="760" hidden="1" spans="1:21">
+    <row r="760" spans="1:21">
       <c r="A760" s="20">
         <v>41981</v>
       </c>
@@ -39532,7 +39554,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="761" hidden="1" spans="1:22">
+    <row r="761" spans="1:22">
       <c r="A761" s="20">
         <v>42240</v>
       </c>
@@ -39579,7 +39601,7 @@
       <c r="U761" s="44"/>
       <c r="V761" s="20"/>
     </row>
-    <row r="762" hidden="1" spans="1:22">
+    <row r="762" spans="1:22">
       <c r="A762" s="20">
         <v>42240</v>
       </c>
@@ -39626,7 +39648,7 @@
       <c r="U762" s="44"/>
       <c r="V762" s="20"/>
     </row>
-    <row r="763" hidden="1" spans="1:22">
+    <row r="763" spans="1:22">
       <c r="A763" s="20">
         <v>42320</v>
       </c>
@@ -39673,7 +39695,7 @@
       <c r="U763" s="44"/>
       <c r="V763" s="20"/>
     </row>
-    <row r="764" hidden="1" spans="1:22">
+    <row r="764" spans="1:22">
       <c r="A764" s="20">
         <v>41709</v>
       </c>
@@ -39718,7 +39740,7 @@
       <c r="U764" s="44"/>
       <c r="V764" s="20"/>
     </row>
-    <row r="765" hidden="1" spans="1:22">
+    <row r="765" spans="1:22">
       <c r="A765" s="20">
         <v>42320</v>
       </c>
@@ -39769,7 +39791,7 @@
       <c r="U765" s="44"/>
       <c r="V765" s="20"/>
     </row>
-    <row r="766" hidden="1" spans="1:22">
+    <row r="766" spans="1:22">
       <c r="A766" s="20">
         <v>41981</v>
       </c>
@@ -39822,7 +39844,7 @@
       <c r="U766" s="44"/>
       <c r="V766" s="20"/>
     </row>
-    <row r="767" hidden="1" spans="1:22">
+    <row r="767" spans="1:22">
       <c r="A767" s="20">
         <v>42240</v>
       </c>
@@ -39877,7 +39899,7 @@
       </c>
       <c r="V767" s="20"/>
     </row>
-    <row r="768" hidden="1" spans="1:22">
+    <row r="768" spans="1:22">
       <c r="A768" s="20">
         <v>41709</v>
       </c>
@@ -39926,7 +39948,7 @@
       <c r="U768" s="44"/>
       <c r="V768" s="20"/>
     </row>
-    <row r="769" hidden="1" spans="1:22">
+    <row r="769" spans="1:22">
       <c r="A769" s="20">
         <v>41709</v>
       </c>
@@ -39977,7 +39999,7 @@
       </c>
       <c r="V769" s="20"/>
     </row>
-    <row r="770" hidden="1" spans="1:22">
+    <row r="770" spans="1:22">
       <c r="A770" s="20">
         <v>41709</v>
       </c>
@@ -40024,7 +40046,7 @@
       <c r="U770" s="44"/>
       <c r="V770" s="20"/>
     </row>
-    <row r="771" hidden="1" spans="1:22">
+    <row r="771" spans="1:22">
       <c r="A771" s="20">
         <v>42320</v>
       </c>
@@ -40073,7 +40095,7 @@
       <c r="U771" s="44"/>
       <c r="V771" s="20"/>
     </row>
-    <row r="772" hidden="1" spans="1:22">
+    <row r="772" spans="1:22">
       <c r="A772" s="20">
         <v>41709</v>
       </c>
@@ -40122,7 +40144,7 @@
       <c r="U772" s="44"/>
       <c r="V772" s="20"/>
     </row>
-    <row r="773" hidden="1" spans="1:22">
+    <row r="773" spans="1:22">
       <c r="A773" s="20">
         <v>41709</v>
       </c>
@@ -40171,7 +40193,7 @@
       <c r="U773" s="44"/>
       <c r="V773" s="20"/>
     </row>
-    <row r="774" hidden="1" spans="1:22">
+    <row r="774" spans="1:22">
       <c r="A774" s="20">
         <v>41709</v>
       </c>
@@ -40228,7 +40250,7 @@
       </c>
       <c r="V774" s="20"/>
     </row>
-    <row r="775" hidden="1" spans="1:22">
+    <row r="775" spans="1:22">
       <c r="A775" s="20">
         <v>41981</v>
       </c>
@@ -40275,7 +40297,7 @@
       </c>
       <c r="V775" s="20"/>
     </row>
-    <row r="776" hidden="1" spans="1:22">
+    <row r="776" spans="1:22">
       <c r="A776" s="20">
         <v>41709</v>
       </c>
@@ -40320,7 +40342,7 @@
       <c r="U776" s="44"/>
       <c r="V776" s="20"/>
     </row>
-    <row r="777" hidden="1" spans="1:22">
+    <row r="777" spans="1:22">
       <c r="A777" s="20">
         <v>41709</v>
       </c>
@@ -40373,7 +40395,7 @@
       </c>
       <c r="V777" s="20"/>
     </row>
-    <row r="778" hidden="1" spans="1:22">
+    <row r="778" spans="1:22">
       <c r="A778" s="20">
         <v>42240</v>
       </c>
@@ -40426,7 +40448,7 @@
       </c>
       <c r="V778" s="20"/>
     </row>
-    <row r="779" hidden="1" spans="1:22">
+    <row r="779" spans="1:22">
       <c r="A779" s="20">
         <v>41842</v>
       </c>
@@ -40475,7 +40497,7 @@
       <c r="U779" s="44"/>
       <c r="V779" s="20"/>
     </row>
-    <row r="780" hidden="1" spans="1:22">
+    <row r="780" spans="1:22">
       <c r="A780" s="20">
         <v>41709</v>
       </c>
@@ -40524,7 +40546,7 @@
       <c r="U780" s="44"/>
       <c r="V780" s="20"/>
     </row>
-    <row r="781" hidden="1" spans="1:22">
+    <row r="781" spans="1:22">
       <c r="A781" s="20">
         <v>41981</v>
       </c>
@@ -40573,7 +40595,7 @@
       <c r="U781" s="44"/>
       <c r="V781" s="20"/>
     </row>
-    <row r="782" hidden="1" spans="1:22">
+    <row r="782" spans="1:22">
       <c r="A782" s="20">
         <v>42487</v>
       </c>
@@ -40626,7 +40648,7 @@
       </c>
       <c r="V782" s="20"/>
     </row>
-    <row r="783" hidden="1" spans="1:22">
+    <row r="783" spans="1:22">
       <c r="A783" s="20">
         <v>42487</v>
       </c>
@@ -40681,7 +40703,7 @@
       </c>
       <c r="V783" s="20"/>
     </row>
-    <row r="784" hidden="1" spans="1:22">
+    <row r="784" spans="1:22">
       <c r="A784" s="20">
         <v>42240</v>
       </c>
@@ -40726,7 +40748,7 @@
       <c r="U784" s="44"/>
       <c r="V784" s="20"/>
     </row>
-    <row r="785" hidden="1" spans="1:22">
+    <row r="785" spans="1:22">
       <c r="A785" s="20">
         <v>41709</v>
       </c>
@@ -40777,7 +40799,7 @@
       </c>
       <c r="V785" s="20"/>
     </row>
-    <row r="786" hidden="1" spans="1:22">
+    <row r="786" spans="1:22">
       <c r="A786" s="20">
         <v>41842</v>
       </c>
@@ -40824,7 +40846,7 @@
       <c r="U786" s="44"/>
       <c r="V786" s="20"/>
     </row>
-    <row r="787" hidden="1" spans="1:22">
+    <row r="787" spans="1:22">
       <c r="A787" s="20">
         <v>41709</v>
       </c>
@@ -40875,7 +40897,7 @@
       <c r="U787" s="44"/>
       <c r="V787" s="20"/>
     </row>
-    <row r="788" hidden="1" spans="1:22">
+    <row r="788" spans="1:22">
       <c r="A788" s="20">
         <v>41981</v>
       </c>
@@ -40924,7 +40946,7 @@
       <c r="U788" s="44"/>
       <c r="V788" s="20"/>
     </row>
-    <row r="789" hidden="1" spans="1:22">
+    <row r="789" spans="1:22">
       <c r="A789" s="20">
         <v>42487</v>
       </c>
@@ -40973,7 +40995,7 @@
       </c>
       <c r="V789" s="20"/>
     </row>
-    <row r="790" hidden="1" spans="1:22">
+    <row r="790" spans="1:22">
       <c r="A790" s="20">
         <v>42096</v>
       </c>
@@ -41026,7 +41048,7 @@
       </c>
       <c r="V790" s="20"/>
     </row>
-    <row r="791" hidden="1" spans="1:22">
+    <row r="791" spans="1:22">
       <c r="A791" s="20">
         <v>41981</v>
       </c>
@@ -41075,7 +41097,7 @@
       </c>
       <c r="V791" s="20"/>
     </row>
-    <row r="792" hidden="1" spans="1:22">
+    <row r="792" spans="1:22">
       <c r="A792" s="20">
         <v>41709</v>
       </c>
@@ -41126,7 +41148,7 @@
       </c>
       <c r="V792" s="20"/>
     </row>
-    <row r="793" hidden="1" spans="1:21">
+    <row r="793" spans="1:21">
       <c r="A793" s="20">
         <v>42320</v>
       </c>
@@ -41166,7 +41188,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="794" hidden="1" spans="1:22">
+    <row r="794" spans="1:22">
       <c r="A794" s="20">
         <v>41709</v>
       </c>
@@ -41217,7 +41239,7 @@
       </c>
       <c r="V794" s="20"/>
     </row>
-    <row r="795" hidden="1" spans="1:20">
+    <row r="795" spans="1:20">
       <c r="A795" s="20">
         <v>41709</v>
       </c>
@@ -41253,7 +41275,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="796" hidden="1" spans="1:22">
+    <row r="796" spans="1:22">
       <c r="A796" s="20">
         <v>42240</v>
       </c>
@@ -41302,7 +41324,7 @@
       <c r="U796" s="44"/>
       <c r="V796" s="20"/>
     </row>
-    <row r="797" hidden="1" spans="1:22">
+    <row r="797" spans="1:22">
       <c r="A797" s="20">
         <v>42096</v>
       </c>
@@ -41351,7 +41373,7 @@
       </c>
       <c r="V797" s="20"/>
     </row>
-    <row r="798" hidden="1" spans="1:22">
+    <row r="798" spans="1:22">
       <c r="A798" s="20">
         <v>41709</v>
       </c>
@@ -41404,7 +41426,7 @@
       <c r="U798" s="44"/>
       <c r="V798" s="20"/>
     </row>
-    <row r="799" hidden="1" spans="1:22">
+    <row r="799" spans="1:22">
       <c r="A799" s="20">
         <v>41981</v>
       </c>
@@ -41457,7 +41479,7 @@
       </c>
       <c r="V799" s="20"/>
     </row>
-    <row r="800" hidden="1" spans="1:20">
+    <row r="800" spans="1:20">
       <c r="A800" s="20">
         <v>41709</v>
       </c>
@@ -41497,7 +41519,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="801" hidden="1" spans="1:22">
+    <row r="801" spans="1:22">
       <c r="A801" s="20">
         <v>41981</v>
       </c>
@@ -41544,7 +41566,7 @@
       <c r="U801" s="44"/>
       <c r="V801" s="20"/>
     </row>
-    <row r="802" hidden="1" spans="1:21">
+    <row r="802" spans="1:21">
       <c r="A802" s="20">
         <v>41842</v>
       </c>
@@ -41589,7 +41611,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="803" hidden="1" spans="1:22">
+    <row r="803" spans="1:22">
       <c r="A803" s="20">
         <v>41709</v>
       </c>
@@ -41638,7 +41660,7 @@
       </c>
       <c r="V803" s="20"/>
     </row>
-    <row r="804" hidden="1" spans="1:22">
+    <row r="804" spans="1:22">
       <c r="A804" s="20">
         <v>42593</v>
       </c>
@@ -41689,7 +41711,7 @@
       <c r="U804" s="44"/>
       <c r="V804" s="20"/>
     </row>
-    <row r="805" hidden="1" spans="1:22">
+    <row r="805" spans="1:22">
       <c r="A805" s="20">
         <v>41981</v>
       </c>
@@ -41738,7 +41760,7 @@
       </c>
       <c r="V805" s="20"/>
     </row>
-    <row r="806" hidden="1" spans="1:22">
+    <row r="806" spans="1:22">
       <c r="A806" s="20">
         <v>41981</v>
       </c>
@@ -41791,7 +41813,7 @@
       </c>
       <c r="V806" s="20"/>
     </row>
-    <row r="807" hidden="1" spans="1:20">
+    <row r="807" spans="1:20">
       <c r="A807" s="20">
         <v>42487</v>
       </c>
@@ -41830,7 +41852,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="808" hidden="1" spans="1:22">
+    <row r="808" spans="1:22">
       <c r="A808" s="20">
         <v>42240</v>
       </c>
@@ -41883,7 +41905,7 @@
       </c>
       <c r="V808" s="20"/>
     </row>
-    <row r="809" hidden="1" spans="1:21">
+    <row r="809" spans="1:21">
       <c r="A809" s="20">
         <v>42320</v>
       </c>
@@ -41925,7 +41947,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="810" hidden="1" spans="1:20">
+    <row r="810" spans="1:20">
       <c r="A810" s="20">
         <v>42487</v>
       </c>
@@ -41968,7 +41990,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="811" hidden="1" spans="1:22">
+    <row r="811" spans="1:22">
       <c r="A811" s="20">
         <v>42593</v>
       </c>
@@ -42027,7 +42049,7 @@
       </c>
       <c r="V811" s="20"/>
     </row>
-    <row r="812" hidden="1" spans="1:22">
+    <row r="812" spans="1:22">
       <c r="A812" s="20">
         <v>41981</v>
       </c>
@@ -42072,7 +42094,7 @@
       </c>
       <c r="V812" s="20"/>
     </row>
-    <row r="813" hidden="1" spans="1:21">
+    <row r="813" spans="1:21">
       <c r="A813" s="20">
         <v>41709</v>
       </c>
@@ -42115,7 +42137,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="814" hidden="1" spans="1:21">
+    <row r="814" spans="1:21">
       <c r="A814" s="20">
         <v>41842</v>
       </c>
@@ -42160,7 +42182,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="815" hidden="1" spans="1:22">
+    <row r="815" spans="1:22">
       <c r="A815" s="20">
         <v>41709</v>
       </c>
@@ -42211,7 +42233,7 @@
       <c r="U815" s="44"/>
       <c r="V815" s="20"/>
     </row>
-    <row r="816" hidden="1" spans="1:22">
+    <row r="816" spans="1:22">
       <c r="A816" s="20">
         <v>41709</v>
       </c>
@@ -42262,7 +42284,7 @@
       </c>
       <c r="V816" s="20"/>
     </row>
-    <row r="817" hidden="1" spans="1:21">
+    <row r="817" spans="1:21">
       <c r="A817" s="20">
         <v>42320</v>
       </c>
@@ -42304,7 +42326,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="818" hidden="1" spans="1:21">
+    <row r="818" spans="1:21">
       <c r="A818" s="20">
         <v>42487</v>
       </c>
@@ -42347,7 +42369,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="819" hidden="1" spans="1:22">
+    <row r="819" spans="1:22">
       <c r="A819" s="20">
         <v>42240</v>
       </c>
@@ -42398,7 +42420,7 @@
       <c r="U819" s="44"/>
       <c r="V819" s="20"/>
     </row>
-    <row r="820" hidden="1" spans="1:20">
+    <row r="820" spans="1:20">
       <c r="A820" s="20">
         <v>41709</v>
       </c>
@@ -42436,7 +42458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="821" hidden="1" spans="1:20">
+    <row r="821" spans="1:20">
       <c r="A821" s="20">
         <v>41842</v>
       </c>
@@ -42481,7 +42503,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="822" hidden="1" spans="1:22">
+    <row r="822" spans="1:22">
       <c r="A822" s="20">
         <v>41709</v>
       </c>
@@ -42530,7 +42552,7 @@
       <c r="U822" s="44"/>
       <c r="V822" s="20"/>
     </row>
-    <row r="823" hidden="1" spans="1:22">
+    <row r="823" spans="1:22">
       <c r="A823" s="20">
         <v>42593</v>
       </c>
@@ -42581,7 +42603,7 @@
       </c>
       <c r="V823" s="20"/>
     </row>
-    <row r="824" hidden="1" spans="1:22">
+    <row r="824" spans="1:22">
       <c r="A824" s="20">
         <v>41709</v>
       </c>
@@ -42630,7 +42652,7 @@
       <c r="U824" s="44"/>
       <c r="V824" s="20"/>
     </row>
-    <row r="825" hidden="1" spans="1:22">
+    <row r="825" spans="1:22">
       <c r="A825" s="20">
         <v>42240</v>
       </c>
@@ -42677,7 +42699,7 @@
       <c r="U825" s="44"/>
       <c r="V825" s="20"/>
     </row>
-    <row r="826" hidden="1" spans="1:22">
+    <row r="826" spans="1:22">
       <c r="A826" s="20">
         <v>41709</v>
       </c>
@@ -42724,7 +42746,7 @@
       <c r="U826" s="44"/>
       <c r="V826" s="20"/>
     </row>
-    <row r="827" hidden="1" spans="1:22">
+    <row r="827" spans="1:22">
       <c r="A827" s="20">
         <v>41709</v>
       </c>
@@ -42773,7 +42795,7 @@
       <c r="U827" s="44"/>
       <c r="V827" s="20"/>
     </row>
-    <row r="828" hidden="1" spans="1:22">
+    <row r="828" spans="1:22">
       <c r="A828" s="20">
         <v>41709</v>
       </c>
@@ -42826,7 +42848,7 @@
       </c>
       <c r="V828" s="20"/>
     </row>
-    <row r="829" hidden="1" spans="1:22">
+    <row r="829" spans="1:22">
       <c r="A829" s="20">
         <v>42240</v>
       </c>
@@ -42867,7 +42889,7 @@
       <c r="U829" s="44"/>
       <c r="V829" s="20"/>
     </row>
-    <row r="830" hidden="1" spans="1:22">
+    <row r="830" spans="1:22">
       <c r="A830" s="20">
         <v>42240</v>
       </c>
@@ -42914,7 +42936,7 @@
       <c r="U830" s="44"/>
       <c r="V830" s="20"/>
     </row>
-    <row r="831" hidden="1" spans="1:22">
+    <row r="831" spans="1:22">
       <c r="A831" s="20">
         <v>41709</v>
       </c>
@@ -42965,7 +42987,7 @@
       <c r="U831" s="44"/>
       <c r="V831" s="20"/>
     </row>
-    <row r="832" hidden="1" spans="1:22">
+    <row r="832" spans="1:22">
       <c r="A832" s="20">
         <v>42240</v>
       </c>
@@ -43020,7 +43042,7 @@
       </c>
       <c r="V832" s="20"/>
     </row>
-    <row r="833" hidden="1" spans="1:22">
+    <row r="833" spans="1:22">
       <c r="A833" s="20">
         <v>41709</v>
       </c>
@@ -43063,7 +43085,7 @@
       <c r="U833" s="44"/>
       <c r="V833" s="20"/>
     </row>
-    <row r="834" ht="16" hidden="1" customHeight="1" spans="1:22">
+    <row r="834" ht="16" customHeight="1" spans="1:22">
       <c r="A834" s="20">
         <v>42487</v>
       </c>
@@ -43106,7 +43128,7 @@
       <c r="U834" s="44"/>
       <c r="V834" s="20"/>
     </row>
-    <row r="835" hidden="1" spans="1:22">
+    <row r="835" spans="1:22">
       <c r="A835" s="20">
         <v>41709</v>
       </c>
@@ -43157,7 +43179,7 @@
       <c r="U835" s="44"/>
       <c r="V835" s="20"/>
     </row>
-    <row r="836" hidden="1" spans="1:21">
+    <row r="836" spans="1:21">
       <c r="A836" s="20">
         <v>42593</v>
       </c>
@@ -43202,7 +43224,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="837" hidden="1" spans="1:22">
+    <row r="837" spans="1:22">
       <c r="A837" s="20">
         <v>41709</v>
       </c>
@@ -43255,7 +43277,7 @@
       <c r="U837" s="44"/>
       <c r="V837" s="20"/>
     </row>
-    <row r="838" hidden="1" spans="1:22">
+    <row r="838" spans="1:22">
       <c r="A838" s="20">
         <v>42096</v>
       </c>
@@ -43304,7 +43326,7 @@
       <c r="U838" s="44"/>
       <c r="V838" s="20"/>
     </row>
-    <row r="839" hidden="1" spans="1:22">
+    <row r="839" spans="1:22">
       <c r="A839" s="20">
         <v>41709</v>
       </c>
@@ -43355,7 +43377,7 @@
       <c r="U839" s="44"/>
       <c r="V839" s="20"/>
     </row>
-    <row r="840" hidden="1" spans="1:22">
+    <row r="840" spans="1:22">
       <c r="A840" s="20">
         <v>41709</v>
       </c>
@@ -43400,7 +43422,7 @@
       </c>
       <c r="V840" s="20"/>
     </row>
-    <row r="841" hidden="1" spans="1:22">
+    <row r="841" spans="1:22">
       <c r="A841" s="20">
         <v>41981</v>
       </c>
@@ -43449,7 +43471,7 @@
       </c>
       <c r="V841" s="20"/>
     </row>
-    <row r="842" hidden="1" spans="1:22">
+    <row r="842" spans="1:22">
       <c r="A842" s="20">
         <v>41709</v>
       </c>
@@ -43494,7 +43516,7 @@
       <c r="U842" s="44"/>
       <c r="V842" s="20"/>
     </row>
-    <row r="843" hidden="1" spans="1:22">
+    <row r="843" spans="1:22">
       <c r="A843" s="20">
         <v>41709</v>
       </c>
@@ -43541,7 +43563,7 @@
       <c r="U843" s="44"/>
       <c r="V843" s="20"/>
     </row>
-    <row r="844" hidden="1" spans="1:22">
+    <row r="844" spans="1:22">
       <c r="A844" s="20">
         <v>42240</v>
       </c>
@@ -43586,7 +43608,7 @@
       <c r="U844" s="44"/>
       <c r="V844" s="20"/>
     </row>
-    <row r="845" hidden="1" spans="1:22">
+    <row r="845" spans="1:22">
       <c r="A845" s="20">
         <v>42240</v>
       </c>
@@ -43637,7 +43659,7 @@
       </c>
       <c r="V845" s="20"/>
     </row>
-    <row r="846" hidden="1" spans="1:22">
+    <row r="846" spans="1:22">
       <c r="A846" s="20">
         <v>42320</v>
       </c>
@@ -43690,7 +43712,7 @@
       </c>
       <c r="V846" s="20"/>
     </row>
-    <row r="847" hidden="1" spans="1:22">
+    <row r="847" spans="1:22">
       <c r="A847" s="20">
         <v>41709</v>
       </c>
@@ -43739,7 +43761,7 @@
       <c r="U847" s="44"/>
       <c r="V847" s="20"/>
     </row>
-    <row r="848" hidden="1" spans="1:22">
+    <row r="848" spans="1:22">
       <c r="A848" s="20">
         <v>42096</v>
       </c>
@@ -43794,7 +43816,7 @@
       </c>
       <c r="V848" s="20"/>
     </row>
-    <row r="849" hidden="1" spans="1:22">
+    <row r="849" spans="1:22">
       <c r="A849" s="20">
         <v>41709</v>
       </c>
@@ -43841,7 +43863,7 @@
       <c r="U849" s="44"/>
       <c r="V849" s="20"/>
     </row>
-    <row r="850" hidden="1" spans="1:22">
+    <row r="850" spans="1:22">
       <c r="A850" s="20">
         <v>41842</v>
       </c>
@@ -43875,24 +43897,24 @@
         <v/>
       </c>
       <c r="P850" s="19" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q850" s="19" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="R850" s="32" t="s">
         <v>35</v>
       </c>
       <c r="S850" s="32" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="T850" s="31" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="U850" s="44"/>
       <c r="V850" s="20"/>
     </row>
-    <row r="851" hidden="1" spans="1:22">
+    <row r="851" spans="1:22">
       <c r="A851" s="20">
         <v>42487</v>
       </c>
@@ -43941,7 +43963,7 @@
       <c r="U851" s="44"/>
       <c r="V851" s="20"/>
     </row>
-    <row r="852" hidden="1" spans="1:22">
+    <row r="852" spans="1:22">
       <c r="A852" s="20">
         <v>42240</v>
       </c>
@@ -43982,7 +44004,7 @@
       <c r="U852" s="44"/>
       <c r="V852" s="20"/>
     </row>
-    <row r="853" hidden="1" spans="1:22">
+    <row r="853" spans="1:22">
       <c r="A853" s="20">
         <v>42487</v>
       </c>
@@ -44029,7 +44051,7 @@
       <c r="U853" s="44"/>
       <c r="V853" s="20"/>
     </row>
-    <row r="854" hidden="1" spans="1:22">
+    <row r="854" spans="1:22">
       <c r="A854" s="20">
         <v>42487</v>
       </c>
@@ -44078,7 +44100,7 @@
       </c>
       <c r="V854" s="20"/>
     </row>
-    <row r="855" hidden="1" spans="1:22">
+    <row r="855" spans="1:22">
       <c r="A855" s="20">
         <v>42240</v>
       </c>
@@ -44123,7 +44145,7 @@
       <c r="U855" s="44"/>
       <c r="V855" s="20"/>
     </row>
-    <row r="856" hidden="1" spans="1:22">
+    <row r="856" spans="1:22">
       <c r="A856" s="20">
         <v>41709</v>
       </c>
@@ -44168,7 +44190,7 @@
       <c r="U856" s="44"/>
       <c r="V856" s="20"/>
     </row>
-    <row r="857" hidden="1" spans="1:22">
+    <row r="857" spans="1:22">
       <c r="A857" s="20">
         <v>41981</v>
       </c>
@@ -44215,7 +44237,7 @@
       <c r="U857" s="44"/>
       <c r="V857" s="20"/>
     </row>
-    <row r="858" hidden="1" spans="1:21">
+    <row r="858" spans="1:21">
       <c r="A858" s="20">
         <v>42593</v>
       </c>
@@ -44263,7 +44285,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="859" hidden="1" spans="1:22">
+    <row r="859" spans="1:22">
       <c r="A859" s="20">
         <v>42487</v>
       </c>
@@ -44316,7 +44338,7 @@
       </c>
       <c r="V859" s="20"/>
     </row>
-    <row r="860" hidden="1" spans="1:22">
+    <row r="860" spans="1:22">
       <c r="A860" s="20">
         <v>42096</v>
       </c>
@@ -44367,7 +44389,7 @@
       </c>
       <c r="V860" s="20"/>
     </row>
-    <row r="861" hidden="1" spans="1:22">
+    <row r="861" spans="1:22">
       <c r="A861" s="20">
         <v>41981</v>
       </c>
@@ -44422,7 +44444,7 @@
       <c r="U861" s="44"/>
       <c r="V861" s="20"/>
     </row>
-    <row r="862" hidden="1" spans="1:22">
+    <row r="862" spans="1:22">
       <c r="A862" s="20">
         <v>41709</v>
       </c>
@@ -44475,7 +44497,7 @@
       </c>
       <c r="V862" s="20"/>
     </row>
-    <row r="863" hidden="1" spans="1:22">
+    <row r="863" spans="1:22">
       <c r="A863" s="20">
         <v>42320</v>
       </c>
@@ -44524,7 +44546,7 @@
       <c r="U863" s="44"/>
       <c r="V863" s="20"/>
     </row>
-    <row r="864" hidden="1" spans="1:22">
+    <row r="864" spans="1:22">
       <c r="A864" s="20">
         <v>41709</v>
       </c>
@@ -44573,7 +44595,7 @@
       <c r="U864" s="44"/>
       <c r="V864" s="20"/>
     </row>
-    <row r="865" hidden="1" spans="1:22">
+    <row r="865" spans="1:22">
       <c r="A865" s="20">
         <v>41709</v>
       </c>
@@ -44624,7 +44646,7 @@
       <c r="U865" s="44"/>
       <c r="V865" s="20"/>
     </row>
-    <row r="866" hidden="1" spans="1:22">
+    <row r="866" spans="1:22">
       <c r="A866" s="20">
         <v>42240</v>
       </c>
@@ -44671,7 +44693,7 @@
       <c r="U866" s="44"/>
       <c r="V866" s="20"/>
     </row>
-    <row r="867" hidden="1" spans="1:22">
+    <row r="867" spans="1:22">
       <c r="A867" s="20">
         <v>41981</v>
       </c>
@@ -44722,7 +44744,7 @@
       <c r="U867" s="44"/>
       <c r="V867" s="20"/>
     </row>
-    <row r="868" hidden="1" spans="1:22">
+    <row r="868" spans="1:22">
       <c r="A868" s="20">
         <v>42487</v>
       </c>
@@ -44773,7 +44795,7 @@
       </c>
       <c r="V868" s="20"/>
     </row>
-    <row r="869" hidden="1" spans="1:22">
+    <row r="869" spans="1:22">
       <c r="A869" s="20">
         <v>42487</v>
       </c>
@@ -44826,7 +44848,7 @@
       </c>
       <c r="V869" s="20"/>
     </row>
-    <row r="870" hidden="1" spans="1:22">
+    <row r="870" spans="1:22">
       <c r="A870" s="20">
         <v>41709</v>
       </c>
@@ -44877,7 +44899,7 @@
       </c>
       <c r="V870" s="20"/>
     </row>
-    <row r="871" hidden="1" spans="1:22">
+    <row r="871" spans="1:22">
       <c r="A871" s="20">
         <v>42240</v>
       </c>
@@ -44930,7 +44952,7 @@
       </c>
       <c r="V871" s="20"/>
     </row>
-    <row r="872" hidden="1" spans="1:22">
+    <row r="872" spans="1:22">
       <c r="A872" s="20">
         <v>41981</v>
       </c>
@@ -44979,7 +45001,7 @@
       <c r="U872" s="44"/>
       <c r="V872" s="20"/>
     </row>
-    <row r="873" hidden="1" spans="1:22">
+    <row r="873" spans="1:22">
       <c r="A873" s="20">
         <v>42487</v>
       </c>
@@ -45030,7 +45052,7 @@
       <c r="U873" s="44"/>
       <c r="V873" s="20"/>
     </row>
-    <row r="874" hidden="1" spans="1:22">
+    <row r="874" spans="1:22">
       <c r="A874" s="20">
         <v>42240</v>
       </c>
@@ -45077,7 +45099,7 @@
       <c r="U874" s="44"/>
       <c r="V874" s="20"/>
     </row>
-    <row r="875" hidden="1" spans="1:22">
+    <row r="875" spans="1:22">
       <c r="A875" s="20">
         <v>42593</v>
       </c>
@@ -45132,7 +45154,7 @@
       <c r="U875" s="44"/>
       <c r="V875" s="20"/>
     </row>
-    <row r="876" hidden="1" spans="1:22">
+    <row r="876" spans="1:22">
       <c r="A876" s="20">
         <v>42487</v>
       </c>
@@ -45173,7 +45195,7 @@
       <c r="U876" s="44"/>
       <c r="V876" s="20"/>
     </row>
-    <row r="877" hidden="1" spans="1:22">
+    <row r="877" spans="1:22">
       <c r="A877" s="20">
         <v>41709</v>
       </c>
@@ -45218,7 +45240,7 @@
       <c r="U877" s="44"/>
       <c r="V877" s="20"/>
     </row>
-    <row r="878" hidden="1" spans="1:22">
+    <row r="878" spans="1:22">
       <c r="A878" s="20">
         <v>41709</v>
       </c>
@@ -45263,7 +45285,7 @@
       <c r="U878" s="44"/>
       <c r="V878" s="20"/>
     </row>
-    <row r="879" hidden="1" spans="1:22">
+    <row r="879" spans="1:22">
       <c r="A879" s="20">
         <v>42096</v>
       </c>
@@ -45316,7 +45338,7 @@
       </c>
       <c r="V879" s="20"/>
     </row>
-    <row r="880" hidden="1" spans="1:22">
+    <row r="880" spans="1:22">
       <c r="A880" s="20">
         <v>41981</v>
       </c>
@@ -45367,7 +45389,7 @@
       <c r="U880" s="44"/>
       <c r="V880" s="20"/>
     </row>
-    <row r="881" hidden="1" spans="1:22">
+    <row r="881" spans="1:22">
       <c r="A881" s="20">
         <v>41709</v>
       </c>
@@ -45412,7 +45434,7 @@
       <c r="U881" s="44"/>
       <c r="V881" s="20"/>
     </row>
-    <row r="882" hidden="1" spans="1:22">
+    <row r="882" spans="1:22">
       <c r="A882" s="20">
         <v>42240</v>
       </c>
@@ -45461,7 +45483,7 @@
       </c>
       <c r="V882" s="20"/>
     </row>
-    <row r="883" hidden="1" spans="1:21">
+    <row r="883" spans="1:21">
       <c r="A883" s="20">
         <v>42487</v>
       </c>
@@ -45509,7 +45531,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="884" hidden="1" spans="1:20">
+    <row r="884" spans="1:20">
       <c r="A884" s="20">
         <v>41709</v>
       </c>
@@ -45540,7 +45562,7 @@
       </c>
       <c r="T884" s="26"/>
     </row>
-    <row r="885" hidden="1" spans="1:20">
+    <row r="885" spans="1:20">
       <c r="A885" s="20">
         <v>42487</v>
       </c>
@@ -45573,7 +45595,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="886" hidden="1" spans="1:21">
+    <row r="886" spans="1:21">
       <c r="A886" s="20">
         <v>42487</v>
       </c>
@@ -45618,7 +45640,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="887" hidden="1" spans="1:22">
+    <row r="887" spans="1:22">
       <c r="A887" s="20">
         <v>41709</v>
       </c>
@@ -45665,7 +45687,7 @@
       </c>
       <c r="V887" s="20"/>
     </row>
-    <row r="888" hidden="1" spans="1:20">
+    <row r="888" spans="1:20">
       <c r="A888" s="20">
         <v>42487</v>
       </c>
@@ -45700,7 +45722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="889" hidden="1" spans="1:21">
+    <row r="889" spans="1:21">
       <c r="A889" s="20">
         <v>41842</v>
       </c>
@@ -45742,7 +45764,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="890" hidden="1" spans="1:21">
+    <row r="890" spans="1:21">
       <c r="A890" s="20">
         <v>42096</v>
       </c>
@@ -45787,7 +45809,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="891" hidden="1" spans="1:21">
+    <row r="891" spans="1:21">
       <c r="A891" s="20">
         <v>42593</v>
       </c>
@@ -45829,7 +45851,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="892" hidden="1" spans="1:20">
+    <row r="892" spans="1:20">
       <c r="A892" s="20">
         <v>41981</v>
       </c>
@@ -45872,7 +45894,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="893" hidden="1" spans="1:22">
+    <row r="893" spans="1:22">
       <c r="A893" s="20">
         <v>42320</v>
       </c>
@@ -45921,7 +45943,7 @@
       <c r="U893" s="44"/>
       <c r="V893" s="20"/>
     </row>
-    <row r="894" hidden="1" spans="1:21">
+    <row r="894" spans="1:21">
       <c r="A894" s="20">
         <v>41981</v>
       </c>
@@ -45965,7 +45987,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="895" hidden="1" spans="1:20">
+    <row r="895" spans="1:20">
       <c r="A895" s="20">
         <v>41981</v>
       </c>
@@ -46007,7 +46029,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="896" hidden="1" spans="1:22">
+    <row r="896" spans="1:22">
       <c r="A896" s="20">
         <v>41709</v>
       </c>
@@ -46056,7 +46078,7 @@
       <c r="U896" s="44"/>
       <c r="V896" s="20"/>
     </row>
-    <row r="897" hidden="1" spans="1:22">
+    <row r="897" spans="1:22">
       <c r="A897" s="20">
         <v>41709</v>
       </c>
@@ -46107,7 +46129,7 @@
       <c r="U897" s="44"/>
       <c r="V897" s="20"/>
     </row>
-    <row r="898" hidden="1" spans="1:22">
+    <row r="898" spans="1:22">
       <c r="A898" s="20">
         <v>41709</v>
       </c>
@@ -46158,7 +46180,7 @@
       <c r="U898" s="44"/>
       <c r="V898" s="20"/>
     </row>
-    <row r="899" hidden="1" spans="1:22">
+    <row r="899" spans="1:22">
       <c r="A899" s="20">
         <v>42240</v>
       </c>
@@ -46209,7 +46231,7 @@
       <c r="U899" s="44"/>
       <c r="V899" s="20"/>
     </row>
-    <row r="900" hidden="1" spans="1:22">
+    <row r="900" spans="1:22">
       <c r="A900" s="20">
         <v>42240</v>
       </c>
@@ -46254,7 +46276,7 @@
       <c r="U900" s="44"/>
       <c r="V900" s="20"/>
     </row>
-    <row r="901" hidden="1" spans="1:20">
+    <row r="901" spans="1:20">
       <c r="A901" s="20">
         <v>42096</v>
       </c>
@@ -46296,7 +46318,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="902" hidden="1" spans="1:22">
+    <row r="902" spans="1:22">
       <c r="A902" s="20">
         <v>41709</v>
       </c>
@@ -46347,7 +46369,7 @@
       </c>
       <c r="V902" s="20"/>
     </row>
-    <row r="903" hidden="1" spans="1:20">
+    <row r="903" spans="1:20">
       <c r="A903" s="20">
         <v>42096</v>
       </c>
@@ -46392,7 +46414,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="904" hidden="1" spans="1:22">
+    <row r="904" spans="1:22">
       <c r="A904" s="20">
         <v>41709</v>
       </c>
@@ -46439,7 +46461,7 @@
       </c>
       <c r="V904" s="20"/>
     </row>
-    <row r="905" hidden="1" spans="1:20">
+    <row r="905" spans="1:20">
       <c r="A905" s="20">
         <v>41981</v>
       </c>
@@ -46476,7 +46498,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="906" hidden="1" spans="1:22">
+    <row r="906" spans="1:22">
       <c r="A906" s="20">
         <v>42487</v>
       </c>
@@ -46525,7 +46547,7 @@
       <c r="U906" s="44"/>
       <c r="V906" s="20"/>
     </row>
-    <row r="907" hidden="1" spans="1:20">
+    <row r="907" spans="1:20">
       <c r="A907" s="20">
         <v>42320</v>
       </c>
@@ -46570,7 +46592,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="908" hidden="1" spans="1:22">
+    <row r="908" spans="1:22">
       <c r="A908" s="20">
         <v>41709</v>
       </c>
@@ -46621,7 +46643,7 @@
       <c r="U908" s="44"/>
       <c r="V908" s="20"/>
     </row>
-    <row r="909" hidden="1" spans="1:20">
+    <row r="909" spans="1:20">
       <c r="A909" s="20">
         <v>42487</v>
       </c>
@@ -46660,7 +46682,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="910" hidden="1" spans="1:22">
+    <row r="910" spans="1:22">
       <c r="A910" s="20">
         <v>42240</v>
       </c>
@@ -46711,7 +46733,7 @@
       </c>
       <c r="V910" s="20"/>
     </row>
-    <row r="911" hidden="1" spans="1:21">
+    <row r="911" spans="1:21">
       <c r="A911" s="20">
         <v>42487</v>
       </c>
@@ -46759,7 +46781,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="912" hidden="1" spans="1:22">
+    <row r="912" spans="1:22">
       <c r="A912" s="20">
         <v>41709</v>
       </c>
@@ -46810,7 +46832,7 @@
       </c>
       <c r="V912" s="20"/>
     </row>
-    <row r="913" hidden="1" spans="1:22">
+    <row r="913" spans="1:22">
       <c r="A913" s="20">
         <v>42487</v>
       </c>
@@ -46865,7 +46887,7 @@
       </c>
       <c r="V913" s="20"/>
     </row>
-    <row r="914" hidden="1" spans="1:21">
+    <row r="914" spans="1:21">
       <c r="A914" s="20">
         <v>42487</v>
       </c>
@@ -46910,7 +46932,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="915" hidden="1" spans="1:22">
+    <row r="915" spans="1:22">
       <c r="A915" s="20">
         <v>41709</v>
       </c>
@@ -46959,7 +46981,7 @@
       <c r="U915" s="44"/>
       <c r="V915" s="20"/>
     </row>
-    <row r="916" hidden="1" spans="1:20">
+    <row r="916" spans="1:20">
       <c r="A916" s="20">
         <v>42487</v>
       </c>
@@ -46996,7 +47018,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="917" hidden="1" spans="1:21">
+    <row r="917" spans="1:21">
       <c r="A917" s="20">
         <v>42487</v>
       </c>
@@ -47038,7 +47060,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="918" hidden="1" spans="1:21">
+    <row r="918" spans="1:21">
       <c r="A918" s="20">
         <v>42487</v>
       </c>
@@ -47083,7 +47105,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="919" hidden="1" spans="1:21">
+    <row r="919" spans="1:21">
       <c r="A919" s="20">
         <v>42593</v>
       </c>
@@ -47125,7 +47147,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="920" hidden="1" spans="1:21">
+    <row r="920" spans="1:21">
       <c r="A920" s="20">
         <v>41981</v>
       </c>
@@ -47164,7 +47186,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="921" hidden="1" spans="1:22">
+    <row r="921" spans="1:22">
       <c r="A921" s="20">
         <v>41709</v>
       </c>
@@ -47215,7 +47237,7 @@
       </c>
       <c r="V921" s="20"/>
     </row>
-    <row r="922" hidden="1" spans="1:22">
+    <row r="922" spans="1:22">
       <c r="A922" s="20">
         <v>41709</v>
       </c>
@@ -47333,13 +47355,8 @@
   <autoFilter ref="A1:V927">
     <filterColumn colId="2">
       <customFilters>
-        <customFilter operator="equal" val="牧师"/>
+        <customFilter operator="equal" val="潜行者"/>
         <customFilter operator="equal" val="中立"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="equal" val="2"/>
       </customFilters>
     </filterColumn>
     <sortState ref="A1:V927">
@@ -47774,24 +47791,24 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B109 B110 B111 B112 B116 B117 B118 B119 B120 B121 B122 B123 B124 B125 B128 B129 B130 B131 B132 B133 B134 B135 B136 B137 B138 B139 B140 B141 B142 B143 B144 B145 B146 B147 B148 B149 B150 B151 B152 B153 B154 B155 B156 B157 B187 B188 B189 B192 B193 B194 B195 B196 B197 B198 B199 B200 B201 B202 B203 B204 B205 B206 B207 B208 B209 B210 B211 B212 B213 B214 B215 B216 B217 B218 B219 B220 B221 B222 B223 B224 B225 B226 B227 B228 B229 B230 B231 B232 B233 B234 B235 B236 B237 B238 B239 B240 B241 B242 B243 B244 B245 B246 B247 B248 B249 B250 B251 B252 B253 B254 B255 B256 B257 B258 B259 B260 B261 B262 B263 B264 B265 B266 B267 B268 B269 B270 B271 B272 B273 B274 B275 B276 B277 B278 B279 B280 B281 B284 B285 B286 B287 B288 B289 B290 B291 B292 B293 B294 B295 B296 B297 B298 B299 B300 B301 B302 B303 B304 B305 B306 B307 B308 B309 B310 B311 B312 B313 B314 B315 B316 B317 B318 B319 B320 B321 B322 B323 B324 B325 B326 B327 B328 B329 B330 B331 B332 B333 B334 B335 B336 B337 B338 B339 B340 B341 B342 B343 B344 B345 B346 B347 B348 B349 B350 B351 B352 B353 B354 B355 B356 B357 B358 B359 B360 B361 B362 B363 B364 B365 B366 B367 B368 B369 B370 B371 B372 B373 B374 B375 B376 B377 B378 B379 B380 B381 B382 B383 B384 B385 B386 B387 B388 B389 B390 B391 B392 B393 B394 B395 B396 B397 B398 B399 B400 B401 B402 B403 B404 B405 B406 B407 B408 B409 B410 B411 B412 B413 B414 B415 B416 B417 B418 B419 B420 B421 B422 B423 B424 B425 B426 B427 B428 B429 B430 B431 B432 B433 B434 B435 B436 B437 B438 B439 B440 B441 B442 B443 B444 B445 B446 B447 B448 B449 B450 B451 B452 B453 B454 B455 B456 B457 B458 B459 B460 B461 B462 B463 B464 B465 B466 B467 B468 B469 B470 B471 B472 B473 B474 B475 B476 B477 B478 B479 B480 B481 B482 B483 B484 B485 B486 B487 B488 B489 B490 B491 B492 B493 B494 B495 B496 B497 B498 B499 B500 B501 B502 B503 B504 B505 B506 B507 B508 B509 B510 B511 B512 B513 B514 B515 B516 B517 B518 B519 B520 B521 B522 B523 B524 B525 B526 B527 B528 B529 B530 B531 B532 B533 B534 B535 B536 B537 B538 B542 B543 B544 B545 B546 B547 B548 B549 B550 B551 B552 B553 B554 B555 B556 B557 B558 B559 B560 B561 B562 B563 B564 B565 B566 B567 B568 B569 B570 B571 B572 B573 B574 B575 B576 B577 B578 B579 B580 B581 B582 B583 B584 B585 B586 B587 B588 B589 B590 B591 B592 B593 B596 B597 B598 B599 B600 B601 B602 B603 B604 B605 B606 B607 B608 B609 B610 B611 B612 B613 B614 B615 B616 B617 B618 B619 B620 B621 B622 B623 B624 B625 B626 B627 B628 B629 B630 B631 B632 B633 B634 B635 B636 B637 B638 B639 B640 B641 B642 B643 B644 B645 B646 B647 B648 B649 B650 B651 B652 B655 B656 B657 B658 B659 B660 B661 B662 B663 B664 B665 B666 B667 B668 B669 B670 B671 B672 B673 B674 B675 B676 B677 B678 B679 B680 B681 B682 B683 B684 B685 B686 B689 B851 B852 B853 B854 B855 B856 B857 B858 B873 B874 B875 B884 B885 B886 B887 B896 B899 B900 B908 B909 B910 B911 B920 B927 B7:B8 B49:B108 B113:B115 B126:B127 B158:B186 B190:B191 B282:B283 B539:B541 B594:B595 B653:B654 B687:B688 B690:B850 B859:B864 B865:B872 B876:B883 B888:B895 B897:B898 B901:B907 B912:B919 B921:B922 B923:B924 B925:B926 B928:B1048576">
       <formula1>"基本,经典,奖励,纳克萨玛斯,地精大战侏儒,黑石山的火焰,冠军的试练,探险者协会,上古之神,卡拉赞"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
+      <formula1>"野兽,机械,龙,鱼人,恶魔,海盗"</formula1>
+    </dataValidation>
     <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A156 A751 A878 A927 A2:A33 A34:A116 A117:A155 A157:A235 A236:A257 A258:A280 A281:A292 A293:A308 A309:A311 A312:A319 A320:A322 A323:A353 A354:A357 A358:A402 A403:A406 A407:A413 A414:A420 A421:A625 A626:A721 A722:A750 A752:A868 A869:A877 A879:A911 A912:A923 A924:A926 A928:A1048576">
       <formula1>41709</formula1>
       <formula2>TODAY()</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J279 K279:N279 J282 K282:N282 J300 K300:N300 J328 K328:N328 J341 K341:N341 J352 K352:N352 J444 K444 L444:N444 J458 K458:N458 J459 K459:N459 J527 K527:N527 J1:N278 J280:N281 J283:N299 J301:N327 J329:N340 J342:N351 J353:N443 J445:N457 J460:N526 J528:N1048576">
-      <formula1>"战吼;,激怒;,亡语;,潜行;,冲锋;,法术伤害;,风怒;,圣盾;,嘲讽;,激励;,过载;,连击;,免疫;,传说;,奥秘;,冻结;,抉择;,发现;,沉默;,零件;"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="已有此项" sqref="H$1:H$1048576">
+      <formula1>COUNTIF(H:H,H1)=1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G292 G301 G302 G307 G317 G318 G327 G328 G333 G334 G346 G347 G348 G378 G386 G470 G485 G919 G923 G1:G291 G293:G300 G303:G306 G308:G316 G319:G326 G329:G332 G335:G345 G349:G377 G379:G385 G387:G469 G471:G484 G486:G709 G710:G918 G920:G922 G924:G926 G927:G1048576">
       <formula1>"随从,法术,武器"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
-      <formula1>"野兽,机械,龙,鱼人,恶魔,海盗"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J266 K266:N266 J273 K273:N273 J279 K279:N279 J280 K280:N280 J281:N281 J282 K282:N282 J287 K287:N287 J296 K296:N296 J300 K300:N300 J328 K328:N328 J341 K341:N341 J352 K352:N352 J444 K444 L444:N444 J458 K458:N458 J459 K459:N459 J527 K527:N527 J301:N327 J329:N340 J342:N351 J353:N443 J445:N457 J460:N526 J528:N1048576 J1:N265 J267:N272 J274:N278 J283:N286 J288:N295 J297:N299">
+      <formula1>"战吼;,激怒;,亡语;,潜行;,冲锋;,法术伤害;,风怒;,圣盾;,嘲讽;,激励;,过载;,连击;,免疫;,传说;,奥秘;,冻结;,抉择;,发现;,沉默;,零件;"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C830 C831 C832 C833 C834 C835 C836 C837 C838 C839 C840 C841 C842 C843 C844 C845 C846 C847 C848 C849 C850 C851 C852 C853 C854 C855 C856 C857 C858 C859 C860 C861 C862 C863 C864 C865 C866 C867 C868 C869 C870 C871 C872 C873 C874 C899 C900 C923 C2:C302 C303:C363 C364:C411 C412:C468 C469:C516 C517:C564 C565:C613 C614:C661 C662:C709 C710:C769 C770:C826 C827:C829 C875:C883 C884:C886 C887:C895 C896:C898 C901:C907 C908:C910 C911:C919 C920:C922 C924:C926 C927:C65536">
       <formula1>"德鲁伊,猎人,法师,圣骑士,牧师,潜行者,萨满祭司,术士,战士,中立"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="已有此项" sqref="H$1:H$1048576">
-      <formula1>COUNTIF(H:H,H1)=1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
@@ -48059,7 +48076,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>

--- a/Gamming/卡牌分类.xlsx
+++ b/Gamming/卡牌分类.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="10560" tabRatio="665" activeTab="3"/>
+    <workbookView windowWidth="19095" windowHeight="10560" tabRatio="665"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="1" r:id="rId1"/>
@@ -4470,11 +4470,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -4506,21 +4506,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4534,15 +4520,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4556,14 +4534,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4588,9 +4580,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4598,14 +4598,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4650,7 +4642,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4761,25 +4761,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4791,13 +4773,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4809,37 +4803,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4863,7 +4851,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4875,25 +4899,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4911,37 +4923,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4964,17 +4964,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4993,8 +4982,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5014,17 +5003,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5034,6 +5019,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5053,11 +5047,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5066,148 +5066,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="45" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5809,12 +5809,12 @@
   </sheetPr>
   <dimension ref="A1:W1055"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="O24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="O495" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R162" sqref="R162"/>
+      <selection pane="bottomRight" activeCell="V498" sqref="V498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -5896,7 +5896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" hidden="1" spans="1:22">
       <c r="A2" s="20">
         <v>41709</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" hidden="1" spans="1:22">
       <c r="A3" s="20">
         <v>41709</v>
       </c>
@@ -6209,7 +6209,6 @@
       <c r="Q9" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="25"/>
       <c r="T9" s="18" t="s">
         <v>44</v>
       </c>
@@ -6636,7 +6635,7 @@
       <c r="U19" s="34"/>
       <c r="W19" s="20"/>
     </row>
-    <row r="20" hidden="1" spans="1:21">
+    <row r="20" spans="1:21">
       <c r="A20" s="20">
         <v>41709</v>
       </c>
@@ -6672,7 +6671,7 @@
       <c r="T20" s="21"/>
       <c r="U20" s="26"/>
     </row>
-    <row r="21" hidden="1" spans="1:21">
+    <row r="21" spans="1:21">
       <c r="A21" s="20">
         <v>42320</v>
       </c>
@@ -6715,7 +6714,7 @@
       <c r="T21" s="21"/>
       <c r="U21" s="26"/>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" hidden="1" spans="1:23">
       <c r="A22" s="20">
         <v>42240</v>
       </c>
@@ -6767,7 +6766,7 @@
       <c r="V22" s="21"/>
       <c r="W22" s="20"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" hidden="1" spans="1:22">
       <c r="A23" s="20">
         <v>42487</v>
       </c>
@@ -6794,14 +6793,13 @@
       <c r="Q23" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="R23" s="25"/>
       <c r="S23" s="19" t="s">
         <v>81</v>
       </c>
       <c r="U23" s="24"/>
       <c r="V23" s="21"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" hidden="1" spans="1:22">
       <c r="A24" s="20">
         <v>42593</v>
       </c>
@@ -6836,7 +6834,7 @@
       </c>
       <c r="V24" s="21"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" hidden="1" spans="1:22">
       <c r="A25" s="20">
         <v>42705</v>
       </c>
@@ -6884,7 +6882,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" hidden="1" spans="1:22">
       <c r="A26" s="20">
         <v>42320</v>
       </c>
@@ -6930,7 +6928,7 @@
       </c>
       <c r="V26" s="21"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" hidden="1" spans="1:22">
       <c r="A27" s="20">
         <v>41709</v>
       </c>
@@ -6970,7 +6968,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" hidden="1" spans="1:20">
       <c r="A28" s="20">
         <v>42705</v>
       </c>
@@ -7006,7 +7004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" hidden="1" spans="1:22">
       <c r="A29" s="20">
         <v>41709</v>
       </c>
@@ -7049,7 +7047,7 @@
       </c>
       <c r="V29" s="21"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" hidden="1" spans="1:22">
       <c r="A30" s="20">
         <v>41709</v>
       </c>
@@ -7449,7 +7447,9 @@
       <c r="S38" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="T38" s="21"/>
+      <c r="T38" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="U38" s="31" t="s">
         <v>25</v>
       </c>
@@ -7582,7 +7582,6 @@
       <c r="Q41" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="R41" s="25"/>
       <c r="T41" s="21"/>
       <c r="U41" s="32" t="s">
         <v>52</v>
@@ -7810,7 +7809,7 @@
       <c r="R46" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="S46" s="19" t="s">
+      <c r="S46" s="31" t="s">
         <v>81</v>
       </c>
       <c r="U46" s="26"/>
@@ -7847,13 +7846,13 @@
       <c r="R47" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="S47" s="32" t="s">
+      <c r="S47" s="29" t="s">
         <v>22</v>
       </c>
       <c r="T47" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="U47" s="31" t="s">
+      <c r="U47" s="19" t="s">
         <v>133</v>
       </c>
       <c r="V47" s="21" t="s">
@@ -9052,7 +9051,6 @@
       <c r="Q74" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="R74" s="25"/>
       <c r="T74" s="19" t="s">
         <v>22</v>
       </c>
@@ -9230,7 +9228,6 @@
       <c r="Q78" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="R78" s="25"/>
       <c r="T78" s="19" t="s">
         <v>103</v>
       </c>
@@ -9270,7 +9267,6 @@
       <c r="Q79" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="R79" s="25"/>
       <c r="T79" s="18" t="s">
         <v>52</v>
       </c>
@@ -9309,7 +9305,6 @@
         <v>52</v>
       </c>
       <c r="Q80" s="26"/>
-      <c r="R80" s="25"/>
       <c r="T80" s="19" t="s">
         <v>52</v>
       </c>
@@ -9349,7 +9344,6 @@
       <c r="Q81" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="R81" s="25"/>
       <c r="T81" s="17" t="s">
         <v>22</v>
       </c>
@@ -9475,7 +9469,6 @@
       <c r="Q84" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="R84" s="25"/>
       <c r="T84" s="19" t="s">
         <v>52</v>
       </c>
@@ -9933,7 +9926,6 @@
       <c r="Q94" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="R94" s="25"/>
       <c r="U94" s="19" t="s">
         <v>81</v>
       </c>
@@ -9970,7 +9962,6 @@
       <c r="Q95" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R95" s="25"/>
       <c r="T95" s="21"/>
       <c r="U95" s="31" t="s">
         <v>191</v>
@@ -10059,7 +10050,6 @@
       <c r="Q97" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="R97" s="25"/>
       <c r="T97" s="18" t="s">
         <v>52</v>
       </c>
@@ -10518,7 +10508,6 @@
       <c r="Q108" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="R108" s="25"/>
       <c r="U108" s="29" t="s">
         <v>117</v>
       </c>
@@ -10914,7 +10903,7 @@
       </c>
       <c r="U117" s="26"/>
     </row>
-    <row r="118" hidden="1" spans="1:22">
+    <row r="118" spans="1:22">
       <c r="A118" s="20">
         <v>41709</v>
       </c>
@@ -10963,7 +10952,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:22">
+    <row r="119" spans="1:22">
       <c r="A119" s="20">
         <v>41709</v>
       </c>
@@ -11012,7 +11001,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:22">
+    <row r="120" spans="1:22">
       <c r="A120" s="20">
         <v>42593</v>
       </c>
@@ -11038,7 +11027,6 @@
       <c r="Q120" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="R120" s="25"/>
       <c r="T120" s="19" t="s">
         <v>225</v>
       </c>
@@ -11049,7 +11037,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:22">
+    <row r="121" spans="1:22">
       <c r="A121" s="20">
         <v>42487</v>
       </c>
@@ -11082,7 +11070,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:22">
+    <row r="122" spans="1:22">
       <c r="A122" s="20">
         <v>42705</v>
       </c>
@@ -11128,7 +11116,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:22">
+    <row r="123" spans="1:22">
       <c r="A123" s="20">
         <v>41709</v>
       </c>
@@ -11164,7 +11152,6 @@
         <v>71</v>
       </c>
       <c r="Q123" s="26"/>
-      <c r="R123" s="25"/>
       <c r="T123" s="33" t="s">
         <v>71</v>
       </c>
@@ -11221,7 +11208,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="125" hidden="1" customHeight="1" spans="1:23">
+    <row r="125" customHeight="1" spans="1:23">
       <c r="A125" s="20">
         <v>42240</v>
       </c>
@@ -11274,7 +11261,7 @@
       <c r="V125" s="43"/>
       <c r="W125" s="20"/>
     </row>
-    <row r="126" hidden="1" spans="1:21">
+    <row r="126" spans="1:21">
       <c r="A126" s="20">
         <v>42487</v>
       </c>
@@ -11369,7 +11356,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:22">
+    <row r="128" spans="1:22">
       <c r="A128" s="20">
         <v>42320</v>
       </c>
@@ -11427,7 +11414,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:22">
+    <row r="129" spans="1:22">
       <c r="A129" s="20">
         <v>41709</v>
       </c>
@@ -11472,7 +11459,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:21">
+    <row r="130" spans="1:21">
       <c r="A130" s="20">
         <v>42593</v>
       </c>
@@ -11502,7 +11489,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:22">
+    <row r="131" spans="1:22">
       <c r="A131" s="20">
         <v>42705</v>
       </c>
@@ -11553,7 +11540,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:22">
+    <row r="132" spans="1:22">
       <c r="A132" s="20">
         <v>42240</v>
       </c>
@@ -11601,7 +11588,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:22">
+    <row r="133" spans="1:22">
       <c r="A133" s="20">
         <v>41709</v>
       </c>
@@ -11655,7 +11642,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:22">
+    <row r="134" spans="1:22">
       <c r="A134" s="20">
         <v>41709</v>
       </c>
@@ -11703,7 +11690,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:20">
+    <row r="135" spans="1:20">
       <c r="A135" s="20">
         <v>42487</v>
       </c>
@@ -11745,7 +11732,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:21">
+    <row r="136" spans="1:21">
       <c r="A136" s="20">
         <v>41709</v>
       </c>
@@ -11796,7 +11783,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:23">
+    <row r="137" spans="1:23">
       <c r="A137" s="20">
         <v>42096</v>
       </c>
@@ -11850,7 +11837,7 @@
       </c>
       <c r="W137" s="20"/>
     </row>
-    <row r="138" hidden="1" spans="1:21">
+    <row r="138" spans="1:21">
       <c r="A138" s="20">
         <v>41709</v>
       </c>
@@ -11896,7 +11883,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:22">
+    <row r="139" spans="1:22">
       <c r="A139" s="20">
         <v>41709</v>
       </c>
@@ -11950,7 +11937,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:22">
+    <row r="140" spans="1:22">
       <c r="A140" s="20">
         <v>41709</v>
       </c>
@@ -12051,7 +12038,7 @@
       </c>
       <c r="W141" s="20"/>
     </row>
-    <row r="142" hidden="1" spans="1:23">
+    <row r="142" spans="1:23">
       <c r="A142" s="20">
         <v>42240</v>
       </c>
@@ -12103,7 +12090,7 @@
       <c r="V142" s="20"/>
       <c r="W142" s="20"/>
     </row>
-    <row r="143" hidden="1" spans="1:23">
+    <row r="143" spans="1:23">
       <c r="A143" s="20">
         <v>41709</v>
       </c>
@@ -12161,7 +12148,7 @@
       </c>
       <c r="W143" s="20"/>
     </row>
-    <row r="144" customFormat="1" hidden="1" spans="1:23">
+    <row r="144" customFormat="1" spans="1:23">
       <c r="A144" s="20">
         <v>41709</v>
       </c>
@@ -12213,7 +12200,7 @@
       </c>
       <c r="W144" s="20"/>
     </row>
-    <row r="145" customFormat="1" hidden="1" spans="1:23">
+    <row r="145" customFormat="1" spans="1:23">
       <c r="A145" s="20">
         <v>41709</v>
       </c>
@@ -12265,7 +12252,7 @@
       <c r="V145" s="43"/>
       <c r="W145" s="20"/>
     </row>
-    <row r="146" hidden="1" spans="1:23">
+    <row r="146" spans="1:23">
       <c r="A146" s="20">
         <v>42240</v>
       </c>
@@ -12371,7 +12358,7 @@
       </c>
       <c r="W147" s="20"/>
     </row>
-    <row r="148" hidden="1" spans="1:23">
+    <row r="148" spans="1:23">
       <c r="A148" s="20">
         <v>42705</v>
       </c>
@@ -12425,7 +12412,7 @@
       <c r="V148" s="21"/>
       <c r="W148" s="20"/>
     </row>
-    <row r="149" hidden="1" spans="1:21">
+    <row r="149" spans="1:21">
       <c r="A149" s="20">
         <v>41709</v>
       </c>
@@ -12469,7 +12456,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:22">
+    <row r="150" spans="1:22">
       <c r="A150" s="20">
         <v>41709</v>
       </c>
@@ -12516,7 +12503,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:22">
+    <row r="151" spans="1:22">
       <c r="A151" s="20">
         <v>41709</v>
       </c>
@@ -12560,7 +12547,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:22">
+    <row r="152" spans="1:22">
       <c r="A152" s="20">
         <v>41709</v>
       </c>
@@ -12591,7 +12578,6 @@
       </c>
       <c r="P152" s="21"/>
       <c r="Q152" s="26"/>
-      <c r="R152" s="25"/>
       <c r="T152" s="21"/>
       <c r="U152" s="32" t="s">
         <v>304</v>
@@ -12600,7 +12586,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:22">
+    <row r="153" spans="1:22">
       <c r="A153" s="20">
         <v>42705</v>
       </c>
@@ -12635,7 +12621,7 @@
       </c>
       <c r="V153" s="21"/>
     </row>
-    <row r="154" hidden="1" spans="1:22">
+    <row r="154" spans="1:22">
       <c r="A154" s="20">
         <v>41709</v>
       </c>
@@ -12674,7 +12660,6 @@
         <v>85</v>
       </c>
       <c r="R154" s="26"/>
-      <c r="S154" s="25"/>
       <c r="T154" s="32" t="s">
         <v>81</v>
       </c>
@@ -12683,7 +12668,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:22">
+    <row r="155" spans="1:22">
       <c r="A155" s="20">
         <v>41709</v>
       </c>
@@ -12724,7 +12709,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:22">
+    <row r="156" spans="1:22">
       <c r="A156" s="20">
         <v>41709</v>
       </c>
@@ -12770,7 +12755,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" hidden="1" spans="1:23">
       <c r="A157" s="20">
         <v>42240</v>
       </c>
@@ -12877,7 +12862,7 @@
       </c>
       <c r="V158" s="21"/>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" hidden="1" spans="1:23">
       <c r="A159" s="20">
         <v>41709</v>
       </c>
@@ -12927,7 +12912,7 @@
       <c r="V159" s="20"/>
       <c r="W159" s="20"/>
     </row>
-    <row r="160" spans="1:22">
+    <row r="160" hidden="1" spans="1:22">
       <c r="A160" s="20">
         <v>42240</v>
       </c>
@@ -12970,7 +12955,7 @@
       </c>
       <c r="V160" s="21"/>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" hidden="1" spans="1:23">
       <c r="A161" s="20">
         <v>42487</v>
       </c>
@@ -13017,7 +13002,7 @@
       <c r="V161" s="21"/>
       <c r="W161" s="20"/>
     </row>
-    <row r="162" spans="1:22">
+    <row r="162" hidden="1" spans="1:22">
       <c r="A162" s="20">
         <v>41709</v>
       </c>
@@ -13062,7 +13047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:22">
+    <row r="163" hidden="1" spans="1:22">
       <c r="A163" s="20">
         <v>41709</v>
       </c>
@@ -13108,7 +13093,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="164" spans="1:22">
+    <row r="164" hidden="1" spans="1:22">
       <c r="A164" s="20">
         <v>41709</v>
       </c>
@@ -13810,18 +13795,14 @@
       <c r="Q179" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="R179" s="29" t="s">
+      <c r="R179" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="S179" s="32" t="s">
+      <c r="S179" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="T179" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="U179" s="29" t="s">
-        <v>117</v>
-      </c>
+      <c r="T179" s="21"/>
+      <c r="U179" s="21"/>
       <c r="V179" s="21"/>
       <c r="W179" s="20"/>
     </row>
@@ -13964,10 +13945,10 @@
       <c r="S182" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="T182" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="U182" s="32" t="s">
+      <c r="T182" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="U182" s="29" t="s">
         <v>81</v>
       </c>
       <c r="V182" s="21" t="s">
@@ -14144,8 +14125,8 @@
       <c r="S186" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="T186" s="19" t="s">
-        <v>216</v>
+      <c r="T186" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="U186" s="32" t="s">
         <v>25</v>
@@ -14235,13 +14216,11 @@
         <v>103</v>
       </c>
       <c r="R188" s="26"/>
-      <c r="S188" s="26"/>
-      <c r="T188" s="19" t="s">
+      <c r="S188" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="U188" s="32" t="s">
-        <v>103</v>
-      </c>
+      <c r="T188" s="23"/>
+      <c r="U188" s="23"/>
       <c r="V188" s="21" t="s">
         <v>351</v>
       </c>
@@ -14289,14 +14268,14 @@
       <c r="R189" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="S189" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="T189" s="19" t="s">
+      <c r="S189" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="U189" s="32" t="s">
-        <v>52</v>
+      <c r="T189" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="U189" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="V189" s="21"/>
       <c r="W189" s="20"/>
@@ -14338,18 +14317,16 @@
       <c r="Q190" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="R190" s="19" t="s">
+      <c r="R190" s="31" t="s">
         <v>191</v>
       </c>
       <c r="S190" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="T190" s="19" t="s">
+      <c r="T190" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="U190" s="31" t="s">
-        <v>191</v>
-      </c>
+      <c r="U190" s="38"/>
       <c r="V190" s="21"/>
       <c r="W190" s="20"/>
     </row>
@@ -14999,7 +14976,6 @@
       <c r="Q204" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="R204" s="25"/>
       <c r="U204" s="33" t="s">
         <v>35</v>
       </c>
@@ -15534,7 +15510,6 @@
       <c r="Q216" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="R216" s="25"/>
       <c r="T216" s="31" t="s">
         <v>85</v>
       </c>
@@ -15772,7 +15747,6 @@
       <c r="Q221" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="R221" s="25"/>
       <c r="T221" s="19" t="s">
         <v>117</v>
       </c>
@@ -15850,7 +15824,6 @@
       <c r="Q223" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="R223" s="25"/>
       <c r="T223" s="19" t="s">
         <v>117</v>
       </c>
@@ -15974,7 +15947,6 @@
       <c r="Q226" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="R226" s="25"/>
       <c r="T226" s="21"/>
       <c r="U226" s="30" t="s">
         <v>52</v>
@@ -16062,7 +16034,6 @@
       <c r="Q228" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="R228" s="25"/>
       <c r="T228" s="19" t="s">
         <v>126</v>
       </c>
@@ -17087,7 +17058,6 @@
       <c r="Q249" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="R249" s="25"/>
       <c r="T249" s="18" t="s">
         <v>81</v>
       </c>
@@ -17363,7 +17333,6 @@
       <c r="Q255" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R255" s="25"/>
       <c r="T255" s="39"/>
       <c r="U255" s="19" t="s">
         <v>25</v>
@@ -18394,7 +18363,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="1:23">
+    <row r="279" spans="1:23">
       <c r="A279" s="20">
         <v>41709</v>
       </c>
@@ -18444,7 +18413,7 @@
       </c>
       <c r="W279" s="20"/>
     </row>
-    <row r="280" hidden="1" spans="1:23">
+    <row r="280" spans="1:23">
       <c r="A280" s="20">
         <v>42240</v>
       </c>
@@ -18490,7 +18459,7 @@
       <c r="V280" s="43"/>
       <c r="W280" s="20"/>
     </row>
-    <row r="281" hidden="1" spans="1:23">
+    <row r="281" spans="1:23">
       <c r="A281" s="20">
         <v>42320</v>
       </c>
@@ -18544,7 +18513,7 @@
       <c r="V281" s="43"/>
       <c r="W281" s="20"/>
     </row>
-    <row r="282" hidden="1" spans="1:22">
+    <row r="282" spans="1:22">
       <c r="A282" s="20">
         <v>42705</v>
       </c>
@@ -18653,7 +18622,7 @@
       </c>
       <c r="W283" s="20"/>
     </row>
-    <row r="284" hidden="1" spans="1:23">
+    <row r="284" spans="1:23">
       <c r="A284" s="20">
         <v>42240</v>
       </c>
@@ -18791,7 +18760,6 @@
       </c>
       <c r="P286" s="21"/>
       <c r="Q286" s="34"/>
-      <c r="R286" s="25"/>
       <c r="T286" s="18" t="s">
         <v>81</v>
       </c>
@@ -18803,7 +18771,7 @@
       </c>
       <c r="W286" s="20"/>
     </row>
-    <row r="287" hidden="1" customHeight="1" spans="1:19">
+    <row r="287" customHeight="1" spans="1:19">
       <c r="A287" s="20">
         <v>42705</v>
       </c>
@@ -18842,7 +18810,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="288" hidden="1" customHeight="1" spans="1:23">
+    <row r="288" customHeight="1" spans="1:23">
       <c r="A288" s="20">
         <v>41709</v>
       </c>
@@ -18887,7 +18855,7 @@
       </c>
       <c r="W288" s="20"/>
     </row>
-    <row r="289" hidden="1" customHeight="1" spans="1:23">
+    <row r="289" customHeight="1" spans="1:23">
       <c r="A289" s="20">
         <v>41709</v>
       </c>
@@ -18931,7 +18899,7 @@
       </c>
       <c r="W289" s="20"/>
     </row>
-    <row r="290" hidden="1" customHeight="1" spans="1:23">
+    <row r="290" customHeight="1" spans="1:23">
       <c r="A290" s="20">
         <v>41709</v>
       </c>
@@ -19091,7 +19059,7 @@
       </c>
       <c r="W292" s="20"/>
     </row>
-    <row r="293" hidden="1" spans="1:23">
+    <row r="293" spans="1:23">
       <c r="A293" s="20">
         <v>41709</v>
       </c>
@@ -19143,7 +19111,7 @@
       <c r="V293" s="43"/>
       <c r="W293" s="20"/>
     </row>
-    <row r="294" hidden="1" spans="1:23">
+    <row r="294" spans="1:23">
       <c r="A294" s="20">
         <v>41709</v>
       </c>
@@ -19197,7 +19165,7 @@
       </c>
       <c r="W294" s="20"/>
     </row>
-    <row r="295" hidden="1" spans="1:23">
+    <row r="295" spans="1:23">
       <c r="A295" s="20">
         <v>41709</v>
       </c>
@@ -19243,7 +19211,7 @@
       <c r="V295" s="43"/>
       <c r="W295" s="20"/>
     </row>
-    <row r="296" hidden="1" spans="1:23">
+    <row r="296" spans="1:23">
       <c r="A296" s="20">
         <v>41709</v>
       </c>
@@ -19403,7 +19371,7 @@
       </c>
       <c r="W298" s="20"/>
     </row>
-    <row r="299" hidden="1" spans="1:23">
+    <row r="299" spans="1:23">
       <c r="A299" s="20">
         <v>42240</v>
       </c>
@@ -19507,7 +19475,7 @@
       </c>
       <c r="W300" s="20"/>
     </row>
-    <row r="301" hidden="1" spans="1:23">
+    <row r="301" spans="1:23">
       <c r="A301" s="20">
         <v>42705</v>
       </c>
@@ -19561,7 +19529,7 @@
       <c r="V301" s="20"/>
       <c r="W301" s="20"/>
     </row>
-    <row r="302" hidden="1" spans="1:23">
+    <row r="302" spans="1:23">
       <c r="A302" s="20">
         <v>41709</v>
       </c>
@@ -19615,7 +19583,7 @@
       </c>
       <c r="W302" s="20"/>
     </row>
-    <row r="303" hidden="1" spans="1:23">
+    <row r="303" spans="1:23">
       <c r="A303" s="20">
         <v>42320</v>
       </c>
@@ -19666,7 +19634,7 @@
       <c r="V303" s="43"/>
       <c r="W303" s="20"/>
     </row>
-    <row r="304" hidden="1" spans="1:23">
+    <row r="304" spans="1:23">
       <c r="A304" s="20">
         <v>41709</v>
       </c>
@@ -19718,7 +19686,7 @@
       <c r="V304" s="43"/>
       <c r="W304" s="20"/>
     </row>
-    <row r="305" hidden="1" spans="1:23">
+    <row r="305" spans="1:23">
       <c r="A305" s="20">
         <v>41709</v>
       </c>
@@ -19768,7 +19736,7 @@
       </c>
       <c r="W305" s="20"/>
     </row>
-    <row r="306" hidden="1" spans="1:23">
+    <row r="306" spans="1:23">
       <c r="A306" s="20">
         <v>41709</v>
       </c>
@@ -19820,7 +19788,7 @@
       <c r="V306" s="43"/>
       <c r="W306" s="20"/>
     </row>
-    <row r="307" hidden="1" spans="1:23">
+    <row r="307" spans="1:23">
       <c r="A307" s="20">
         <v>41709</v>
       </c>
@@ -19870,7 +19838,7 @@
       </c>
       <c r="W307" s="20"/>
     </row>
-    <row r="308" hidden="1" spans="1:23">
+    <row r="308" spans="1:23">
       <c r="A308" s="20">
         <v>41709</v>
       </c>
@@ -19920,7 +19888,7 @@
       </c>
       <c r="W308" s="20"/>
     </row>
-    <row r="309" hidden="1" spans="1:23">
+    <row r="309" spans="1:23">
       <c r="A309" s="20">
         <v>41709</v>
       </c>
@@ -19970,7 +19938,7 @@
       </c>
       <c r="W309" s="20"/>
     </row>
-    <row r="310" hidden="1" spans="1:23">
+    <row r="310" spans="1:23">
       <c r="A310" s="20">
         <v>42487</v>
       </c>
@@ -20028,7 +19996,7 @@
       </c>
       <c r="W310" s="20"/>
     </row>
-    <row r="311" hidden="1" spans="1:23">
+    <row r="311" spans="1:23">
       <c r="A311" s="20">
         <v>42487</v>
       </c>
@@ -20076,7 +20044,7 @@
       <c r="V311" s="43"/>
       <c r="W311" s="20"/>
     </row>
-    <row r="312" hidden="1" spans="1:23">
+    <row r="312" spans="1:23">
       <c r="A312" s="20">
         <v>41709</v>
       </c>
@@ -20170,7 +20138,7 @@
       <c r="V313" s="43"/>
       <c r="W313" s="20"/>
     </row>
-    <row r="314" hidden="1" spans="1:23">
+    <row r="314" spans="1:23">
       <c r="A314" s="20">
         <v>41709</v>
       </c>
@@ -20220,7 +20188,7 @@
       </c>
       <c r="W314" s="20"/>
     </row>
-    <row r="315" hidden="1" spans="1:23">
+    <row r="315" spans="1:23">
       <c r="A315" s="20">
         <v>42487</v>
       </c>
@@ -20266,7 +20234,7 @@
       <c r="V315" s="43"/>
       <c r="W315" s="20"/>
     </row>
-    <row r="316" hidden="1" spans="1:23">
+    <row r="316" spans="1:23">
       <c r="A316" s="20">
         <v>42487</v>
       </c>
@@ -20374,7 +20342,7 @@
       <c r="V317" s="43"/>
       <c r="W317" s="20"/>
     </row>
-    <row r="318" hidden="1" spans="1:23">
+    <row r="318" spans="1:23">
       <c r="A318" s="20">
         <v>42705</v>
       </c>
@@ -20426,7 +20394,7 @@
       <c r="V318" s="20"/>
       <c r="W318" s="20"/>
     </row>
-    <row r="319" hidden="1" spans="1:23">
+    <row r="319" spans="1:23">
       <c r="A319" s="20">
         <v>41709</v>
       </c>
@@ -20484,7 +20452,7 @@
       </c>
       <c r="W319" s="20"/>
     </row>
-    <row r="320" hidden="1" spans="1:23">
+    <row r="320" spans="1:23">
       <c r="A320" s="20">
         <v>41709</v>
       </c>
@@ -20538,7 +20506,7 @@
       </c>
       <c r="W320" s="20"/>
     </row>
-    <row r="321" hidden="1" spans="1:23">
+    <row r="321" spans="1:23">
       <c r="A321" s="20">
         <v>41709</v>
       </c>
@@ -20588,7 +20556,7 @@
       <c r="V321" s="43"/>
       <c r="W321" s="20"/>
     </row>
-    <row r="322" hidden="1" spans="1:23">
+    <row r="322" spans="1:23">
       <c r="A322" s="20">
         <v>41709</v>
       </c>
@@ -20738,7 +20706,7 @@
       <c r="V324" s="43"/>
       <c r="W324" s="20"/>
     </row>
-    <row r="325" hidden="1" spans="1:23">
+    <row r="325" spans="1:23">
       <c r="A325" s="20">
         <v>42705</v>
       </c>
@@ -20792,7 +20760,7 @@
       <c r="V325" s="20"/>
       <c r="W325" s="20"/>
     </row>
-    <row r="326" hidden="1" spans="1:23">
+    <row r="326" spans="1:23">
       <c r="A326" s="20">
         <v>41709</v>
       </c>
@@ -20842,7 +20810,7 @@
       </c>
       <c r="W326" s="20"/>
     </row>
-    <row r="327" hidden="1" spans="1:23">
+    <row r="327" spans="1:23">
       <c r="A327" s="20">
         <v>42487</v>
       </c>
@@ -20894,7 +20862,7 @@
       </c>
       <c r="W327" s="20"/>
     </row>
-    <row r="328" hidden="1" spans="1:23">
+    <row r="328" spans="1:23">
       <c r="A328" s="20">
         <v>42593</v>
       </c>
@@ -20948,7 +20916,7 @@
       </c>
       <c r="W328" s="20"/>
     </row>
-    <row r="329" hidden="1" spans="1:23">
+    <row r="329" spans="1:23">
       <c r="A329" s="20">
         <v>41709</v>
       </c>
@@ -21006,7 +20974,7 @@
       </c>
       <c r="W329" s="20"/>
     </row>
-    <row r="330" hidden="1" spans="1:23">
+    <row r="330" spans="1:23">
       <c r="A330" s="20">
         <v>41709</v>
       </c>
@@ -21056,7 +21024,7 @@
       </c>
       <c r="W330" s="20"/>
     </row>
-    <row r="331" hidden="1" spans="1:23">
+    <row r="331" spans="1:23">
       <c r="A331" s="20">
         <v>41709</v>
       </c>
@@ -21106,7 +21074,7 @@
       </c>
       <c r="W331" s="20"/>
     </row>
-    <row r="332" hidden="1" spans="1:23">
+    <row r="332" spans="1:23">
       <c r="A332" s="20">
         <v>42240</v>
       </c>
@@ -21156,7 +21124,7 @@
       </c>
       <c r="W332" s="20"/>
     </row>
-    <row r="333" hidden="1" spans="1:23">
+    <row r="333" spans="1:23">
       <c r="A333" s="20">
         <v>42487</v>
       </c>
@@ -21210,7 +21178,7 @@
       </c>
       <c r="W333" s="20"/>
     </row>
-    <row r="334" hidden="1" spans="1:23">
+    <row r="334" spans="1:23">
       <c r="A334" s="20">
         <v>42240</v>
       </c>
@@ -21258,7 +21226,7 @@
       <c r="V334" s="43"/>
       <c r="W334" s="20"/>
     </row>
-    <row r="335" hidden="1" spans="1:23">
+    <row r="335" spans="1:23">
       <c r="A335" s="20">
         <v>41709</v>
       </c>
@@ -21352,7 +21320,7 @@
       </c>
       <c r="W336" s="20"/>
     </row>
-    <row r="337" hidden="1" spans="1:23">
+    <row r="337" spans="1:23">
       <c r="A337" s="20">
         <v>41709</v>
       </c>
@@ -21406,7 +21374,7 @@
       </c>
       <c r="W337" s="20"/>
     </row>
-    <row r="338" hidden="1" spans="1:23">
+    <row r="338" spans="1:23">
       <c r="A338" s="20">
         <v>41709</v>
       </c>
@@ -21556,7 +21524,7 @@
       </c>
       <c r="W340" s="20"/>
     </row>
-    <row r="341" hidden="1" spans="1:23">
+    <row r="341" spans="1:23">
       <c r="A341" s="20">
         <v>41709</v>
       </c>
@@ -21654,7 +21622,7 @@
       <c r="V342" s="43"/>
       <c r="W342" s="20"/>
     </row>
-    <row r="343" hidden="1" spans="1:23">
+    <row r="343" spans="1:23">
       <c r="A343" s="20">
         <v>42593</v>
       </c>
@@ -21729,7 +21697,6 @@
       <c r="Q344" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="R344" s="25"/>
       <c r="T344" s="19" t="s">
         <v>22</v>
       </c>
@@ -21737,7 +21704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:22">
+    <row r="345" hidden="1" spans="1:22">
       <c r="A345" s="20">
         <v>42240</v>
       </c>
@@ -21780,7 +21747,7 @@
       </c>
       <c r="V345" s="21"/>
     </row>
-    <row r="346" spans="1:22">
+    <row r="346" hidden="1" spans="1:22">
       <c r="A346" s="20">
         <v>42487</v>
       </c>
@@ -21809,7 +21776,7 @@
       </c>
       <c r="V346" s="21"/>
     </row>
-    <row r="347" spans="1:22">
+    <row r="347" hidden="1" spans="1:22">
       <c r="A347" s="20">
         <v>42096</v>
       </c>
@@ -21851,7 +21818,7 @@
       <c r="U347" s="26"/>
       <c r="V347" s="21"/>
     </row>
-    <row r="348" spans="1:21">
+    <row r="348" hidden="1" spans="1:21">
       <c r="A348" s="20">
         <v>42705</v>
       </c>
@@ -21880,7 +21847,6 @@
       <c r="Q348" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="R348" s="25"/>
       <c r="T348" s="19" t="s">
         <v>22</v>
       </c>
@@ -21888,7 +21854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="349" spans="1:22">
+    <row r="349" hidden="1" spans="1:22">
       <c r="A349" s="20">
         <v>42320</v>
       </c>
@@ -21930,7 +21896,7 @@
       <c r="U349" s="26"/>
       <c r="V349" s="21"/>
     </row>
-    <row r="350" spans="1:22">
+    <row r="350" hidden="1" spans="1:22">
       <c r="A350" s="20">
         <v>42705</v>
       </c>
@@ -21962,19 +21928,17 @@
       <c r="Q350" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="R350" s="25"/>
       <c r="S350" s="19" t="s">
         <v>22</v>
       </c>
       <c r="T350" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="U350" s="25"/>
       <c r="V350" s="26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="351" spans="1:21">
+    <row r="351" hidden="1" spans="1:21">
       <c r="A351" s="20">
         <v>42705</v>
       </c>
@@ -22006,7 +21970,6 @@
       <c r="Q351" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="R351" s="25"/>
       <c r="T351" s="32" t="s">
         <v>81</v>
       </c>
@@ -22014,7 +21977,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="352" spans="1:22">
+    <row r="352" hidden="1" spans="1:22">
       <c r="A352" s="20">
         <v>41709</v>
       </c>
@@ -22055,7 +22018,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="353" spans="1:22">
+    <row r="353" hidden="1" spans="1:22">
       <c r="A353" s="20">
         <v>42487</v>
       </c>
@@ -22095,7 +22058,7 @@
       </c>
       <c r="V353" s="21"/>
     </row>
-    <row r="354" spans="1:22">
+    <row r="354" hidden="1" spans="1:22">
       <c r="A354" s="20">
         <v>41709</v>
       </c>
@@ -22132,7 +22095,7 @@
       </c>
       <c r="V354" s="21"/>
     </row>
-    <row r="355" spans="1:22">
+    <row r="355" hidden="1" spans="1:22">
       <c r="A355" s="20">
         <v>41709</v>
       </c>
@@ -22202,7 +22165,6 @@
       <c r="Q356" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="R356" s="25"/>
       <c r="T356" s="19" t="s">
         <v>133</v>
       </c>
@@ -22422,7 +22384,6 @@
         <v>191</v>
       </c>
       <c r="Q361" s="26"/>
-      <c r="R361" s="25"/>
       <c r="T361" s="19" t="s">
         <v>216</v>
       </c>
@@ -22839,7 +22800,6 @@
       <c r="Q370" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="R370" s="25"/>
       <c r="T370" s="18" t="s">
         <v>37</v>
       </c>
@@ -23279,15 +23239,13 @@
       <c r="R380" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="S380" s="32" t="s">
+      <c r="S380" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="T380" s="17" t="s">
+      <c r="T380" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="U380" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="U380" s="24"/>
       <c r="V380" s="21"/>
     </row>
     <row r="381" hidden="1" spans="1:22">
@@ -23322,7 +23280,6 @@
       <c r="Q381" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="R381" s="25"/>
       <c r="T381" s="32" t="s">
         <v>22</v>
       </c>
@@ -23368,18 +23325,16 @@
       <c r="Q382" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="R382" s="29" t="s">
+      <c r="R382" s="19" t="s">
         <v>184</v>
       </c>
       <c r="S382" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="T382" s="19" t="s">
+      <c r="T382" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="U382" s="32" t="s">
-        <v>184</v>
-      </c>
+      <c r="U382" s="21"/>
       <c r="V382" s="21" t="s">
         <v>612</v>
       </c>
@@ -23667,8 +23622,8 @@
       <c r="T388" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="U388" s="19" t="s">
-        <v>85</v>
+      <c r="U388" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="V388" s="20" t="s">
         <v>622</v>
@@ -23807,15 +23762,13 @@
       <c r="R391" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="S391" s="33" t="s">
+      <c r="S391" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="T391" s="19" t="s">
+      <c r="T391" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="U391" s="19" t="s">
-        <v>62</v>
-      </c>
+      <c r="U391" s="38"/>
       <c r="V391" s="21"/>
     </row>
     <row r="392" hidden="1" spans="1:21">
@@ -24300,7 +24253,6 @@
       <c r="Q402" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="R402" s="25"/>
       <c r="T402" s="31" t="s">
         <v>280</v>
       </c>
@@ -24819,7 +24771,6 @@
       <c r="Q413" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="R413" s="25"/>
       <c r="T413" s="31" t="s">
         <v>117</v>
       </c>
@@ -26563,7 +26514,6 @@
       <c r="Q449" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R449" s="25"/>
       <c r="T449" s="19" t="s">
         <v>52</v>
       </c>
@@ -27239,7 +27189,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="465" hidden="1" spans="1:23">
+    <row r="465" spans="1:23">
       <c r="A465" s="20">
         <v>42705</v>
       </c>
@@ -27295,7 +27245,7 @@
       <c r="V465" s="20"/>
       <c r="W465" s="20"/>
     </row>
-    <row r="466" hidden="1" spans="1:23">
+    <row r="466" spans="1:23">
       <c r="A466" s="20">
         <v>41709</v>
       </c>
@@ -27339,7 +27289,7 @@
       <c r="V466" s="43"/>
       <c r="W466" s="21"/>
     </row>
-    <row r="467" hidden="1" spans="1:23">
+    <row r="467" spans="1:23">
       <c r="A467" s="20">
         <v>42240</v>
       </c>
@@ -27389,7 +27339,7 @@
       <c r="V467" s="43"/>
       <c r="W467" s="21"/>
     </row>
-    <row r="468" hidden="1" spans="1:23">
+    <row r="468" spans="1:23">
       <c r="A468" s="20">
         <v>41709</v>
       </c>
@@ -27437,7 +27387,7 @@
       </c>
       <c r="W468" s="21"/>
     </row>
-    <row r="469" hidden="1" spans="1:23">
+    <row r="469" spans="1:23">
       <c r="A469" s="20">
         <v>41709</v>
       </c>
@@ -27486,7 +27436,7 @@
       </c>
       <c r="W469" s="21"/>
     </row>
-    <row r="470" hidden="1" spans="1:23">
+    <row r="470" spans="1:23">
       <c r="A470" s="20">
         <v>42240</v>
       </c>
@@ -27530,7 +27480,7 @@
       <c r="V470" s="43"/>
       <c r="W470" s="21"/>
     </row>
-    <row r="471" hidden="1" spans="1:23">
+    <row r="471" spans="1:23">
       <c r="A471" s="20">
         <v>42320</v>
       </c>
@@ -27586,7 +27536,7 @@
       </c>
       <c r="W471" s="21"/>
     </row>
-    <row r="472" hidden="1" spans="1:23">
+    <row r="472" spans="1:23">
       <c r="A472" s="20">
         <v>42240</v>
       </c>
@@ -27636,7 +27586,7 @@
       <c r="V472" s="43"/>
       <c r="W472" s="21"/>
     </row>
-    <row r="473" hidden="1" spans="1:23">
+    <row r="473" spans="1:23">
       <c r="A473" s="20">
         <v>42593</v>
       </c>
@@ -27683,7 +27633,7 @@
       <c r="V473" s="43"/>
       <c r="W473" s="20"/>
     </row>
-    <row r="474" hidden="1" spans="1:23">
+    <row r="474" spans="1:23">
       <c r="A474" s="20">
         <v>41709</v>
       </c>
@@ -27735,7 +27685,7 @@
       </c>
       <c r="W474" s="21"/>
     </row>
-    <row r="475" hidden="1" spans="1:23">
+    <row r="475" spans="1:23">
       <c r="A475" s="20">
         <v>41709</v>
       </c>
@@ -27785,7 +27735,7 @@
       </c>
       <c r="W475" s="21"/>
     </row>
-    <row r="476" hidden="1" spans="1:23">
+    <row r="476" spans="1:23">
       <c r="A476" s="20">
         <v>41709</v>
       </c>
@@ -27824,13 +27774,13 @@
       <c r="Q476" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="R476" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="S476" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="T476" s="18" t="s">
+      <c r="R476" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="S476" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="T476" s="32" t="s">
         <v>81</v>
       </c>
       <c r="U476" s="32" t="s">
@@ -27841,7 +27791,7 @@
       </c>
       <c r="W476" s="21"/>
     </row>
-    <row r="477" hidden="1" spans="1:23">
+    <row r="477" spans="1:23">
       <c r="A477" s="20">
         <v>42705</v>
       </c>
@@ -27882,13 +27832,13 @@
         <v>103</v>
       </c>
       <c r="S477" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="T477" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="T477" s="29" t="s">
         <v>85</v>
       </c>
       <c r="U477" s="32" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="V477" s="20"/>
       <c r="W477" s="20"/>
@@ -27991,7 +27941,7 @@
       <c r="V479" s="43"/>
       <c r="W479" s="21"/>
     </row>
-    <row r="480" hidden="1" spans="1:23">
+    <row r="480" spans="1:23">
       <c r="A480" s="20">
         <v>41709</v>
       </c>
@@ -28039,7 +27989,7 @@
       </c>
       <c r="W480" s="21"/>
     </row>
-    <row r="481" hidden="1" spans="1:23">
+    <row r="481" spans="1:23">
       <c r="A481" s="20">
         <v>42705</v>
       </c>
@@ -28084,7 +28034,7 @@
       <c r="S481" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="T481" s="37" t="s">
+      <c r="T481" s="29" t="s">
         <v>81</v>
       </c>
       <c r="U481" s="40" t="s">
@@ -28095,7 +28045,7 @@
       </c>
       <c r="W481" s="20"/>
     </row>
-    <row r="482" hidden="1" spans="1:23">
+    <row r="482" spans="1:23">
       <c r="A482" s="20">
         <v>42487</v>
       </c>
@@ -28191,7 +28141,7 @@
       </c>
       <c r="W483" s="21"/>
     </row>
-    <row r="484" hidden="1" spans="1:23">
+    <row r="484" spans="1:23">
       <c r="A484" s="20">
         <v>41709</v>
       </c>
@@ -28241,7 +28191,7 @@
       <c r="V484" s="20"/>
       <c r="W484" s="21"/>
     </row>
-    <row r="485" hidden="1" spans="1:23">
+    <row r="485" spans="1:23">
       <c r="A485" s="20">
         <v>41709</v>
       </c>
@@ -28293,7 +28243,7 @@
       </c>
       <c r="W485" s="21"/>
     </row>
-    <row r="486" hidden="1" spans="1:23">
+    <row r="486" spans="1:23">
       <c r="A486" s="20">
         <v>41709</v>
       </c>
@@ -28397,7 +28347,7 @@
       </c>
       <c r="W487" s="21"/>
     </row>
-    <row r="488" hidden="1" spans="1:23">
+    <row r="488" spans="1:23">
       <c r="A488" s="20">
         <v>41709</v>
       </c>
@@ -28451,7 +28401,7 @@
       <c r="V488" s="20"/>
       <c r="W488" s="21"/>
     </row>
-    <row r="489" hidden="1" spans="1:23">
+    <row r="489" spans="1:23">
       <c r="A489" s="20">
         <v>42240</v>
       </c>
@@ -28507,7 +28457,7 @@
       </c>
       <c r="W489" s="21"/>
     </row>
-    <row r="490" hidden="1" spans="1:23">
+    <row r="490" spans="1:23">
       <c r="A490" s="20">
         <v>41709</v>
       </c>
@@ -28559,7 +28509,7 @@
       </c>
       <c r="W490" s="21"/>
     </row>
-    <row r="491" hidden="1" spans="1:23">
+    <row r="491" spans="1:23">
       <c r="A491" s="20">
         <v>41709</v>
       </c>
@@ -28605,7 +28555,7 @@
       </c>
       <c r="W491" s="21"/>
     </row>
-    <row r="492" hidden="1" spans="1:23">
+    <row r="492" spans="1:23">
       <c r="A492" s="20">
         <v>42240</v>
       </c>
@@ -28659,7 +28609,7 @@
       </c>
       <c r="W492" s="21"/>
     </row>
-    <row r="493" hidden="1" spans="1:23">
+    <row r="493" spans="1:23">
       <c r="A493" s="20">
         <v>42705</v>
       </c>
@@ -28713,7 +28663,7 @@
       </c>
       <c r="W493" s="20"/>
     </row>
-    <row r="494" hidden="1" spans="1:23">
+    <row r="494" spans="1:23">
       <c r="A494" s="20">
         <v>42096</v>
       </c>
@@ -28755,12 +28705,10 @@
       <c r="R494" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="S494" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="T494" s="19" t="s">
-        <v>81</v>
-      </c>
+      <c r="S494" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="T494" s="20"/>
       <c r="U494" s="32" t="s">
         <v>85</v>
       </c>
@@ -28769,7 +28717,7 @@
       </c>
       <c r="W494" s="21"/>
     </row>
-    <row r="495" hidden="1" spans="1:23">
+    <row r="495" spans="1:23">
       <c r="A495" s="20">
         <v>42705</v>
       </c>
@@ -28813,7 +28761,7 @@
       <c r="V495" s="20"/>
       <c r="W495" s="20"/>
     </row>
-    <row r="496" hidden="1" spans="1:23">
+    <row r="496" spans="1:23">
       <c r="A496" s="20">
         <v>42240</v>
       </c>
@@ -28867,7 +28815,7 @@
       </c>
       <c r="W496" s="21"/>
     </row>
-    <row r="497" hidden="1" spans="1:23">
+    <row r="497" spans="1:23">
       <c r="A497" s="20">
         <v>42593</v>
       </c>
@@ -28919,7 +28867,7 @@
       <c r="V497" s="43"/>
       <c r="W497" s="20"/>
     </row>
-    <row r="498" hidden="1" spans="1:23">
+    <row r="498" spans="1:23">
       <c r="A498" s="20">
         <v>42240</v>
       </c>
@@ -28969,7 +28917,7 @@
       <c r="V498" s="20"/>
       <c r="W498" s="21"/>
     </row>
-    <row r="499" hidden="1" spans="1:23">
+    <row r="499" spans="1:23">
       <c r="A499" s="20">
         <v>41709</v>
       </c>
@@ -29014,7 +28962,7 @@
       <c r="S499" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="T499" s="18" t="s">
+      <c r="T499" s="32" t="s">
         <v>81</v>
       </c>
       <c r="U499" s="33" t="s">
@@ -29025,7 +28973,7 @@
       </c>
       <c r="W499" s="21"/>
     </row>
-    <row r="500" hidden="1" spans="1:23">
+    <row r="500" spans="1:23">
       <c r="A500" s="20">
         <v>42487</v>
       </c>
@@ -29077,7 +29025,7 @@
       <c r="V500" s="20"/>
       <c r="W500" s="21"/>
     </row>
-    <row r="501" hidden="1" spans="1:23">
+    <row r="501" spans="1:23">
       <c r="A501" s="20">
         <v>41709</v>
       </c>
@@ -29131,7 +29079,7 @@
       </c>
       <c r="W501" s="21"/>
     </row>
-    <row r="502" hidden="1" spans="1:23">
+    <row r="502" spans="1:23">
       <c r="A502" s="20">
         <v>41709</v>
       </c>
@@ -29181,7 +29129,7 @@
       <c r="V502" s="20"/>
       <c r="W502" s="21"/>
     </row>
-    <row r="503" hidden="1" spans="1:23">
+    <row r="503" spans="1:23">
       <c r="A503" s="20">
         <v>42487</v>
       </c>
@@ -29235,7 +29183,7 @@
       <c r="V503" s="20"/>
       <c r="W503" s="21"/>
     </row>
-    <row r="504" hidden="1" spans="1:23">
+    <row r="504" spans="1:23">
       <c r="A504" s="20">
         <v>42240</v>
       </c>
@@ -29283,7 +29231,7 @@
       <c r="V504" s="20"/>
       <c r="W504" s="21"/>
     </row>
-    <row r="505" hidden="1" spans="1:23">
+    <row r="505" spans="1:23">
       <c r="A505" s="20">
         <v>41709</v>
       </c>
@@ -29387,7 +29335,7 @@
       </c>
       <c r="W506" s="21"/>
     </row>
-    <row r="507" hidden="1" spans="1:23">
+    <row r="507" spans="1:23">
       <c r="A507" s="20">
         <v>42593</v>
       </c>
@@ -29439,7 +29387,7 @@
       <c r="V507" s="43"/>
       <c r="W507" s="20"/>
     </row>
-    <row r="508" hidden="1" spans="1:23">
+    <row r="508" spans="1:23">
       <c r="A508" s="20">
         <v>42487</v>
       </c>
@@ -29493,7 +29441,7 @@
       </c>
       <c r="W508" s="21"/>
     </row>
-    <row r="509" hidden="1" spans="1:23">
+    <row r="509" spans="1:23">
       <c r="A509" s="20">
         <v>41709</v>
       </c>
@@ -29591,7 +29539,7 @@
       <c r="V510" s="20"/>
       <c r="W510" s="21"/>
     </row>
-    <row r="511" hidden="1" spans="1:23">
+    <row r="511" spans="1:23">
       <c r="A511" s="20">
         <v>41709</v>
       </c>
@@ -29645,7 +29593,7 @@
       </c>
       <c r="W511" s="21"/>
     </row>
-    <row r="512" hidden="1" spans="1:23">
+    <row r="512" spans="1:23">
       <c r="A512" s="20">
         <v>41709</v>
       </c>
@@ -29751,7 +29699,7 @@
       <c r="V513" s="20"/>
       <c r="W513" s="21"/>
     </row>
-    <row r="514" hidden="1" spans="1:23">
+    <row r="514" spans="1:23">
       <c r="A514" s="20">
         <v>42705</v>
       </c>
@@ -29801,7 +29749,7 @@
       </c>
       <c r="W514" s="20"/>
     </row>
-    <row r="515" hidden="1" spans="1:23">
+    <row r="515" spans="1:23">
       <c r="A515" s="20">
         <v>42240</v>
       </c>
@@ -29849,7 +29797,7 @@
       <c r="V515" s="20"/>
       <c r="W515" s="21"/>
     </row>
-    <row r="516" hidden="1" spans="1:23">
+    <row r="516" spans="1:23">
       <c r="A516" s="20">
         <v>41709</v>
       </c>
@@ -29899,7 +29847,7 @@
       </c>
       <c r="W516" s="21"/>
     </row>
-    <row r="517" hidden="1" spans="1:23">
+    <row r="517" spans="1:23">
       <c r="A517" s="20">
         <v>42240</v>
       </c>
@@ -29953,7 +29901,7 @@
       </c>
       <c r="W517" s="21"/>
     </row>
-    <row r="518" hidden="1" spans="1:23">
+    <row r="518" spans="1:23">
       <c r="A518" s="20">
         <v>41709</v>
       </c>
@@ -30001,7 +29949,7 @@
       </c>
       <c r="W518" s="21"/>
     </row>
-    <row r="519" hidden="1" spans="1:23">
+    <row r="519" spans="1:23">
       <c r="A519" s="20">
         <v>41709</v>
       </c>
@@ -30049,7 +29997,7 @@
       </c>
       <c r="W519" s="21"/>
     </row>
-    <row r="520" hidden="1" spans="1:23">
+    <row r="520" spans="1:23">
       <c r="A520" s="20">
         <v>42240</v>
       </c>
@@ -30201,7 +30149,7 @@
       <c r="V522" s="20"/>
       <c r="W522" s="21"/>
     </row>
-    <row r="523" hidden="1" spans="1:23">
+    <row r="523" spans="1:23">
       <c r="A523" s="20">
         <v>41709</v>
       </c>
@@ -30249,7 +30197,7 @@
       </c>
       <c r="W523" s="21"/>
     </row>
-    <row r="524" hidden="1" spans="1:23">
+    <row r="524" spans="1:23">
       <c r="A524" s="20">
         <v>41709</v>
       </c>
@@ -30305,7 +30253,7 @@
       </c>
       <c r="W524" s="21"/>
     </row>
-    <row r="525" hidden="1" spans="1:23">
+    <row r="525" spans="1:23">
       <c r="A525" s="20">
         <v>41709</v>
       </c>
@@ -30351,7 +30299,7 @@
       </c>
       <c r="W525" s="21"/>
     </row>
-    <row r="526" hidden="1" spans="1:23">
+    <row r="526" spans="1:23">
       <c r="A526" s="20">
         <v>41709</v>
       </c>
@@ -30405,7 +30353,7 @@
       </c>
       <c r="W526" s="21"/>
     </row>
-    <row r="527" hidden="1" spans="1:23">
+    <row r="527" spans="1:23">
       <c r="A527" s="20">
         <v>41709</v>
       </c>
@@ -30453,7 +30401,7 @@
       </c>
       <c r="W527" s="20"/>
     </row>
-    <row r="528" hidden="1" spans="1:23">
+    <row r="528" spans="1:23">
       <c r="A528" s="20">
         <v>42705</v>
       </c>
@@ -30609,7 +30557,7 @@
       </c>
       <c r="W530" s="21"/>
     </row>
-    <row r="531" hidden="1" spans="1:23">
+    <row r="531" spans="1:23">
       <c r="A531" s="20">
         <v>41709</v>
       </c>
@@ -30657,7 +30605,7 @@
       </c>
       <c r="W531" s="20"/>
     </row>
-    <row r="532" hidden="1" spans="1:23">
+    <row r="532" spans="1:23">
       <c r="A532" s="20">
         <v>42705</v>
       </c>
@@ -30694,22 +30642,18 @@
       <c r="Q532" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="R532" s="29" t="s">
+      <c r="R532" s="37" t="s">
         <v>85</v>
       </c>
       <c r="S532" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="T532" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="U532" s="37" t="s">
-        <v>85</v>
-      </c>
+      <c r="T532" s="26"/>
+      <c r="U532" s="26"/>
       <c r="V532" s="20"/>
       <c r="W532" s="20"/>
     </row>
-    <row r="533" hidden="1" spans="1:23">
+    <row r="533" spans="1:23">
       <c r="A533" s="20">
         <v>41709</v>
       </c>
@@ -30767,7 +30711,7 @@
       </c>
       <c r="W533" s="21"/>
     </row>
-    <row r="534" hidden="1" spans="1:23">
+    <row r="534" spans="1:23">
       <c r="A534" s="20">
         <v>41709</v>
       </c>
@@ -30867,7 +30811,7 @@
       </c>
       <c r="W535" s="20"/>
     </row>
-    <row r="536" hidden="1" spans="1:23">
+    <row r="536" spans="1:23">
       <c r="A536" s="20">
         <v>41709</v>
       </c>
@@ -30909,7 +30853,7 @@
       <c r="V536" s="43"/>
       <c r="W536" s="20"/>
     </row>
-    <row r="537" hidden="1" spans="1:23">
+    <row r="537" spans="1:23">
       <c r="A537" s="20">
         <v>42487</v>
       </c>
@@ -30961,7 +30905,7 @@
       </c>
       <c r="W537" s="20"/>
     </row>
-    <row r="538" hidden="1" spans="1:23">
+    <row r="538" spans="1:23">
       <c r="A538" s="20">
         <v>41709</v>
       </c>
@@ -31011,7 +30955,7 @@
       <c r="V538" s="43"/>
       <c r="W538" s="21"/>
     </row>
-    <row r="539" hidden="1" spans="1:23">
+    <row r="539" spans="1:23">
       <c r="A539" s="20">
         <v>42240</v>
       </c>
@@ -31065,7 +31009,7 @@
       <c r="V539" s="43"/>
       <c r="W539" s="21"/>
     </row>
-    <row r="540" hidden="1" spans="1:23">
+    <row r="540" spans="1:23">
       <c r="A540" s="20">
         <v>41709</v>
       </c>
@@ -31121,7 +31065,7 @@
       </c>
       <c r="W540" s="21"/>
     </row>
-    <row r="541" hidden="1" spans="1:23">
+    <row r="541" spans="1:23">
       <c r="A541" s="20">
         <v>42487</v>
       </c>
@@ -31165,7 +31109,7 @@
       <c r="V541" s="43"/>
       <c r="W541" s="20"/>
     </row>
-    <row r="542" hidden="1" spans="1:23">
+    <row r="542" spans="1:23">
       <c r="A542" s="20">
         <v>42705</v>
       </c>
@@ -31275,7 +31219,7 @@
       <c r="V543" s="43"/>
       <c r="W543" s="20"/>
     </row>
-    <row r="544" hidden="1" spans="1:23">
+    <row r="544" spans="1:23">
       <c r="A544" s="20">
         <v>42705</v>
       </c>
@@ -31373,7 +31317,7 @@
       </c>
       <c r="W545" s="20"/>
     </row>
-    <row r="546" hidden="1" spans="1:23">
+    <row r="546" spans="1:23">
       <c r="A546" s="20">
         <v>42593</v>
       </c>
@@ -31425,7 +31369,7 @@
       <c r="V546" s="43"/>
       <c r="W546" s="20"/>
     </row>
-    <row r="547" spans="1:23">
+    <row r="547" hidden="1" spans="1:23">
       <c r="A547" s="20">
         <v>41709</v>
       </c>
@@ -31477,7 +31421,7 @@
       <c r="V547" s="20"/>
       <c r="W547" s="20"/>
     </row>
-    <row r="548" spans="1:23">
+    <row r="548" hidden="1" spans="1:23">
       <c r="A548" s="20">
         <v>42320</v>
       </c>
@@ -31531,7 +31475,7 @@
       <c r="V548" s="20"/>
       <c r="W548" s="20"/>
     </row>
-    <row r="549" spans="1:22">
+    <row r="549" hidden="1" spans="1:22">
       <c r="A549" s="20">
         <v>41709</v>
       </c>
@@ -31573,7 +31517,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="550" spans="1:23">
+    <row r="550" hidden="1" spans="1:23">
       <c r="A550" s="20">
         <v>42487</v>
       </c>
@@ -31624,7 +31568,7 @@
       </c>
       <c r="W550" s="20"/>
     </row>
-    <row r="551" spans="1:23">
+    <row r="551" hidden="1" spans="1:23">
       <c r="A551" s="20">
         <v>41709</v>
       </c>
@@ -31678,7 +31622,7 @@
       </c>
       <c r="W551" s="20"/>
     </row>
-    <row r="552" spans="1:23">
+    <row r="552" hidden="1" spans="1:23">
       <c r="A552" s="20">
         <v>42240</v>
       </c>
@@ -31773,7 +31717,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="554" spans="1:23">
+    <row r="554" hidden="1" spans="1:23">
       <c r="A554" s="20">
         <v>42487</v>
       </c>
@@ -31826,7 +31770,7 @@
       </c>
       <c r="W554" s="20"/>
     </row>
-    <row r="555" spans="1:22">
+    <row r="555" hidden="1" spans="1:22">
       <c r="A555" s="20">
         <v>42240</v>
       </c>
@@ -31872,7 +31816,7 @@
       </c>
       <c r="V555" s="21"/>
     </row>
-    <row r="556" spans="1:23">
+    <row r="556" hidden="1" spans="1:23">
       <c r="A556" s="20">
         <v>42487</v>
       </c>
@@ -31919,7 +31863,7 @@
       <c r="V556" s="21"/>
       <c r="W556" s="20"/>
     </row>
-    <row r="557" spans="1:22">
+    <row r="557" hidden="1" spans="1:22">
       <c r="A557" s="20">
         <v>41709</v>
       </c>
@@ -31958,7 +31902,7 @@
       </c>
       <c r="V557" s="21"/>
     </row>
-    <row r="558" spans="1:22">
+    <row r="558" hidden="1" spans="1:22">
       <c r="A558" s="20">
         <v>42240</v>
       </c>
@@ -32678,15 +32622,11 @@
       <c r="R571" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="S571" s="29" t="s">
+      <c r="S571" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="T571" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="U571" s="32" t="s">
-        <v>117</v>
-      </c>
+      <c r="T571" s="38"/>
+      <c r="U571" s="38"/>
       <c r="V571" s="21"/>
       <c r="W571" s="20"/>
     </row>
@@ -33181,7 +33121,6 @@
       <c r="Q582" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="R582" s="25"/>
       <c r="T582" s="19" t="s">
         <v>37</v>
       </c>
@@ -33263,7 +33202,6 @@
       <c r="Q584" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="R584" s="25"/>
       <c r="T584" s="19" t="s">
         <v>35</v>
       </c>
@@ -33709,7 +33647,6 @@
       <c r="Q593" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="R593" s="25"/>
       <c r="T593" s="31" t="s">
         <v>117</v>
       </c>
@@ -36089,7 +36026,7 @@
       <c r="V639" s="43"/>
       <c r="W639" s="20"/>
     </row>
-    <row r="640" customFormat="1" hidden="1" spans="1:23">
+    <row r="640" customFormat="1" spans="1:23">
       <c r="A640" s="20">
         <v>42705</v>
       </c>
@@ -36143,7 +36080,7 @@
       </c>
       <c r="W640" s="20"/>
     </row>
-    <row r="641" customFormat="1" hidden="1" spans="1:23">
+    <row r="641" customFormat="1" spans="1:23">
       <c r="A641" s="20">
         <v>42320</v>
       </c>
@@ -36199,7 +36136,7 @@
       </c>
       <c r="W641" s="20"/>
     </row>
-    <row r="642" customFormat="1" hidden="1" spans="1:23">
+    <row r="642" customFormat="1" spans="1:23">
       <c r="A642" s="20">
         <v>41709</v>
       </c>
@@ -36305,7 +36242,7 @@
       </c>
       <c r="W643" s="20"/>
     </row>
-    <row r="644" customFormat="1" hidden="1" spans="1:23">
+    <row r="644" customFormat="1" spans="1:23">
       <c r="A644" s="20">
         <v>42705</v>
       </c>
@@ -36359,7 +36296,7 @@
       <c r="V644" s="20"/>
       <c r="W644" s="20"/>
     </row>
-    <row r="645" customFormat="1" hidden="1" spans="1:23">
+    <row r="645" customFormat="1" spans="1:23">
       <c r="A645" s="20">
         <v>42487</v>
       </c>
@@ -36417,7 +36354,7 @@
       </c>
       <c r="W645" s="20"/>
     </row>
-    <row r="646" customFormat="1" hidden="1" spans="1:23">
+    <row r="646" customFormat="1" spans="1:23">
       <c r="A646" s="20">
         <v>42593</v>
       </c>
@@ -36473,7 +36410,7 @@
       <c r="V646" s="43"/>
       <c r="W646" s="20"/>
     </row>
-    <row r="647" customFormat="1" hidden="1" spans="1:23">
+    <row r="647" customFormat="1" spans="1:23">
       <c r="A647" s="20">
         <v>42593</v>
       </c>
@@ -36529,7 +36466,7 @@
       </c>
       <c r="W647" s="20"/>
     </row>
-    <row r="648" customFormat="1" hidden="1" spans="1:23">
+    <row r="648" customFormat="1" spans="1:23">
       <c r="A648" s="20">
         <v>41709</v>
       </c>
@@ -36577,7 +36514,7 @@
       </c>
       <c r="W648" s="20"/>
     </row>
-    <row r="649" customFormat="1" hidden="1" spans="1:23">
+    <row r="649" customFormat="1" spans="1:23">
       <c r="A649" s="20">
         <v>42487</v>
       </c>
@@ -36627,7 +36564,7 @@
       <c r="V649" s="43"/>
       <c r="W649" s="20"/>
     </row>
-    <row r="650" customFormat="1" hidden="1" spans="1:23">
+    <row r="650" customFormat="1" spans="1:23">
       <c r="A650" s="20">
         <v>42487</v>
       </c>
@@ -36673,7 +36610,7 @@
       <c r="V650" s="43"/>
       <c r="W650" s="20"/>
     </row>
-    <row r="651" hidden="1" spans="1:23">
+    <row r="651" spans="1:23">
       <c r="A651" s="20">
         <v>41709</v>
       </c>
@@ -36725,7 +36662,7 @@
       <c r="V651" s="20"/>
       <c r="W651" s="20"/>
     </row>
-    <row r="652" hidden="1" spans="1:23">
+    <row r="652" spans="1:23">
       <c r="A652" s="20">
         <v>42240</v>
       </c>
@@ -36777,7 +36714,7 @@
       </c>
       <c r="W652" s="20"/>
     </row>
-    <row r="653" hidden="1" spans="1:23">
+    <row r="653" spans="1:23">
       <c r="A653" s="20">
         <v>42320</v>
       </c>
@@ -36827,7 +36764,7 @@
       </c>
       <c r="W653" s="20"/>
     </row>
-    <row r="654" hidden="1" spans="1:23">
+    <row r="654" spans="1:23">
       <c r="A654" s="20">
         <v>42487</v>
       </c>
@@ -36881,7 +36818,7 @@
       </c>
       <c r="W654" s="20"/>
     </row>
-    <row r="655" hidden="1" spans="1:23">
+    <row r="655" spans="1:23">
       <c r="A655" s="20">
         <v>41709</v>
       </c>
@@ -36935,7 +36872,7 @@
       </c>
       <c r="W655" s="20"/>
     </row>
-    <row r="656" hidden="1" spans="1:23">
+    <row r="656" spans="1:23">
       <c r="A656" s="20">
         <v>42705</v>
       </c>
@@ -36989,7 +36926,7 @@
       <c r="V656" s="20"/>
       <c r="W656" s="20"/>
     </row>
-    <row r="657" hidden="1" spans="1:23">
+    <row r="657" spans="1:23">
       <c r="A657" s="20">
         <v>42705</v>
       </c>
@@ -37039,7 +36976,7 @@
       <c r="V657" s="20"/>
       <c r="W657" s="20"/>
     </row>
-    <row r="658" hidden="1" spans="1:23">
+    <row r="658" spans="1:23">
       <c r="A658" s="20">
         <v>42240</v>
       </c>
@@ -37093,7 +37030,7 @@
       </c>
       <c r="W658" s="20"/>
     </row>
-    <row r="659" hidden="1" spans="1:23">
+    <row r="659" spans="1:23">
       <c r="A659" s="20">
         <v>42705</v>
       </c>
@@ -37147,7 +37084,7 @@
       <c r="V659" s="20"/>
       <c r="W659" s="20"/>
     </row>
-    <row r="660" hidden="1" spans="1:23">
+    <row r="660" spans="1:23">
       <c r="A660" s="20">
         <v>42096</v>
       </c>
@@ -37251,7 +37188,7 @@
       </c>
       <c r="W661" s="20"/>
     </row>
-    <row r="662" hidden="1" spans="1:23">
+    <row r="662" spans="1:23">
       <c r="A662" s="20">
         <v>41709</v>
       </c>
@@ -37351,7 +37288,7 @@
       <c r="V663" s="20"/>
       <c r="W663" s="20"/>
     </row>
-    <row r="664" hidden="1" spans="1:23">
+    <row r="664" spans="1:23">
       <c r="A664" s="20">
         <v>42487</v>
       </c>
@@ -37411,7 +37348,7 @@
       </c>
       <c r="W664" s="20"/>
     </row>
-    <row r="665" hidden="1" spans="1:23">
+    <row r="665" spans="1:23">
       <c r="A665" s="20">
         <v>42487</v>
       </c>
@@ -37463,7 +37400,7 @@
       </c>
       <c r="W665" s="20"/>
     </row>
-    <row r="666" hidden="1" spans="1:23">
+    <row r="666" spans="1:23">
       <c r="A666" s="20">
         <v>42487</v>
       </c>
@@ -37523,7 +37460,7 @@
       </c>
       <c r="W666" s="20"/>
     </row>
-    <row r="667" hidden="1" spans="1:23">
+    <row r="667" spans="1:23">
       <c r="A667" s="20">
         <v>42705</v>
       </c>
@@ -37633,7 +37570,7 @@
       </c>
       <c r="W668" s="20"/>
     </row>
-    <row r="669" hidden="1" spans="1:23">
+    <row r="669" spans="1:23">
       <c r="A669" s="20">
         <v>42487</v>
       </c>
@@ -37691,7 +37628,7 @@
       </c>
       <c r="W669" s="20"/>
     </row>
-    <row r="670" hidden="1" spans="1:23">
+    <row r="670" spans="1:23">
       <c r="A670" s="20">
         <v>41709</v>
       </c>
@@ -37743,7 +37680,7 @@
       </c>
       <c r="W670" s="20"/>
     </row>
-    <row r="671" hidden="1" spans="1:19">
+    <row r="671" spans="1:19">
       <c r="A671" s="20">
         <v>42705</v>
       </c>
@@ -37825,7 +37762,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="673" hidden="1" spans="1:23">
+    <row r="673" spans="1:23">
       <c r="A673" s="20">
         <v>42240</v>
       </c>
@@ -37879,7 +37816,7 @@
       <c r="V673" s="43"/>
       <c r="W673" s="20"/>
     </row>
-    <row r="674" hidden="1" spans="1:23">
+    <row r="674" spans="1:23">
       <c r="A674" s="20">
         <v>42096</v>
       </c>
@@ -37935,7 +37872,7 @@
       </c>
       <c r="W674" s="20"/>
     </row>
-    <row r="675" hidden="1" spans="1:22">
+    <row r="675" spans="1:22">
       <c r="A675" s="20">
         <v>41709</v>
       </c>
@@ -38019,7 +37956,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="677" hidden="1" spans="1:23">
+    <row r="677" spans="1:23">
       <c r="A677" s="20">
         <v>41709</v>
       </c>
@@ -38073,7 +38010,7 @@
       </c>
       <c r="W677" s="20"/>
     </row>
-    <row r="678" hidden="1" spans="1:23">
+    <row r="678" spans="1:23">
       <c r="A678" s="20">
         <v>42320</v>
       </c>
@@ -38127,7 +38064,7 @@
       <c r="V678" s="43"/>
       <c r="W678" s="20"/>
     </row>
-    <row r="679" hidden="1" spans="1:23">
+    <row r="679" spans="1:23">
       <c r="A679" s="20">
         <v>42240</v>
       </c>
@@ -38187,7 +38124,7 @@
       </c>
       <c r="W679" s="20"/>
     </row>
-    <row r="680" hidden="1" spans="1:23">
+    <row r="680" spans="1:23">
       <c r="A680" s="20">
         <v>41709</v>
       </c>
@@ -38243,7 +38180,7 @@
       </c>
       <c r="W680" s="20"/>
     </row>
-    <row r="681" hidden="1" spans="1:23">
+    <row r="681" spans="1:23">
       <c r="A681" s="20">
         <v>42487</v>
       </c>
@@ -38293,7 +38230,7 @@
       <c r="V681" s="43"/>
       <c r="W681" s="20"/>
     </row>
-    <row r="682" hidden="1" spans="1:21">
+    <row r="682" spans="1:21">
       <c r="A682" s="20">
         <v>42705</v>
       </c>
@@ -38341,7 +38278,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="683" hidden="1" spans="1:23">
+    <row r="683" spans="1:23">
       <c r="A683" s="20">
         <v>41709</v>
       </c>
@@ -38395,7 +38332,7 @@
       </c>
       <c r="W683" s="20"/>
     </row>
-    <row r="684" hidden="1" spans="1:23">
+    <row r="684" spans="1:23">
       <c r="A684" s="20">
         <v>41709</v>
       </c>
@@ -38451,7 +38388,7 @@
       </c>
       <c r="W684" s="20"/>
     </row>
-    <row r="685" hidden="1" spans="1:23">
+    <row r="685" spans="1:23">
       <c r="A685" s="20">
         <v>41709</v>
       </c>
@@ -38557,7 +38494,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="687" hidden="1" spans="1:22">
+    <row r="687" spans="1:22">
       <c r="A687" s="20">
         <v>42705</v>
       </c>
@@ -38608,7 +38545,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="688" hidden="1" spans="1:23">
+    <row r="688" spans="1:23">
       <c r="A688" s="20">
         <v>42240</v>
       </c>
@@ -38720,7 +38657,7 @@
       </c>
       <c r="W689" s="20"/>
     </row>
-    <row r="690" hidden="1" spans="1:23">
+    <row r="690" spans="1:23">
       <c r="A690" s="20">
         <v>42240</v>
       </c>
@@ -38772,7 +38709,7 @@
       <c r="V690" s="43"/>
       <c r="W690" s="20"/>
     </row>
-    <row r="691" hidden="1" spans="1:21">
+    <row r="691" spans="1:21">
       <c r="A691" s="20">
         <v>41709</v>
       </c>
@@ -38925,7 +38862,7 @@
       <c r="V693" s="43"/>
       <c r="W693" s="20"/>
     </row>
-    <row r="694" hidden="1" spans="1:23">
+    <row r="694" spans="1:23">
       <c r="A694" s="20">
         <v>41709</v>
       </c>
@@ -38981,7 +38918,7 @@
       </c>
       <c r="W694" s="20"/>
     </row>
-    <row r="695" hidden="1" spans="1:23">
+    <row r="695" spans="1:23">
       <c r="A695" s="20">
         <v>42487</v>
       </c>
@@ -39035,7 +38972,7 @@
       </c>
       <c r="W695" s="20"/>
     </row>
-    <row r="696" hidden="1" spans="1:23">
+    <row r="696" spans="1:23">
       <c r="A696" s="20">
         <v>42487</v>
       </c>
@@ -39135,7 +39072,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="698" hidden="1" spans="1:23">
+    <row r="698" spans="1:23">
       <c r="A698" s="20">
         <v>42240</v>
       </c>
@@ -39185,7 +39122,7 @@
       <c r="V698" s="43"/>
       <c r="W698" s="20"/>
     </row>
-    <row r="699" hidden="1" spans="1:23">
+    <row r="699" spans="1:23">
       <c r="A699" s="20">
         <v>42240</v>
       </c>
@@ -39235,7 +39172,7 @@
       <c r="V699" s="43"/>
       <c r="W699" s="20"/>
     </row>
-    <row r="700" hidden="1" spans="1:22">
+    <row r="700" spans="1:22">
       <c r="A700" s="20">
         <v>42705</v>
       </c>
@@ -39286,7 +39223,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="701" hidden="1" spans="1:23">
+    <row r="701" spans="1:23">
       <c r="A701" s="20">
         <v>42320</v>
       </c>
@@ -39338,7 +39275,7 @@
       <c r="V701" s="43"/>
       <c r="W701" s="20"/>
     </row>
-    <row r="702" hidden="1" spans="1:23">
+    <row r="702" spans="1:23">
       <c r="A702" s="20">
         <v>41709</v>
       </c>
@@ -39384,7 +39321,7 @@
       <c r="V702" s="43"/>
       <c r="W702" s="20"/>
     </row>
-    <row r="703" hidden="1" spans="1:21">
+    <row r="703" spans="1:21">
       <c r="A703" s="20">
         <v>42705</v>
       </c>
@@ -39426,7 +39363,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="704" hidden="1" spans="1:23">
+    <row r="704" spans="1:23">
       <c r="A704" s="20">
         <v>42320</v>
       </c>
@@ -39536,7 +39473,7 @@
       <c r="V705" s="43"/>
       <c r="W705" s="20"/>
     </row>
-    <row r="706" hidden="1" spans="1:23">
+    <row r="706" spans="1:23">
       <c r="A706" s="20">
         <v>42240</v>
       </c>
@@ -39594,7 +39531,7 @@
       </c>
       <c r="W706" s="20"/>
     </row>
-    <row r="707" hidden="1" spans="1:23">
+    <row r="707" spans="1:23">
       <c r="A707" s="20">
         <v>41709</v>
       </c>
@@ -39644,7 +39581,7 @@
       <c r="V707" s="43"/>
       <c r="W707" s="20"/>
     </row>
-    <row r="708" hidden="1" spans="1:23">
+    <row r="708" spans="1:23">
       <c r="A708" s="20">
         <v>41709</v>
       </c>
@@ -39698,7 +39635,7 @@
       </c>
       <c r="W708" s="20"/>
     </row>
-    <row r="709" hidden="1" spans="1:23">
+    <row r="709" spans="1:23">
       <c r="A709" s="20">
         <v>41709</v>
       </c>
@@ -39802,7 +39739,7 @@
       </c>
       <c r="W710" s="20"/>
     </row>
-    <row r="711" spans="1:23">
+    <row r="711" hidden="1" spans="1:23">
       <c r="A711" s="20">
         <v>41709</v>
       </c>
@@ -39858,7 +39795,7 @@
       <c r="V711" s="20"/>
       <c r="W711" s="20"/>
     </row>
-    <row r="712" spans="1:22">
+    <row r="712" hidden="1" spans="1:22">
       <c r="A712" s="20">
         <v>42705</v>
       </c>
@@ -39904,7 +39841,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="713" spans="1:21">
+    <row r="713" hidden="1" spans="1:21">
       <c r="A713" s="20">
         <v>42705</v>
       </c>
@@ -39942,7 +39879,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="714" spans="1:23">
+    <row r="714" hidden="1" spans="1:23">
       <c r="A714" s="20">
         <v>41709</v>
       </c>
@@ -39990,7 +39927,7 @@
       </c>
       <c r="W714" s="20"/>
     </row>
-    <row r="715" spans="1:23">
+    <row r="715" hidden="1" spans="1:23">
       <c r="A715" s="20">
         <v>41709</v>
       </c>
@@ -40042,7 +39979,7 @@
       <c r="V715" s="20"/>
       <c r="W715" s="20"/>
     </row>
-    <row r="716" spans="1:23">
+    <row r="716" hidden="1" spans="1:23">
       <c r="A716" s="20">
         <v>41709</v>
       </c>
@@ -40498,9 +40435,7 @@
         <v>81</v>
       </c>
       <c r="T724" s="21"/>
-      <c r="U724" s="32" t="s">
-        <v>81</v>
-      </c>
+      <c r="U724" s="21"/>
       <c r="V724" s="21" t="s">
         <v>841</v>
       </c>
@@ -40541,18 +40476,14 @@
         <v>25</v>
       </c>
       <c r="Q725" s="26"/>
-      <c r="R725" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="R725" s="21"/>
       <c r="S725" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="T725" s="19" t="s">
+      <c r="T725" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="U725" s="31" t="s">
-        <v>25</v>
-      </c>
+      <c r="U725" s="21"/>
       <c r="V725" s="21"/>
       <c r="W725" s="20"/>
     </row>
@@ -40605,10 +40536,10 @@
       <c r="S726" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="T726" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="U726" s="19" t="s">
+      <c r="T726" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="U726" s="31" t="s">
         <v>81</v>
       </c>
       <c r="V726" s="21" t="s">
@@ -40736,13 +40667,13 @@
       <c r="Q729" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="R729" s="25"/>
+      <c r="R729" s="19" t="s">
+        <v>184</v>
+      </c>
       <c r="T729" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="U729" s="19" t="s">
-        <v>184</v>
-      </c>
+      <c r="U729" s="21"/>
     </row>
     <row r="730" hidden="1" spans="1:23">
       <c r="A730" s="20">
@@ -41413,7 +41344,6 @@
       <c r="Q742" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="R742" s="25"/>
       <c r="T742" s="21"/>
       <c r="U742" s="32" t="s">
         <v>52</v>
@@ -41909,7 +41839,6 @@
       <c r="Q752" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="R752" s="25"/>
       <c r="T752" s="19" t="s">
         <v>304</v>
       </c>
@@ -42012,7 +41941,6 @@
       <c r="Q754" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="R754" s="25"/>
       <c r="T754" s="18" t="s">
         <v>117</v>
       </c>
@@ -42113,7 +42041,6 @@
       <c r="Q756" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="R756" s="25"/>
       <c r="T756" s="18" t="s">
         <v>52</v>
       </c>
@@ -43330,7 +43257,7 @@
       </c>
       <c r="W780" s="20"/>
     </row>
-    <row r="781" hidden="1" spans="1:23">
+    <row r="781" spans="1:23">
       <c r="A781" s="20">
         <v>42320</v>
       </c>
@@ -43382,7 +43309,7 @@
       <c r="V781" s="43"/>
       <c r="W781" s="20"/>
     </row>
-    <row r="782" hidden="1" spans="1:23">
+    <row r="782" spans="1:23">
       <c r="A782" s="20">
         <v>41709</v>
       </c>
@@ -43432,7 +43359,7 @@
       <c r="V782" s="43"/>
       <c r="W782" s="20"/>
     </row>
-    <row r="783" hidden="1" spans="1:23">
+    <row r="783" spans="1:23">
       <c r="A783" s="20">
         <v>41709</v>
       </c>
@@ -43482,7 +43409,7 @@
       <c r="V783" s="43"/>
       <c r="W783" s="20"/>
     </row>
-    <row r="784" hidden="1" spans="1:21">
+    <row r="784" spans="1:21">
       <c r="A784" s="20">
         <v>42705</v>
       </c>
@@ -43527,7 +43454,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="785" hidden="1" spans="1:23">
+    <row r="785" spans="1:23">
       <c r="A785" s="20">
         <v>41709</v>
       </c>
@@ -43631,7 +43558,7 @@
       </c>
       <c r="W786" s="20"/>
     </row>
-    <row r="787" hidden="1" spans="1:23">
+    <row r="787" spans="1:23">
       <c r="A787" s="20">
         <v>41709</v>
       </c>
@@ -43679,7 +43606,7 @@
       <c r="V787" s="43"/>
       <c r="W787" s="20"/>
     </row>
-    <row r="788" hidden="1" spans="1:23">
+    <row r="788" spans="1:23">
       <c r="A788" s="20">
         <v>41709</v>
       </c>
@@ -43735,7 +43662,7 @@
       </c>
       <c r="W788" s="20"/>
     </row>
-    <row r="789" hidden="1" spans="1:21">
+    <row r="789" spans="1:21">
       <c r="A789" s="20">
         <v>42705</v>
       </c>
@@ -43780,7 +43707,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="790" hidden="1" spans="1:23">
+    <row r="790" spans="1:23">
       <c r="A790" s="20">
         <v>42240</v>
       </c>
@@ -43838,7 +43765,7 @@
       </c>
       <c r="W790" s="20"/>
     </row>
-    <row r="791" hidden="1" spans="1:22">
+    <row r="791" spans="1:22">
       <c r="A791" s="20">
         <v>42705</v>
       </c>
@@ -43873,7 +43800,6 @@
       <c r="Q791" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="R791" s="25"/>
       <c r="T791" s="37" t="s">
         <v>103</v>
       </c>
@@ -43934,7 +43860,7 @@
       <c r="V792" s="43"/>
       <c r="W792" s="20"/>
     </row>
-    <row r="793" hidden="1" spans="1:23">
+    <row r="793" spans="1:23">
       <c r="A793" s="20">
         <v>41709</v>
       </c>
@@ -44038,7 +43964,7 @@
       <c r="V794" s="43"/>
       <c r="W794" s="20"/>
     </row>
-    <row r="795" hidden="1" spans="1:23">
+    <row r="795" spans="1:23">
       <c r="A795" s="20">
         <v>42487</v>
       </c>
@@ -44094,7 +44020,7 @@
       </c>
       <c r="W795" s="20"/>
     </row>
-    <row r="796" hidden="1" spans="1:23">
+    <row r="796" spans="1:23">
       <c r="A796" s="20">
         <v>42487</v>
       </c>
@@ -44152,7 +44078,7 @@
       </c>
       <c r="W796" s="20"/>
     </row>
-    <row r="797" hidden="1" spans="1:23">
+    <row r="797" spans="1:23">
       <c r="A797" s="20">
         <v>42240</v>
       </c>
@@ -44198,7 +44124,7 @@
       <c r="V797" s="43"/>
       <c r="W797" s="20"/>
     </row>
-    <row r="798" hidden="1" spans="1:21">
+    <row r="798" spans="1:21">
       <c r="A798" s="20">
         <v>42705</v>
       </c>
@@ -44243,7 +44169,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="799" hidden="1" spans="1:23">
+    <row r="799" spans="1:23">
       <c r="A799" s="20">
         <v>41709</v>
       </c>
@@ -44347,7 +44273,7 @@
       <c r="V800" s="43"/>
       <c r="W800" s="20"/>
     </row>
-    <row r="801" hidden="1" spans="1:23">
+    <row r="801" spans="1:23">
       <c r="A801" s="20">
         <v>41709</v>
       </c>
@@ -44453,7 +44379,7 @@
       <c r="V802" s="43"/>
       <c r="W802" s="20"/>
     </row>
-    <row r="803" hidden="1" spans="1:23">
+    <row r="803" spans="1:23">
       <c r="A803" s="20">
         <v>42487</v>
       </c>
@@ -44503,7 +44429,7 @@
       </c>
       <c r="W803" s="20"/>
     </row>
-    <row r="804" hidden="1" spans="1:23">
+    <row r="804" spans="1:23">
       <c r="A804" s="20">
         <v>42096</v>
       </c>
@@ -44613,7 +44539,7 @@
       </c>
       <c r="W805" s="20"/>
     </row>
-    <row r="806" hidden="1" spans="1:23">
+    <row r="806" spans="1:23">
       <c r="A806" s="20">
         <v>41709</v>
       </c>
@@ -44665,7 +44591,7 @@
       </c>
       <c r="W806" s="20"/>
     </row>
-    <row r="807" hidden="1" spans="1:22">
+    <row r="807" spans="1:22">
       <c r="A807" s="20">
         <v>42320</v>
       </c>
@@ -44708,7 +44634,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="808" hidden="1" spans="1:21">
+    <row r="808" spans="1:21">
       <c r="A808" s="20">
         <v>42705</v>
       </c>
@@ -44753,7 +44679,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="809" hidden="1" spans="1:23">
+    <row r="809" spans="1:23">
       <c r="A809" s="20">
         <v>41709</v>
       </c>
@@ -44842,7 +44768,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="811" hidden="1" spans="1:23">
+    <row r="811" spans="1:23">
       <c r="A811" s="20">
         <v>42240</v>
       </c>
@@ -44894,7 +44820,7 @@
       <c r="V811" s="43"/>
       <c r="W811" s="20"/>
     </row>
-    <row r="812" hidden="1" spans="1:23">
+    <row r="812" spans="1:23">
       <c r="A812" s="20">
         <v>42096</v>
       </c>
@@ -44944,7 +44870,7 @@
       </c>
       <c r="W812" s="20"/>
     </row>
-    <row r="813" hidden="1" spans="1:23">
+    <row r="813" spans="1:23">
       <c r="A813" s="20">
         <v>41709</v>
       </c>
@@ -45056,7 +44982,7 @@
       </c>
       <c r="W814" s="20"/>
     </row>
-    <row r="815" hidden="1" spans="1:21">
+    <row r="815" spans="1:21">
       <c r="A815" s="20">
         <v>41709</v>
       </c>
@@ -45197,7 +45123,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="818" hidden="1" spans="1:23">
+    <row r="818" spans="1:23">
       <c r="A818" s="20">
         <v>41709</v>
       </c>
@@ -45247,7 +45173,7 @@
       </c>
       <c r="W818" s="20"/>
     </row>
-    <row r="819" hidden="1" spans="1:23">
+    <row r="819" spans="1:23">
       <c r="A819" s="20">
         <v>42593</v>
       </c>
@@ -45299,7 +45225,7 @@
       <c r="V819" s="43"/>
       <c r="W819" s="20"/>
     </row>
-    <row r="820" hidden="1" spans="1:22">
+    <row r="820" spans="1:22">
       <c r="A820" s="20">
         <v>42705</v>
       </c>
@@ -45453,7 +45379,7 @@
       </c>
       <c r="W822" s="20"/>
     </row>
-    <row r="823" hidden="1" spans="1:21">
+    <row r="823" spans="1:21">
       <c r="A823" s="20">
         <v>42487</v>
       </c>
@@ -45495,7 +45421,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="824" hidden="1" spans="1:23">
+    <row r="824" spans="1:23">
       <c r="A824" s="20">
         <v>42240</v>
       </c>
@@ -45553,7 +45479,7 @@
       </c>
       <c r="W824" s="20"/>
     </row>
-    <row r="825" hidden="1" spans="1:22">
+    <row r="825" spans="1:22">
       <c r="A825" s="20">
         <v>42320</v>
       </c>
@@ -45598,7 +45524,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="826" hidden="1" spans="1:21">
+    <row r="826" spans="1:21">
       <c r="A826" s="20">
         <v>42487</v>
       </c>
@@ -45647,7 +45573,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="827" hidden="1" spans="1:23">
+    <row r="827" spans="1:23">
       <c r="A827" s="20">
         <v>42593</v>
       </c>
@@ -45757,7 +45683,7 @@
       </c>
       <c r="W828" s="20"/>
     </row>
-    <row r="829" hidden="1" spans="1:23">
+    <row r="829" spans="1:23">
       <c r="A829" s="20">
         <v>41709</v>
       </c>
@@ -45865,7 +45791,7 @@
       </c>
       <c r="W830" s="20"/>
     </row>
-    <row r="831" hidden="1" spans="1:23">
+    <row r="831" spans="1:23">
       <c r="A831" s="20">
         <v>41709</v>
       </c>
@@ -45913,13 +45839,13 @@
       <c r="T831" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="U831" s="32" t="s">
+      <c r="U831" s="29" t="s">
         <v>81</v>
       </c>
       <c r="V831" s="43"/>
       <c r="W831" s="20"/>
     </row>
-    <row r="832" hidden="1" spans="1:23">
+    <row r="832" spans="1:23">
       <c r="A832" s="20">
         <v>41709</v>
       </c>
@@ -45975,7 +45901,7 @@
       </c>
       <c r="W832" s="20"/>
     </row>
-    <row r="833" hidden="1" spans="1:22">
+    <row r="833" spans="1:22">
       <c r="A833" s="20">
         <v>42320</v>
       </c>
@@ -46020,7 +45946,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="834" ht="16" hidden="1" customHeight="1" spans="1:22">
+    <row r="834" ht="16" customHeight="1" spans="1:22">
       <c r="A834" s="20">
         <v>42487</v>
       </c>
@@ -46064,7 +45990,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="835" hidden="1" spans="1:21">
+    <row r="835" spans="1:21">
       <c r="A835" s="20">
         <v>42705</v>
       </c>
@@ -46106,7 +46032,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="836" hidden="1" spans="1:23">
+    <row r="836" spans="1:23">
       <c r="A836" s="20">
         <v>42240</v>
       </c>
@@ -46160,7 +46086,7 @@
       <c r="V836" s="43"/>
       <c r="W836" s="20"/>
     </row>
-    <row r="837" hidden="1" spans="1:21">
+    <row r="837" spans="1:21">
       <c r="A837" s="20">
         <v>42705</v>
       </c>
@@ -46202,7 +46128,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="838" hidden="1" spans="1:22">
+    <row r="838" spans="1:22">
       <c r="A838" s="20">
         <v>42705</v>
       </c>
@@ -46256,7 +46182,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="839" hidden="1" spans="1:21">
+    <row r="839" spans="1:21">
       <c r="A839" s="20">
         <v>41709</v>
       </c>
@@ -46343,7 +46269,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="841" hidden="1" spans="1:21">
+    <row r="841" spans="1:21">
       <c r="A841" s="20">
         <v>42705</v>
       </c>
@@ -46391,7 +46317,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="842" hidden="1" spans="1:23">
+    <row r="842" spans="1:23">
       <c r="A842" s="20">
         <v>41709</v>
       </c>
@@ -46443,7 +46369,7 @@
       <c r="V842" s="43"/>
       <c r="W842" s="20"/>
     </row>
-    <row r="843" hidden="1" spans="1:23">
+    <row r="843" spans="1:23">
       <c r="A843" s="20">
         <v>42593</v>
       </c>
@@ -46495,7 +46421,7 @@
       </c>
       <c r="W843" s="20"/>
     </row>
-    <row r="844" hidden="1" spans="1:23">
+    <row r="844" spans="1:23">
       <c r="A844" s="20">
         <v>41709</v>
       </c>
@@ -46547,7 +46473,7 @@
       <c r="V844" s="43"/>
       <c r="W844" s="20"/>
     </row>
-    <row r="845" hidden="1" spans="1:23">
+    <row r="845" spans="1:23">
       <c r="A845" s="20">
         <v>42240</v>
       </c>
@@ -46645,7 +46571,7 @@
       <c r="V846" s="21"/>
       <c r="W846" s="20"/>
     </row>
-    <row r="847" spans="1:22">
+    <row r="847" hidden="1" spans="1:22">
       <c r="A847" s="20">
         <v>42487</v>
       </c>
@@ -46792,7 +46718,7 @@
       </c>
       <c r="V849" s="21"/>
     </row>
-    <row r="850" spans="1:22">
+    <row r="850" hidden="1" spans="1:22">
       <c r="A850" s="20">
         <v>42705</v>
       </c>
@@ -46844,7 +46770,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="851" spans="1:22">
+    <row r="851" hidden="1" spans="1:22">
       <c r="A851" s="20">
         <v>41709</v>
       </c>
@@ -46885,7 +46811,7 @@
       </c>
       <c r="V851" s="21"/>
     </row>
-    <row r="852" spans="1:22">
+    <row r="852" hidden="1" spans="1:22">
       <c r="A852" s="20">
         <v>42593</v>
       </c>
@@ -46912,7 +46838,6 @@
       <c r="Q852" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="R852" s="25"/>
       <c r="S852" s="32" t="s">
         <v>40</v>
       </c>
@@ -46926,7 +46851,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="853" spans="1:22">
+    <row r="853" hidden="1" spans="1:22">
       <c r="A853" s="20">
         <v>42593</v>
       </c>
@@ -47849,7 +47774,6 @@
       <c r="Q872" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="R872" s="25"/>
       <c r="T872" s="19" t="s">
         <v>81</v>
       </c>
@@ -48467,7 +48391,6 @@
       <c r="Q885" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="R885" s="25"/>
       <c r="T885" s="17" t="s">
         <v>85</v>
       </c>
@@ -48669,7 +48592,7 @@
       <c r="V889" s="43"/>
       <c r="W889" s="20"/>
     </row>
-    <row r="890" hidden="1" spans="1:23">
+    <row r="890" spans="1:23">
       <c r="A890" s="20">
         <v>41709</v>
       </c>
@@ -48717,7 +48640,7 @@
       <c r="V890" s="43"/>
       <c r="W890" s="20"/>
     </row>
-    <row r="891" hidden="1" spans="1:22">
+    <row r="891" spans="1:22">
       <c r="A891" s="20">
         <v>42705</v>
       </c>
@@ -48771,7 +48694,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="892" hidden="1" spans="1:23">
+    <row r="892" spans="1:23">
       <c r="A892" s="20">
         <v>41709</v>
       </c>
@@ -48827,7 +48750,7 @@
       <c r="V892" s="43"/>
       <c r="W892" s="20"/>
     </row>
-    <row r="893" hidden="1" spans="1:23">
+    <row r="893" spans="1:23">
       <c r="A893" s="20">
         <v>41709</v>
       </c>
@@ -48883,7 +48806,7 @@
       </c>
       <c r="W893" s="20"/>
     </row>
-    <row r="894" hidden="1" spans="1:23">
+    <row r="894" spans="1:23">
       <c r="A894" s="20">
         <v>42240</v>
       </c>
@@ -48925,7 +48848,7 @@
       <c r="V894" s="43"/>
       <c r="W894" s="20"/>
     </row>
-    <row r="895" hidden="1" spans="1:23">
+    <row r="895" spans="1:23">
       <c r="A895" s="20">
         <v>42240</v>
       </c>
@@ -48975,7 +48898,7 @@
       <c r="V895" s="43"/>
       <c r="W895" s="20"/>
     </row>
-    <row r="896" hidden="1" spans="1:23">
+    <row r="896" spans="1:23">
       <c r="A896" s="20">
         <v>41709</v>
       </c>
@@ -49029,7 +48952,7 @@
       <c r="V896" s="43"/>
       <c r="W896" s="20"/>
     </row>
-    <row r="897" hidden="1" spans="1:23">
+    <row r="897" spans="1:23">
       <c r="A897" s="20">
         <v>42240</v>
       </c>
@@ -49087,7 +49010,7 @@
       </c>
       <c r="W897" s="20"/>
     </row>
-    <row r="898" hidden="1" spans="1:22">
+    <row r="898" spans="1:22">
       <c r="A898" s="20">
         <v>42705</v>
       </c>
@@ -49141,7 +49064,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="899" hidden="1" spans="1:21">
+    <row r="899" spans="1:21">
       <c r="A899" s="20">
         <v>42705</v>
       </c>
@@ -49177,7 +49100,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="900" ht="18" hidden="1" customHeight="1" spans="1:20">
+    <row r="900" ht="18" customHeight="1" spans="1:20">
       <c r="A900" s="20">
         <v>42705</v>
       </c>
@@ -49219,7 +49142,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="901" hidden="1" spans="1:23">
+    <row r="901" spans="1:23">
       <c r="A901" s="20">
         <v>41709</v>
       </c>
@@ -49265,7 +49188,7 @@
       <c r="V901" s="43"/>
       <c r="W901" s="20"/>
     </row>
-    <row r="902" hidden="1" spans="1:23">
+    <row r="902" spans="1:23">
       <c r="A902" s="20">
         <v>42487</v>
       </c>
@@ -49365,7 +49288,7 @@
       <c r="V903" s="43"/>
       <c r="W903" s="20"/>
     </row>
-    <row r="904" hidden="1" spans="1:22">
+    <row r="904" spans="1:22">
       <c r="A904" s="20">
         <v>42593</v>
       </c>
@@ -49416,7 +49339,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="905" hidden="1" spans="1:22">
+    <row r="905" spans="1:22">
       <c r="A905" s="20">
         <v>42705</v>
       </c>
@@ -49464,7 +49387,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="906" hidden="1" spans="1:23">
+    <row r="906" spans="1:23">
       <c r="A906" s="20">
         <v>41709</v>
       </c>
@@ -49520,7 +49443,7 @@
       <c r="V906" s="43"/>
       <c r="W906" s="20"/>
     </row>
-    <row r="907" hidden="1" spans="1:23">
+    <row r="907" spans="1:23">
       <c r="A907" s="20">
         <v>42096</v>
       </c>
@@ -49570,7 +49493,7 @@
       <c r="V907" s="43"/>
       <c r="W907" s="20"/>
     </row>
-    <row r="908" hidden="1" spans="1:23">
+    <row r="908" spans="1:23">
       <c r="A908" s="20">
         <v>41709</v>
       </c>
@@ -49624,7 +49547,7 @@
       <c r="V908" s="43"/>
       <c r="W908" s="20"/>
     </row>
-    <row r="909" hidden="1" spans="1:23">
+    <row r="909" spans="1:23">
       <c r="A909" s="20">
         <v>41709</v>
       </c>
@@ -49724,7 +49647,7 @@
       </c>
       <c r="W910" s="20"/>
     </row>
-    <row r="911" hidden="1" spans="1:23">
+    <row r="911" spans="1:23">
       <c r="A911" s="20">
         <v>41709</v>
       </c>
@@ -49772,7 +49695,7 @@
       <c r="V911" s="43"/>
       <c r="W911" s="20"/>
     </row>
-    <row r="912" hidden="1" spans="1:21">
+    <row r="912" spans="1:21">
       <c r="A912" s="20">
         <v>42705</v>
       </c>
@@ -49804,7 +49727,6 @@
       <c r="Q912" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="R912" s="25"/>
       <c r="T912" s="37" t="s">
         <v>81</v>
       </c>
@@ -49812,7 +49734,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="913" hidden="1" spans="1:23">
+    <row r="913" spans="1:23">
       <c r="A913" s="20">
         <v>41709</v>
       </c>
@@ -49860,7 +49782,7 @@
       <c r="V913" s="43"/>
       <c r="W913" s="20"/>
     </row>
-    <row r="914" hidden="1" spans="1:23">
+    <row r="914" spans="1:23">
       <c r="A914" s="20">
         <v>42240</v>
       </c>
@@ -49908,7 +49830,7 @@
       <c r="V914" s="43"/>
       <c r="W914" s="20"/>
     </row>
-    <row r="915" hidden="1" spans="1:23">
+    <row r="915" spans="1:23">
       <c r="A915" s="20">
         <v>42240</v>
       </c>
@@ -49962,7 +49884,7 @@
       </c>
       <c r="W915" s="20"/>
     </row>
-    <row r="916" hidden="1" spans="1:21">
+    <row r="916" spans="1:21">
       <c r="A916" s="20">
         <v>42705</v>
       </c>
@@ -50010,7 +49932,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="917" hidden="1" spans="1:23">
+    <row r="917" spans="1:23">
       <c r="A917" s="20">
         <v>42320</v>
       </c>
@@ -50066,7 +49988,7 @@
       </c>
       <c r="W917" s="20"/>
     </row>
-    <row r="918" hidden="1" spans="1:23">
+    <row r="918" spans="1:23">
       <c r="A918" s="20">
         <v>41709</v>
       </c>
@@ -50118,7 +50040,7 @@
       <c r="V918" s="43"/>
       <c r="W918" s="20"/>
     </row>
-    <row r="919" hidden="1" spans="1:23">
+    <row r="919" spans="1:23">
       <c r="A919" s="20">
         <v>42096</v>
       </c>
@@ -50176,7 +50098,7 @@
       </c>
       <c r="W919" s="20"/>
     </row>
-    <row r="920" hidden="1" spans="1:23">
+    <row r="920" spans="1:23">
       <c r="A920" s="20">
         <v>41709</v>
       </c>
@@ -50280,7 +50202,7 @@
       <c r="V921" s="43"/>
       <c r="W921" s="20"/>
     </row>
-    <row r="922" hidden="1" spans="1:23">
+    <row r="922" spans="1:23">
       <c r="A922" s="20">
         <v>42487</v>
       </c>
@@ -50322,17 +50244,19 @@
       <c r="R922" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="S922" s="33" t="s">
+      <c r="S922" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="T922" s="21"/>
+      <c r="T922" s="33" t="s">
+        <v>225</v>
+      </c>
       <c r="U922" s="32" t="s">
         <v>225</v>
       </c>
       <c r="V922" s="43"/>
       <c r="W922" s="20"/>
     </row>
-    <row r="923" hidden="1" spans="1:23">
+    <row r="923" spans="1:23">
       <c r="A923" s="20">
         <v>42240</v>
       </c>
@@ -50374,7 +50298,7 @@
       <c r="V923" s="43"/>
       <c r="W923" s="20"/>
     </row>
-    <row r="924" hidden="1" spans="1:23">
+    <row r="924" spans="1:23">
       <c r="A924" s="20">
         <v>42487</v>
       </c>
@@ -50424,7 +50348,7 @@
       <c r="V924" s="43"/>
       <c r="W924" s="20"/>
     </row>
-    <row r="925" hidden="1" spans="1:23">
+    <row r="925" spans="1:23">
       <c r="A925" s="20">
         <v>42487</v>
       </c>
@@ -50474,7 +50398,7 @@
       </c>
       <c r="W925" s="20"/>
     </row>
-    <row r="926" hidden="1" spans="1:23">
+    <row r="926" spans="1:23">
       <c r="A926" s="20">
         <v>42240</v>
       </c>
@@ -50512,7 +50436,9 @@
         <v>81</v>
       </c>
       <c r="R926" s="21"/>
-      <c r="S926" s="21"/>
+      <c r="S926" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="T926" s="21"/>
       <c r="U926" s="33" t="s">
         <v>81</v>
@@ -50520,7 +50446,7 @@
       <c r="V926" s="43"/>
       <c r="W926" s="20"/>
     </row>
-    <row r="927" hidden="1" spans="1:23">
+    <row r="927" spans="1:23">
       <c r="A927" s="20">
         <v>41709</v>
       </c>
@@ -50616,7 +50542,7 @@
       <c r="V928" s="43"/>
       <c r="W928" s="20"/>
     </row>
-    <row r="929" hidden="1" spans="1:22">
+    <row r="929" spans="1:22">
       <c r="A929" s="20">
         <v>42593</v>
       </c>
@@ -50667,7 +50593,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="930" hidden="1" spans="1:23">
+    <row r="930" spans="1:23">
       <c r="A930" s="20">
         <v>42487</v>
       </c>
@@ -50723,7 +50649,7 @@
       </c>
       <c r="W930" s="20"/>
     </row>
-    <row r="931" hidden="1" spans="1:23">
+    <row r="931" spans="1:23">
       <c r="A931" s="20">
         <v>42096</v>
       </c>
@@ -50760,9 +50686,7 @@
       <c r="Q931" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="R931" s="32" t="s">
-        <v>225</v>
-      </c>
+      <c r="R931" s="21"/>
       <c r="S931" s="32" t="s">
         <v>225</v>
       </c>
@@ -50835,7 +50759,7 @@
       <c r="V932" s="43"/>
       <c r="W932" s="20"/>
     </row>
-    <row r="933" hidden="1" spans="1:23">
+    <row r="933" spans="1:23">
       <c r="A933" s="20">
         <v>41709</v>
       </c>
@@ -50891,7 +50815,7 @@
       </c>
       <c r="W933" s="20"/>
     </row>
-    <row r="934" hidden="1" spans="1:23">
+    <row r="934" spans="1:23">
       <c r="A934" s="20">
         <v>42320</v>
       </c>
@@ -50941,7 +50865,7 @@
       <c r="V934" s="43"/>
       <c r="W934" s="20"/>
     </row>
-    <row r="935" hidden="1" spans="1:22">
+    <row r="935" spans="1:22">
       <c r="A935" s="20">
         <v>42705</v>
       </c>
@@ -50992,7 +50916,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="936" hidden="1" spans="1:23">
+    <row r="936" spans="1:23">
       <c r="A936" s="20">
         <v>41709</v>
       </c>
@@ -51044,7 +50968,7 @@
       <c r="V936" s="43"/>
       <c r="W936" s="20"/>
     </row>
-    <row r="937" hidden="1" spans="1:23">
+    <row r="937" spans="1:23">
       <c r="A937" s="20">
         <v>41709</v>
       </c>
@@ -51091,14 +51015,16 @@
       <c r="S937" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="T937" s="21"/>
-      <c r="U937" s="32" t="s">
-        <v>196</v>
+      <c r="T937" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="U937" s="40" t="s">
+        <v>230</v>
       </c>
       <c r="V937" s="43"/>
       <c r="W937" s="20"/>
     </row>
-    <row r="938" hidden="1" spans="1:21">
+    <row r="938" spans="1:21">
       <c r="A938" s="20">
         <v>42705</v>
       </c>
@@ -51140,7 +51066,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="939" hidden="1" spans="1:23">
+    <row r="939" spans="1:23">
       <c r="A939" s="20">
         <v>42240</v>
       </c>
@@ -51244,7 +51170,7 @@
       <c r="V940" s="43"/>
       <c r="W940" s="20"/>
     </row>
-    <row r="941" hidden="1" spans="1:23">
+    <row r="941" spans="1:23">
       <c r="A941" s="20">
         <v>42487</v>
       </c>
@@ -51298,7 +51224,7 @@
       </c>
       <c r="W941" s="20"/>
     </row>
-    <row r="942" spans="1:23">
+    <row r="942" hidden="1" spans="1:23">
       <c r="A942" s="20">
         <v>42240</v>
       </c>
@@ -51383,7 +51309,6 @@
         <v>85</v>
       </c>
       <c r="Q943" s="26"/>
-      <c r="R943" s="25"/>
       <c r="S943" s="31" t="s">
         <v>85</v>
       </c>
@@ -51393,7 +51318,7 @@
       </c>
       <c r="V943" s="21"/>
     </row>
-    <row r="944" spans="1:22">
+    <row r="944" hidden="1" spans="1:22">
       <c r="A944" s="20">
         <v>42487</v>
       </c>
@@ -51425,7 +51350,7 @@
       </c>
       <c r="V944" s="21"/>
     </row>
-    <row r="945" spans="1:23">
+    <row r="945" hidden="1" spans="1:23">
       <c r="A945" s="20">
         <v>41709</v>
       </c>
@@ -51466,7 +51391,6 @@
       <c r="Q945" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="R945" s="25"/>
       <c r="S945" s="19" t="s">
         <v>71</v>
       </c>
@@ -51479,7 +51403,7 @@
       <c r="V945" s="20"/>
       <c r="W945" s="20"/>
     </row>
-    <row r="946" spans="1:23">
+    <row r="946" hidden="1" spans="1:23">
       <c r="A946" s="20">
         <v>41709</v>
       </c>
@@ -51516,7 +51440,6 @@
       <c r="Q946" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="R946" s="25"/>
       <c r="S946" s="29" t="s">
         <v>78</v>
       </c>
@@ -52201,7 +52124,6 @@
       <c r="Q961" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="R961" s="25"/>
       <c r="T961" s="39"/>
       <c r="U961" s="29" t="s">
         <v>52</v>
@@ -52747,7 +52669,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="973" hidden="1" spans="1:23">
+    <row r="973" spans="1:23">
       <c r="A973" s="20">
         <v>42487</v>
       </c>
@@ -52803,7 +52725,7 @@
       </c>
       <c r="W973" s="20"/>
     </row>
-    <row r="974" hidden="1" spans="1:23">
+    <row r="974" spans="1:23">
       <c r="A974" s="20">
         <v>41709</v>
       </c>
@@ -52857,7 +52779,7 @@
       </c>
       <c r="W974" s="20"/>
     </row>
-    <row r="975" hidden="1" spans="1:23">
+    <row r="975" spans="1:23">
       <c r="A975" s="20">
         <v>42240</v>
       </c>
@@ -52965,7 +52887,7 @@
       <c r="V976" s="43"/>
       <c r="W976" s="20"/>
     </row>
-    <row r="977" hidden="1" spans="1:23">
+    <row r="977" spans="1:23">
       <c r="A977" s="20">
         <v>42487</v>
       </c>
@@ -53019,7 +52941,7 @@
       <c r="V977" s="43"/>
       <c r="W977" s="20"/>
     </row>
-    <row r="978" hidden="1" spans="1:23">
+    <row r="978" spans="1:23">
       <c r="A978" s="20">
         <v>42240</v>
       </c>
@@ -53071,7 +52993,7 @@
       <c r="V978" s="43"/>
       <c r="W978" s="20"/>
     </row>
-    <row r="979" hidden="1" spans="1:23">
+    <row r="979" spans="1:23">
       <c r="A979" s="20">
         <v>42593</v>
       </c>
@@ -53129,7 +53051,7 @@
       <c r="V979" s="43"/>
       <c r="W979" s="20"/>
     </row>
-    <row r="980" hidden="1" spans="1:23">
+    <row r="980" spans="1:23">
       <c r="A980" s="20">
         <v>42487</v>
       </c>
@@ -53175,7 +53097,7 @@
       <c r="V980" s="43"/>
       <c r="W980" s="20"/>
     </row>
-    <row r="981" hidden="1" spans="1:23">
+    <row r="981" spans="1:23">
       <c r="A981" s="20">
         <v>41709</v>
       </c>
@@ -53223,7 +53145,7 @@
       <c r="V981" s="43"/>
       <c r="W981" s="20"/>
     </row>
-    <row r="982" hidden="1" spans="1:23">
+    <row r="982" spans="1:23">
       <c r="A982" s="20">
         <v>41709</v>
       </c>
@@ -53269,7 +53191,7 @@
       <c r="V982" s="43"/>
       <c r="W982" s="20"/>
     </row>
-    <row r="983" hidden="1" spans="1:23">
+    <row r="983" spans="1:23">
       <c r="A983" s="20">
         <v>42096</v>
       </c>
@@ -53379,7 +53301,7 @@
       <c r="V984" s="43"/>
       <c r="W984" s="20"/>
     </row>
-    <row r="985" hidden="1" spans="1:23">
+    <row r="985" spans="1:23">
       <c r="A985" s="20">
         <v>41709</v>
       </c>
@@ -53427,7 +53349,7 @@
       <c r="V985" s="43"/>
       <c r="W985" s="20"/>
     </row>
-    <row r="986" hidden="1" spans="1:21">
+    <row r="986" spans="1:21">
       <c r="A986" s="20">
         <v>42705</v>
       </c>
@@ -53459,7 +53381,6 @@
       <c r="Q986" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="R986" s="25"/>
       <c r="T986" s="37" t="s">
         <v>81</v>
       </c>
@@ -53467,7 +53388,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="987" hidden="1" spans="1:23">
+    <row r="987" spans="1:23">
       <c r="A987" s="20">
         <v>42240</v>
       </c>
@@ -53519,7 +53440,7 @@
       </c>
       <c r="W987" s="20"/>
     </row>
-    <row r="988" hidden="1" spans="1:22">
+    <row r="988" spans="1:22">
       <c r="A988" s="20">
         <v>42487</v>
       </c>
@@ -53570,7 +53491,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="989" hidden="1" spans="1:21">
+    <row r="989" spans="1:21">
       <c r="A989" s="20">
         <v>41709</v>
       </c>
@@ -53604,7 +53525,7 @@
       <c r="T989" s="21"/>
       <c r="U989" s="26"/>
     </row>
-    <row r="990" spans="1:22">
+    <row r="990" hidden="1" spans="1:22">
       <c r="A990" s="20">
         <v>41709</v>
       </c>
@@ -53634,8 +53555,6 @@
         <v>85</v>
       </c>
       <c r="Q990" s="26"/>
-      <c r="R990" s="25"/>
-      <c r="S990" s="25"/>
       <c r="T990" s="31" t="s">
         <v>71</v>
       </c>
@@ -54041,23 +53960,19 @@
       <c r="Q999" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="R999" s="33" t="s">
+      <c r="R999" s="31" t="s">
         <v>230</v>
       </c>
       <c r="S999" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="T999" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="U999" s="32" t="s">
-        <v>230</v>
-      </c>
+      <c r="T999" s="38"/>
+      <c r="U999" s="38"/>
       <c r="V999" s="26" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="1000" hidden="1" spans="1:21">
+    <row r="1000" spans="1:21">
       <c r="A1000" s="20">
         <v>42487</v>
       </c>
@@ -54093,7 +54008,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="1001" hidden="1" spans="1:22">
+    <row r="1001" spans="1:22">
       <c r="A1001" s="20">
         <v>42487</v>
       </c>
@@ -54141,7 +54056,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="1002" hidden="1" spans="1:23">
+    <row r="1002" spans="1:23">
       <c r="A1002" s="20">
         <v>41709</v>
       </c>
@@ -54191,7 +54106,7 @@
       </c>
       <c r="W1002" s="20"/>
     </row>
-    <row r="1003" hidden="1" spans="1:21">
+    <row r="1003" spans="1:21">
       <c r="A1003" s="20">
         <v>42487</v>
       </c>
@@ -54272,7 +54187,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="1005" hidden="1" spans="1:22">
+    <row r="1005" spans="1:22">
       <c r="A1005" s="20">
         <v>42096</v>
       </c>
@@ -54320,7 +54235,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="1006" hidden="1" spans="1:22">
+    <row r="1006" spans="1:22">
       <c r="A1006" s="20">
         <v>42593</v>
       </c>
@@ -54422,7 +54337,7 @@
       <c r="V1007" s="20"/>
       <c r="W1007" s="20"/>
     </row>
-    <row r="1008" hidden="1" spans="1:23">
+    <row r="1008" spans="1:23">
       <c r="A1008" s="20">
         <v>42320</v>
       </c>
@@ -54580,7 +54495,7 @@
       <c r="V1010" s="20"/>
       <c r="W1010" s="20"/>
     </row>
-    <row r="1011" hidden="1" spans="1:23">
+    <row r="1011" spans="1:23">
       <c r="A1011" s="20">
         <v>41709</v>
       </c>
@@ -54632,7 +54547,7 @@
       </c>
       <c r="W1011" s="20"/>
     </row>
-    <row r="1012" spans="1:22">
+    <row r="1012" hidden="1" spans="1:22">
       <c r="A1012" s="20">
         <v>42240</v>
       </c>
@@ -54661,8 +54576,6 @@
       <c r="Q1012" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="R1012" s="25"/>
-      <c r="S1012" s="25"/>
       <c r="T1012" s="25"/>
       <c r="U1012" s="32" t="s">
         <v>44</v>
@@ -54671,7 +54584,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="1013" spans="1:22">
+    <row r="1013" hidden="1" spans="1:22">
       <c r="A1013" s="20">
         <v>42096</v>
       </c>
@@ -54703,19 +54616,17 @@
       <c r="Q1013" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="R1013" s="25"/>
       <c r="S1013" s="31" t="s">
         <v>44</v>
       </c>
       <c r="T1013" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="U1013" s="25"/>
       <c r="V1013" s="21" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="1014" spans="1:23">
+    <row r="1014" hidden="1" spans="1:23">
       <c r="A1014" s="20">
         <v>41709</v>
       </c>
@@ -55004,7 +54915,6 @@
       <c r="Q1019" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="R1019" s="25"/>
       <c r="T1019" s="19" t="s">
         <v>81</v>
       </c>
@@ -55151,7 +55061,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="1023" hidden="1" spans="1:23">
+    <row r="1023" spans="1:23">
       <c r="A1023" s="20">
         <v>41709</v>
       </c>
@@ -55205,7 +55115,7 @@
       <c r="V1023" s="43"/>
       <c r="W1023" s="20"/>
     </row>
-    <row r="1024" hidden="1" spans="1:23">
+    <row r="1024" spans="1:23">
       <c r="A1024" s="20">
         <v>41709</v>
       </c>
@@ -55259,7 +55169,7 @@
       <c r="V1024" s="43"/>
       <c r="W1024" s="20"/>
     </row>
-    <row r="1025" hidden="1" spans="1:23">
+    <row r="1025" spans="1:23">
       <c r="A1025" s="20">
         <v>42240</v>
       </c>
@@ -55313,7 +55223,7 @@
       <c r="V1025" s="43"/>
       <c r="W1025" s="20"/>
     </row>
-    <row r="1026" hidden="1" spans="1:23">
+    <row r="1026" spans="1:23">
       <c r="A1026" s="20">
         <v>42240</v>
       </c>
@@ -55361,7 +55271,7 @@
       <c r="V1026" s="43"/>
       <c r="W1026" s="20"/>
     </row>
-    <row r="1027" hidden="1" spans="1:21">
+    <row r="1027" spans="1:21">
       <c r="A1027" s="20">
         <v>42096</v>
       </c>
@@ -55406,7 +55316,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="1028" hidden="1" spans="1:23">
+    <row r="1028" spans="1:23">
       <c r="A1028" s="20">
         <v>41709</v>
       </c>
@@ -55460,7 +55370,7 @@
       </c>
       <c r="W1028" s="20"/>
     </row>
-    <row r="1029" hidden="1" spans="1:21">
+    <row r="1029" spans="1:21">
       <c r="A1029" s="20">
         <v>42096</v>
       </c>
@@ -55508,7 +55418,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1030" hidden="1" spans="1:23">
+    <row r="1030" spans="1:23">
       <c r="A1030" s="20">
         <v>42705</v>
       </c>
@@ -55560,7 +55470,7 @@
       <c r="V1030" s="20"/>
       <c r="W1030" s="20"/>
     </row>
-    <row r="1031" hidden="1" spans="1:23">
+    <row r="1031" spans="1:23">
       <c r="A1031" s="20">
         <v>41709</v>
       </c>
@@ -55664,7 +55574,7 @@
       <c r="V1032" s="20"/>
       <c r="W1032" s="20"/>
     </row>
-    <row r="1033" hidden="1" spans="1:23">
+    <row r="1033" spans="1:23">
       <c r="A1033" s="20">
         <v>42487</v>
       </c>
@@ -55716,7 +55626,7 @@
       <c r="V1033" s="43"/>
       <c r="W1033" s="20"/>
     </row>
-    <row r="1034" hidden="1" spans="1:21">
+    <row r="1034" spans="1:21">
       <c r="A1034" s="20">
         <v>42320</v>
       </c>
@@ -55764,7 +55674,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1035" hidden="1" spans="1:23">
+    <row r="1035" spans="1:23">
       <c r="A1035" s="20">
         <v>41709</v>
       </c>
@@ -55818,7 +55728,7 @@
       <c r="V1035" s="43"/>
       <c r="W1035" s="20"/>
     </row>
-    <row r="1036" hidden="1" spans="1:21">
+    <row r="1036" spans="1:21">
       <c r="A1036" s="20">
         <v>42487</v>
       </c>
@@ -55860,7 +55770,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="1037" spans="1:21">
+    <row r="1037" hidden="1" spans="1:21">
       <c r="A1037" s="20">
         <v>42705</v>
       </c>
@@ -56121,7 +56031,7 @@
       </c>
       <c r="W1042" s="20"/>
     </row>
-    <row r="1043" hidden="1" spans="1:23">
+    <row r="1043" spans="1:23">
       <c r="A1043" s="20">
         <v>42240</v>
       </c>
@@ -56175,7 +56085,7 @@
       </c>
       <c r="W1043" s="20"/>
     </row>
-    <row r="1044" hidden="1" spans="1:22">
+    <row r="1044" spans="1:22">
       <c r="A1044" s="20">
         <v>42487</v>
       </c>
@@ -56226,7 +56136,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="1045" hidden="1" spans="1:23">
+    <row r="1045" spans="1:23">
       <c r="A1045" s="20">
         <v>41709</v>
       </c>
@@ -56280,7 +56190,7 @@
       </c>
       <c r="W1045" s="20"/>
     </row>
-    <row r="1046" hidden="1" spans="1:23">
+    <row r="1046" spans="1:23">
       <c r="A1046" s="20">
         <v>42487</v>
       </c>
@@ -56338,7 +56248,7 @@
       </c>
       <c r="W1046" s="20"/>
     </row>
-    <row r="1047" hidden="1" spans="1:22">
+    <row r="1047" spans="1:22">
       <c r="A1047" s="20">
         <v>42487</v>
       </c>
@@ -56386,7 +56296,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="1048" hidden="1" spans="1:23">
+    <row r="1048" spans="1:23">
       <c r="A1048" s="20">
         <v>41709</v>
       </c>
@@ -56440,7 +56350,7 @@
       <c r="V1048" s="43"/>
       <c r="W1048" s="20"/>
     </row>
-    <row r="1049" hidden="1" spans="1:21">
+    <row r="1049" spans="1:21">
       <c r="A1049" s="20">
         <v>42487</v>
       </c>
@@ -56480,7 +56390,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1050" hidden="1" spans="1:22">
+    <row r="1050" spans="1:22">
       <c r="A1050" s="20">
         <v>42487</v>
       </c>
@@ -56525,7 +56435,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="1051" hidden="1" spans="1:22">
+    <row r="1051" spans="1:22">
       <c r="A1051" s="20">
         <v>42487</v>
       </c>
@@ -56573,7 +56483,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="1052" hidden="1" spans="1:22">
+    <row r="1052" spans="1:22">
       <c r="A1052" s="20">
         <v>42593</v>
       </c>
@@ -56647,7 +56557,6 @@
       <c r="Q1053" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="R1053" s="25"/>
       <c r="T1053" s="18" t="s">
         <v>44</v>
       </c>
@@ -56658,7 +56567,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="1054" hidden="1" spans="1:23">
+    <row r="1054" spans="1:23">
       <c r="A1054" s="20">
         <v>41709</v>
       </c>
@@ -56712,7 +56621,7 @@
       </c>
       <c r="W1054" s="20"/>
     </row>
-    <row r="1055" hidden="1" spans="1:23">
+    <row r="1055" spans="1:23">
       <c r="A1055" s="20">
         <v>41709</v>
       </c>
@@ -56770,7 +56679,7 @@
   <autoFilter ref="A1:W1055">
     <filterColumn colId="2">
       <customFilters>
-        <customFilter operator="equal" val="德鲁伊"/>
+        <customFilter operator="equal" val="中立"/>
       </customFilters>
     </filterColumn>
     <filterColumn colId="7">
@@ -56829,18 +56738,9 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B984 B985 B986 B987 B988 B989 B990 B991 B992 B993 B994 B995 B996 B997 B998 B999 B1000 B1001 B1002 B1003 B1004 B1005 B1006 B1007 B1008 B1009 B1010 B1011 B1012 B1013 B1014 B1015 B1016 B1017 B1018 B1019 B1020 B1021 B1022 B1023 B1024 B1025 B1026 B1027 B1028 B1029 B1030 B1031 B1032 B1033 B1034 B1035 B1036 B1037 B1038 B1039 B1040 B1041 B1042 B1043 B1044 B1045 B1046 B1047 B1048 B1049 B1050 B1051 B1052 B1053 B1054 B1055 B1:B924 B925:B970 B971:B973 B974:B983 B1056:B65536">
-      <formula1>"基本,经典,奖励,纳克萨玛斯,地精大战侏儒,黑石山的火焰,冠军的试练,探险者协会,上古之神,卡拉赞,加基森"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J176 K176:N176 J177 K177:N177 J178 K178 L178:N178 J179:N179 J180 K180:N180 J181 K181:N181 J184 K184:N184 J193 K193:N193 J194:N65536 J185:N192 J1:N175 J182:N183">
-      <formula1>"战吼;,激怒;,亡语;,潜行;,冲锋;,法术伤害;,风怒;,圣盾;,嘲讽;,激励;,过载;,连击;,免疫;,传说;,奥秘;,冻结;,抉择;,发现;,沉默;,零件;,青玉魔像;"</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 C1 O1 O186 O187 O188 O189 O190 O191 O192 O193 O194 O195 O245 O246 O247 O248 O252 O259 O260 O261 O262 O263 O264 O265 O266 O267 O268 O269 O270 O271 O272 O273 O274 O275 O276 O277 O278 O279 O283 O284 O285 O288 O293 O297 O301 O376 O377 O378 O379 O380 O381 O382 O383 O384 O385 O386 O387 O388 O389 O390 O391 O547 O570 O571 O572 O573 O574 O723 O724 O725 O726 O727 O728 O729 O730 O731 O830 O831 O850 O851 O852 O853 O854 O855 O856 O857 O858 O859 O860 O861 O862 O863 O927 O953 O954 O955 O993 O1016 O1017 O1038 O1039 O1040 O1041 O1042 O1043 O1044 O1045 O1046 O1047 O1048 O1049 O1050 O1051 O1052 O1053 O1054 O1055 O2:O8 O9:O45 O46:O58 O59:O75 O76:O185 O196:O244 O249:O251 O253:O258 O280:O282 O286:O287 O289:O292 O294:O296 O298:O300 O302:O363 O929:O932 O933:O938 O939:O946 O947:O952 O956:O964 O965:O970 O971:O980 O981:O991"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I149 I926 I1:I147 I150:I925 I927:I65536">
       <formula1>"野兽,机械,龙,鱼人,恶魔,海盗"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 C1 O1 O186 O187 O188 O189 O190 O191 O192 O193 O194 O195 O245 O246 O247 O248 O252 O259 O260 O261 O262 O263 O264 O265 O266 O267 O268 O269 O270 O271 O272 O273 O274 O275 O276 O277 O278 O279 O283 O284 O285 O288 O293 O297 O301 O376 O377 O378 O379 O380 O381 O382 O383 O384 O385 O386 O387 O388 O389 O390 O391 O547 O570 O571 O572 O573 O574 O723 O724 O725 O726 O727 O728 O729 O730 O731 O830 O831 O850 O851 O852 O853 O854 O855 O856 O857 O858 O859 O860 O861 O862 O863 O927 O953 O954 O955 O993 O1016 O1017 O1038 O1039 O1040 O1041 O1042 O1043 O1044 O1045 O1046 O1047 O1048 O1049 O1050 O1051 O1052 O1053 O1054 O1055 O2:O8 O9:O45 O46:O58 O59:O75 O76:O185 O196:O244 O249:O251 O253:O258 O280:O282 O286:O287 O289:O292 O294:O296 O298:O300 O302:O363 O929:O932 O933:O938 O939:O946 O947:O952 O956:O964 O965:O970 O971:O980 O981:O991"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C830 C831 C832 C833 C834 C835 C836 C837 C838 C839 C840 C841 C842 C843 C844 C845 C846 C847 C848 C849 C850 C851 C852 C853 C854 C855 C856 C857 C858 C859 C860 C861 C862 C863 C864 C865 C866 C867 C868 C869 C870 C871 C872 C873 C874 C899 C900 C923 C924 C992 C1020 C1029 C2:C302 C303:C363 C364:C411 C412:C468 C469:C516 C517:C564 C565:C613 C614:C661 C662:C709 C710:C769 C770:C826 C827:C829 C875:C883 C884:C886 C887:C895 C896:C898 C901:C907 C908:C910 C911:C919 C920:C922 C925:C930 C931:C938 C939:C946 C947:C954 C955:C964 C965:C970 C971:C974 C975:C983 C984:C991 C993:C1001 C1002:C1010 C1011:C1019 C1021:C1028 C1030:C1037 C1038:C1046 C1047:C1055 C1056:C65536">
-      <formula1>"德鲁伊,猎人,法师,圣骑士,牧师,潜行者,萨满祭司,术士,战士,中立"</formula1>
     </dataValidation>
     <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A156 A751 A878 A984 A985 A986 A987 A988 A989 A990 A991 A992 A993 A994 A995 A996 A997 A998 A999 A1000 A1001 A1002 A1003 A1004 A1005 A1006 A1007 A1008 A1009 A1010 A1011 A1012 A1013 A1014 A1015 A1016 A1017 A1018 A1019 A1020 A1021 A1022 A1023 A1024 A1025 A1026 A1027 A1028 A1029 A1030 A1031 A1032 A1033 A1034 A1035 A1036 A1037 A1038 A1039 A1040 A1041 A1042 A1043 A1044 A1045 A1046 A1047 A1048 A1049 A1050 A1051 A1052 A1053 A1054 A1055 A2:A33 A34:A116 A117:A155 A157:A235 A236:A257 A258:A280 A281:A292 A293:A308 A309:A311 A312:A319 A320:A322 A323:A353 A354:A357 A358:A402 A403:A406 A407:A413 A414:A420 A421:A625 A626:A721 A722:A750 A752:A868 A869:A877 A879:A911 A912:A923 A924:A971 A972:A974 A975:A983 A1056:A65536">
       <formula1>41709</formula1>
@@ -56848,6 +56748,15 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G292 G301 G302 G307 G317 G318 G327 G328 G333 G334 G346 G347 G348 G378 G386 G470 G485 G919 G984 G985 G986 G987 G994 G995 G996 G997 G1001 G1002 G1033 G1038 G1050 G1053 G1:G291 G293:G300 G303:G306 G308:G316 G319:G326 G329:G332 G335:G345 G349:G377 G379:G385 G387:G469 G471:G484 G486:G709 G710:G918 G920:G922 G923:G930 G931:G938 G939:G946 G947:G954 G955:G964 G965:G970 G971:G973 G974:G983 G988:G991 G992:G993 G998:G1000 G1003:G1010 G1011:G1019 G1020:G1028 G1029:G1030 G1031:G1032 G1034:G1037 G1039:G1046 G1047:G1049 G1051:G1052 G1054:G1055 G1056:G65536">
       <formula1>"随从,法术,武器"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J176 K176:N176 J177 K177:N177 J178 K178 L178:N178 J179:N179 J180 K180:N180 J181 K181:N181 J184 K184:N184 J193 K193:N193 J194:N65536 J185:N192 J1:N175 J182:N183">
+      <formula1>"战吼;,激怒;,亡语;,潜行;,冲锋;,法术伤害;,风怒;,圣盾;,嘲讽;,激励;,过载;,连击;,免疫;,传说;,奥秘;,冻结;,抉择;,发现;,沉默;,零件;,青玉魔像;"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B984 B985 B986 B987 B988 B989 B990 B991 B992 B993 B994 B995 B996 B997 B998 B999 B1000 B1001 B1002 B1003 B1004 B1005 B1006 B1007 B1008 B1009 B1010 B1011 B1012 B1013 B1014 B1015 B1016 B1017 B1018 B1019 B1020 B1021 B1022 B1023 B1024 B1025 B1026 B1027 B1028 B1029 B1030 B1031 B1032 B1033 B1034 B1035 B1036 B1037 B1038 B1039 B1040 B1041 B1042 B1043 B1044 B1045 B1046 B1047 B1048 B1049 B1050 B1051 B1052 B1053 B1054 B1055 B1:B924 B925:B970 B971:B973 B974:B983 B1056:B65536">
+      <formula1>"基本,经典,奖励,纳克萨玛斯,地精大战侏儒,黑石山的火焰,冠军的试练,探险者协会,上古之神,卡拉赞,加基森"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C830 C831 C832 C833 C834 C835 C836 C837 C838 C839 C840 C841 C842 C843 C844 C845 C846 C847 C848 C849 C850 C851 C852 C853 C854 C855 C856 C857 C858 C859 C860 C861 C862 C863 C864 C865 C866 C867 C868 C869 C870 C871 C872 C873 C874 C899 C900 C923 C924 C992 C1020 C1029 C2:C302 C303:C363 C364:C411 C412:C468 C469:C516 C517:C564 C565:C613 C614:C661 C662:C709 C710:C769 C770:C826 C827:C829 C875:C883 C884:C886 C887:C895 C896:C898 C901:C907 C908:C910 C911:C919 C920:C922 C925:C930 C931:C938 C939:C946 C947:C954 C955:C964 C965:C970 C971:C974 C975:C983 C984:C991 C993:C1001 C1002:C1010 C1011:C1019 C1021:C1028 C1030:C1037 C1038:C1046 C1047:C1055 C1056:C65536">
+      <formula1>"德鲁伊,猎人,法师,圣骑士,牧师,潜行者,萨满祭司,术士,战士,中立"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="已有此项" sqref="H1:H65536">
       <formula1>COUNTIF(H:H,H1)=1</formula1>
@@ -57246,10 +57155,10 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>

--- a/Gamming/卡牌分类.xlsx
+++ b/Gamming/卡牌分类.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="10560" tabRatio="665"/>
+    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="665"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="1" r:id="rId1"/>
@@ -4473,10 +4473,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="25">
@@ -4516,15 +4516,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4538,7 +4537,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4546,14 +4545,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4566,10 +4558,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4590,7 +4583,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4598,7 +4591,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4612,24 +4613,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4643,6 +4636,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -4653,7 +4653,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4764,7 +4764,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4776,67 +4908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4848,19 +4920,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4872,79 +4944,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4967,6 +4967,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4978,33 +4993,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5035,6 +5023,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5049,21 +5064,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5072,10 +5072,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5084,133 +5084,133 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="48" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5417,7 +5417,15 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <sz val="12"/>
@@ -5805,11 +5813,11 @@
   <dimension ref="A1:W1055"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="O542" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="O119" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R644" sqref="R644"/>
+      <selection pane="bottomRight" activeCell="T493" sqref="T493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -6165,7 +6173,6 @@
       <c r="S8" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="24"/>
       <c r="U8" s="34"/>
       <c r="V8" s="21" t="s">
         <v>41</v>
@@ -6519,13 +6526,11 @@
       <c r="Q17" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="R17" s="38" t="s">
+      <c r="R17" s="21"/>
+      <c r="S17" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="S17" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="T17" s="19" t="s">
+      <c r="T17" s="31" t="s">
         <v>40</v>
       </c>
       <c r="V17" s="21" t="s">
@@ -6575,7 +6580,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" hidden="1" spans="1:23">
       <c r="A19" s="20">
         <v>41981</v>
       </c>
@@ -6624,7 +6629,7 @@
       <c r="U19" s="34"/>
       <c r="W19" s="20"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" hidden="1" spans="1:21">
       <c r="A20" s="20">
         <v>41709</v>
       </c>
@@ -6660,7 +6665,7 @@
       <c r="T20" s="21"/>
       <c r="U20" s="26"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" hidden="1" spans="1:21">
       <c r="A21" s="20">
         <v>42320</v>
       </c>
@@ -7116,8 +7121,6 @@
       <c r="Q31" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
       <c r="T31" s="31" t="s">
         <v>81</v>
       </c>
@@ -7154,7 +7157,6 @@
       <c r="Q32" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R32" s="25"/>
       <c r="S32" s="29" t="s">
         <v>25</v>
       </c>
@@ -7206,7 +7208,6 @@
       <c r="T33" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="U33" s="25"/>
       <c r="V33" s="21"/>
     </row>
     <row r="34" hidden="1" spans="1:22">
@@ -7244,7 +7245,6 @@
       <c r="R34" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="S34" s="25"/>
       <c r="T34" s="18" t="s">
         <v>30</v>
       </c>
@@ -7371,14 +7371,12 @@
       <c r="Q37" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="R37" s="25"/>
       <c r="S37" s="31" t="s">
         <v>81</v>
       </c>
       <c r="T37" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="U37" s="25"/>
       <c r="V37" s="21"/>
     </row>
     <row r="38" hidden="1" spans="1:22">
@@ -9046,7 +9044,7 @@
       <c r="T75" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="U75" s="19" t="s">
+      <c r="U75" s="31" t="s">
         <v>103</v>
       </c>
       <c r="V75" s="21" t="s">
@@ -9091,9 +9089,7 @@
       <c r="S76" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="T76" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="T76" s="25"/>
       <c r="U76" s="32" t="s">
         <v>25</v>
       </c>
@@ -10371,15 +10367,13 @@
       <c r="R106" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="S106" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="T106" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="U106" s="31" t="s">
-        <v>85</v>
-      </c>
+      <c r="S106" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="T106" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="U106" s="25"/>
       <c r="V106" s="21"/>
     </row>
     <row r="107" hidden="1" spans="1:22">
@@ -10845,7 +10839,7 @@
       <c r="T117" s="26"/>
       <c r="U117" s="26"/>
     </row>
-    <row r="118" spans="1:22">
+    <row r="118" hidden="1" spans="1:22">
       <c r="A118" s="20">
         <v>41709</v>
       </c>
@@ -10943,7 +10937,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="120" spans="1:22">
+    <row r="120" hidden="1" spans="1:22">
       <c r="A120" s="20">
         <v>42593</v>
       </c>
@@ -11058,7 +11052,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="123" spans="1:22">
+    <row r="123" hidden="1" spans="1:22">
       <c r="A123" s="20">
         <v>41709</v>
       </c>
@@ -11101,7 +11095,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="1:22">
+    <row r="124" hidden="1" customHeight="1" spans="1:22">
       <c r="A124" s="20">
         <v>41981</v>
       </c>
@@ -11150,7 +11144,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="125" customHeight="1" spans="1:23">
+    <row r="125" hidden="1" customHeight="1" spans="1:23">
       <c r="A125" s="20">
         <v>42240</v>
       </c>
@@ -11203,7 +11197,7 @@
       <c r="V125" s="43"/>
       <c r="W125" s="20"/>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" hidden="1" spans="1:21">
       <c r="A126" s="20">
         <v>42487</v>
       </c>
@@ -11248,7 +11242,7 @@
       </c>
       <c r="U126" s="26"/>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" hidden="1" spans="1:21">
       <c r="A127" s="20">
         <v>41981</v>
       </c>
@@ -11298,7 +11292,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:22">
+    <row r="128" hidden="1" spans="1:22">
       <c r="A128" s="20">
         <v>42320</v>
       </c>
@@ -11356,7 +11350,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="129" spans="1:22">
+    <row r="129" hidden="1" spans="1:22">
       <c r="A129" s="20">
         <v>41709</v>
       </c>
@@ -11401,7 +11395,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="130" spans="1:21">
+    <row r="130" hidden="1" spans="1:21">
       <c r="A130" s="20">
         <v>42593</v>
       </c>
@@ -11431,7 +11425,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="131" spans="1:22">
+    <row r="131" hidden="1" spans="1:22">
       <c r="A131" s="20">
         <v>42705</v>
       </c>
@@ -11526,13 +11520,12 @@
       <c r="S132" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="T132" s="24"/>
       <c r="U132" s="26"/>
       <c r="V132" s="26" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:22">
+    <row r="133" hidden="1" spans="1:22">
       <c r="A133" s="20">
         <v>41709</v>
       </c>
@@ -11586,7 +11579,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:22">
+    <row r="134" hidden="1" spans="1:22">
       <c r="A134" s="20">
         <v>41709</v>
       </c>
@@ -11634,7 +11627,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" hidden="1" spans="1:20">
       <c r="A135" s="20">
         <v>42487</v>
       </c>
@@ -11676,7 +11669,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" hidden="1" spans="1:21">
       <c r="A136" s="20">
         <v>41709</v>
       </c>
@@ -11727,7 +11720,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" hidden="1" spans="1:23">
       <c r="A137" s="20">
         <v>42096</v>
       </c>
@@ -11781,7 +11774,7 @@
       </c>
       <c r="W137" s="20"/>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" hidden="1" spans="1:21">
       <c r="A138" s="20">
         <v>41709</v>
       </c>
@@ -11827,7 +11820,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:22">
+    <row r="139" hidden="1" spans="1:22">
       <c r="A139" s="20">
         <v>41709</v>
       </c>
@@ -11881,7 +11874,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="140" spans="1:22">
+    <row r="140" hidden="1" spans="1:22">
       <c r="A140" s="20">
         <v>41709</v>
       </c>
@@ -11982,7 +11975,7 @@
       </c>
       <c r="W141" s="20"/>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" hidden="1" spans="1:23">
       <c r="A142" s="20">
         <v>42240</v>
       </c>
@@ -12034,7 +12027,7 @@
       <c r="V142" s="20"/>
       <c r="W142" s="20"/>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" hidden="1" spans="1:23">
       <c r="A143" s="20">
         <v>41709</v>
       </c>
@@ -12092,7 +12085,7 @@
       </c>
       <c r="W143" s="20"/>
     </row>
-    <row r="144" customFormat="1" spans="1:23">
+    <row r="144" customFormat="1" hidden="1" spans="1:23">
       <c r="A144" s="20">
         <v>41709</v>
       </c>
@@ -12144,7 +12137,7 @@
       </c>
       <c r="W144" s="20"/>
     </row>
-    <row r="145" customFormat="1" spans="1:23">
+    <row r="145" customFormat="1" hidden="1" spans="1:23">
       <c r="A145" s="20">
         <v>41709</v>
       </c>
@@ -12196,7 +12189,7 @@
       <c r="V145" s="43"/>
       <c r="W145" s="20"/>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" hidden="1" spans="1:23">
       <c r="A146" s="20">
         <v>42240</v>
       </c>
@@ -12252,7 +12245,7 @@
       </c>
       <c r="W146" s="20"/>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" hidden="1" spans="1:23">
       <c r="A147" s="20">
         <v>41842</v>
       </c>
@@ -12302,7 +12295,7 @@
       </c>
       <c r="W147" s="20"/>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" hidden="1" spans="1:23">
       <c r="A148" s="20">
         <v>42705</v>
       </c>
@@ -12356,7 +12349,7 @@
       <c r="V148" s="21"/>
       <c r="W148" s="20"/>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" hidden="1" spans="1:21">
       <c r="A149" s="20">
         <v>41709</v>
       </c>
@@ -12400,7 +12393,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="150" spans="1:22">
+    <row r="150" hidden="1" spans="1:22">
       <c r="A150" s="20">
         <v>41709</v>
       </c>
@@ -12447,7 +12440,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="151" spans="1:22">
+    <row r="151" hidden="1" spans="1:22">
       <c r="A151" s="20">
         <v>41709</v>
       </c>
@@ -12491,7 +12484,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="152" spans="1:22">
+    <row r="152" hidden="1" spans="1:22">
       <c r="A152" s="20">
         <v>41709</v>
       </c>
@@ -12530,7 +12523,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="153" spans="1:22">
+    <row r="153" hidden="1" spans="1:22">
       <c r="A153" s="20">
         <v>42705</v>
       </c>
@@ -12565,7 +12558,7 @@
       </c>
       <c r="V153" s="21"/>
     </row>
-    <row r="154" spans="1:22">
+    <row r="154" hidden="1" spans="1:22">
       <c r="A154" s="20">
         <v>41709</v>
       </c>
@@ -12612,7 +12605,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="155" spans="1:22">
+    <row r="155" hidden="1" spans="1:22">
       <c r="A155" s="20">
         <v>41709</v>
       </c>
@@ -12653,7 +12646,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="156" spans="1:22">
+    <row r="156" hidden="1" spans="1:22">
       <c r="A156" s="20">
         <v>41709</v>
       </c>
@@ -13498,7 +13491,6 @@
       <c r="R174" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="S174" s="25"/>
       <c r="T174" s="19" t="s">
         <v>129</v>
       </c>
@@ -14691,7 +14683,10 @@
         <v>81</v>
       </c>
       <c r="R199" s="26"/>
-      <c r="S199" s="19" t="s">
+      <c r="S199" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="T199" s="19" t="s">
         <v>81</v>
       </c>
       <c r="U199" s="40" t="s">
@@ -16096,15 +16091,13 @@
       <c r="Q231" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R231" s="29" t="s">
+      <c r="R231" s="19" t="s">
         <v>25</v>
       </c>
       <c r="S231" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="T231" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="T231" s="25"/>
       <c r="U231" s="32" t="s">
         <v>25</v>
       </c>
@@ -16156,9 +16149,7 @@
       <c r="S232" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="T232" s="19" t="s">
-        <v>81</v>
-      </c>
+      <c r="T232" s="25"/>
       <c r="U232" s="19" t="s">
         <v>81</v>
       </c>
@@ -16313,12 +16304,8 @@
       <c r="S235" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="T235" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="U235" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="T235" s="26"/>
+      <c r="U235" s="26"/>
       <c r="V235" s="20"/>
       <c r="W235" s="20"/>
     </row>
@@ -17292,7 +17279,7 @@
       <c r="R256" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="S256" s="32" t="s">
+      <c r="S256" s="29" t="s">
         <v>81</v>
       </c>
       <c r="T256" s="21"/>
@@ -17328,12 +17315,8 @@
       <c r="Q257" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="R257" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="S257" s="32" t="s">
-        <v>22</v>
-      </c>
+      <c r="R257" s="21"/>
+      <c r="S257" s="21"/>
       <c r="T257" s="32" t="s">
         <v>22</v>
       </c>
@@ -17422,7 +17405,7 @@
       <c r="Q259" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="R259" s="32" t="s">
+      <c r="R259" s="29" t="s">
         <v>103</v>
       </c>
       <c r="S259" s="32" t="s">
@@ -18369,7 +18352,7 @@
       <c r="V280" s="43"/>
       <c r="W280" s="20"/>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" hidden="1" spans="1:23">
       <c r="A281" s="20">
         <v>42320</v>
       </c>
@@ -18423,7 +18406,7 @@
       <c r="V281" s="43"/>
       <c r="W281" s="20"/>
     </row>
-    <row r="282" spans="1:22">
+    <row r="282" hidden="1" spans="1:22">
       <c r="A282" s="20">
         <v>42705</v>
       </c>
@@ -18474,7 +18457,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" hidden="1" spans="1:23">
       <c r="A283" s="20">
         <v>41981</v>
       </c>
@@ -18532,7 +18515,7 @@
       </c>
       <c r="W283" s="20"/>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" hidden="1" spans="1:23">
       <c r="A284" s="20">
         <v>42240</v>
       </c>
@@ -18579,7 +18562,7 @@
       </c>
       <c r="W284" s="20"/>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" hidden="1" spans="1:23">
       <c r="A285" s="20">
         <v>41981</v>
       </c>
@@ -18633,7 +18616,7 @@
       </c>
       <c r="W285" s="20"/>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" hidden="1" spans="1:23">
       <c r="A286" s="20">
         <v>41709</v>
       </c>
@@ -18681,7 +18664,7 @@
       </c>
       <c r="W286" s="20"/>
     </row>
-    <row r="287" customHeight="1" spans="1:19">
+    <row r="287" hidden="1" customHeight="1" spans="1:19">
       <c r="A287" s="20">
         <v>42705</v>
       </c>
@@ -18720,7 +18703,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="288" customHeight="1" spans="1:23">
+    <row r="288" hidden="1" customHeight="1" spans="1:23">
       <c r="A288" s="20">
         <v>41709</v>
       </c>
@@ -18765,7 +18748,7 @@
       </c>
       <c r="W288" s="20"/>
     </row>
-    <row r="289" customHeight="1" spans="1:23">
+    <row r="289" hidden="1" customHeight="1" spans="1:23">
       <c r="A289" s="20">
         <v>41709</v>
       </c>
@@ -18809,7 +18792,7 @@
       </c>
       <c r="W289" s="20"/>
     </row>
-    <row r="290" customHeight="1" spans="1:23">
+    <row r="290" hidden="1" customHeight="1" spans="1:23">
       <c r="A290" s="20">
         <v>41709</v>
       </c>
@@ -18863,7 +18846,7 @@
       </c>
       <c r="W290" s="20"/>
     </row>
-    <row r="291" spans="1:23">
+    <row r="291" hidden="1" spans="1:23">
       <c r="A291" s="20">
         <v>41842</v>
       </c>
@@ -18915,7 +18898,7 @@
       </c>
       <c r="W291" s="20"/>
     </row>
-    <row r="292" spans="1:23">
+    <row r="292" hidden="1" spans="1:23">
       <c r="A292" s="20">
         <v>41842</v>
       </c>
@@ -18969,7 +18952,7 @@
       </c>
       <c r="W292" s="20"/>
     </row>
-    <row r="293" spans="1:23">
+    <row r="293" hidden="1" spans="1:23">
       <c r="A293" s="20">
         <v>41709</v>
       </c>
@@ -19021,7 +19004,7 @@
       <c r="V293" s="43"/>
       <c r="W293" s="20"/>
     </row>
-    <row r="294" spans="1:23">
+    <row r="294" hidden="1" spans="1:23">
       <c r="A294" s="20">
         <v>41709</v>
       </c>
@@ -19075,7 +19058,7 @@
       </c>
       <c r="W294" s="20"/>
     </row>
-    <row r="295" spans="1:23">
+    <row r="295" hidden="1" spans="1:23">
       <c r="A295" s="20">
         <v>41709</v>
       </c>
@@ -19121,7 +19104,7 @@
       <c r="V295" s="43"/>
       <c r="W295" s="20"/>
     </row>
-    <row r="296" spans="1:23">
+    <row r="296" hidden="1" spans="1:23">
       <c r="A296" s="20">
         <v>41709</v>
       </c>
@@ -19171,7 +19154,7 @@
       </c>
       <c r="W296" s="20"/>
     </row>
-    <row r="297" spans="1:23">
+    <row r="297" hidden="1" spans="1:23">
       <c r="A297" s="20">
         <v>41842</v>
       </c>
@@ -19227,7 +19210,7 @@
       <c r="V297" s="43"/>
       <c r="W297" s="20"/>
     </row>
-    <row r="298" spans="1:23">
+    <row r="298" hidden="1" spans="1:23">
       <c r="A298" s="20">
         <v>41981</v>
       </c>
@@ -19281,7 +19264,7 @@
       </c>
       <c r="W298" s="20"/>
     </row>
-    <row r="299" spans="1:23">
+    <row r="299" hidden="1" spans="1:23">
       <c r="A299" s="20">
         <v>42240</v>
       </c>
@@ -19385,7 +19368,7 @@
       </c>
       <c r="W300" s="20"/>
     </row>
-    <row r="301" spans="1:23">
+    <row r="301" hidden="1" spans="1:23">
       <c r="A301" s="20">
         <v>42705</v>
       </c>
@@ -19439,7 +19422,7 @@
       <c r="V301" s="20"/>
       <c r="W301" s="20"/>
     </row>
-    <row r="302" spans="1:23">
+    <row r="302" hidden="1" spans="1:23">
       <c r="A302" s="20">
         <v>41709</v>
       </c>
@@ -19493,7 +19476,7 @@
       </c>
       <c r="W302" s="20"/>
     </row>
-    <row r="303" spans="1:23">
+    <row r="303" hidden="1" spans="1:23">
       <c r="A303" s="20">
         <v>42320</v>
       </c>
@@ -19544,7 +19527,7 @@
       <c r="V303" s="43"/>
       <c r="W303" s="20"/>
     </row>
-    <row r="304" spans="1:23">
+    <row r="304" hidden="1" spans="1:23">
       <c r="A304" s="20">
         <v>41709</v>
       </c>
@@ -19596,7 +19579,7 @@
       <c r="V304" s="43"/>
       <c r="W304" s="20"/>
     </row>
-    <row r="305" spans="1:23">
+    <row r="305" hidden="1" spans="1:23">
       <c r="A305" s="20">
         <v>41709</v>
       </c>
@@ -19646,7 +19629,7 @@
       </c>
       <c r="W305" s="20"/>
     </row>
-    <row r="306" spans="1:23">
+    <row r="306" hidden="1" spans="1:23">
       <c r="A306" s="20">
         <v>41709</v>
       </c>
@@ -19698,7 +19681,7 @@
       <c r="V306" s="43"/>
       <c r="W306" s="20"/>
     </row>
-    <row r="307" spans="1:23">
+    <row r="307" hidden="1" spans="1:23">
       <c r="A307" s="20">
         <v>41709</v>
       </c>
@@ -19748,7 +19731,7 @@
       </c>
       <c r="W307" s="20"/>
     </row>
-    <row r="308" spans="1:23">
+    <row r="308" hidden="1" spans="1:23">
       <c r="A308" s="20">
         <v>41709</v>
       </c>
@@ -19798,7 +19781,7 @@
       </c>
       <c r="W308" s="20"/>
     </row>
-    <row r="309" spans="1:23">
+    <row r="309" hidden="1" spans="1:23">
       <c r="A309" s="20">
         <v>41709</v>
       </c>
@@ -19848,7 +19831,7 @@
       </c>
       <c r="W309" s="20"/>
     </row>
-    <row r="310" spans="1:23">
+    <row r="310" hidden="1" spans="1:23">
       <c r="A310" s="20">
         <v>42487</v>
       </c>
@@ -19906,7 +19889,7 @@
       </c>
       <c r="W310" s="20"/>
     </row>
-    <row r="311" spans="1:23">
+    <row r="311" hidden="1" spans="1:23">
       <c r="A311" s="20">
         <v>42487</v>
       </c>
@@ -19954,7 +19937,7 @@
       <c r="V311" s="43"/>
       <c r="W311" s="20"/>
     </row>
-    <row r="312" spans="1:23">
+    <row r="312" hidden="1" spans="1:23">
       <c r="A312" s="20">
         <v>41709</v>
       </c>
@@ -20000,7 +19983,7 @@
       <c r="V312" s="43"/>
       <c r="W312" s="20"/>
     </row>
-    <row r="313" spans="1:23">
+    <row r="313" hidden="1" spans="1:23">
       <c r="A313" s="20">
         <v>41842</v>
       </c>
@@ -20048,7 +20031,7 @@
       <c r="V313" s="43"/>
       <c r="W313" s="20"/>
     </row>
-    <row r="314" spans="1:23">
+    <row r="314" hidden="1" spans="1:23">
       <c r="A314" s="20">
         <v>41709</v>
       </c>
@@ -20098,7 +20081,7 @@
       </c>
       <c r="W314" s="20"/>
     </row>
-    <row r="315" spans="1:23">
+    <row r="315" hidden="1" spans="1:23">
       <c r="A315" s="20">
         <v>42487</v>
       </c>
@@ -20144,7 +20127,7 @@
       <c r="V315" s="43"/>
       <c r="W315" s="20"/>
     </row>
-    <row r="316" spans="1:23">
+    <row r="316" hidden="1" spans="1:23">
       <c r="A316" s="20">
         <v>42487</v>
       </c>
@@ -20252,7 +20235,7 @@
       <c r="V317" s="43"/>
       <c r="W317" s="20"/>
     </row>
-    <row r="318" spans="1:23">
+    <row r="318" hidden="1" spans="1:23">
       <c r="A318" s="20">
         <v>42705</v>
       </c>
@@ -20304,7 +20287,7 @@
       <c r="V318" s="20"/>
       <c r="W318" s="20"/>
     </row>
-    <row r="319" spans="1:23">
+    <row r="319" hidden="1" spans="1:23">
       <c r="A319" s="20">
         <v>41709</v>
       </c>
@@ -20362,7 +20345,7 @@
       </c>
       <c r="W319" s="20"/>
     </row>
-    <row r="320" spans="1:23">
+    <row r="320" hidden="1" spans="1:23">
       <c r="A320" s="20">
         <v>41709</v>
       </c>
@@ -20416,7 +20399,7 @@
       </c>
       <c r="W320" s="20"/>
     </row>
-    <row r="321" spans="1:23">
+    <row r="321" hidden="1" spans="1:23">
       <c r="A321" s="20">
         <v>41709</v>
       </c>
@@ -20466,7 +20449,7 @@
       <c r="V321" s="43"/>
       <c r="W321" s="20"/>
     </row>
-    <row r="322" spans="1:23">
+    <row r="322" hidden="1" spans="1:23">
       <c r="A322" s="20">
         <v>41709</v>
       </c>
@@ -20520,7 +20503,7 @@
       </c>
       <c r="W322" s="20"/>
     </row>
-    <row r="323" spans="1:23">
+    <row r="323" hidden="1" spans="1:23">
       <c r="A323" s="20">
         <v>41981</v>
       </c>
@@ -20568,7 +20551,7 @@
       <c r="V323" s="43"/>
       <c r="W323" s="20"/>
     </row>
-    <row r="324" spans="1:23">
+    <row r="324" hidden="1" spans="1:23">
       <c r="A324" s="20">
         <v>41981</v>
       </c>
@@ -20670,7 +20653,7 @@
       <c r="V325" s="20"/>
       <c r="W325" s="20"/>
     </row>
-    <row r="326" spans="1:23">
+    <row r="326" hidden="1" spans="1:23">
       <c r="A326" s="20">
         <v>41709</v>
       </c>
@@ -20720,7 +20703,7 @@
       </c>
       <c r="W326" s="20"/>
     </row>
-    <row r="327" spans="1:23">
+    <row r="327" hidden="1" spans="1:23">
       <c r="A327" s="20">
         <v>42487</v>
       </c>
@@ -20826,7 +20809,7 @@
       </c>
       <c r="W328" s="20"/>
     </row>
-    <row r="329" spans="1:23">
+    <row r="329" hidden="1" spans="1:23">
       <c r="A329" s="20">
         <v>41709</v>
       </c>
@@ -20882,7 +20865,7 @@
       </c>
       <c r="W329" s="20"/>
     </row>
-    <row r="330" spans="1:23">
+    <row r="330" hidden="1" spans="1:23">
       <c r="A330" s="20">
         <v>41709</v>
       </c>
@@ -20932,7 +20915,7 @@
       </c>
       <c r="W330" s="20"/>
     </row>
-    <row r="331" spans="1:23">
+    <row r="331" hidden="1" spans="1:23">
       <c r="A331" s="20">
         <v>41709</v>
       </c>
@@ -20982,7 +20965,7 @@
       </c>
       <c r="W331" s="20"/>
     </row>
-    <row r="332" spans="1:23">
+    <row r="332" hidden="1" spans="1:23">
       <c r="A332" s="20">
         <v>42240</v>
       </c>
@@ -21032,7 +21015,7 @@
       </c>
       <c r="W332" s="20"/>
     </row>
-    <row r="333" spans="1:23">
+    <row r="333" hidden="1" spans="1:23">
       <c r="A333" s="20">
         <v>42487</v>
       </c>
@@ -21086,7 +21069,7 @@
       </c>
       <c r="W333" s="20"/>
     </row>
-    <row r="334" spans="1:23">
+    <row r="334" hidden="1" spans="1:23">
       <c r="A334" s="20">
         <v>42240</v>
       </c>
@@ -21134,7 +21117,7 @@
       <c r="V334" s="43"/>
       <c r="W334" s="20"/>
     </row>
-    <row r="335" spans="1:23">
+    <row r="335" hidden="1" spans="1:23">
       <c r="A335" s="20">
         <v>41709</v>
       </c>
@@ -21180,7 +21163,7 @@
       </c>
       <c r="W335" s="20"/>
     </row>
-    <row r="336" spans="1:23">
+    <row r="336" hidden="1" spans="1:23">
       <c r="A336" s="20">
         <v>41981</v>
       </c>
@@ -21228,7 +21211,7 @@
       </c>
       <c r="W336" s="20"/>
     </row>
-    <row r="337" spans="1:23">
+    <row r="337" hidden="1" spans="1:23">
       <c r="A337" s="20">
         <v>41709</v>
       </c>
@@ -21332,7 +21315,7 @@
       <c r="V338" s="43"/>
       <c r="W338" s="20"/>
     </row>
-    <row r="339" spans="1:23">
+    <row r="339" hidden="1" spans="1:23">
       <c r="A339" s="20">
         <v>41981</v>
       </c>
@@ -21380,7 +21363,7 @@
       </c>
       <c r="W339" s="20"/>
     </row>
-    <row r="340" spans="1:23">
+    <row r="340" hidden="1" spans="1:23">
       <c r="A340" s="20">
         <v>41842</v>
       </c>
@@ -21432,7 +21415,7 @@
       </c>
       <c r="W340" s="20"/>
     </row>
-    <row r="341" spans="1:23">
+    <row r="341" hidden="1" spans="1:23">
       <c r="A341" s="20">
         <v>41709</v>
       </c>
@@ -21480,7 +21463,7 @@
       </c>
       <c r="W341" s="20"/>
     </row>
-    <row r="342" spans="1:23">
+    <row r="342" hidden="1" spans="1:23">
       <c r="A342" s="20">
         <v>41981</v>
       </c>
@@ -21530,7 +21513,7 @@
       <c r="V342" s="43"/>
       <c r="W342" s="20"/>
     </row>
-    <row r="343" spans="1:23">
+    <row r="343" hidden="1" spans="1:23">
       <c r="A343" s="20">
         <v>42593</v>
       </c>
@@ -22325,8 +22308,6 @@
         <v>40</v>
       </c>
       <c r="Q362" s="26"/>
-      <c r="R362" s="25"/>
-      <c r="S362" s="25"/>
       <c r="T362" s="19" t="s">
         <v>589</v>
       </c>
@@ -22375,8 +22356,6 @@
       <c r="Q363" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="R363" s="25"/>
-      <c r="S363" s="25"/>
       <c r="T363" s="19" t="s">
         <v>591</v>
       </c>
@@ -22415,7 +22394,6 @@
       <c r="Q364" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="R364" s="25"/>
       <c r="S364" s="31" t="s">
         <v>25</v>
       </c>
@@ -23388,9 +23366,7 @@
         <v>25</v>
       </c>
       <c r="Q386" s="26"/>
-      <c r="R386" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="R386" s="21"/>
       <c r="S386" s="19" t="s">
         <v>25</v>
       </c>
@@ -23445,10 +23421,8 @@
       <c r="S387" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="T387" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="U387" s="32" t="s">
+      <c r="T387" s="21"/>
+      <c r="U387" s="29" t="s">
         <v>25</v>
       </c>
       <c r="V387" s="21" t="s">
@@ -23496,14 +23470,12 @@
         <v>85</v>
       </c>
       <c r="R388" s="19" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="S388" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T388" s="19" t="s">
-        <v>85</v>
-      </c>
+      <c r="T388" s="21"/>
       <c r="U388" s="31" t="s">
         <v>44</v>
       </c>
@@ -23545,15 +23517,11 @@
         <v>81</v>
       </c>
       <c r="Q389" s="26"/>
-      <c r="R389" s="19" t="s">
-        <v>81</v>
-      </c>
+      <c r="R389" s="21"/>
       <c r="S389" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="T389" s="19" t="s">
-        <v>81</v>
-      </c>
+      <c r="T389" s="21"/>
       <c r="U389" s="31" t="s">
         <v>81</v>
       </c>
@@ -24930,12 +24898,8 @@
       <c r="Q419" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R419" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S419" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="R419" s="25"/>
+      <c r="S419" s="25"/>
       <c r="T419" s="19" t="s">
         <v>25</v>
       </c>
@@ -25082,9 +25046,7 @@
       <c r="Q422" s="32" t="s">
         <v>582</v>
       </c>
-      <c r="R422" s="32" t="s">
-        <v>582</v>
-      </c>
+      <c r="R422" s="26"/>
       <c r="S422" s="32" t="s">
         <v>582</v>
       </c>
@@ -25135,9 +25097,7 @@
       <c r="S423" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="T423" s="19" t="s">
-        <v>37</v>
-      </c>
+      <c r="T423" s="26"/>
       <c r="U423" s="29" t="s">
         <v>37</v>
       </c>
@@ -25182,9 +25142,7 @@
       <c r="Q424" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R424" s="32" t="s">
-        <v>25</v>
-      </c>
+      <c r="R424" s="26"/>
       <c r="S424" s="32" t="s">
         <v>25</v>
       </c>
@@ -25233,12 +25191,8 @@
       <c r="Q425" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="R425" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="S425" s="32" t="s">
-        <v>40</v>
-      </c>
+      <c r="R425" s="26"/>
+      <c r="S425" s="26"/>
       <c r="T425" s="19" t="s">
         <v>40</v>
       </c>
@@ -25289,9 +25243,7 @@
       <c r="Q426" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="R426" s="19" t="s">
-        <v>81</v>
-      </c>
+      <c r="R426" s="26"/>
       <c r="S426" s="19" t="s">
         <v>81</v>
       </c>
@@ -26001,18 +25953,14 @@
       <c r="Q440" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="R440" s="19" t="s">
+      <c r="R440" s="31" t="s">
         <v>22</v>
       </c>
       <c r="S440" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="T440" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="U440" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="T440" s="21"/>
+      <c r="U440" s="21"/>
       <c r="V440" s="21" t="s">
         <v>444</v>
       </c>
@@ -26095,10 +26043,8 @@
       <c r="Q442" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="R442" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S442" s="19" t="s">
+      <c r="R442" s="21"/>
+      <c r="S442" s="31" t="s">
         <v>25</v>
       </c>
       <c r="T442" s="19" t="s">
@@ -26171,18 +26117,12 @@
       <c r="Q444" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="R444" s="19" t="s">
+      <c r="R444" s="21"/>
+      <c r="S444" s="21"/>
+      <c r="T444" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="S444" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T444" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="U444" s="31" t="s">
-        <v>25</v>
-      </c>
+      <c r="U444" s="21"/>
       <c r="V444" s="21" t="s">
         <v>407</v>
       </c>
@@ -27053,7 +26993,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="465" spans="1:23">
+    <row r="465" hidden="1" spans="1:23">
       <c r="A465" s="20">
         <v>42705</v>
       </c>
@@ -27109,7 +27049,7 @@
       <c r="V465" s="20"/>
       <c r="W465" s="20"/>
     </row>
-    <row r="466" spans="1:23">
+    <row r="466" hidden="1" spans="1:23">
       <c r="A466" s="20">
         <v>41709</v>
       </c>
@@ -27153,7 +27093,7 @@
       <c r="V466" s="43"/>
       <c r="W466" s="21"/>
     </row>
-    <row r="467" spans="1:23">
+    <row r="467" hidden="1" spans="1:23">
       <c r="A467" s="20">
         <v>42240</v>
       </c>
@@ -27203,7 +27143,7 @@
       <c r="V467" s="43"/>
       <c r="W467" s="21"/>
     </row>
-    <row r="468" spans="1:23">
+    <row r="468" hidden="1" spans="1:23">
       <c r="A468" s="20">
         <v>41709</v>
       </c>
@@ -27251,7 +27191,7 @@
       </c>
       <c r="W468" s="21"/>
     </row>
-    <row r="469" spans="1:23">
+    <row r="469" hidden="1" spans="1:23">
       <c r="A469" s="20">
         <v>41709</v>
       </c>
@@ -27300,7 +27240,7 @@
       </c>
       <c r="W469" s="21"/>
     </row>
-    <row r="470" spans="1:23">
+    <row r="470" hidden="1" spans="1:23">
       <c r="A470" s="20">
         <v>42240</v>
       </c>
@@ -27384,7 +27324,7 @@
         <v>85</v>
       </c>
       <c r="R471" s="32" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="S471" s="32" t="s">
         <v>103</v>
@@ -27400,7 +27340,7 @@
       </c>
       <c r="W471" s="21"/>
     </row>
-    <row r="472" spans="1:23">
+    <row r="472" hidden="1" spans="1:23">
       <c r="A472" s="20">
         <v>42240</v>
       </c>
@@ -27450,7 +27390,7 @@
       <c r="V472" s="43"/>
       <c r="W472" s="21"/>
     </row>
-    <row r="473" spans="1:23">
+    <row r="473" hidden="1" spans="1:23">
       <c r="A473" s="20">
         <v>42593</v>
       </c>
@@ -27497,7 +27437,7 @@
       <c r="V473" s="43"/>
       <c r="W473" s="20"/>
     </row>
-    <row r="474" spans="1:23">
+    <row r="474" hidden="1" spans="1:23">
       <c r="A474" s="20">
         <v>41709</v>
       </c>
@@ -27549,7 +27489,7 @@
       </c>
       <c r="W474" s="21"/>
     </row>
-    <row r="475" spans="1:23">
+    <row r="475" hidden="1" spans="1:23">
       <c r="A475" s="20">
         <v>41709</v>
       </c>
@@ -27655,7 +27595,7 @@
       </c>
       <c r="W476" s="21"/>
     </row>
-    <row r="477" spans="1:23">
+    <row r="477" hidden="1" spans="1:23">
       <c r="A477" s="20">
         <v>42705</v>
       </c>
@@ -27707,7 +27647,7 @@
       <c r="V477" s="20"/>
       <c r="W477" s="20"/>
     </row>
-    <row r="478" spans="1:23">
+    <row r="478" hidden="1" spans="1:23">
       <c r="A478" s="20">
         <v>41981</v>
       </c>
@@ -27757,7 +27697,7 @@
       </c>
       <c r="W478" s="21"/>
     </row>
-    <row r="479" spans="1:23">
+    <row r="479" hidden="1" spans="1:23">
       <c r="A479" s="20">
         <v>41981</v>
       </c>
@@ -27805,7 +27745,7 @@
       <c r="V479" s="43"/>
       <c r="W479" s="21"/>
     </row>
-    <row r="480" spans="1:23">
+    <row r="480" hidden="1" spans="1:23">
       <c r="A480" s="20">
         <v>41709</v>
       </c>
@@ -27909,7 +27849,7 @@
       </c>
       <c r="W481" s="20"/>
     </row>
-    <row r="482" spans="1:23">
+    <row r="482" hidden="1" spans="1:23">
       <c r="A482" s="20">
         <v>42487</v>
       </c>
@@ -27957,7 +27897,7 @@
       <c r="V482" s="20"/>
       <c r="W482" s="21"/>
     </row>
-    <row r="483" spans="1:23">
+    <row r="483" hidden="1" spans="1:23">
       <c r="A483" s="20">
         <v>41981</v>
       </c>
@@ -28005,7 +27945,7 @@
       </c>
       <c r="W483" s="21"/>
     </row>
-    <row r="484" spans="1:23">
+    <row r="484" hidden="1" spans="1:23">
       <c r="A484" s="20">
         <v>41709</v>
       </c>
@@ -28107,7 +28047,7 @@
       </c>
       <c r="W485" s="21"/>
     </row>
-    <row r="486" spans="1:23">
+    <row r="486" hidden="1" spans="1:23">
       <c r="A486" s="20">
         <v>41709</v>
       </c>
@@ -28157,7 +28097,7 @@
       <c r="V486" s="20"/>
       <c r="W486" s="21"/>
     </row>
-    <row r="487" spans="1:23">
+    <row r="487" hidden="1" spans="1:23">
       <c r="A487" s="20">
         <v>41981</v>
       </c>
@@ -28211,7 +28151,7 @@
       </c>
       <c r="W487" s="21"/>
     </row>
-    <row r="488" spans="1:23">
+    <row r="488" hidden="1" spans="1:23">
       <c r="A488" s="20">
         <v>41709</v>
       </c>
@@ -28265,7 +28205,7 @@
       <c r="V488" s="20"/>
       <c r="W488" s="21"/>
     </row>
-    <row r="489" spans="1:23">
+    <row r="489" hidden="1" spans="1:23">
       <c r="A489" s="20">
         <v>42240</v>
       </c>
@@ -28321,7 +28261,7 @@
       </c>
       <c r="W489" s="21"/>
     </row>
-    <row r="490" spans="1:23">
+    <row r="490" hidden="1" spans="1:23">
       <c r="A490" s="20">
         <v>41709</v>
       </c>
@@ -28373,7 +28313,7 @@
       </c>
       <c r="W490" s="21"/>
     </row>
-    <row r="491" spans="1:23">
+    <row r="491" hidden="1" spans="1:23">
       <c r="A491" s="20">
         <v>41709</v>
       </c>
@@ -28419,7 +28359,7 @@
       </c>
       <c r="W491" s="21"/>
     </row>
-    <row r="492" spans="1:23">
+    <row r="492" hidden="1" spans="1:23">
       <c r="A492" s="20">
         <v>42240</v>
       </c>
@@ -28581,7 +28521,7 @@
       </c>
       <c r="W494" s="21"/>
     </row>
-    <row r="495" spans="1:23">
+    <row r="495" hidden="1" spans="1:23">
       <c r="A495" s="20">
         <v>42705</v>
       </c>
@@ -28625,7 +28565,7 @@
       <c r="V495" s="20"/>
       <c r="W495" s="20"/>
     </row>
-    <row r="496" spans="1:23">
+    <row r="496" hidden="1" spans="1:23">
       <c r="A496" s="20">
         <v>42240</v>
       </c>
@@ -28679,7 +28619,7 @@
       </c>
       <c r="W496" s="21"/>
     </row>
-    <row r="497" spans="1:23">
+    <row r="497" hidden="1" spans="1:23">
       <c r="A497" s="20">
         <v>42593</v>
       </c>
@@ -28731,7 +28671,7 @@
       <c r="V497" s="43"/>
       <c r="W497" s="20"/>
     </row>
-    <row r="498" spans="1:23">
+    <row r="498" hidden="1" spans="1:23">
       <c r="A498" s="20">
         <v>42240</v>
       </c>
@@ -28889,7 +28829,7 @@
       <c r="V500" s="20"/>
       <c r="W500" s="21"/>
     </row>
-    <row r="501" spans="1:23">
+    <row r="501" hidden="1" spans="1:23">
       <c r="A501" s="20">
         <v>41709</v>
       </c>
@@ -28943,7 +28883,7 @@
       </c>
       <c r="W501" s="21"/>
     </row>
-    <row r="502" spans="1:23">
+    <row r="502" hidden="1" spans="1:23">
       <c r="A502" s="20">
         <v>41709</v>
       </c>
@@ -29047,7 +28987,7 @@
       <c r="V503" s="20"/>
       <c r="W503" s="21"/>
     </row>
-    <row r="504" spans="1:23">
+    <row r="504" hidden="1" spans="1:23">
       <c r="A504" s="20">
         <v>42240</v>
       </c>
@@ -29095,7 +29035,7 @@
       <c r="V504" s="20"/>
       <c r="W504" s="21"/>
     </row>
-    <row r="505" spans="1:23">
+    <row r="505" hidden="1" spans="1:23">
       <c r="A505" s="20">
         <v>41709</v>
       </c>
@@ -29147,7 +29087,7 @@
       <c r="V505" s="20"/>
       <c r="W505" s="21"/>
     </row>
-    <row r="506" spans="1:23">
+    <row r="506" hidden="1" spans="1:23">
       <c r="A506" s="20">
         <v>41981</v>
       </c>
@@ -29199,7 +29139,7 @@
       </c>
       <c r="W506" s="21"/>
     </row>
-    <row r="507" spans="1:23">
+    <row r="507" hidden="1" spans="1:23">
       <c r="A507" s="20">
         <v>42593</v>
       </c>
@@ -29251,7 +29191,7 @@
       <c r="V507" s="43"/>
       <c r="W507" s="20"/>
     </row>
-    <row r="508" spans="1:23">
+    <row r="508" hidden="1" spans="1:23">
       <c r="A508" s="20">
         <v>42487</v>
       </c>
@@ -29305,7 +29245,7 @@
       </c>
       <c r="W508" s="21"/>
     </row>
-    <row r="509" spans="1:23">
+    <row r="509" hidden="1" spans="1:23">
       <c r="A509" s="20">
         <v>41709</v>
       </c>
@@ -29357,7 +29297,7 @@
       <c r="V509" s="20"/>
       <c r="W509" s="21"/>
     </row>
-    <row r="510" spans="1:23">
+    <row r="510" hidden="1" spans="1:23">
       <c r="A510" s="20">
         <v>41842</v>
       </c>
@@ -29403,7 +29343,7 @@
       <c r="V510" s="20"/>
       <c r="W510" s="21"/>
     </row>
-    <row r="511" spans="1:23">
+    <row r="511" hidden="1" spans="1:23">
       <c r="A511" s="20">
         <v>41709</v>
       </c>
@@ -29457,7 +29397,7 @@
       </c>
       <c r="W511" s="21"/>
     </row>
-    <row r="512" spans="1:23">
+    <row r="512" hidden="1" spans="1:23">
       <c r="A512" s="20">
         <v>41709</v>
       </c>
@@ -29511,7 +29451,7 @@
       </c>
       <c r="W512" s="21"/>
     </row>
-    <row r="513" spans="1:23">
+    <row r="513" hidden="1" spans="1:23">
       <c r="A513" s="20">
         <v>41981</v>
       </c>
@@ -29563,7 +29503,7 @@
       <c r="V513" s="20"/>
       <c r="W513" s="21"/>
     </row>
-    <row r="514" spans="1:23">
+    <row r="514" hidden="1" spans="1:23">
       <c r="A514" s="20">
         <v>42705</v>
       </c>
@@ -29613,7 +29553,7 @@
       </c>
       <c r="W514" s="20"/>
     </row>
-    <row r="515" spans="1:23">
+    <row r="515" hidden="1" spans="1:23">
       <c r="A515" s="20">
         <v>42240</v>
       </c>
@@ -29661,7 +29601,7 @@
       <c r="V515" s="20"/>
       <c r="W515" s="21"/>
     </row>
-    <row r="516" spans="1:23">
+    <row r="516" hidden="1" spans="1:23">
       <c r="A516" s="20">
         <v>41709</v>
       </c>
@@ -29711,7 +29651,7 @@
       </c>
       <c r="W516" s="21"/>
     </row>
-    <row r="517" spans="1:23">
+    <row r="517" hidden="1" spans="1:23">
       <c r="A517" s="20">
         <v>42240</v>
       </c>
@@ -29765,7 +29705,7 @@
       </c>
       <c r="W517" s="21"/>
     </row>
-    <row r="518" spans="1:23">
+    <row r="518" hidden="1" spans="1:23">
       <c r="A518" s="20">
         <v>41709</v>
       </c>
@@ -29813,7 +29753,7 @@
       </c>
       <c r="W518" s="21"/>
     </row>
-    <row r="519" spans="1:23">
+    <row r="519" hidden="1" spans="1:23">
       <c r="A519" s="20">
         <v>41709</v>
       </c>
@@ -29861,7 +29801,7 @@
       </c>
       <c r="W519" s="21"/>
     </row>
-    <row r="520" spans="1:23">
+    <row r="520" hidden="1" spans="1:23">
       <c r="A520" s="20">
         <v>42240</v>
       </c>
@@ -29911,7 +29851,7 @@
       <c r="V520" s="43"/>
       <c r="W520" s="21"/>
     </row>
-    <row r="521" spans="1:23">
+    <row r="521" hidden="1" spans="1:23">
       <c r="A521" s="20">
         <v>41981</v>
       </c>
@@ -29959,7 +29899,7 @@
       <c r="V521" s="20"/>
       <c r="W521" s="21"/>
     </row>
-    <row r="522" spans="1:23">
+    <row r="522" hidden="1" spans="1:23">
       <c r="A522" s="20">
         <v>41842</v>
       </c>
@@ -30003,17 +29943,17 @@
       <c r="R522" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="S522" s="32" t="s">
+      <c r="S522" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="T522" s="19" t="s">
+      <c r="T522" s="31" t="s">
         <v>71</v>
       </c>
       <c r="U522" s="26"/>
       <c r="V522" s="20"/>
       <c r="W522" s="21"/>
     </row>
-    <row r="523" spans="1:23">
+    <row r="523" hidden="1" spans="1:23">
       <c r="A523" s="20">
         <v>41709</v>
       </c>
@@ -30061,7 +30001,7 @@
       </c>
       <c r="W523" s="21"/>
     </row>
-    <row r="524" spans="1:23">
+    <row r="524" hidden="1" spans="1:23">
       <c r="A524" s="20">
         <v>41709</v>
       </c>
@@ -30117,7 +30057,7 @@
       </c>
       <c r="W524" s="21"/>
     </row>
-    <row r="525" spans="1:23">
+    <row r="525" hidden="1" spans="1:23">
       <c r="A525" s="20">
         <v>41709</v>
       </c>
@@ -30163,7 +30103,7 @@
       </c>
       <c r="W525" s="21"/>
     </row>
-    <row r="526" spans="1:23">
+    <row r="526" hidden="1" spans="1:23">
       <c r="A526" s="20">
         <v>41709</v>
       </c>
@@ -30217,7 +30157,7 @@
       </c>
       <c r="W526" s="21"/>
     </row>
-    <row r="527" spans="1:23">
+    <row r="527" hidden="1" spans="1:23">
       <c r="A527" s="20">
         <v>41709</v>
       </c>
@@ -30265,7 +30205,7 @@
       </c>
       <c r="W527" s="20"/>
     </row>
-    <row r="528" spans="1:23">
+    <row r="528" hidden="1" spans="1:23">
       <c r="A528" s="20">
         <v>42705</v>
       </c>
@@ -30315,7 +30255,7 @@
       <c r="V528" s="20"/>
       <c r="W528" s="20"/>
     </row>
-    <row r="529" spans="1:23">
+    <row r="529" hidden="1" spans="1:23">
       <c r="A529" s="20">
         <v>41842</v>
       </c>
@@ -30363,7 +30303,7 @@
       </c>
       <c r="W529" s="20"/>
     </row>
-    <row r="530" spans="1:23">
+    <row r="530" hidden="1" spans="1:23">
       <c r="A530" s="20">
         <v>41981</v>
       </c>
@@ -30421,7 +30361,7 @@
       </c>
       <c r="W530" s="21"/>
     </row>
-    <row r="531" spans="1:23">
+    <row r="531" hidden="1" spans="1:23">
       <c r="A531" s="20">
         <v>41709</v>
       </c>
@@ -30469,7 +30409,7 @@
       </c>
       <c r="W531" s="20"/>
     </row>
-    <row r="532" spans="1:23">
+    <row r="532" hidden="1" spans="1:23">
       <c r="A532" s="20">
         <v>42705</v>
       </c>
@@ -30517,7 +30457,7 @@
       <c r="V532" s="20"/>
       <c r="W532" s="20"/>
     </row>
-    <row r="533" spans="1:23">
+    <row r="533" hidden="1" spans="1:23">
       <c r="A533" s="20">
         <v>41709</v>
       </c>
@@ -30575,7 +30515,7 @@
       </c>
       <c r="W533" s="21"/>
     </row>
-    <row r="534" spans="1:23">
+    <row r="534" hidden="1" spans="1:23">
       <c r="A534" s="20">
         <v>41709</v>
       </c>
@@ -30629,7 +30569,7 @@
       <c r="V534" s="20"/>
       <c r="W534" s="20"/>
     </row>
-    <row r="535" spans="1:23">
+    <row r="535" hidden="1" spans="1:23">
       <c r="A535" s="20">
         <v>41842</v>
       </c>
@@ -30675,7 +30615,7 @@
       </c>
       <c r="W535" s="20"/>
     </row>
-    <row r="536" spans="1:23">
+    <row r="536" hidden="1" spans="1:23">
       <c r="A536" s="20">
         <v>41709</v>
       </c>
@@ -30717,7 +30657,7 @@
       <c r="V536" s="43"/>
       <c r="W536" s="20"/>
     </row>
-    <row r="537" spans="1:23">
+    <row r="537" hidden="1" spans="1:23">
       <c r="A537" s="20">
         <v>42487</v>
       </c>
@@ -30769,7 +30709,7 @@
       </c>
       <c r="W537" s="20"/>
     </row>
-    <row r="538" spans="1:23">
+    <row r="538" hidden="1" spans="1:23">
       <c r="A538" s="20">
         <v>41709</v>
       </c>
@@ -30819,7 +30759,7 @@
       <c r="V538" s="43"/>
       <c r="W538" s="21"/>
     </row>
-    <row r="539" spans="1:23">
+    <row r="539" hidden="1" spans="1:23">
       <c r="A539" s="20">
         <v>42240</v>
       </c>
@@ -30873,7 +30813,7 @@
       <c r="V539" s="43"/>
       <c r="W539" s="21"/>
     </row>
-    <row r="540" spans="1:23">
+    <row r="540" hidden="1" spans="1:23">
       <c r="A540" s="20">
         <v>41709</v>
       </c>
@@ -30929,7 +30869,7 @@
       </c>
       <c r="W540" s="21"/>
     </row>
-    <row r="541" spans="1:23">
+    <row r="541" hidden="1" spans="1:23">
       <c r="A541" s="20">
         <v>42487</v>
       </c>
@@ -30973,7 +30913,7 @@
       <c r="V541" s="43"/>
       <c r="W541" s="20"/>
     </row>
-    <row r="542" spans="1:23">
+    <row r="542" hidden="1" spans="1:23">
       <c r="A542" s="20">
         <v>42705</v>
       </c>
@@ -31031,7 +30971,7 @@
       </c>
       <c r="W542" s="20"/>
     </row>
-    <row r="543" spans="1:23">
+    <row r="543" hidden="1" spans="1:23">
       <c r="A543" s="20">
         <v>41981</v>
       </c>
@@ -31083,7 +31023,7 @@
       <c r="V543" s="43"/>
       <c r="W543" s="20"/>
     </row>
-    <row r="544" spans="1:23">
+    <row r="544" hidden="1" spans="1:23">
       <c r="A544" s="20">
         <v>42705</v>
       </c>
@@ -31133,7 +31073,7 @@
       <c r="V544" s="20"/>
       <c r="W544" s="20"/>
     </row>
-    <row r="545" spans="1:23">
+    <row r="545" hidden="1" spans="1:23">
       <c r="A545" s="20">
         <v>41981</v>
       </c>
@@ -31179,7 +31119,7 @@
       </c>
       <c r="W545" s="20"/>
     </row>
-    <row r="546" spans="1:23">
+    <row r="546" hidden="1" spans="1:23">
       <c r="A546" s="20">
         <v>42593</v>
       </c>
@@ -32149,7 +32089,7 @@
       <c r="S565" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="T565" s="19" t="s">
+      <c r="T565" s="31" t="s">
         <v>25</v>
       </c>
       <c r="U565" s="32" t="s">
@@ -32567,7 +32507,7 @@
       <c r="S573" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="T573" s="19" t="s">
+      <c r="T573" s="31" t="s">
         <v>81</v>
       </c>
       <c r="U573" s="19" t="s">
@@ -32972,7 +32912,6 @@
       <c r="T582" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="U582" s="25"/>
       <c r="V582" s="21" t="s">
         <v>883</v>
       </c>
@@ -33006,8 +32945,6 @@
       <c r="Q583" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="R583" s="25"/>
-      <c r="S583" s="25"/>
       <c r="T583" s="32" t="s">
         <v>40</v>
       </c>
@@ -33839,17 +33776,17 @@
       <c r="Q600" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="R600" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="S600" s="32" t="s">
-        <v>81</v>
+      <c r="R600" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="S600" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="T600" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="U600" s="32" t="s">
-        <v>85</v>
+      <c r="U600" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="V600" s="20"/>
       <c r="W600" s="20"/>
@@ -33946,9 +33883,7 @@
       <c r="S602" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="T602" s="32" t="s">
-        <v>37</v>
-      </c>
+      <c r="T602" s="21"/>
       <c r="U602" s="32" t="s">
         <v>37</v>
       </c>
@@ -34151,12 +34086,10 @@
       <c r="S606" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="T606" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="U606" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="T606" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="U606" s="20"/>
       <c r="V606" s="21"/>
       <c r="W606" s="20"/>
     </row>
@@ -34805,18 +34738,14 @@
       <c r="Q619" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="R619" s="19" t="s">
-        <v>62</v>
-      </c>
+      <c r="R619" s="21"/>
       <c r="S619" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="T619" s="19" t="s">
+      <c r="T619" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="U619" s="19" t="s">
-        <v>62</v>
-      </c>
+      <c r="U619" s="21"/>
       <c r="V619" s="20"/>
       <c r="W619" s="20"/>
     </row>
@@ -34857,7 +34786,7 @@
       <c r="Q620" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R620" s="32" t="s">
+      <c r="R620" s="29" t="s">
         <v>25</v>
       </c>
       <c r="S620" s="32" t="s">
@@ -35026,15 +34955,11 @@
       <c r="R623" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="S623" s="19" t="s">
+      <c r="S623" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="T623" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="U623" s="19" t="s">
-        <v>117</v>
-      </c>
+      <c r="T623" s="25"/>
+      <c r="U623" s="25"/>
       <c r="V623" s="21" t="s">
         <v>936</v>
       </c>
@@ -35229,18 +35154,16 @@
       <c r="Q627" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="R627" s="32" t="s">
-        <v>25</v>
+      <c r="R627" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="S627" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="T627" s="19" t="s">
+      <c r="T627" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="U627" s="29" t="s">
-        <v>25</v>
-      </c>
+      <c r="U627" s="25"/>
       <c r="V627" s="21" t="s">
         <v>942</v>
       </c>
@@ -35284,12 +35207,12 @@
         <v>85</v>
       </c>
       <c r="R628" s="19" t="s">
-        <v>225</v>
+        <v>85</v>
       </c>
       <c r="S628" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="T628" s="19" t="s">
+      <c r="T628" s="31" t="s">
         <v>225</v>
       </c>
       <c r="U628" s="31" t="s">
@@ -35864,7 +35787,7 @@
       <c r="V639" s="43"/>
       <c r="W639" s="20"/>
     </row>
-    <row r="640" customFormat="1" spans="1:23">
+    <row r="640" customFormat="1" hidden="1" spans="1:23">
       <c r="A640" s="20">
         <v>42705</v>
       </c>
@@ -35916,7 +35839,7 @@
       </c>
       <c r="W640" s="20"/>
     </row>
-    <row r="641" customFormat="1" spans="1:23">
+    <row r="641" customFormat="1" hidden="1" spans="1:23">
       <c r="A641" s="20">
         <v>42320</v>
       </c>
@@ -35972,7 +35895,7 @@
       </c>
       <c r="W641" s="20"/>
     </row>
-    <row r="642" customFormat="1" spans="1:23">
+    <row r="642" customFormat="1" hidden="1" spans="1:23">
       <c r="A642" s="20">
         <v>41709</v>
       </c>
@@ -36026,7 +35949,7 @@
       </c>
       <c r="W642" s="20"/>
     </row>
-    <row r="643" customFormat="1" spans="1:23">
+    <row r="643" customFormat="1" hidden="1" spans="1:23">
       <c r="A643" s="20">
         <v>41842</v>
       </c>
@@ -36078,7 +36001,7 @@
       </c>
       <c r="W643" s="20"/>
     </row>
-    <row r="644" customFormat="1" spans="1:23">
+    <row r="644" customFormat="1" hidden="1" spans="1:23">
       <c r="A644" s="20">
         <v>42705</v>
       </c>
@@ -36118,7 +36041,7 @@
         <v>81</v>
       </c>
       <c r="R644" s="26"/>
-      <c r="S644" s="38" t="s">
+      <c r="S644" s="29" t="s">
         <v>81</v>
       </c>
       <c r="T644" s="38" t="s">
@@ -36128,7 +36051,7 @@
       <c r="V644" s="20"/>
       <c r="W644" s="20"/>
     </row>
-    <row r="645" customFormat="1" spans="1:23">
+    <row r="645" customFormat="1" hidden="1" spans="1:23">
       <c r="A645" s="20">
         <v>42487</v>
       </c>
@@ -36182,7 +36105,7 @@
       </c>
       <c r="W645" s="20"/>
     </row>
-    <row r="646" customFormat="1" spans="1:23">
+    <row r="646" customFormat="1" hidden="1" spans="1:23">
       <c r="A646" s="20">
         <v>42593</v>
       </c>
@@ -36236,7 +36159,7 @@
       <c r="V646" s="43"/>
       <c r="W646" s="20"/>
     </row>
-    <row r="647" customFormat="1" spans="1:23">
+    <row r="647" customFormat="1" hidden="1" spans="1:23">
       <c r="A647" s="20">
         <v>42593</v>
       </c>
@@ -36288,7 +36211,7 @@
       </c>
       <c r="W647" s="20"/>
     </row>
-    <row r="648" customFormat="1" spans="1:23">
+    <row r="648" customFormat="1" hidden="1" spans="1:23">
       <c r="A648" s="20">
         <v>41709</v>
       </c>
@@ -36336,7 +36259,7 @@
       </c>
       <c r="W648" s="20"/>
     </row>
-    <row r="649" customFormat="1" spans="1:23">
+    <row r="649" customFormat="1" hidden="1" spans="1:23">
       <c r="A649" s="20">
         <v>42487</v>
       </c>
@@ -36388,7 +36311,7 @@
       <c r="V649" s="43"/>
       <c r="W649" s="20"/>
     </row>
-    <row r="650" customFormat="1" spans="1:23">
+    <row r="650" customFormat="1" hidden="1" spans="1:23">
       <c r="A650" s="20">
         <v>42487</v>
       </c>
@@ -36482,7 +36405,7 @@
       <c r="V651" s="20"/>
       <c r="W651" s="20"/>
     </row>
-    <row r="652" spans="1:23">
+    <row r="652" hidden="1" spans="1:23">
       <c r="A652" s="20">
         <v>42240</v>
       </c>
@@ -36534,7 +36457,7 @@
       </c>
       <c r="W652" s="20"/>
     </row>
-    <row r="653" spans="1:23">
+    <row r="653" hidden="1" spans="1:23">
       <c r="A653" s="20">
         <v>42320</v>
       </c>
@@ -36584,7 +36507,7 @@
       </c>
       <c r="W653" s="20"/>
     </row>
-    <row r="654" spans="1:23">
+    <row r="654" hidden="1" spans="1:23">
       <c r="A654" s="20">
         <v>42487</v>
       </c>
@@ -36634,7 +36557,7 @@
       </c>
       <c r="W654" s="20"/>
     </row>
-    <row r="655" spans="1:23">
+    <row r="655" hidden="1" spans="1:23">
       <c r="A655" s="20">
         <v>41709</v>
       </c>
@@ -36686,7 +36609,7 @@
       </c>
       <c r="W655" s="20"/>
     </row>
-    <row r="656" spans="1:23">
+    <row r="656" hidden="1" spans="1:23">
       <c r="A656" s="20">
         <v>42705</v>
       </c>
@@ -36736,7 +36659,7 @@
       <c r="V656" s="20"/>
       <c r="W656" s="20"/>
     </row>
-    <row r="657" spans="1:23">
+    <row r="657" hidden="1" spans="1:23">
       <c r="A657" s="20">
         <v>42705</v>
       </c>
@@ -36784,7 +36707,7 @@
       <c r="V657" s="20"/>
       <c r="W657" s="20"/>
     </row>
-    <row r="658" spans="1:23">
+    <row r="658" hidden="1" spans="1:23">
       <c r="A658" s="20">
         <v>42240</v>
       </c>
@@ -36834,7 +36757,7 @@
       </c>
       <c r="W658" s="20"/>
     </row>
-    <row r="659" spans="1:23">
+    <row r="659" hidden="1" spans="1:23">
       <c r="A659" s="20">
         <v>42705</v>
       </c>
@@ -36888,7 +36811,7 @@
       <c r="V659" s="20"/>
       <c r="W659" s="20"/>
     </row>
-    <row r="660" spans="1:23">
+    <row r="660" hidden="1" spans="1:23">
       <c r="A660" s="20">
         <v>42096</v>
       </c>
@@ -36936,7 +36859,7 @@
       <c r="V660" s="43"/>
       <c r="W660" s="20"/>
     </row>
-    <row r="661" spans="1:23">
+    <row r="661" hidden="1" spans="1:23">
       <c r="A661" s="20">
         <v>41981</v>
       </c>
@@ -36990,7 +36913,7 @@
       </c>
       <c r="W661" s="20"/>
     </row>
-    <row r="662" spans="1:23">
+    <row r="662" hidden="1" spans="1:23">
       <c r="A662" s="20">
         <v>41709</v>
       </c>
@@ -37044,7 +36967,7 @@
       <c r="V662" s="20"/>
       <c r="W662" s="20"/>
     </row>
-    <row r="663" spans="1:23">
+    <row r="663" hidden="1" spans="1:23">
       <c r="A663" s="20">
         <v>41981</v>
       </c>
@@ -37090,7 +37013,7 @@
       <c r="V663" s="20"/>
       <c r="W663" s="20"/>
     </row>
-    <row r="664" spans="1:23">
+    <row r="664" hidden="1" spans="1:23">
       <c r="A664" s="20">
         <v>42487</v>
       </c>
@@ -37144,7 +37067,7 @@
       </c>
       <c r="W664" s="20"/>
     </row>
-    <row r="665" spans="1:23">
+    <row r="665" hidden="1" spans="1:23">
       <c r="A665" s="20">
         <v>42487</v>
       </c>
@@ -37196,7 +37119,7 @@
       </c>
       <c r="W665" s="20"/>
     </row>
-    <row r="666" spans="1:23">
+    <row r="666" hidden="1" spans="1:23">
       <c r="A666" s="20">
         <v>42487</v>
       </c>
@@ -37306,7 +37229,7 @@
       </c>
       <c r="W667" s="20"/>
     </row>
-    <row r="668" spans="1:23">
+    <row r="668" hidden="1" spans="1:23">
       <c r="A668" s="20">
         <v>41981</v>
       </c>
@@ -37358,7 +37281,7 @@
       </c>
       <c r="W668" s="20"/>
     </row>
-    <row r="669" spans="1:23">
+    <row r="669" hidden="1" spans="1:23">
       <c r="A669" s="20">
         <v>42487</v>
       </c>
@@ -37414,7 +37337,7 @@
       </c>
       <c r="W669" s="20"/>
     </row>
-    <row r="670" spans="1:23">
+    <row r="670" hidden="1" spans="1:23">
       <c r="A670" s="20">
         <v>41709</v>
       </c>
@@ -37470,7 +37393,7 @@
       </c>
       <c r="W670" s="20"/>
     </row>
-    <row r="671" spans="1:19">
+    <row r="671" hidden="1" spans="1:19">
       <c r="A671" s="20">
         <v>42705</v>
       </c>
@@ -37503,7 +37426,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="672" spans="1:22">
+    <row r="672" hidden="1" spans="1:22">
       <c r="A672" s="20">
         <v>41709</v>
       </c>
@@ -37552,7 +37475,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="673" spans="1:23">
+    <row r="673" hidden="1" spans="1:23">
       <c r="A673" s="20">
         <v>42240</v>
       </c>
@@ -37658,7 +37581,7 @@
       </c>
       <c r="W674" s="20"/>
     </row>
-    <row r="675" spans="1:22">
+    <row r="675" hidden="1" spans="1:22">
       <c r="A675" s="20">
         <v>41709</v>
       </c>
@@ -37698,7 +37621,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="676" spans="1:22">
+    <row r="676" hidden="1" spans="1:22">
       <c r="A676" s="20">
         <v>41981</v>
       </c>
@@ -37742,7 +37665,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="677" spans="1:23">
+    <row r="677" hidden="1" spans="1:23">
       <c r="A677" s="20">
         <v>41709</v>
       </c>
@@ -37792,7 +37715,7 @@
       </c>
       <c r="W677" s="20"/>
     </row>
-    <row r="678" spans="1:23">
+    <row r="678" hidden="1" spans="1:23">
       <c r="A678" s="20">
         <v>42320</v>
       </c>
@@ -37960,7 +37883,7 @@
       </c>
       <c r="W680" s="20"/>
     </row>
-    <row r="681" spans="1:23">
+    <row r="681" hidden="1" spans="1:23">
       <c r="A681" s="20">
         <v>42487</v>
       </c>
@@ -38010,7 +37933,7 @@
       <c r="V681" s="43"/>
       <c r="W681" s="20"/>
     </row>
-    <row r="682" spans="1:21">
+    <row r="682" hidden="1" spans="1:21">
       <c r="A682" s="20">
         <v>42705</v>
       </c>
@@ -38058,7 +37981,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="683" spans="1:23">
+    <row r="683" hidden="1" spans="1:23">
       <c r="A683" s="20">
         <v>41709</v>
       </c>
@@ -38114,7 +38037,7 @@
       </c>
       <c r="W683" s="20"/>
     </row>
-    <row r="684" spans="1:23">
+    <row r="684" hidden="1" spans="1:23">
       <c r="A684" s="20">
         <v>41709</v>
       </c>
@@ -38166,7 +38089,7 @@
       </c>
       <c r="W684" s="20"/>
     </row>
-    <row r="685" spans="1:23">
+    <row r="685" hidden="1" spans="1:23">
       <c r="A685" s="20">
         <v>41709</v>
       </c>
@@ -38218,7 +38141,7 @@
       <c r="V685" s="43"/>
       <c r="W685" s="20"/>
     </row>
-    <row r="686" spans="1:22">
+    <row r="686" hidden="1" spans="1:22">
       <c r="A686" s="20">
         <v>41981</v>
       </c>
@@ -38276,7 +38199,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="687" spans="1:22">
+    <row r="687" hidden="1" spans="1:22">
       <c r="A687" s="20">
         <v>42705</v>
       </c>
@@ -38325,7 +38248,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="688" spans="1:23">
+    <row r="688" hidden="1" spans="1:23">
       <c r="A688" s="20">
         <v>42240</v>
       </c>
@@ -38381,7 +38304,7 @@
       </c>
       <c r="W688" s="20"/>
     </row>
-    <row r="689" spans="1:23">
+    <row r="689" hidden="1" spans="1:23">
       <c r="A689" s="20">
         <v>41842</v>
       </c>
@@ -38437,7 +38360,7 @@
       </c>
       <c r="W689" s="20"/>
     </row>
-    <row r="690" spans="1:23">
+    <row r="690" hidden="1" spans="1:23">
       <c r="A690" s="20">
         <v>42240</v>
       </c>
@@ -38489,7 +38412,7 @@
       <c r="V690" s="43"/>
       <c r="W690" s="20"/>
     </row>
-    <row r="691" spans="1:21">
+    <row r="691" hidden="1" spans="1:21">
       <c r="A691" s="20">
         <v>41709</v>
       </c>
@@ -38534,7 +38457,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="692" spans="1:23">
+    <row r="692" hidden="1" spans="1:23">
       <c r="A692" s="20">
         <v>41981</v>
       </c>
@@ -38590,7 +38513,7 @@
       <c r="V692" s="43"/>
       <c r="W692" s="20"/>
     </row>
-    <row r="693" spans="1:23">
+    <row r="693" hidden="1" spans="1:23">
       <c r="A693" s="20">
         <v>41981</v>
       </c>
@@ -38640,7 +38563,7 @@
       <c r="V693" s="43"/>
       <c r="W693" s="20"/>
     </row>
-    <row r="694" spans="1:23">
+    <row r="694" hidden="1" spans="1:23">
       <c r="A694" s="20">
         <v>41709</v>
       </c>
@@ -38750,7 +38673,7 @@
       </c>
       <c r="W695" s="20"/>
     </row>
-    <row r="696" spans="1:23">
+    <row r="696" hidden="1" spans="1:23">
       <c r="A696" s="20">
         <v>42487</v>
       </c>
@@ -38804,7 +38727,7 @@
       </c>
       <c r="W696" s="20"/>
     </row>
-    <row r="697" spans="1:22">
+    <row r="697" hidden="1" spans="1:22">
       <c r="A697" s="20">
         <v>41981</v>
       </c>
@@ -38850,7 +38773,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="698" spans="1:23">
+    <row r="698" hidden="1" spans="1:23">
       <c r="A698" s="20">
         <v>42240</v>
       </c>
@@ -38900,7 +38823,7 @@
       <c r="V698" s="43"/>
       <c r="W698" s="20"/>
     </row>
-    <row r="699" spans="1:23">
+    <row r="699" hidden="1" spans="1:23">
       <c r="A699" s="20">
         <v>42240</v>
       </c>
@@ -38950,7 +38873,7 @@
       <c r="V699" s="43"/>
       <c r="W699" s="20"/>
     </row>
-    <row r="700" spans="1:22">
+    <row r="700" hidden="1" spans="1:22">
       <c r="A700" s="20">
         <v>42705</v>
       </c>
@@ -39001,7 +38924,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="701" spans="1:23">
+    <row r="701" hidden="1" spans="1:23">
       <c r="A701" s="20">
         <v>42320</v>
       </c>
@@ -39051,7 +38974,7 @@
       <c r="V701" s="43"/>
       <c r="W701" s="20"/>
     </row>
-    <row r="702" spans="1:23">
+    <row r="702" hidden="1" spans="1:23">
       <c r="A702" s="20">
         <v>41709</v>
       </c>
@@ -39139,7 +39062,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="704" spans="1:23">
+    <row r="704" hidden="1" spans="1:23">
       <c r="A704" s="20">
         <v>42320</v>
       </c>
@@ -39245,7 +39168,7 @@
       <c r="V705" s="43"/>
       <c r="W705" s="20"/>
     </row>
-    <row r="706" spans="1:23">
+    <row r="706" hidden="1" spans="1:23">
       <c r="A706" s="20">
         <v>42240</v>
       </c>
@@ -39303,7 +39226,7 @@
       </c>
       <c r="W706" s="20"/>
     </row>
-    <row r="707" spans="1:23">
+    <row r="707" hidden="1" spans="1:23">
       <c r="A707" s="20">
         <v>41709</v>
       </c>
@@ -39409,7 +39332,7 @@
       </c>
       <c r="W708" s="20"/>
     </row>
-    <row r="709" spans="1:23">
+    <row r="709" hidden="1" spans="1:23">
       <c r="A709" s="20">
         <v>41709</v>
       </c>
@@ -40981,7 +40904,6 @@
       <c r="Q740" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="R740" s="25"/>
       <c r="S740" s="30" t="s">
         <v>81</v>
       </c>
@@ -41636,7 +41558,7 @@
         <v>129</v>
       </c>
       <c r="R753" s="32" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="S753" s="32" t="s">
         <v>129</v>
@@ -41839,7 +41761,7 @@
       <c r="Q757" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="R757" s="19" t="s">
+      <c r="R757" s="31" t="s">
         <v>71</v>
       </c>
       <c r="S757" s="19" t="s">
@@ -43007,7 +42929,7 @@
       </c>
       <c r="W780" s="20"/>
     </row>
-    <row r="781" spans="1:23">
+    <row r="781" hidden="1" spans="1:23">
       <c r="A781" s="20">
         <v>42320</v>
       </c>
@@ -43055,7 +42977,7 @@
       <c r="V781" s="43"/>
       <c r="W781" s="20"/>
     </row>
-    <row r="782" spans="1:23">
+    <row r="782" hidden="1" spans="1:23">
       <c r="A782" s="20">
         <v>41709</v>
       </c>
@@ -43105,7 +43027,7 @@
       <c r="V782" s="43"/>
       <c r="W782" s="20"/>
     </row>
-    <row r="783" spans="1:23">
+    <row r="783" hidden="1" spans="1:23">
       <c r="A783" s="20">
         <v>41709</v>
       </c>
@@ -43157,7 +43079,7 @@
       <c r="V783" s="43"/>
       <c r="W783" s="20"/>
     </row>
-    <row r="784" spans="1:21">
+    <row r="784" hidden="1" spans="1:21">
       <c r="A784" s="20">
         <v>42705</v>
       </c>
@@ -43252,7 +43174,7 @@
       </c>
       <c r="W785" s="20"/>
     </row>
-    <row r="786" spans="1:23">
+    <row r="786" hidden="1" spans="1:23">
       <c r="A786" s="20">
         <v>41981</v>
       </c>
@@ -43302,7 +43224,7 @@
       </c>
       <c r="W786" s="20"/>
     </row>
-    <row r="787" spans="1:23">
+    <row r="787" hidden="1" spans="1:23">
       <c r="A787" s="20">
         <v>41709</v>
       </c>
@@ -43348,7 +43270,7 @@
       <c r="V787" s="43"/>
       <c r="W787" s="20"/>
     </row>
-    <row r="788" spans="1:23">
+    <row r="788" hidden="1" spans="1:23">
       <c r="A788" s="20">
         <v>41709</v>
       </c>
@@ -43404,7 +43326,7 @@
       </c>
       <c r="W788" s="20"/>
     </row>
-    <row r="789" spans="1:21">
+    <row r="789" hidden="1" spans="1:21">
       <c r="A789" s="20">
         <v>42705</v>
       </c>
@@ -43449,7 +43371,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="790" spans="1:23">
+    <row r="790" hidden="1" spans="1:23">
       <c r="A790" s="20">
         <v>42240</v>
       </c>
@@ -43507,7 +43429,7 @@
       </c>
       <c r="W790" s="20"/>
     </row>
-    <row r="791" spans="1:22">
+    <row r="791" hidden="1" spans="1:22">
       <c r="A791" s="20">
         <v>42705</v>
       </c>
@@ -43546,12 +43468,11 @@
         <v>103</v>
       </c>
       <c r="T791" s="25"/>
-      <c r="U791" s="25"/>
       <c r="V791" s="26" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="792" spans="1:23">
+    <row r="792" hidden="1" spans="1:23">
       <c r="A792" s="20">
         <v>41842</v>
       </c>
@@ -43601,7 +43522,7 @@
       <c r="V792" s="43"/>
       <c r="W792" s="20"/>
     </row>
-    <row r="793" spans="1:23">
+    <row r="793" hidden="1" spans="1:23">
       <c r="A793" s="20">
         <v>41709</v>
       </c>
@@ -43653,7 +43574,7 @@
       <c r="V793" s="43"/>
       <c r="W793" s="20"/>
     </row>
-    <row r="794" spans="1:23">
+    <row r="794" hidden="1" spans="1:23">
       <c r="A794" s="20">
         <v>41981</v>
       </c>
@@ -43865,7 +43786,7 @@
       <c r="V797" s="43"/>
       <c r="W797" s="20"/>
     </row>
-    <row r="798" spans="1:21">
+    <row r="798" hidden="1" spans="1:21">
       <c r="A798" s="20">
         <v>42705</v>
       </c>
@@ -43960,7 +43881,7 @@
       </c>
       <c r="W799" s="20"/>
     </row>
-    <row r="800" spans="1:23">
+    <row r="800" hidden="1" spans="1:23">
       <c r="A800" s="20">
         <v>41842</v>
       </c>
@@ -44060,7 +43981,7 @@
       <c r="V801" s="43"/>
       <c r="W801" s="20"/>
     </row>
-    <row r="802" spans="1:23">
+    <row r="802" hidden="1" spans="1:23">
       <c r="A802" s="20">
         <v>41981</v>
       </c>
@@ -44112,7 +44033,7 @@
       <c r="V802" s="43"/>
       <c r="W802" s="20"/>
     </row>
-    <row r="803" spans="1:23">
+    <row r="803" hidden="1" spans="1:23">
       <c r="A803" s="20">
         <v>42487</v>
       </c>
@@ -44216,7 +44137,7 @@
       </c>
       <c r="W804" s="20"/>
     </row>
-    <row r="805" spans="1:23">
+    <row r="805" hidden="1" spans="1:23">
       <c r="A805" s="20">
         <v>41981</v>
       </c>
@@ -44270,7 +44191,7 @@
       </c>
       <c r="W805" s="20"/>
     </row>
-    <row r="806" spans="1:23">
+    <row r="806" hidden="1" spans="1:23">
       <c r="A806" s="20">
         <v>41709</v>
       </c>
@@ -44322,7 +44243,7 @@
       </c>
       <c r="W806" s="20"/>
     </row>
-    <row r="807" spans="1:22">
+    <row r="807" hidden="1" spans="1:22">
       <c r="A807" s="20">
         <v>42320</v>
       </c>
@@ -44365,7 +44286,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="808" spans="1:21">
+    <row r="808" hidden="1" spans="1:21">
       <c r="A808" s="20">
         <v>42705</v>
       </c>
@@ -44410,7 +44331,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="809" spans="1:23">
+    <row r="809" hidden="1" spans="1:23">
       <c r="A809" s="20">
         <v>41709</v>
       </c>
@@ -44462,7 +44383,7 @@
       </c>
       <c r="W809" s="20"/>
     </row>
-    <row r="810" spans="1:21">
+    <row r="810" hidden="1" spans="1:21">
       <c r="A810" s="20">
         <v>41709</v>
       </c>
@@ -44499,7 +44420,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="811" spans="1:23">
+    <row r="811" hidden="1" spans="1:23">
       <c r="A811" s="20">
         <v>42240</v>
       </c>
@@ -44551,7 +44472,7 @@
       <c r="V811" s="43"/>
       <c r="W811" s="20"/>
     </row>
-    <row r="812" spans="1:23">
+    <row r="812" hidden="1" spans="1:23">
       <c r="A812" s="20">
         <v>42096</v>
       </c>
@@ -44601,7 +44522,7 @@
       </c>
       <c r="W812" s="20"/>
     </row>
-    <row r="813" spans="1:23">
+    <row r="813" hidden="1" spans="1:23">
       <c r="A813" s="20">
         <v>41709</v>
       </c>
@@ -44657,7 +44578,7 @@
       <c r="V813" s="43"/>
       <c r="W813" s="20"/>
     </row>
-    <row r="814" spans="1:23">
+    <row r="814" hidden="1" spans="1:23">
       <c r="A814" s="20">
         <v>41981</v>
       </c>
@@ -44699,7 +44620,7 @@
       <c r="R814" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="S814" s="32" t="s">
+      <c r="S814" s="33" t="s">
         <v>81</v>
       </c>
       <c r="T814" s="19" t="s">
@@ -44713,7 +44634,7 @@
       </c>
       <c r="W814" s="20"/>
     </row>
-    <row r="815" spans="1:21">
+    <row r="815" hidden="1" spans="1:21">
       <c r="A815" s="20">
         <v>41709</v>
       </c>
@@ -44756,7 +44677,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="816" spans="1:23">
+    <row r="816" hidden="1" spans="1:23">
       <c r="A816" s="20">
         <v>41981</v>
       </c>
@@ -44806,7 +44727,7 @@
       <c r="V816" s="43"/>
       <c r="W816" s="20"/>
     </row>
-    <row r="817" spans="1:22">
+    <row r="817" hidden="1" spans="1:22">
       <c r="A817" s="20">
         <v>41842</v>
       </c>
@@ -44854,7 +44775,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="818" spans="1:23">
+    <row r="818" hidden="1" spans="1:23">
       <c r="A818" s="20">
         <v>41709</v>
       </c>
@@ -44956,7 +44877,7 @@
       <c r="V819" s="43"/>
       <c r="W819" s="20"/>
     </row>
-    <row r="820" spans="1:22">
+    <row r="820" hidden="1" spans="1:22">
       <c r="A820" s="20">
         <v>42705</v>
       </c>
@@ -45004,7 +44925,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="821" spans="1:23">
+    <row r="821" hidden="1" spans="1:23">
       <c r="A821" s="20">
         <v>41981</v>
       </c>
@@ -45054,7 +44975,7 @@
       </c>
       <c r="W821" s="20"/>
     </row>
-    <row r="822" spans="1:23">
+    <row r="822" hidden="1" spans="1:23">
       <c r="A822" s="20">
         <v>41981</v>
       </c>
@@ -45110,7 +45031,7 @@
       </c>
       <c r="W822" s="20"/>
     </row>
-    <row r="823" spans="1:21">
+    <row r="823" hidden="1" spans="1:21">
       <c r="A823" s="20">
         <v>42487</v>
       </c>
@@ -45152,7 +45073,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="824" spans="1:23">
+    <row r="824" hidden="1" spans="1:23">
       <c r="A824" s="20">
         <v>42240</v>
       </c>
@@ -45210,7 +45131,7 @@
       </c>
       <c r="W824" s="20"/>
     </row>
-    <row r="825" spans="1:22">
+    <row r="825" hidden="1" spans="1:22">
       <c r="A825" s="20">
         <v>42320</v>
       </c>
@@ -45366,7 +45287,7 @@
       </c>
       <c r="W827" s="20"/>
     </row>
-    <row r="828" spans="1:23">
+    <row r="828" hidden="1" spans="1:23">
       <c r="A828" s="20">
         <v>41981</v>
       </c>
@@ -45414,7 +45335,7 @@
       </c>
       <c r="W828" s="20"/>
     </row>
-    <row r="829" spans="1:23">
+    <row r="829" hidden="1" spans="1:23">
       <c r="A829" s="20">
         <v>41709</v>
       </c>
@@ -45466,7 +45387,7 @@
       </c>
       <c r="W829" s="20"/>
     </row>
-    <row r="830" spans="1:23">
+    <row r="830" hidden="1" spans="1:23">
       <c r="A830" s="20">
         <v>41842</v>
       </c>
@@ -45572,7 +45493,7 @@
       <c r="V831" s="43"/>
       <c r="W831" s="20"/>
     </row>
-    <row r="832" spans="1:23">
+    <row r="832" hidden="1" spans="1:23">
       <c r="A832" s="20">
         <v>41709</v>
       </c>
@@ -45628,7 +45549,7 @@
       </c>
       <c r="W832" s="20"/>
     </row>
-    <row r="833" spans="1:22">
+    <row r="833" hidden="1" spans="1:22">
       <c r="A833" s="20">
         <v>42320</v>
       </c>
@@ -45673,7 +45594,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="834" ht="16" customHeight="1" spans="1:22">
+    <row r="834" ht="16" hidden="1" customHeight="1" spans="1:22">
       <c r="A834" s="20">
         <v>42487</v>
       </c>
@@ -45717,7 +45638,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="835" spans="1:21">
+    <row r="835" hidden="1" spans="1:21">
       <c r="A835" s="20">
         <v>42705</v>
       </c>
@@ -45759,7 +45680,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="836" spans="1:23">
+    <row r="836" hidden="1" spans="1:23">
       <c r="A836" s="20">
         <v>42240</v>
       </c>
@@ -45813,7 +45734,7 @@
       <c r="V836" s="43"/>
       <c r="W836" s="20"/>
     </row>
-    <row r="837" spans="1:21">
+    <row r="837" hidden="1" spans="1:21">
       <c r="A837" s="20">
         <v>42705</v>
       </c>
@@ -45855,7 +45776,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="838" spans="1:22">
+    <row r="838" hidden="1" spans="1:22">
       <c r="A838" s="20">
         <v>42705</v>
       </c>
@@ -45909,7 +45830,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="839" spans="1:21">
+    <row r="839" hidden="1" spans="1:21">
       <c r="A839" s="20">
         <v>41709</v>
       </c>
@@ -46042,7 +45963,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="842" spans="1:23">
+    <row r="842" hidden="1" spans="1:23">
       <c r="A842" s="20">
         <v>41709</v>
       </c>
@@ -46094,7 +46015,7 @@
       <c r="V842" s="43"/>
       <c r="W842" s="20"/>
     </row>
-    <row r="843" spans="1:23">
+    <row r="843" hidden="1" spans="1:23">
       <c r="A843" s="20">
         <v>42593</v>
       </c>
@@ -46198,7 +46119,7 @@
       <c r="V844" s="43"/>
       <c r="W844" s="20"/>
     </row>
-    <row r="845" spans="1:23">
+    <row r="845" hidden="1" spans="1:23">
       <c r="A845" s="20">
         <v>42240</v>
       </c>
@@ -46663,7 +46584,6 @@
         <v>44</v>
       </c>
       <c r="T854" s="25"/>
-      <c r="U854" s="25"/>
       <c r="V854" s="26" t="s">
         <v>625</v>
       </c>
@@ -46700,7 +46620,6 @@
       <c r="Q855" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="R855" s="25"/>
       <c r="S855" s="31" t="s">
         <v>30</v>
       </c>
@@ -47224,13 +47143,13 @@
         <v>25</v>
       </c>
       <c r="R866" s="20"/>
-      <c r="S866" s="32" t="s">
+      <c r="S866" s="29" t="s">
         <v>25</v>
       </c>
       <c r="T866" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="U866" s="19" t="s">
+      <c r="U866" s="31" t="s">
         <v>25</v>
       </c>
       <c r="V866" s="20"/>
@@ -47533,7 +47452,7 @@
       <c r="Q873" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="R873" s="19" t="s">
+      <c r="R873" s="31" t="s">
         <v>81</v>
       </c>
       <c r="S873" s="19" t="s">
@@ -47970,13 +47889,11 @@
       <c r="Q882" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="R882" s="32" t="s">
-        <v>62</v>
-      </c>
+      <c r="R882" s="25"/>
       <c r="S882" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="T882" s="19" t="s">
+      <c r="T882" s="31" t="s">
         <v>62</v>
       </c>
       <c r="U882" s="29" t="s">
@@ -48302,7 +48219,7 @@
       <c r="V889" s="43"/>
       <c r="W889" s="20"/>
     </row>
-    <row r="890" spans="1:23">
+    <row r="890" hidden="1" spans="1:23">
       <c r="A890" s="20">
         <v>41709</v>
       </c>
@@ -48460,7 +48377,7 @@
       <c r="V892" s="43"/>
       <c r="W892" s="20"/>
     </row>
-    <row r="893" spans="1:23">
+    <row r="893" hidden="1" spans="1:23">
       <c r="A893" s="20">
         <v>41709</v>
       </c>
@@ -48499,12 +48416,8 @@
       <c r="Q893" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="R893" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="S893" s="32" t="s">
-        <v>81</v>
-      </c>
+      <c r="R893" s="26"/>
+      <c r="S893" s="26"/>
       <c r="T893" s="19" t="s">
         <v>81</v>
       </c>
@@ -48516,7 +48429,7 @@
       </c>
       <c r="W893" s="20"/>
     </row>
-    <row r="894" spans="1:23">
+    <row r="894" hidden="1" spans="1:23">
       <c r="A894" s="20">
         <v>42240</v>
       </c>
@@ -48558,7 +48471,7 @@
       <c r="V894" s="43"/>
       <c r="W894" s="20"/>
     </row>
-    <row r="895" spans="1:23">
+    <row r="895" hidden="1" spans="1:23">
       <c r="A895" s="20">
         <v>42240</v>
       </c>
@@ -48608,7 +48521,7 @@
       <c r="V895" s="43"/>
       <c r="W895" s="20"/>
     </row>
-    <row r="896" spans="1:23">
+    <row r="896" hidden="1" spans="1:23">
       <c r="A896" s="20">
         <v>41709</v>
       </c>
@@ -48720,7 +48633,7 @@
       </c>
       <c r="W897" s="20"/>
     </row>
-    <row r="898" spans="1:22">
+    <row r="898" hidden="1" spans="1:22">
       <c r="A898" s="20">
         <v>42705</v>
       </c>
@@ -48774,7 +48687,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="899" spans="1:21">
+    <row r="899" hidden="1" spans="1:21">
       <c r="A899" s="20">
         <v>42705</v>
       </c>
@@ -48810,7 +48723,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="900" ht="18" customHeight="1" spans="1:20">
+    <row r="900" ht="18" hidden="1" customHeight="1" spans="1:20">
       <c r="A900" s="20">
         <v>42705</v>
       </c>
@@ -48852,7 +48765,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="901" spans="1:23">
+    <row r="901" hidden="1" spans="1:23">
       <c r="A901" s="20">
         <v>41709</v>
       </c>
@@ -48898,7 +48811,7 @@
       <c r="V901" s="43"/>
       <c r="W901" s="20"/>
     </row>
-    <row r="902" spans="1:23">
+    <row r="902" hidden="1" spans="1:23">
       <c r="A902" s="20">
         <v>42487</v>
       </c>
@@ -48944,7 +48857,7 @@
       <c r="V902" s="43"/>
       <c r="W902" s="20"/>
     </row>
-    <row r="903" spans="1:23">
+    <row r="903" hidden="1" spans="1:23">
       <c r="A903" s="20">
         <v>41709</v>
       </c>
@@ -48998,7 +48911,7 @@
       <c r="V903" s="43"/>
       <c r="W903" s="20"/>
     </row>
-    <row r="904" spans="1:22">
+    <row r="904" hidden="1" spans="1:22">
       <c r="A904" s="20">
         <v>42593</v>
       </c>
@@ -49047,7 +48960,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="905" spans="1:22">
+    <row r="905" hidden="1" spans="1:22">
       <c r="A905" s="20">
         <v>42705</v>
       </c>
@@ -49147,7 +49060,7 @@
       <c r="V906" s="43"/>
       <c r="W906" s="20"/>
     </row>
-    <row r="907" spans="1:23">
+    <row r="907" hidden="1" spans="1:23">
       <c r="A907" s="20">
         <v>42096</v>
       </c>
@@ -49197,7 +49110,7 @@
       <c r="V907" s="43"/>
       <c r="W907" s="20"/>
     </row>
-    <row r="908" spans="1:23">
+    <row r="908" hidden="1" spans="1:23">
       <c r="A908" s="20">
         <v>41709</v>
       </c>
@@ -49247,7 +49160,7 @@
       <c r="V908" s="43"/>
       <c r="W908" s="20"/>
     </row>
-    <row r="909" spans="1:23">
+    <row r="909" hidden="1" spans="1:23">
       <c r="A909" s="20">
         <v>41709</v>
       </c>
@@ -49295,7 +49208,7 @@
       </c>
       <c r="W909" s="20"/>
     </row>
-    <row r="910" spans="1:23">
+    <row r="910" hidden="1" spans="1:23">
       <c r="A910" s="20">
         <v>41981</v>
       </c>
@@ -49347,7 +49260,7 @@
       </c>
       <c r="W910" s="20"/>
     </row>
-    <row r="911" spans="1:23">
+    <row r="911" hidden="1" spans="1:23">
       <c r="A911" s="20">
         <v>41709</v>
       </c>
@@ -49395,7 +49308,7 @@
       <c r="V911" s="43"/>
       <c r="W911" s="20"/>
     </row>
-    <row r="912" spans="1:21">
+    <row r="912" hidden="1" spans="1:21">
       <c r="A912" s="20">
         <v>42705</v>
       </c>
@@ -49434,7 +49347,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="913" spans="1:23">
+    <row r="913" hidden="1" spans="1:23">
       <c r="A913" s="20">
         <v>41709</v>
       </c>
@@ -49482,7 +49395,7 @@
       <c r="V913" s="43"/>
       <c r="W913" s="20"/>
     </row>
-    <row r="914" spans="1:23">
+    <row r="914" hidden="1" spans="1:23">
       <c r="A914" s="20">
         <v>42240</v>
       </c>
@@ -49530,7 +49443,7 @@
       <c r="V914" s="43"/>
       <c r="W914" s="20"/>
     </row>
-    <row r="915" spans="1:23">
+    <row r="915" hidden="1" spans="1:23">
       <c r="A915" s="20">
         <v>42240</v>
       </c>
@@ -49584,7 +49497,7 @@
       </c>
       <c r="W915" s="20"/>
     </row>
-    <row r="916" spans="1:21">
+    <row r="916" hidden="1" spans="1:21">
       <c r="A916" s="20">
         <v>42705</v>
       </c>
@@ -49688,7 +49601,7 @@
       </c>
       <c r="W917" s="20"/>
     </row>
-    <row r="918" spans="1:23">
+    <row r="918" hidden="1" spans="1:23">
       <c r="A918" s="20">
         <v>41709</v>
       </c>
@@ -49740,7 +49653,7 @@
       <c r="V918" s="43"/>
       <c r="W918" s="20"/>
     </row>
-    <row r="919" spans="1:23">
+    <row r="919" hidden="1" spans="1:23">
       <c r="A919" s="20">
         <v>42096</v>
       </c>
@@ -49798,7 +49711,7 @@
       </c>
       <c r="W919" s="20"/>
     </row>
-    <row r="920" spans="1:23">
+    <row r="920" hidden="1" spans="1:23">
       <c r="A920" s="20">
         <v>41709</v>
       </c>
@@ -49850,7 +49763,7 @@
       <c r="V920" s="43"/>
       <c r="W920" s="20"/>
     </row>
-    <row r="921" spans="1:23">
+    <row r="921" hidden="1" spans="1:23">
       <c r="A921" s="20">
         <v>41842</v>
       </c>
@@ -49958,7 +49871,7 @@
       <c r="V922" s="43"/>
       <c r="W922" s="20"/>
     </row>
-    <row r="923" spans="1:23">
+    <row r="923" hidden="1" spans="1:23">
       <c r="A923" s="20">
         <v>42240</v>
       </c>
@@ -50050,7 +49963,7 @@
       <c r="V924" s="43"/>
       <c r="W924" s="20"/>
     </row>
-    <row r="925" spans="1:23">
+    <row r="925" hidden="1" spans="1:23">
       <c r="A925" s="20">
         <v>42487</v>
       </c>
@@ -50196,7 +50109,7 @@
       <c r="V927" s="43"/>
       <c r="W927" s="20"/>
     </row>
-    <row r="928" spans="1:23">
+    <row r="928" hidden="1" spans="1:23">
       <c r="A928" s="20">
         <v>41981</v>
       </c>
@@ -50295,7 +50208,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="930" spans="1:23">
+    <row r="930" hidden="1" spans="1:23">
       <c r="A930" s="20">
         <v>42487</v>
       </c>
@@ -50403,7 +50316,7 @@
       </c>
       <c r="W931" s="20"/>
     </row>
-    <row r="932" spans="1:23">
+    <row r="932" hidden="1" spans="1:23">
       <c r="A932" s="20">
         <v>41981</v>
       </c>
@@ -50515,7 +50428,7 @@
       </c>
       <c r="W933" s="20"/>
     </row>
-    <row r="934" spans="1:23">
+    <row r="934" hidden="1" spans="1:23">
       <c r="A934" s="20">
         <v>42320</v>
       </c>
@@ -50616,7 +50529,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="936" spans="1:23">
+    <row r="936" hidden="1" spans="1:23">
       <c r="A936" s="20">
         <v>41709</v>
       </c>
@@ -50720,7 +50633,7 @@
       <c r="V937" s="43"/>
       <c r="W937" s="20"/>
     </row>
-    <row r="938" spans="1:21">
+    <row r="938" hidden="1" spans="1:21">
       <c r="A938" s="20">
         <v>42705</v>
       </c>
@@ -50762,7 +50675,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="939" spans="1:23">
+    <row r="939" hidden="1" spans="1:23">
       <c r="A939" s="20">
         <v>42240</v>
       </c>
@@ -50810,7 +50723,7 @@
       <c r="V939" s="43"/>
       <c r="W939" s="20"/>
     </row>
-    <row r="940" spans="1:23">
+    <row r="940" hidden="1" spans="1:23">
       <c r="A940" s="20">
         <v>41981</v>
       </c>
@@ -50866,7 +50779,7 @@
       <c r="V940" s="43"/>
       <c r="W940" s="20"/>
     </row>
-    <row r="941" spans="1:23">
+    <row r="941" hidden="1" spans="1:23">
       <c r="A941" s="20">
         <v>42487</v>
       </c>
@@ -51172,7 +51085,6 @@
       <c r="Q947" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="R947" s="25"/>
       <c r="S947" s="19" t="s">
         <v>103</v>
       </c>
@@ -51253,7 +51165,6 @@
       <c r="Q949" s="33" t="s">
         <v>1327</v>
       </c>
-      <c r="R949" s="25"/>
       <c r="S949" s="31" t="s">
         <v>1327</v>
       </c>
@@ -51294,7 +51205,6 @@
       <c r="Q950" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="R950" s="25"/>
       <c r="S950" s="29" t="s">
         <v>22</v>
       </c>
@@ -51338,8 +51248,6 @@
       <c r="Q951" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="R951" s="25"/>
-      <c r="S951" s="25"/>
       <c r="T951" s="19" t="s">
         <v>81</v>
       </c>
@@ -51379,7 +51287,6 @@
       <c r="Q952" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="R952" s="25"/>
       <c r="S952" s="31" t="s">
         <v>25</v>
       </c>
@@ -52084,10 +51991,8 @@
       <c r="Q967" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="R967" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="S967" s="19" t="s">
+      <c r="R967" s="25"/>
+      <c r="S967" s="31" t="s">
         <v>81</v>
       </c>
       <c r="T967" s="19" t="s">
@@ -52431,7 +52336,7 @@
       </c>
       <c r="W974" s="20"/>
     </row>
-    <row r="975" spans="1:23">
+    <row r="975" hidden="1" spans="1:23">
       <c r="A975" s="20">
         <v>42240</v>
       </c>
@@ -52583,7 +52488,7 @@
       <c r="V977" s="43"/>
       <c r="W977" s="20"/>
     </row>
-    <row r="978" spans="1:23">
+    <row r="978" hidden="1" spans="1:23">
       <c r="A978" s="20">
         <v>42240</v>
       </c>
@@ -52689,7 +52594,7 @@
       <c r="V979" s="43"/>
       <c r="W979" s="20"/>
     </row>
-    <row r="980" spans="1:23">
+    <row r="980" hidden="1" spans="1:23">
       <c r="A980" s="20">
         <v>42487</v>
       </c>
@@ -52733,7 +52638,7 @@
       <c r="V980" s="43"/>
       <c r="W980" s="20"/>
     </row>
-    <row r="981" spans="1:23">
+    <row r="981" hidden="1" spans="1:23">
       <c r="A981" s="20">
         <v>41709</v>
       </c>
@@ -52781,7 +52686,7 @@
       <c r="V981" s="43"/>
       <c r="W981" s="20"/>
     </row>
-    <row r="982" spans="1:23">
+    <row r="982" hidden="1" spans="1:23">
       <c r="A982" s="20">
         <v>41709</v>
       </c>
@@ -52829,7 +52734,7 @@
       <c r="V982" s="43"/>
       <c r="W982" s="20"/>
     </row>
-    <row r="983" spans="1:23">
+    <row r="983" hidden="1" spans="1:23">
       <c r="A983" s="20">
         <v>42096</v>
       </c>
@@ -52933,7 +52838,7 @@
       <c r="V984" s="43"/>
       <c r="W984" s="20"/>
     </row>
-    <row r="985" spans="1:23">
+    <row r="985" hidden="1" spans="1:23">
       <c r="A985" s="20">
         <v>41709</v>
       </c>
@@ -52970,7 +52875,6 @@
         <v>85</v>
       </c>
       <c r="Q985" s="26"/>
-      <c r="R985" s="25"/>
       <c r="S985" s="31" t="s">
         <v>85</v>
       </c>
@@ -52979,7 +52883,7 @@
       <c r="V985" s="43"/>
       <c r="W985" s="20"/>
     </row>
-    <row r="986" spans="1:21">
+    <row r="986" hidden="1" spans="1:21">
       <c r="A986" s="20">
         <v>42705</v>
       </c>
@@ -53018,7 +52922,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="987" spans="1:23">
+    <row r="987" hidden="1" spans="1:23">
       <c r="A987" s="20">
         <v>42240</v>
       </c>
@@ -53121,7 +53025,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="989" spans="1:21">
+    <row r="989" hidden="1" spans="1:21">
       <c r="A989" s="20">
         <v>41709</v>
       </c>
@@ -53250,7 +53154,6 @@
       <c r="Q992" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R992" s="25"/>
       <c r="S992" s="19" t="s">
         <v>117</v>
       </c>
@@ -53602,7 +53505,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="1000" spans="1:21">
+    <row r="1000" hidden="1" spans="1:21">
       <c r="A1000" s="20">
         <v>42487</v>
       </c>
@@ -53638,7 +53541,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="1001" spans="1:22">
+    <row r="1001" hidden="1" spans="1:22">
       <c r="A1001" s="20">
         <v>42487</v>
       </c>
@@ -53680,7 +53583,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="1002" spans="1:23">
+    <row r="1002" hidden="1" spans="1:23">
       <c r="A1002" s="20">
         <v>41709</v>
       </c>
@@ -53726,7 +53629,7 @@
       </c>
       <c r="W1002" s="20"/>
     </row>
-    <row r="1003" spans="1:21">
+    <row r="1003" hidden="1" spans="1:21">
       <c r="A1003" s="20">
         <v>42487</v>
       </c>
@@ -53941,7 +53844,7 @@
       <c r="V1007" s="20"/>
       <c r="W1007" s="20"/>
     </row>
-    <row r="1008" spans="1:23">
+    <row r="1008" hidden="1" spans="1:23">
       <c r="A1008" s="20">
         <v>42320</v>
       </c>
@@ -53987,7 +53890,7 @@
       <c r="V1008" s="43"/>
       <c r="W1008" s="20"/>
     </row>
-    <row r="1009" spans="1:23">
+    <row r="1009" hidden="1" spans="1:23">
       <c r="A1009" s="20">
         <v>41981</v>
       </c>
@@ -54087,7 +53990,7 @@
       <c r="V1010" s="20"/>
       <c r="W1010" s="20"/>
     </row>
-    <row r="1011" spans="1:23">
+    <row r="1011" hidden="1" spans="1:23">
       <c r="A1011" s="20">
         <v>41709</v>
       </c>
@@ -54548,9 +54451,7 @@
       <c r="Q1020" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="R1020" s="19" t="s">
-        <v>81</v>
-      </c>
+      <c r="R1020" s="25"/>
       <c r="S1020" s="19" t="s">
         <v>81</v>
       </c>
@@ -54651,7 +54552,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="1023" spans="1:23">
+    <row r="1023" hidden="1" spans="1:23">
       <c r="A1023" s="20">
         <v>41709</v>
       </c>
@@ -54801,7 +54702,7 @@
       <c r="V1025" s="43"/>
       <c r="W1025" s="20"/>
     </row>
-    <row r="1026" spans="1:23">
+    <row r="1026" hidden="1" spans="1:23">
       <c r="A1026" s="20">
         <v>42240</v>
       </c>
@@ -54849,7 +54750,7 @@
       <c r="V1026" s="43"/>
       <c r="W1026" s="20"/>
     </row>
-    <row r="1027" spans="1:21">
+    <row r="1027" hidden="1" spans="1:21">
       <c r="A1027" s="20">
         <v>42096</v>
       </c>
@@ -54894,7 +54795,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="1028" spans="1:23">
+    <row r="1028" hidden="1" spans="1:23">
       <c r="A1028" s="20">
         <v>41709</v>
       </c>
@@ -54992,7 +54893,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1030" spans="1:23">
+    <row r="1030" hidden="1" spans="1:23">
       <c r="A1030" s="20">
         <v>42705</v>
       </c>
@@ -55042,7 +54943,7 @@
       <c r="V1030" s="20"/>
       <c r="W1030" s="20"/>
     </row>
-    <row r="1031" spans="1:23">
+    <row r="1031" hidden="1" spans="1:23">
       <c r="A1031" s="20">
         <v>41709</v>
       </c>
@@ -55092,7 +54993,7 @@
       </c>
       <c r="W1031" s="20"/>
     </row>
-    <row r="1032" spans="1:23">
+    <row r="1032" hidden="1" spans="1:23">
       <c r="A1032" s="20">
         <v>41981</v>
       </c>
@@ -55284,7 +55185,7 @@
       <c r="V1035" s="43"/>
       <c r="W1035" s="20"/>
     </row>
-    <row r="1036" spans="1:21">
+    <row r="1036" hidden="1" spans="1:21">
       <c r="A1036" s="20">
         <v>42487</v>
       </c>
@@ -55395,7 +55296,6 @@
       <c r="R1038" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="S1038" s="25"/>
       <c r="T1038" s="32" t="s">
         <v>25</v>
       </c>
@@ -55571,13 +55471,12 @@
       <c r="T1042" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="U1042" s="25"/>
       <c r="V1042" s="26" t="s">
         <v>423</v>
       </c>
       <c r="W1042" s="20"/>
     </row>
-    <row r="1043" spans="1:23">
+    <row r="1043" hidden="1" spans="1:23">
       <c r="A1043" s="20">
         <v>42240</v>
       </c>
@@ -55667,12 +55566,11 @@
       <c r="T1044" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="U1044" s="25"/>
       <c r="V1044" s="26" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="1045" spans="1:23">
+    <row r="1045" hidden="1" spans="1:23">
       <c r="A1045" s="20">
         <v>41709</v>
       </c>
@@ -55716,7 +55614,6 @@
         <v>44</v>
       </c>
       <c r="T1045" s="25"/>
-      <c r="U1045" s="25"/>
       <c r="V1045" s="26" t="s">
         <v>983</v>
       </c>
@@ -55763,7 +55660,6 @@
       <c r="Q1046" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="R1046" s="25"/>
       <c r="S1046" s="19" t="s">
         <v>117</v>
       </c>
@@ -55808,7 +55704,6 @@
       <c r="Q1047" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="R1047" s="25"/>
       <c r="S1047" s="32" t="s">
         <v>81</v>
       </c>
@@ -55863,7 +55758,6 @@
       <c r="Q1048" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="R1048" s="25"/>
       <c r="S1048" s="32" t="s">
         <v>81</v>
       </c>
@@ -55874,7 +55768,7 @@
       <c r="V1048" s="43"/>
       <c r="W1048" s="20"/>
     </row>
-    <row r="1049" spans="1:21">
+    <row r="1049" hidden="1" spans="1:21">
       <c r="A1049" s="20">
         <v>42487</v>
       </c>
@@ -55901,7 +55795,6 @@
       <c r="Q1049" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="R1049" s="25"/>
       <c r="S1049" s="18" t="s">
         <v>85</v>
       </c>
@@ -55937,7 +55830,6 @@
       <c r="Q1050" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="R1050" s="25"/>
       <c r="S1050" s="19" t="s">
         <v>225</v>
       </c>
@@ -55949,7 +55841,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="1051" spans="1:22">
+    <row r="1051" hidden="1" spans="1:22">
       <c r="A1051" s="20">
         <v>42487</v>
       </c>
@@ -55981,8 +55873,6 @@
       <c r="Q1051" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="R1051" s="25"/>
-      <c r="S1051" s="25"/>
       <c r="T1051" s="31" t="s">
         <v>81</v>
       </c>
@@ -55993,7 +55883,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="1052" spans="1:22">
+    <row r="1052" hidden="1" spans="1:22">
       <c r="A1052" s="20">
         <v>42593</v>
       </c>
@@ -56022,7 +55912,6 @@
       <c r="Q1052" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="R1052" s="25"/>
       <c r="S1052" s="31" t="s">
         <v>44</v>
       </c>
@@ -56036,7 +55925,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="1053" spans="1:22">
+    <row r="1053" hidden="1" spans="1:22">
       <c r="A1053" s="20">
         <v>41981</v>
       </c>
@@ -56075,7 +55964,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="1054" spans="1:23">
+    <row r="1054" hidden="1" spans="1:23">
       <c r="A1054" s="20">
         <v>41709</v>
       </c>
@@ -56129,7 +56018,7 @@
       </c>
       <c r="W1054" s="20"/>
     </row>
-    <row r="1055" spans="1:23">
+    <row r="1055" hidden="1" spans="1:23">
       <c r="A1055" s="20">
         <v>41709</v>
       </c>
@@ -56190,68 +56079,71 @@
         <customFilter operator="equal" val="中立"/>
       </customFilters>
     </filterColumn>
+    <filterColumn colId="18">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="J1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="C:C">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"牧师"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"战士"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"术士"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
       <formula>"圣骑士"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>"萨满祭司"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
       <formula>"潜行者"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
       <formula>"猎人"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="equal">
       <formula>"德鲁伊"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
       <formula>"法师"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="equal">
       <formula>"中立"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F:F">
-    <cfRule type="expression" dxfId="10" priority="26">
+    <cfRule type="expression" dxfId="11" priority="26">
       <formula>AND(ISEVEN(F1),F1&lt;7,NOT(ISBLANK(F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H:H">
-    <cfRule type="expression" dxfId="11" priority="260">
+    <cfRule type="expression" dxfId="12" priority="260">
       <formula>AND(NOT(ISBLANK(A1)),YEAR(MAX(A:A))-YEAR(A1)&gt;=2,B1&lt;&gt;"基本",B1&lt;&gt;"经典")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="263" stopIfTrue="1">
       <formula>G1="武器"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="264" stopIfTrue="1">
       <formula>G1="法术"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 C1 O1 O186 O187 O188 O189 O190 O191 O192 O193 O194 O195 O245 O246 O247 O248 O252 O259 O260 O261 O262 O263 O264 O265 O266 O267 O268 O269 O270 O271 O272 O273 O274 O275 O276 O277 O278 O279 O283 O284 O285 O288 O293 O297 O301 O376 O377 O378 O379 O380 O381 O382 O383 O384 O385 O386 O387 O388 O389 O390 O391 O547 O570 O571 O572 O573 O574 O723 O724 O725 O726 O727 O728 O729 O730 O731 O830 O831 O850 O851 O852 O853 O854 O855 O856 O857 O858 O859 O860 O861 O862 O863 O927 O953 O954 O955 O993 O1016 O1017 O1038 O1039 O1040 O1041 O1042 O1043 O1044 O1045 O1046 O1047 O1048 O1049 O1050 O1051 O1052 O1053 O1054 O1055 O2:O8 O9:O45 O46:O58 O59:O75 O76:O185 O196:O244 O249:O251 O253:O258 O280:O282 O286:O287 O289:O292 O294:O296 O298:O300 O302:O363 O929:O932 O933:O938 O939:O946 O947:O952 O956:O964 O965:O970 O971:O980 O981:O991"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B984 B985 B986 B987 B988 B989 B990 B991 B992 B993 B994 B995 B996 B997 B998 B999 B1000 B1001 B1002 B1003 B1004 B1005 B1006 B1007 B1008 B1009 B1010 B1011 B1012 B1013 B1014 B1015 B1016 B1017 B1018 B1019 B1020 B1021 B1022 B1023 B1024 B1025 B1026 B1027 B1028 B1029 B1030 B1031 B1032 B1033 B1034 B1035 B1036 B1037 B1038 B1039 B1040 B1041 B1042 B1043 B1044 B1045 B1046 B1047 B1048 B1049 B1050 B1051 B1052 B1053 B1054 B1055 B1:B924 B925:B970 B971:B973 B974:B983 B1056:B65536">
       <formula1>"基本,经典,奖励,纳克萨玛斯,地精大战侏儒,黑石山的火焰,冠军的试练,探险者协会,上古之神,卡拉赞,加基森"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 C1 O1 O186 O187 O188 O189 O190 O191 O192 O193 O194 O195 O245 O246 O247 O248 O252 O259 O260 O261 O262 O263 O264 O265 O266 O267 O268 O269 O270 O271 O272 O273 O274 O275 O276 O277 O278 O279 O283 O284 O285 O288 O293 O297 O301 O376 O377 O378 O379 O380 O381 O382 O383 O384 O385 O386 O387 O388 O389 O390 O391 O547 O570 O571 O572 O573 O574 O723 O724 O725 O726 O727 O728 O729 O730 O731 O830 O831 O850 O851 O852 O853 O854 O855 O856 O857 O858 O859 O860 O861 O862 O863 O927 O953 O954 O955 O993 O1016 O1017 O1038 O1039 O1040 O1041 O1042 O1043 O1044 O1045 O1046 O1047 O1048 O1049 O1050 O1051 O1052 O1053 O1054 O1055 O2:O8 O9:O45 O46:O58 O59:O75 O76:O185 O196:O244 O249:O251 O253:O258 O280:O282 O286:O287 O289:O292 O294:O296 O298:O300 O302:O363 O929:O932 O933:O938 O939:O946 O947:O952 O956:O964 O965:O970 O971:O980 O981:O991"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C830 C831 C832 C833 C834 C835 C836 C837 C838 C839 C840 C841 C842 C843 C844 C845 C846 C847 C848 C849 C850 C851 C852 C853 C854 C855 C856 C857 C858 C859 C860 C861 C862 C863 C864 C865 C866 C867 C868 C869 C870 C871 C872 C873 C874 C899 C900 C923 C924 C992 C1020 C1029 C2:C302 C303:C363 C364:C411 C412:C468 C469:C516 C517:C564 C565:C613 C614:C661 C662:C709 C710:C769 C770:C826 C827:C829 C875:C883 C884:C886 C887:C895 C896:C898 C901:C907 C908:C910 C911:C919 C920:C922 C925:C930 C931:C938 C939:C946 C947:C954 C955:C964 C965:C970 C971:C974 C975:C983 C984:C991 C993:C1001 C1002:C1010 C1011:C1019 C1021:C1028 C1030:C1037 C1038:C1046 C1047:C1055 C1056:C65536">
+      <formula1>"德鲁伊,猎人,法师,圣骑士,牧师,潜行者,萨满祭司,术士,战士,中立"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I149 I926 I1:I147 I150:I925 I927:I65536">
       <formula1>"野兽,机械,龙,鱼人,恶魔,海盗"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C830 C831 C832 C833 C834 C835 C836 C837 C838 C839 C840 C841 C842 C843 C844 C845 C846 C847 C848 C849 C850 C851 C852 C853 C854 C855 C856 C857 C858 C859 C860 C861 C862 C863 C864 C865 C866 C867 C868 C869 C870 C871 C872 C873 C874 C899 C900 C923 C924 C992 C1020 C1029 C2:C302 C303:C363 C364:C411 C412:C468 C469:C516 C517:C564 C565:C613 C614:C661 C662:C709 C710:C769 C770:C826 C827:C829 C875:C883 C884:C886 C887:C895 C896:C898 C901:C907 C908:C910 C911:C919 C920:C922 C925:C930 C931:C938 C939:C946 C947:C954 C955:C964 C965:C970 C971:C974 C975:C983 C984:C991 C993:C1001 C1002:C1010 C1011:C1019 C1021:C1028 C1030:C1037 C1038:C1046 C1047:C1055 C1056:C65536">
-      <formula1>"德鲁伊,猎人,法师,圣骑士,牧师,潜行者,萨满祭司,术士,战士,中立"</formula1>
     </dataValidation>
     <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A156 A751 A878 A984 A985 A986 A987 A988 A989 A990 A991 A992 A993 A994 A995 A996 A997 A998 A999 A1000 A1001 A1002 A1003 A1004 A1005 A1006 A1007 A1008 A1009 A1010 A1011 A1012 A1013 A1014 A1015 A1016 A1017 A1018 A1019 A1020 A1021 A1022 A1023 A1024 A1025 A1026 A1027 A1028 A1029 A1030 A1031 A1032 A1033 A1034 A1035 A1036 A1037 A1038 A1039 A1040 A1041 A1042 A1043 A1044 A1045 A1046 A1047 A1048 A1049 A1050 A1051 A1052 A1053 A1054 A1055 A2:A33 A34:A116 A117:A155 A157:A235 A236:A257 A258:A280 A281:A292 A293:A308 A309:A311 A312:A319 A320:A322 A323:A353 A354:A357 A358:A402 A403:A406 A407:A413 A414:A420 A421:A625 A626:A721 A722:A750 A752:A868 A869:A877 A879:A911 A912:A923 A924:A971 A972:A974 A975:A983 A1056:A65536">
       <formula1>41709</formula1>
